--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -60,6 +60,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,8 +86,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -385,11 +386,12 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -406,68 +408,68 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>45887</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>45887</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>45887</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>45887</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>45887</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>45887</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>15</v>
       </c>
     </row>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Data</t>
   </si>
@@ -30,9 +30,6 @@
     <t>FUCILE FRANCESCO</t>
   </si>
   <si>
-    <t>GANCI CORRADO</t>
-  </si>
-  <si>
     <t>GUASTELLA STEFANO</t>
   </si>
   <si>
@@ -43,6 +40,18 @@
   </si>
   <si>
     <t>VESPERTINO SIMONE</t>
+  </si>
+  <si>
+    <t>GIONFRIDDO ANDREA</t>
+  </si>
+  <si>
+    <t>MANCARELLA SALVATORE</t>
+  </si>
+  <si>
+    <t>AVOLA IVAN</t>
+  </si>
+  <si>
+    <t>GOLINO KEVIN</t>
   </si>
 </sst>
 </file>
@@ -383,16 +392,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -423,7 +432,7 @@
         <v>45887</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>8</v>
@@ -434,7 +443,7 @@
         <v>45887</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -445,7 +454,7 @@
         <v>45887</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -456,7 +465,7 @@
         <v>45887</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>11</v>
@@ -467,9 +476,42 @@
         <v>45887</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>45887</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>45887</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>45887</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
         <v>15</v>
       </c>
     </row>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Data</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>GOLINO KEVIN</t>
+  </si>
+  <si>
+    <t>GANCI CORRADO</t>
+  </si>
+  <si>
+    <t>CAMPISI CHRISTIAN</t>
   </si>
 </sst>
 </file>
@@ -392,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -513,6 +519,94 @@
       </c>
       <c r="C10" s="1">
         <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>45888</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>45888</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>45888</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>45888</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>45888</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>45888</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>45888</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>45888</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -8,15 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
-    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
+    <sheet name="Foglio3" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$D$28</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>Data</t>
   </si>
@@ -58,6 +60,12 @@
   </si>
   <si>
     <t>CAMPISI CHRISTIAN</t>
+  </si>
+  <si>
+    <t>RUSSO GIOVANNI</t>
+  </si>
+  <si>
+    <t>TT lavorati (esclusi codici G-M-P-S)</t>
   </si>
 </sst>
 </file>
@@ -78,12 +86,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,10 +119,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -398,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -409,9 +435,11 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" ht="30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,195 +449,390 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3">
         <v>45887</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
+      <c r="D2" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
         <v>45887</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
         <v>45887</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
         <v>45887</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
         <v>45887</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
         <v>45887</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
         <v>45887</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
+      <c r="D8" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
         <v>45887</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
         <v>45887</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>45888</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4">
+        <v>45888</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>45888</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D11" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4">
+        <v>45888</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>45888</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4">
+        <v>45888</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>45888</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4">
+        <v>45888</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>45888</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4">
+        <v>45888</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>45888</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D15" s="6">
         <v>7</v>
       </c>
-      <c r="C16">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4">
+        <v>45888</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
-        <v>45888</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D16" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <v>45888</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
+        <v>4</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <v>45888</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="6">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
+        <v>45888</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="6">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
+        <v>45888</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
-        <v>45888</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="6">
+        <v>13</v>
+      </c>
+      <c r="D21" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="6">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6">
+        <v>12</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="6">
+        <v>7</v>
+      </c>
+      <c r="D26" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C18">
-        <v>6</v>
+      <c r="C28" s="6">
+        <v>7</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -624,16 +847,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -427,7 +427,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -427,7 +427,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -825,7 +825,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D28" s="6">
         <v>2</v>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -427,7 +427,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -825,7 +825,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D28" s="6">
         <v>2</v>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
   <si>
     <t>Data</t>
   </si>
@@ -72,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,8 +85,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,12 +109,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -114,21 +128,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -424,10 +473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:K357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -435,405 +485,2520 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="9" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="30">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:10">
+      <c r="A2" s="13">
         <v>45887</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>6</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3">
+    <row r="3" spans="1:10">
+      <c r="A3" s="13">
         <v>45887</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>8</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:10">
+      <c r="A4" s="13">
         <v>45887</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>5</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3">
+    <row r="5" spans="1:10">
+      <c r="A5" s="13">
         <v>45887</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3">
+    <row r="6" spans="1:10">
+      <c r="A6" s="13">
         <v>45887</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>11</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:10">
+      <c r="A7" s="13">
         <v>45887</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>15</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3">
+    <row r="8" spans="1:10">
+      <c r="A8" s="13">
         <v>45887</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>5</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3">
+    <row r="9" spans="1:10">
+      <c r="A9" s="13">
         <v>45887</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:10">
+      <c r="A10" s="13">
         <v>45887</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>15</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4">
+    <row r="11" spans="1:10">
+      <c r="A11" s="13">
         <v>45888</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>12</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4">
+    <row r="12" spans="1:10">
+      <c r="A12" s="13">
         <v>45888</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>9</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4">
+      <c r="I12" s="1"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="13">
         <v>45888</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4">
+      <c r="I13" s="1"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="13">
         <v>45888</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4">
+      <c r="I14" s="1"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="13">
         <v>45888</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="7">
         <v>9</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4">
+      <c r="I15" s="1"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="13">
         <v>45888</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="7">
         <v>6</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4">
+      <c r="I16" s="1"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="13">
         <v>45888</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="7">
         <v>4</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4">
+      <c r="I17" s="1"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="13">
         <v>45888</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="7">
         <v>6</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4">
+    <row r="19" spans="1:10">
+      <c r="A19" s="13">
         <v>45888</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="7">
         <v>9</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4">
+    <row r="20" spans="1:10">
+      <c r="A20" s="13">
         <v>45888</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
+    <row r="21" spans="1:10">
+      <c r="A21" s="13">
         <v>45889</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="7">
         <v>13</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
+    <row r="22" spans="1:10">
+      <c r="A22" s="13">
         <v>45889</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="7">
         <v>10</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
+    <row r="23" spans="1:10">
+      <c r="A23" s="13">
         <v>45889</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="7">
         <v>7</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
+    <row r="24" spans="1:10">
+      <c r="A24" s="13">
         <v>45889</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="7">
         <v>1</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
+    <row r="25" spans="1:10">
+      <c r="A25" s="13">
         <v>45889</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="7">
         <v>12</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
+    <row r="26" spans="1:10">
+      <c r="A26" s="13">
         <v>45889</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="7">
         <v>7</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
+    <row r="27" spans="1:10">
+      <c r="A27" s="13">
         <v>45889</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="7">
         <v>1</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
+    <row r="28" spans="1:10">
+      <c r="A28" s="13">
         <v>45889</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="7">
         <v>7</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="7">
         <v>2</v>
       </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="8">
+        <v>45890</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="10">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="8">
+        <v>45890</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="10">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="8">
+        <v>45890</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="10">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="8">
+        <v>45890</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="10">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="8">
+        <v>45890</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="8">
+        <v>45890</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="10">
+        <v>12</v>
+      </c>
+      <c r="D34" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="8">
+        <v>45890</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="10">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="8">
+        <v>45890</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="10">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="8">
+        <v>45891</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="10">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="8">
+        <v>45891</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="10">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="8">
+        <v>45891</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="10">
+        <v>7</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="8">
+        <v>45891</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="10">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="8">
+        <v>45891</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="10">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="8">
+        <v>45891</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="10">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="8">
+        <v>45891</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="10">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="8">
+        <v>45891</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="10">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="3"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="3"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="3"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="3"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="3"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="3"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="3"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="3"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="3"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="3"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="3"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="3"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="3"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="3"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="3"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="3"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="3"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3"/>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="3"/>
+      <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3"/>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="3"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="3"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3"/>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="3"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="3"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="3"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3"/>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="3"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3"/>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="3"/>
+      <c r="B231" s="3"/>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3"/>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="3"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
+      <c r="D232" s="3"/>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="3"/>
+      <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3"/>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="3"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="3"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="3"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="3"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="3"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3"/>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="3"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="3"/>
+      <c r="D239" s="3"/>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="3"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3"/>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="3"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3"/>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="3"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
+      <c r="D242" s="3"/>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="3"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3"/>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="3"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3"/>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="3"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3"/>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="3"/>
+      <c r="B246" s="3"/>
+      <c r="C246" s="3"/>
+      <c r="D246" s="3"/>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="3"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3"/>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="3"/>
+      <c r="B248" s="3"/>
+      <c r="C248" s="3"/>
+      <c r="D248" s="3"/>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="3"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3"/>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="3"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="3"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3"/>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="3"/>
+      <c r="B252" s="3"/>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3"/>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="3"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3"/>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="3"/>
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3"/>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="3"/>
+      <c r="B255" s="3"/>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3"/>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="3"/>
+      <c r="B256" s="3"/>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3"/>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="3"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3"/>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="3"/>
+      <c r="B258" s="3"/>
+      <c r="C258" s="3"/>
+      <c r="D258" s="3"/>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="3"/>
+      <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3"/>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="3"/>
+      <c r="B260" s="3"/>
+      <c r="C260" s="3"/>
+      <c r="D260" s="3"/>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="3"/>
+      <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
+      <c r="D261" s="3"/>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="3"/>
+      <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="3"/>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="3"/>
+      <c r="B263" s="3"/>
+      <c r="C263" s="3"/>
+      <c r="D263" s="3"/>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="3"/>
+      <c r="B264" s="3"/>
+      <c r="C264" s="3"/>
+      <c r="D264" s="3"/>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="3"/>
+      <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
+      <c r="D265" s="3"/>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="3"/>
+      <c r="B266" s="3"/>
+      <c r="C266" s="3"/>
+      <c r="D266" s="3"/>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="3"/>
+      <c r="B267" s="3"/>
+      <c r="C267" s="3"/>
+      <c r="D267" s="3"/>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="3"/>
+      <c r="B268" s="3"/>
+      <c r="C268" s="3"/>
+      <c r="D268" s="3"/>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="3"/>
+      <c r="B269" s="3"/>
+      <c r="C269" s="3"/>
+      <c r="D269" s="3"/>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="3"/>
+      <c r="B270" s="3"/>
+      <c r="C270" s="3"/>
+      <c r="D270" s="3"/>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="3"/>
+      <c r="B271" s="3"/>
+      <c r="C271" s="3"/>
+      <c r="D271" s="3"/>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="3"/>
+      <c r="B272" s="3"/>
+      <c r="C272" s="3"/>
+      <c r="D272" s="3"/>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="3"/>
+      <c r="B273" s="3"/>
+      <c r="C273" s="3"/>
+      <c r="D273" s="3"/>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="3"/>
+      <c r="B274" s="3"/>
+      <c r="C274" s="3"/>
+      <c r="D274" s="3"/>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="3"/>
+      <c r="B275" s="3"/>
+      <c r="C275" s="3"/>
+      <c r="D275" s="3"/>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="3"/>
+      <c r="B276" s="3"/>
+      <c r="C276" s="3"/>
+      <c r="D276" s="3"/>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="3"/>
+      <c r="B277" s="3"/>
+      <c r="C277" s="3"/>
+      <c r="D277" s="3"/>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="3"/>
+      <c r="B278" s="3"/>
+      <c r="C278" s="3"/>
+      <c r="D278" s="3"/>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="3"/>
+      <c r="B279" s="3"/>
+      <c r="C279" s="3"/>
+      <c r="D279" s="3"/>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="3"/>
+      <c r="B280" s="3"/>
+      <c r="C280" s="3"/>
+      <c r="D280" s="3"/>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="3"/>
+      <c r="B281" s="3"/>
+      <c r="C281" s="3"/>
+      <c r="D281" s="3"/>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="3"/>
+      <c r="B282" s="3"/>
+      <c r="C282" s="3"/>
+      <c r="D282" s="3"/>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="3"/>
+      <c r="B283" s="3"/>
+      <c r="C283" s="3"/>
+      <c r="D283" s="3"/>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="3"/>
+      <c r="B284" s="3"/>
+      <c r="C284" s="3"/>
+      <c r="D284" s="3"/>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="3"/>
+      <c r="B285" s="3"/>
+      <c r="C285" s="3"/>
+      <c r="D285" s="3"/>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="3"/>
+      <c r="B286" s="3"/>
+      <c r="C286" s="3"/>
+      <c r="D286" s="3"/>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="3"/>
+      <c r="B287" s="3"/>
+      <c r="C287" s="3"/>
+      <c r="D287" s="3"/>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="3"/>
+      <c r="B288" s="3"/>
+      <c r="C288" s="3"/>
+      <c r="D288" s="3"/>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="3"/>
+      <c r="B289" s="3"/>
+      <c r="C289" s="3"/>
+      <c r="D289" s="3"/>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="3"/>
+      <c r="B290" s="3"/>
+      <c r="C290" s="3"/>
+      <c r="D290" s="3"/>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="3"/>
+      <c r="B291" s="3"/>
+      <c r="C291" s="3"/>
+      <c r="D291" s="3"/>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="3"/>
+      <c r="B292" s="3"/>
+      <c r="C292" s="3"/>
+      <c r="D292" s="3"/>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="3"/>
+      <c r="B293" s="3"/>
+      <c r="C293" s="3"/>
+      <c r="D293" s="3"/>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="3"/>
+      <c r="B294" s="3"/>
+      <c r="C294" s="3"/>
+      <c r="D294" s="3"/>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="3"/>
+      <c r="B295" s="3"/>
+      <c r="C295" s="3"/>
+      <c r="D295" s="3"/>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="3"/>
+      <c r="B296" s="3"/>
+      <c r="C296" s="3"/>
+      <c r="D296" s="3"/>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="3"/>
+      <c r="B297" s="3"/>
+      <c r="C297" s="3"/>
+      <c r="D297" s="3"/>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="3"/>
+      <c r="B298" s="3"/>
+      <c r="C298" s="3"/>
+      <c r="D298" s="3"/>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="3"/>
+      <c r="B299" s="3"/>
+      <c r="C299" s="3"/>
+      <c r="D299" s="3"/>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="3"/>
+      <c r="B300" s="3"/>
+      <c r="C300" s="3"/>
+      <c r="D300" s="3"/>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="3"/>
+      <c r="B301" s="3"/>
+      <c r="C301" s="3"/>
+      <c r="D301" s="3"/>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="3"/>
+      <c r="B302" s="3"/>
+      <c r="C302" s="3"/>
+      <c r="D302" s="3"/>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="3"/>
+      <c r="B303" s="3"/>
+      <c r="C303" s="3"/>
+      <c r="D303" s="3"/>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="3"/>
+      <c r="B304" s="3"/>
+      <c r="C304" s="3"/>
+      <c r="D304" s="3"/>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="3"/>
+      <c r="B305" s="3"/>
+      <c r="C305" s="3"/>
+      <c r="D305" s="3"/>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="3"/>
+      <c r="B306" s="3"/>
+      <c r="C306" s="3"/>
+      <c r="D306" s="3"/>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="3"/>
+      <c r="B307" s="3"/>
+      <c r="C307" s="3"/>
+      <c r="D307" s="3"/>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="3"/>
+      <c r="B308" s="3"/>
+      <c r="C308" s="3"/>
+      <c r="D308" s="3"/>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="3"/>
+      <c r="B309" s="3"/>
+      <c r="C309" s="3"/>
+      <c r="D309" s="3"/>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="3"/>
+      <c r="B310" s="3"/>
+      <c r="C310" s="3"/>
+      <c r="D310" s="3"/>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="3"/>
+      <c r="B311" s="3"/>
+      <c r="C311" s="3"/>
+      <c r="D311" s="3"/>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="3"/>
+      <c r="B312" s="3"/>
+      <c r="C312" s="3"/>
+      <c r="D312" s="3"/>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="3"/>
+      <c r="B313" s="3"/>
+      <c r="C313" s="3"/>
+      <c r="D313" s="3"/>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="3"/>
+      <c r="B314" s="3"/>
+      <c r="C314" s="3"/>
+      <c r="D314" s="3"/>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="3"/>
+      <c r="B315" s="3"/>
+      <c r="C315" s="3"/>
+      <c r="D315" s="3"/>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="3"/>
+      <c r="B316" s="3"/>
+      <c r="C316" s="3"/>
+      <c r="D316" s="3"/>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="3"/>
+      <c r="B317" s="3"/>
+      <c r="C317" s="3"/>
+      <c r="D317" s="3"/>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="3"/>
+      <c r="B318" s="3"/>
+      <c r="C318" s="3"/>
+      <c r="D318" s="3"/>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="3"/>
+      <c r="B319" s="3"/>
+      <c r="C319" s="3"/>
+      <c r="D319" s="3"/>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="3"/>
+      <c r="B320" s="3"/>
+      <c r="C320" s="3"/>
+      <c r="D320" s="3"/>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="3"/>
+      <c r="B321" s="3"/>
+      <c r="C321" s="3"/>
+      <c r="D321" s="3"/>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="3"/>
+      <c r="B322" s="3"/>
+      <c r="C322" s="3"/>
+      <c r="D322" s="3"/>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="3"/>
+      <c r="B323" s="3"/>
+      <c r="C323" s="3"/>
+      <c r="D323" s="3"/>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="3"/>
+      <c r="B324" s="3"/>
+      <c r="C324" s="3"/>
+      <c r="D324" s="3"/>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="3"/>
+      <c r="B325" s="3"/>
+      <c r="C325" s="3"/>
+      <c r="D325" s="3"/>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="3"/>
+      <c r="B326" s="3"/>
+      <c r="C326" s="3"/>
+      <c r="D326" s="3"/>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="3"/>
+      <c r="B327" s="3"/>
+      <c r="C327" s="3"/>
+      <c r="D327" s="3"/>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="3"/>
+      <c r="B328" s="3"/>
+      <c r="C328" s="3"/>
+      <c r="D328" s="3"/>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="3"/>
+      <c r="B329" s="3"/>
+      <c r="C329" s="3"/>
+      <c r="D329" s="3"/>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="3"/>
+      <c r="B330" s="3"/>
+      <c r="C330" s="3"/>
+      <c r="D330" s="3"/>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="3"/>
+      <c r="B331" s="3"/>
+      <c r="C331" s="3"/>
+      <c r="D331" s="3"/>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="3"/>
+      <c r="B332" s="3"/>
+      <c r="C332" s="3"/>
+      <c r="D332" s="3"/>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="3"/>
+      <c r="B333" s="3"/>
+      <c r="C333" s="3"/>
+      <c r="D333" s="3"/>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="3"/>
+      <c r="B334" s="3"/>
+      <c r="C334" s="3"/>
+      <c r="D334" s="3"/>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="3"/>
+      <c r="B335" s="3"/>
+      <c r="C335" s="3"/>
+      <c r="D335" s="3"/>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="3"/>
+      <c r="B336" s="3"/>
+      <c r="C336" s="3"/>
+      <c r="D336" s="3"/>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="3"/>
+      <c r="B337" s="3"/>
+      <c r="C337" s="3"/>
+      <c r="D337" s="3"/>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="3"/>
+      <c r="B338" s="3"/>
+      <c r="C338" s="3"/>
+      <c r="D338" s="3"/>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="3"/>
+      <c r="B339" s="3"/>
+      <c r="C339" s="3"/>
+      <c r="D339" s="3"/>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="3"/>
+      <c r="B340" s="3"/>
+      <c r="C340" s="3"/>
+      <c r="D340" s="3"/>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="3"/>
+      <c r="B341" s="3"/>
+      <c r="C341" s="3"/>
+      <c r="D341" s="3"/>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="3"/>
+      <c r="B342" s="3"/>
+      <c r="C342" s="3"/>
+      <c r="D342" s="3"/>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="3"/>
+      <c r="B343" s="3"/>
+      <c r="C343" s="3"/>
+      <c r="D343" s="3"/>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="3"/>
+      <c r="B344" s="3"/>
+      <c r="C344" s="3"/>
+      <c r="D344" s="3"/>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="3"/>
+      <c r="B345" s="3"/>
+      <c r="C345" s="3"/>
+      <c r="D345" s="3"/>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="3"/>
+      <c r="B346" s="3"/>
+      <c r="C346" s="3"/>
+      <c r="D346" s="3"/>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="3"/>
+      <c r="B347" s="3"/>
+      <c r="C347" s="3"/>
+      <c r="D347" s="3"/>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="3"/>
+      <c r="B348" s="3"/>
+      <c r="C348" s="3"/>
+      <c r="D348" s="3"/>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="3"/>
+      <c r="B349" s="3"/>
+      <c r="C349" s="3"/>
+      <c r="D349" s="3"/>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="3"/>
+      <c r="B350" s="3"/>
+      <c r="C350" s="3"/>
+      <c r="D350" s="3"/>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="3"/>
+      <c r="B351" s="3"/>
+      <c r="C351" s="3"/>
+      <c r="D351" s="3"/>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="3"/>
+      <c r="B352" s="3"/>
+      <c r="C352" s="3"/>
+      <c r="D352" s="3"/>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="3"/>
+      <c r="B353" s="3"/>
+      <c r="C353" s="3"/>
+      <c r="D353" s="3"/>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="3"/>
+      <c r="B354" s="3"/>
+      <c r="C354" s="3"/>
+      <c r="D354" s="3"/>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="3"/>
+      <c r="B355" s="3"/>
+      <c r="C355" s="3"/>
+      <c r="D355" s="3"/>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="3"/>
+      <c r="B356" s="3"/>
+      <c r="C356" s="3"/>
+      <c r="D356" s="3"/>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="3"/>
+      <c r="B357" s="3"/>
+      <c r="C357" s="3"/>
+      <c r="D357" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="18">
   <si>
     <t>Data</t>
   </si>
@@ -67,6 +67,12 @@
   <si>
     <t>TT lavorati</t>
   </si>
+  <si>
+    <t xml:space="preserve">CANNARELLA GIUSEPPE </t>
+  </si>
+  <si>
+    <t>TUSA MAURIZIO</t>
+  </si>
 </sst>
 </file>
 
@@ -94,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +155,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -178,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -215,6 +227,18 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -510,11 +534,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I357"/>
+  <dimension ref="A1:J361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -978,7 +1002,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:10">
       <c r="A33" s="7">
         <v>45890</v>
       </c>
@@ -992,7 +1016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:10">
       <c r="A34" s="7">
         <v>45890</v>
       </c>
@@ -1006,7 +1030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:10">
       <c r="A35" s="7">
         <v>45890</v>
       </c>
@@ -1020,7 +1044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:10">
       <c r="A36" s="7">
         <v>45890</v>
       </c>
@@ -1034,7 +1058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:10">
       <c r="A37" s="7">
         <v>45891</v>
       </c>
@@ -1048,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:10">
       <c r="A38" s="7">
         <v>45891</v>
       </c>
@@ -1062,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:10">
       <c r="A39" s="7">
         <v>45891</v>
       </c>
@@ -1076,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:10">
       <c r="A40" s="7">
         <v>45891</v>
       </c>
@@ -1090,7 +1114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:10">
       <c r="A41" s="7">
         <v>45891</v>
       </c>
@@ -1104,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:10">
       <c r="A42" s="7">
         <v>45891</v>
       </c>
@@ -1118,7 +1142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:10">
       <c r="A43" s="7">
         <v>45891</v>
       </c>
@@ -1132,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:10">
       <c r="A44" s="7">
         <v>45891</v>
       </c>
@@ -1146,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:10">
       <c r="A45" s="7">
         <v>45891</v>
       </c>
@@ -1159,8 +1183,10 @@
       <c r="D45" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="I45" s="1"/>
+      <c r="J45" s="22"/>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="7">
         <v>45892</v>
       </c>
@@ -1170,9 +1196,13 @@
       <c r="C46" s="2">
         <v>13</v>
       </c>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="D46" s="2">
+        <v>7</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="22"/>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="7">
         <v>45892</v>
       </c>
@@ -1182,105 +1212,189 @@
       <c r="C47" s="2">
         <v>10</v>
       </c>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="D47" s="2">
+        <v>8</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="22"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="7">
+        <v>45892</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="22"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="7">
+        <v>45892</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="22"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="7">
+        <v>45894</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="9">
+        <v>5</v>
+      </c>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+    <row r="51" spans="1:10">
+      <c r="A51" s="7">
+        <v>45894</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="9">
+        <v>5</v>
+      </c>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+    <row r="52" spans="1:10">
+      <c r="A52" s="7">
+        <v>45894</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="9">
+        <v>4</v>
+      </c>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+    <row r="53" spans="1:10">
+      <c r="A53" s="7">
+        <v>45894</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="9">
+        <v>9</v>
+      </c>
       <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="22"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="7">
+        <v>45894</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="24">
+        <v>9</v>
+      </c>
       <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="22"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="7">
+        <v>45894</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="9">
+        <v>2</v>
+      </c>
       <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="22"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="7">
+        <v>45894</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="9">
+        <v>6</v>
+      </c>
       <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="22"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="7">
+        <v>45894</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="9">
+        <v>6</v>
+      </c>
       <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="I57" s="1"/>
+      <c r="J57" s="22"/>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="I58" s="1"/>
+      <c r="J58" s="22"/>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:10">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:10">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:10">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:10">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:10">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3043,6 +3157,30 @@
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="2"/>
+      <c r="B358" s="2"/>
+      <c r="C358" s="2"/>
+      <c r="D358" s="2"/>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="2"/>
+      <c r="B359" s="2"/>
+      <c r="C359" s="2"/>
+      <c r="D359" s="2"/>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="2"/>
+      <c r="B360" s="2"/>
+      <c r="C360" s="2"/>
+      <c r="D360" s="2"/>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="2"/>
+      <c r="B361" s="2"/>
+      <c r="C361" s="2"/>
+      <c r="D361" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D44"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="18">
   <si>
     <t>Data</t>
   </si>
@@ -534,11 +534,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J361"/>
+  <dimension ref="A1:I361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -547,7 +547,8 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1002,7 +1003,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:9">
       <c r="A33" s="7">
         <v>45890</v>
       </c>
@@ -1016,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:9">
       <c r="A34" s="7">
         <v>45890</v>
       </c>
@@ -1030,7 +1031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:9">
       <c r="A35" s="7">
         <v>45890</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:9">
       <c r="A36" s="7">
         <v>45890</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:9">
       <c r="A37" s="7">
         <v>45891</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:9">
       <c r="A38" s="7">
         <v>45891</v>
       </c>
@@ -1086,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:9">
       <c r="A39" s="7">
         <v>45891</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:9">
       <c r="A40" s="7">
         <v>45891</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:9">
       <c r="A41" s="7">
         <v>45891</v>
       </c>
@@ -1128,7 +1129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:9">
       <c r="A42" s="7">
         <v>45891</v>
       </c>
@@ -1142,7 +1143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:9">
       <c r="A43" s="7">
         <v>45891</v>
       </c>
@@ -1156,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:9">
       <c r="A44" s="7">
         <v>45891</v>
       </c>
@@ -1170,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:9">
       <c r="A45" s="7">
         <v>45891</v>
       </c>
@@ -1183,10 +1184,8 @@
       <c r="D45" s="2">
         <v>4</v>
       </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="22"/>
-    </row>
-    <row r="46" spans="1:10">
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="7">
         <v>45892</v>
       </c>
@@ -1199,10 +1198,10 @@
       <c r="D46" s="2">
         <v>7</v>
       </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="22"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="H46" s="1"/>
+      <c r="I46" s="22"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="7">
         <v>45892</v>
       </c>
@@ -1215,10 +1214,10 @@
       <c r="D47" s="2">
         <v>8</v>
       </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="22"/>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="H47" s="1"/>
+      <c r="I47" s="22"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="7">
         <v>45892</v>
       </c>
@@ -1231,10 +1230,10 @@
       <c r="D48" s="2">
         <v>2</v>
       </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="22"/>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="H48" s="1"/>
+      <c r="I48" s="22"/>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="7">
         <v>45892</v>
       </c>
@@ -1247,10 +1246,10 @@
       <c r="D49" s="2">
         <v>2</v>
       </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="22"/>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="H49" s="1"/>
+      <c r="I49" s="22"/>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="7">
         <v>45894</v>
       </c>
@@ -1260,9 +1259,13 @@
       <c r="C50" s="9">
         <v>5</v>
       </c>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="22"/>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="7">
         <v>45894</v>
       </c>
@@ -1272,9 +1275,13 @@
       <c r="C51" s="9">
         <v>5</v>
       </c>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="22"/>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="7">
         <v>45894</v>
       </c>
@@ -1284,9 +1291,13 @@
       <c r="C52" s="9">
         <v>4</v>
       </c>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="D52" s="2">
+        <v>3</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="22"/>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="7">
         <v>45894</v>
       </c>
@@ -1296,11 +1307,13 @@
       <c r="C53" s="9">
         <v>9</v>
       </c>
-      <c r="D53" s="2"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="22"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="D53" s="2">
+        <v>5</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="22"/>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="7">
         <v>45894</v>
       </c>
@@ -1310,11 +1323,11 @@
       <c r="C54" s="24">
         <v>9</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="22"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="D54" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="7">
         <v>45894</v>
       </c>
@@ -1324,11 +1337,11 @@
       <c r="C55" s="9">
         <v>2</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="22"/>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="7">
         <v>45894</v>
       </c>
@@ -1338,11 +1351,11 @@
       <c r="C56" s="9">
         <v>6</v>
       </c>
-      <c r="D56" s="2"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="22"/>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="7">
         <v>45894</v>
       </c>
@@ -1352,145 +1365,209 @@
       <c r="C57" s="9">
         <v>6</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="22"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="22"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="7">
+        <v>45894</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="7">
+        <v>45895</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="2">
+        <v>8</v>
+      </c>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+    <row r="60" spans="1:9">
+      <c r="A60" s="7">
+        <v>45895</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="2">
+        <v>8</v>
+      </c>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+    <row r="61" spans="1:9">
+      <c r="A61" s="7">
+        <v>45895</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3</v>
+      </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+    <row r="62" spans="1:9">
+      <c r="A62" s="7">
+        <v>45895</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2">
+        <v>5</v>
+      </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+    <row r="63" spans="1:9">
+      <c r="A63" s="7">
+        <v>45895</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2</v>
+      </c>
       <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="22"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="7">
+        <v>45895</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="2">
+        <v>3</v>
+      </c>
       <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="22"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="7">
+        <v>45895</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="2">
+        <v>3</v>
+      </c>
       <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="H65" s="1"/>
+      <c r="I65" s="22"/>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="H66" s="1"/>
+      <c r="I66" s="22"/>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="H67" s="1"/>
+      <c r="I67" s="22"/>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="H68" s="1"/>
+      <c r="I68" s="22"/>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="H69" s="1"/>
+      <c r="I69" s="22"/>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="H70" s="1"/>
+      <c r="I70" s="22"/>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:9">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:9">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:9">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:9">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:9">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:9">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:9">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:9">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:9">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="18">
   <si>
     <t>Data</t>
   </si>
@@ -100,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +161,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -190,7 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -239,6 +245,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -538,7 +547,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1393,7 +1402,9 @@
       <c r="C59" s="2">
         <v>8</v>
       </c>
-      <c r="D59" s="2"/>
+      <c r="D59" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="7">
@@ -1405,7 +1416,9 @@
       <c r="C60" s="2">
         <v>8</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="D60" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="7">
@@ -1417,7 +1430,9 @@
       <c r="C61" s="2">
         <v>3</v>
       </c>
-      <c r="D61" s="2"/>
+      <c r="D61" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="7">
@@ -1429,7 +1444,9 @@
       <c r="C62" s="2">
         <v>5</v>
       </c>
-      <c r="D62" s="2"/>
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="7">
@@ -1441,7 +1458,9 @@
       <c r="C63" s="2">
         <v>2</v>
       </c>
-      <c r="D63" s="2"/>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
       <c r="H63" s="1"/>
       <c r="I63" s="22"/>
     </row>
@@ -1455,7 +1474,9 @@
       <c r="C64" s="2">
         <v>3</v>
       </c>
-      <c r="D64" s="2"/>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
       <c r="H64" s="1"/>
       <c r="I64" s="22"/>
     </row>
@@ -1469,54 +1490,90 @@
       <c r="C65" s="2">
         <v>3</v>
       </c>
-      <c r="D65" s="2"/>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
       <c r="H65" s="1"/>
       <c r="I65" s="22"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="A66" s="7">
+        <v>45896</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="9">
+        <v>5</v>
+      </c>
       <c r="D66" s="2"/>
       <c r="H66" s="1"/>
       <c r="I66" s="22"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="A67" s="7">
+        <v>45896</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="9">
+        <v>5</v>
+      </c>
       <c r="D67" s="2"/>
       <c r="H67" s="1"/>
       <c r="I67" s="22"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="A68" s="7">
+        <v>45896</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="9">
+        <v>7</v>
+      </c>
       <c r="D68" s="2"/>
       <c r="H68" s="1"/>
       <c r="I68" s="22"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="A69" s="7">
+        <v>45896</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="9">
+        <v>11</v>
+      </c>
       <c r="D69" s="2"/>
       <c r="H69" s="1"/>
       <c r="I69" s="22"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="A70" s="7">
+        <v>45896</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="9">
+        <v>4</v>
+      </c>
       <c r="D70" s="2"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="22"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="A71" s="7">
+        <v>45896</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="9">
+        <v>4</v>
+      </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:9">

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="18">
   <si>
     <t>Data</t>
   </si>
@@ -100,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +167,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -196,7 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -248,6 +254,8 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -543,11 +551,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I361"/>
+  <dimension ref="A1:I363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -557,7 +565,7 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1377,6 +1385,8 @@
       <c r="D57" s="2">
         <v>1</v>
       </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="22"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="7">
@@ -1391,6 +1401,8 @@
       <c r="D58" s="2">
         <v>1</v>
       </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="22"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="7">
@@ -1405,6 +1417,8 @@
       <c r="D59" s="2">
         <v>3</v>
       </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="22"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="7">
@@ -1419,6 +1433,8 @@
       <c r="D60" s="2">
         <v>3</v>
       </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="22"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="7">
@@ -1433,6 +1449,8 @@
       <c r="D61" s="2">
         <v>4</v>
       </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="22"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="7">
@@ -1461,8 +1479,6 @@
       <c r="D63" s="2">
         <v>1</v>
       </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="22"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="7">
@@ -1477,8 +1493,6 @@
       <c r="D64" s="2">
         <v>1</v>
       </c>
-      <c r="H64" s="1"/>
-      <c r="I64" s="22"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="7">
@@ -1493,8 +1507,6 @@
       <c r="D65" s="2">
         <v>1</v>
       </c>
-      <c r="H65" s="1"/>
-      <c r="I65" s="22"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="7">
@@ -1506,9 +1518,9 @@
       <c r="C66" s="9">
         <v>5</v>
       </c>
-      <c r="D66" s="2"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="22"/>
+      <c r="D66" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="7">
@@ -1520,9 +1532,9 @@
       <c r="C67" s="9">
         <v>5</v>
       </c>
-      <c r="D67" s="2"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="22"/>
+      <c r="D67" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="7">
@@ -1534,9 +1546,9 @@
       <c r="C68" s="9">
         <v>7</v>
       </c>
-      <c r="D68" s="2"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="22"/>
+      <c r="D68" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="7">
@@ -1548,9 +1560,9 @@
       <c r="C69" s="9">
         <v>11</v>
       </c>
-      <c r="D69" s="2"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="22"/>
+      <c r="D69" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="7">
@@ -1562,7 +1574,9 @@
       <c r="C70" s="9">
         <v>4</v>
       </c>
-      <c r="D70" s="2"/>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="7">
@@ -1574,54 +1588,104 @@
       <c r="C71" s="9">
         <v>4</v>
       </c>
-      <c r="D71" s="2"/>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
+      <c r="A72" s="7">
+        <v>45897</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="2">
+        <v>2</v>
+      </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
+      <c r="A73" s="7">
+        <v>45897</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2</v>
+      </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
+      <c r="A74" s="7">
+        <v>45897</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2</v>
+      </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+      <c r="A75" s="7">
+        <v>45897</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="2">
+        <v>6</v>
+      </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
+      <c r="A76" s="7">
+        <v>45897</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="2">
+        <v>6</v>
+      </c>
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+      <c r="A77" s="7">
+        <v>45897</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="2">
+        <v>4</v>
+      </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
+      <c r="A78" s="7">
+        <v>45897</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="2">
+        <v>4</v>
+      </c>
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
+      <c r="A79" s="7">
+        <v>45897</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="2">
+        <v>4</v>
+      </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:9">
@@ -1629,98 +1693,110 @@
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="H80" s="1"/>
+      <c r="I80" s="22"/>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="H81" s="1"/>
+      <c r="I81" s="22"/>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="H82" s="1"/>
+      <c r="I82" s="22"/>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="H83" s="1"/>
+      <c r="I83" s="22"/>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="H84" s="1"/>
+      <c r="I84" s="22"/>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="H85" s="1"/>
+      <c r="I85" s="22"/>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:9">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:9">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:9">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:9">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:9">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:9">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:9">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:9">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:9">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:9">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3315,6 +3391,18 @@
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="2"/>
+      <c r="B362" s="2"/>
+      <c r="C362" s="2"/>
+      <c r="D362" s="2"/>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="2"/>
+      <c r="B363" s="2"/>
+      <c r="C363" s="2"/>
+      <c r="D363" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D44"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="18">
   <si>
     <t>Data</t>
   </si>
@@ -100,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +173,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -202,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -256,6 +268,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -551,11 +569,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I363"/>
+  <dimension ref="A1:J362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -565,7 +583,8 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1494,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:8">
       <c r="A65" s="7">
         <v>45895</v>
       </c>
@@ -1508,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:8">
       <c r="A66" s="7">
         <v>45896</v>
       </c>
@@ -1522,7 +1541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:8">
       <c r="A67" s="7">
         <v>45896</v>
       </c>
@@ -1536,7 +1555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:8">
       <c r="A68" s="7">
         <v>45896</v>
       </c>
@@ -1550,7 +1569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:8">
       <c r="A69" s="7">
         <v>45896</v>
       </c>
@@ -1564,7 +1583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:8">
       <c r="A70" s="7">
         <v>45896</v>
       </c>
@@ -1578,7 +1597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:8">
       <c r="A71" s="7">
         <v>45896</v>
       </c>
@@ -1592,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:8">
       <c r="A72" s="7">
         <v>45897</v>
       </c>
@@ -1602,9 +1621,11 @@
       <c r="C72" s="2">
         <v>2</v>
       </c>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="D72" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="7">
         <v>45897</v>
       </c>
@@ -1614,9 +1635,11 @@
       <c r="C73" s="2">
         <v>2</v>
       </c>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="D73" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="7">
         <v>45897</v>
       </c>
@@ -1626,9 +1649,11 @@
       <c r="C74" s="2">
         <v>2</v>
       </c>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="D74" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="7">
         <v>45897</v>
       </c>
@@ -1638,9 +1663,11 @@
       <c r="C75" s="2">
         <v>6</v>
       </c>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="D75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="7">
         <v>45897</v>
       </c>
@@ -1650,9 +1677,11 @@
       <c r="C76" s="2">
         <v>6</v>
       </c>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="D76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="7">
         <v>45897</v>
       </c>
@@ -1662,9 +1691,11 @@
       <c r="C77" s="2">
         <v>4</v>
       </c>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="D77" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="7">
         <v>45897</v>
       </c>
@@ -1674,9 +1705,11 @@
       <c r="C78" s="2">
         <v>4</v>
       </c>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="D78" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="7">
         <v>45897</v>
       </c>
@@ -1686,117 +1719,189 @@
       <c r="C79" s="2">
         <v>4</v>
       </c>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="D79" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7">
+        <v>45898</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="9">
+        <v>3</v>
+      </c>
       <c r="D80" s="2"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="22"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="7">
+        <v>45898</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="9">
+        <v>3</v>
+      </c>
       <c r="D81" s="2"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="22"/>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="22"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="7">
+        <v>45898</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="9">
+        <v>4</v>
+      </c>
       <c r="D82" s="2"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="22"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="22"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="7">
+        <v>45898</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="9">
+        <v>3</v>
+      </c>
       <c r="D83" s="2"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="22"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="22"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="7">
+        <v>45898</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="9">
+        <v>3</v>
+      </c>
       <c r="D84" s="2"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="22"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="7">
+        <v>45898</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="9">
+        <v>2</v>
+      </c>
       <c r="D85" s="2"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="22"/>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="22"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="7">
+        <v>45898</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="9">
+        <v>2</v>
+      </c>
       <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="7">
+        <v>45898</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="9">
+        <v>3</v>
+      </c>
       <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="22"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="7">
+        <v>45898</v>
+      </c>
+      <c r="B88" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="9">
+        <v>2</v>
+      </c>
       <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="22"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="7">
+        <v>45898</v>
+      </c>
+      <c r="B89" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="9">
+        <v>2</v>
+      </c>
       <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:10">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:10">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:10">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:10">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3397,12 +3502,6 @@
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
-    </row>
-    <row r="363" spans="1:4">
-      <c r="A363" s="2"/>
-      <c r="B363" s="2"/>
-      <c r="C363" s="2"/>
-      <c r="D363" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D44"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="21015" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="21012" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$D$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$D$106</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="19">
   <si>
     <t>Data</t>
   </si>
@@ -73,6 +73,9 @@
   <si>
     <t>TUSA MAURIZIO</t>
   </si>
+  <si>
+    <t>ROCCELLA ALBERTO</t>
+  </si>
 </sst>
 </file>
 
@@ -100,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +188,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -214,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -272,6 +281,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -569,22 +584,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J362"/>
+  <dimension ref="A1:U368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" customWidth="1"/>
-    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" customWidth="1"/>
+    <col min="9" max="9" width="32.88671875" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" customWidth="1"/>
+    <col min="12" max="19" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.33203125" customWidth="1"/>
+    <col min="21" max="21" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1733,10 +1752,12 @@
       <c r="C80" s="9">
         <v>3</v>
       </c>
-      <c r="D80" s="2"/>
+      <c r="D80" s="2">
+        <v>0</v>
+      </c>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:21">
       <c r="A81" s="7">
         <v>45898</v>
       </c>
@@ -1746,12 +1767,14 @@
       <c r="C81" s="9">
         <v>3</v>
       </c>
-      <c r="D81" s="2"/>
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="22"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:21">
       <c r="A82" s="7">
         <v>45898</v>
       </c>
@@ -1761,12 +1784,14 @@
       <c r="C82" s="9">
         <v>4</v>
       </c>
-      <c r="D82" s="2"/>
+      <c r="D82" s="2">
+        <v>2</v>
+      </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="22"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:21">
       <c r="A83" s="7">
         <v>45898</v>
       </c>
@@ -1776,11 +1801,13 @@
       <c r="C83" s="9">
         <v>3</v>
       </c>
-      <c r="D83" s="2"/>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
       <c r="I83" s="1"/>
       <c r="J83" s="22"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:21">
       <c r="A84" s="7">
         <v>45898</v>
       </c>
@@ -1790,9 +1817,11 @@
       <c r="C84" s="9">
         <v>3</v>
       </c>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="D84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85" s="7">
         <v>45898</v>
       </c>
@@ -1802,12 +1831,14 @@
       <c r="C85" s="9">
         <v>2</v>
       </c>
-      <c r="D85" s="2"/>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="22"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:21">
       <c r="A86" s="7">
         <v>45898</v>
       </c>
@@ -1817,10 +1848,12 @@
       <c r="C86" s="9">
         <v>2</v>
       </c>
-      <c r="D86" s="2"/>
+      <c r="D86" s="2">
+        <v>1</v>
+      </c>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:21">
       <c r="A87" s="7">
         <v>45898</v>
       </c>
@@ -1830,12 +1863,13 @@
       <c r="C87" s="9">
         <v>3</v>
       </c>
-      <c r="D87" s="2"/>
+      <c r="D87" s="2">
+        <v>1</v>
+      </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="22"/>
-    </row>
-    <row r="88" spans="1:10">
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88" s="7">
         <v>45898</v>
       </c>
@@ -1845,12 +1879,25 @@
       <c r="C88" s="9">
         <v>2</v>
       </c>
-      <c r="D88" s="2"/>
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="22"/>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="J88" s="1"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="22"/>
+      <c r="Q88" s="22"/>
+      <c r="R88" s="22"/>
+      <c r="S88" s="22"/>
+      <c r="T88" s="22"/>
+      <c r="U88" s="22"/>
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89" s="7">
         <v>45898</v>
       </c>
@@ -1860,144 +1907,368 @@
       <c r="C89" s="9">
         <v>2</v>
       </c>
-      <c r="D89" s="2"/>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
       <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="22"/>
+      <c r="P89" s="22"/>
+      <c r="Q89" s="22"/>
+      <c r="R89" s="22"/>
+      <c r="S89" s="22"/>
+      <c r="T89" s="22"/>
+      <c r="U89" s="22"/>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="A90" s="7">
+        <v>45899</v>
+      </c>
+      <c r="B90" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="9">
+        <v>5</v>
+      </c>
+      <c r="D90" s="2">
+        <v>3</v>
+      </c>
       <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="22"/>
+      <c r="P90" s="22"/>
+      <c r="Q90" s="22"/>
+      <c r="R90" s="22"/>
+      <c r="S90" s="22"/>
+      <c r="T90" s="22"/>
+      <c r="U90" s="22"/>
+    </row>
+    <row r="91" spans="1:21">
+      <c r="A91" s="7">
+        <v>45899</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="9">
+        <v>5</v>
+      </c>
+      <c r="D91" s="2">
+        <v>3</v>
+      </c>
       <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="22"/>
+      <c r="Q91" s="22"/>
+      <c r="R91" s="22"/>
+      <c r="S91" s="22"/>
+      <c r="T91" s="22"/>
+      <c r="U91" s="22"/>
+    </row>
+    <row r="92" spans="1:21">
+      <c r="A92" s="7">
+        <v>45899</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="9">
+        <v>5</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="22"/>
+      <c r="O92" s="22"/>
+      <c r="P92" s="22"/>
+      <c r="Q92" s="22"/>
+      <c r="R92" s="22"/>
+      <c r="S92" s="22"/>
+      <c r="T92" s="22"/>
+      <c r="U92" s="22"/>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="A93" s="7">
+        <v>45899</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="9">
+        <v>5</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="22"/>
+      <c r="O93" s="22"/>
+      <c r="P93" s="22"/>
+      <c r="Q93" s="22"/>
+      <c r="R93" s="22"/>
+      <c r="S93" s="22"/>
+      <c r="T93" s="22"/>
+      <c r="U93" s="22"/>
+    </row>
+    <row r="94" spans="1:21">
+      <c r="A94" s="7">
+        <v>45899</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="9">
+        <v>7</v>
+      </c>
+      <c r="D94" s="2">
+        <v>2</v>
+      </c>
+      <c r="J94" s="1"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="22"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="22"/>
+      <c r="O94" s="22"/>
+      <c r="P94" s="22"/>
+      <c r="Q94" s="22"/>
+      <c r="R94" s="22"/>
+      <c r="S94" s="22"/>
+      <c r="T94" s="22"/>
+      <c r="U94" s="22"/>
+    </row>
+    <row r="95" spans="1:21">
+      <c r="A95" s="7">
+        <v>45899</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="9">
+        <v>7</v>
+      </c>
+      <c r="D95" s="2">
+        <v>2</v>
+      </c>
+      <c r="J95" s="1"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="22"/>
+      <c r="O95" s="22"/>
+      <c r="P95" s="22"/>
+      <c r="Q95" s="22"/>
+      <c r="R95" s="22"/>
+      <c r="S95" s="22"/>
+      <c r="T95" s="22"/>
+      <c r="U95" s="22"/>
+    </row>
+    <row r="96" spans="1:21">
+      <c r="A96" s="7">
+        <v>45901</v>
+      </c>
+      <c r="B96" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="9">
+        <v>4</v>
+      </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
+    <row r="97" spans="1:9">
+      <c r="A97" s="7">
+        <v>45901</v>
+      </c>
+      <c r="B97" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="9">
+        <v>4</v>
+      </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
+    <row r="98" spans="1:9">
+      <c r="A98" s="7">
+        <v>45901</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="9">
+        <v>4</v>
+      </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+    <row r="99" spans="1:9">
+      <c r="A99" s="7">
+        <v>45901</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="9">
+        <v>3</v>
+      </c>
       <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="22"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="7">
+        <v>45901</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="9">
+        <v>3</v>
+      </c>
       <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="22"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="7">
+        <v>45901</v>
+      </c>
+      <c r="B101" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="9">
+        <v>4</v>
+      </c>
       <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="22"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="7">
+        <v>45901</v>
+      </c>
+      <c r="B102" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="9">
+        <v>4</v>
+      </c>
       <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="22"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="7">
+        <v>45901</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="9">
+        <v>3</v>
+      </c>
       <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="22"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="7">
+        <v>45901</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="9">
+        <v>2</v>
+      </c>
       <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="22"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="7">
+        <v>45901</v>
+      </c>
+      <c r="B105" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="9">
+        <v>6</v>
+      </c>
       <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="22"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="7">
+        <v>45901</v>
+      </c>
+      <c r="B106" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="9">
+        <v>6</v>
+      </c>
       <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="H106" s="1"/>
+      <c r="I106" s="22"/>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="H107" s="1"/>
+      <c r="I107" s="22"/>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="H108" s="1"/>
+      <c r="I108" s="22"/>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="H109" s="1"/>
+      <c r="I109" s="22"/>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:9">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:9">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3503,8 +3774,44 @@
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
     </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="2"/>
+      <c r="B363" s="2"/>
+      <c r="C363" s="2"/>
+      <c r="D363" s="2"/>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="2"/>
+      <c r="B364" s="2"/>
+      <c r="C364" s="2"/>
+      <c r="D364" s="2"/>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="2"/>
+      <c r="B365" s="2"/>
+      <c r="C365" s="2"/>
+      <c r="D365" s="2"/>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="2"/>
+      <c r="B366" s="2"/>
+      <c r="C366" s="2"/>
+      <c r="D366" s="2"/>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="2"/>
+      <c r="B367" s="2"/>
+      <c r="C367" s="2"/>
+      <c r="D367" s="2"/>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2"/>
+      <c r="B368" s="2"/>
+      <c r="C368" s="2"/>
+      <c r="D368" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D44"/>
+  <autoFilter ref="A1:D106"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3516,7 +3823,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="21012" windowHeight="7956"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="21015" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="19">
   <si>
     <t>Data</t>
   </si>
@@ -587,23 +587,23 @@
   <dimension ref="A1:U368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" customWidth="1"/>
-    <col min="9" max="9" width="32.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" customWidth="1"/>
-    <col min="12" max="19" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.33203125" customWidth="1"/>
-    <col min="21" max="21" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2071,7 +2071,6 @@
       <c r="D95" s="2">
         <v>2</v>
       </c>
-      <c r="J95" s="1"/>
       <c r="K95" s="22"/>
       <c r="L95" s="22"/>
       <c r="M95" s="22"/>
@@ -2094,7 +2093,11 @@
       <c r="C96" s="9">
         <v>4</v>
       </c>
-      <c r="D96" s="2"/>
+      <c r="D96" s="2">
+        <v>4</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="22"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="7">
@@ -2106,7 +2109,11 @@
       <c r="C97" s="9">
         <v>4</v>
       </c>
-      <c r="D97" s="2"/>
+      <c r="D97" s="2">
+        <v>4</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="22"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="7">
@@ -2118,7 +2125,11 @@
       <c r="C98" s="9">
         <v>4</v>
       </c>
-      <c r="D98" s="2"/>
+      <c r="D98" s="2">
+        <v>2</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="22"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="7">
@@ -2130,7 +2141,9 @@
       <c r="C99" s="9">
         <v>3</v>
       </c>
-      <c r="D99" s="2"/>
+      <c r="D99" s="2">
+        <v>0</v>
+      </c>
       <c r="H99" s="1"/>
       <c r="I99" s="22"/>
     </row>
@@ -2144,7 +2157,9 @@
       <c r="C100" s="9">
         <v>3</v>
       </c>
-      <c r="D100" s="2"/>
+      <c r="D100" s="2">
+        <v>0</v>
+      </c>
       <c r="H100" s="1"/>
       <c r="I100" s="22"/>
     </row>
@@ -2158,7 +2173,9 @@
       <c r="C101" s="9">
         <v>4</v>
       </c>
-      <c r="D101" s="2"/>
+      <c r="D101" s="2">
+        <v>3</v>
+      </c>
       <c r="H101" s="1"/>
       <c r="I101" s="22"/>
     </row>
@@ -2172,7 +2189,9 @@
       <c r="C102" s="9">
         <v>4</v>
       </c>
-      <c r="D102" s="2"/>
+      <c r="D102" s="2">
+        <v>3</v>
+      </c>
       <c r="H102" s="1"/>
       <c r="I102" s="22"/>
     </row>
@@ -2186,7 +2205,9 @@
       <c r="C103" s="9">
         <v>3</v>
       </c>
-      <c r="D103" s="2"/>
+      <c r="D103" s="2">
+        <v>2</v>
+      </c>
       <c r="H103" s="1"/>
       <c r="I103" s="22"/>
     </row>
@@ -2200,9 +2221,9 @@
       <c r="C104" s="9">
         <v>2</v>
       </c>
-      <c r="D104" s="2"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="22"/>
+      <c r="D104" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="7">
@@ -2214,9 +2235,9 @@
       <c r="C105" s="9">
         <v>6</v>
       </c>
-      <c r="D105" s="2"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="22"/>
+      <c r="D105" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="7">
@@ -2228,143 +2249,183 @@
       <c r="C106" s="9">
         <v>6</v>
       </c>
-      <c r="D106" s="2"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="22"/>
+      <c r="D106" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
+      <c r="A107" s="7">
+        <v>45902</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="9">
+        <v>6</v>
+      </c>
       <c r="D107" s="2"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="22"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
+      <c r="A108" s="7">
+        <v>45902</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="9">
+        <v>7</v>
+      </c>
       <c r="D108" s="2"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="22"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
+      <c r="A109" s="7">
+        <v>45902</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="9">
+        <v>3</v>
+      </c>
       <c r="D109" s="2"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="22"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
+      <c r="A110" s="7">
+        <v>45902</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="9">
+        <v>3</v>
+      </c>
       <c r="D110" s="2"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
+      <c r="A111" s="7">
+        <v>45902</v>
+      </c>
+      <c r="B111" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="9">
+        <v>6</v>
+      </c>
       <c r="D111" s="2"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
+      <c r="A112" s="7">
+        <v>45902</v>
+      </c>
+      <c r="B112" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="9">
+        <v>6</v>
+      </c>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:9">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="H113" s="1"/>
+      <c r="I113" s="22"/>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="H114" s="1"/>
+      <c r="I114" s="22"/>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="H115" s="1"/>
+      <c r="I115" s="22"/>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="H116" s="1"/>
+      <c r="I116" s="22"/>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="H117" s="1"/>
+      <c r="I117" s="22"/>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:9">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:9">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:9">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:9">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:9">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:9">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:9">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:9">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:9">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:9">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3823,7 +3884,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="19">
   <si>
     <t>Data</t>
   </si>
@@ -584,11 +584,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U368"/>
+  <dimension ref="A1:U370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H102" sqref="H102"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -597,8 +597,8 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="20.140625" customWidth="1"/>
     <col min="12" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -2263,7 +2263,9 @@
       <c r="C107" s="9">
         <v>6</v>
       </c>
-      <c r="D107" s="2"/>
+      <c r="D107" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="7">
@@ -2275,7 +2277,11 @@
       <c r="C108" s="9">
         <v>7</v>
       </c>
-      <c r="D108" s="2"/>
+      <c r="D108" s="2">
+        <v>8</v>
+      </c>
+      <c r="G108" s="1"/>
+      <c r="H108" s="22"/>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="7">
@@ -2287,7 +2293,11 @@
       <c r="C109" s="9">
         <v>3</v>
       </c>
-      <c r="D109" s="2"/>
+      <c r="D109" s="2">
+        <v>4</v>
+      </c>
+      <c r="G109" s="1"/>
+      <c r="H109" s="22"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="7">
@@ -2299,7 +2309,11 @@
       <c r="C110" s="9">
         <v>3</v>
       </c>
-      <c r="D110" s="2"/>
+      <c r="D110" s="2">
+        <v>2</v>
+      </c>
+      <c r="G110" s="1"/>
+      <c r="H110" s="22"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="7">
@@ -2311,7 +2325,11 @@
       <c r="C111" s="9">
         <v>6</v>
       </c>
-      <c r="D111" s="2"/>
+      <c r="D111" s="2">
+        <v>7</v>
+      </c>
+      <c r="G111" s="1"/>
+      <c r="H111" s="22"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="7">
@@ -2323,70 +2341,122 @@
       <c r="C112" s="9">
         <v>6</v>
       </c>
-      <c r="D112" s="2"/>
+      <c r="D112" s="2">
+        <v>7</v>
+      </c>
+      <c r="G112" s="1"/>
+      <c r="H112" s="22"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
+      <c r="A113" s="7">
+        <v>45903</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="9">
+        <v>1</v>
+      </c>
       <c r="D113" s="2"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="22"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="22"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
+      <c r="A114" s="7">
+        <v>45903</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="9">
+        <v>1</v>
+      </c>
       <c r="D114" s="2"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="22"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="22"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
+      <c r="A115" s="7">
+        <v>45903</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="9">
+        <v>1</v>
+      </c>
       <c r="D115" s="2"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="22"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
+      <c r="A116" s="7">
+        <v>45903</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="9">
+        <v>1</v>
+      </c>
       <c r="D116" s="2"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="22"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
+      <c r="A117" s="7">
+        <v>45903</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" s="9">
+        <v>4</v>
+      </c>
       <c r="D117" s="2"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="22"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
+      <c r="A118" s="7">
+        <v>45903</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="9">
+        <v>4</v>
+      </c>
       <c r="D118" s="2"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
+      <c r="A119" s="7">
+        <v>45903</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="9">
+        <v>1</v>
+      </c>
       <c r="D119" s="2"/>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
+      <c r="A120" s="7">
+        <v>45903</v>
+      </c>
+      <c r="B120" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="9">
+        <v>3</v>
+      </c>
       <c r="D120" s="2"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
+      <c r="A121" s="7">
+        <v>45903</v>
+      </c>
+      <c r="B121" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="9">
+        <v>3</v>
+      </c>
       <c r="D121" s="2"/>
     </row>
     <row r="122" spans="1:9">
@@ -2412,18 +2482,24 @@
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="22"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="22"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="22"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="2"/>
@@ -3870,6 +3946,18 @@
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2"/>
+      <c r="B369" s="2"/>
+      <c r="C369" s="2"/>
+      <c r="D369" s="2"/>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2"/>
+      <c r="B370" s="2"/>
+      <c r="C370" s="2"/>
+      <c r="D370" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="19">
   <si>
     <t>Data</t>
   </si>
@@ -103,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +194,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -223,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -287,6 +293,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -584,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U370"/>
+  <dimension ref="A1:U372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2347,7 +2359,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="22"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:8">
       <c r="A113" s="7">
         <v>45903</v>
       </c>
@@ -2357,11 +2369,13 @@
       <c r="C113" s="9">
         <v>1</v>
       </c>
-      <c r="D113" s="2"/>
+      <c r="D113" s="2">
+        <v>2</v>
+      </c>
       <c r="G113" s="1"/>
       <c r="H113" s="22"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:8">
       <c r="A114" s="7">
         <v>45903</v>
       </c>
@@ -2371,11 +2385,13 @@
       <c r="C114" s="9">
         <v>1</v>
       </c>
-      <c r="D114" s="2"/>
+      <c r="D114" s="2">
+        <v>0</v>
+      </c>
       <c r="G114" s="1"/>
       <c r="H114" s="22"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:8">
       <c r="A115" s="7">
         <v>45903</v>
       </c>
@@ -2385,9 +2401,11 @@
       <c r="C115" s="9">
         <v>1</v>
       </c>
-      <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="D115" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="7">
         <v>45903</v>
       </c>
@@ -2397,9 +2415,13 @@
       <c r="C116" s="9">
         <v>1</v>
       </c>
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="D116" s="2">
+        <v>2</v>
+      </c>
+      <c r="G116" s="1"/>
+      <c r="H116" s="22"/>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="7">
         <v>45903</v>
       </c>
@@ -2409,9 +2431,13 @@
       <c r="C117" s="9">
         <v>4</v>
       </c>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="D117" s="2">
+        <v>3</v>
+      </c>
+      <c r="G117" s="1"/>
+      <c r="H117" s="22"/>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="7">
         <v>45903</v>
       </c>
@@ -2421,9 +2447,13 @@
       <c r="C118" s="9">
         <v>4</v>
       </c>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="D118" s="2">
+        <v>3</v>
+      </c>
+      <c r="G118" s="1"/>
+      <c r="H118" s="22"/>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="7">
         <v>45903</v>
       </c>
@@ -2433,9 +2463,13 @@
       <c r="C119" s="9">
         <v>1</v>
       </c>
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="D119" s="2">
+        <v>4</v>
+      </c>
+      <c r="G119" s="1"/>
+      <c r="H119" s="22"/>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="7">
         <v>45903</v>
       </c>
@@ -2445,9 +2479,13 @@
       <c r="C120" s="9">
         <v>3</v>
       </c>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="D120" s="2">
+        <v>2</v>
+      </c>
+      <c r="G120" s="1"/>
+      <c r="H120" s="22"/>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="7">
         <v>45903</v>
       </c>
@@ -2457,147 +2495,199 @@
       <c r="C121" s="9">
         <v>3</v>
       </c>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
+      <c r="D121" s="2">
+        <v>2</v>
+      </c>
+      <c r="G121" s="1"/>
+      <c r="H121" s="22"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="7">
+        <v>45904</v>
+      </c>
+      <c r="B122" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="9">
+        <v>1</v>
+      </c>
       <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="22"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="7">
+        <v>45904</v>
+      </c>
+      <c r="B123" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="9">
+        <v>1</v>
+      </c>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
+    <row r="124" spans="1:8">
+      <c r="A124" s="7">
+        <v>45904</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="9">
+        <v>5</v>
+      </c>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
+    <row r="125" spans="1:8">
+      <c r="A125" s="7">
+        <v>45904</v>
+      </c>
+      <c r="B125" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="9">
+        <v>1</v>
+      </c>
       <c r="D125" s="2"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="22"/>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="7">
+        <v>45904</v>
+      </c>
+      <c r="B126" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" s="9">
+        <v>1</v>
+      </c>
       <c r="D126" s="2"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="22"/>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="7">
+        <v>45904</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="9">
+        <v>2</v>
+      </c>
       <c r="D127" s="2"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="22"/>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="7">
+        <v>45904</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="9">
+        <v>4</v>
+      </c>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
+    <row r="129" spans="1:9">
+      <c r="A129" s="7">
+        <v>45904</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="9">
+        <v>4</v>
+      </c>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:9">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:9">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:9">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:9">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="H133" s="1"/>
+      <c r="I133" s="22"/>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="H134" s="1"/>
+      <c r="I134" s="22"/>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:9">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:9">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:9">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:9">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:9">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:9">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:9">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:9">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:9">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3958,6 +4048,18 @@
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2"/>
+      <c r="B371" s="2"/>
+      <c r="C371" s="2"/>
+      <c r="D371" s="2"/>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2"/>
+      <c r="B372" s="2"/>
+      <c r="C372" s="2"/>
+      <c r="D372" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="19">
   <si>
     <t>Data</t>
   </si>
@@ -229,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -299,6 +299,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -596,11 +599,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U372"/>
+  <dimension ref="A1:U374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -610,7 +613,8 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="20.140625" customWidth="1"/>
     <col min="12" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -2511,7 +2515,9 @@
       <c r="C122" s="9">
         <v>1</v>
       </c>
-      <c r="D122" s="2"/>
+      <c r="D122" s="2">
+        <v>0</v>
+      </c>
       <c r="G122" s="1"/>
       <c r="H122" s="22"/>
     </row>
@@ -2525,7 +2531,9 @@
       <c r="C123" s="9">
         <v>1</v>
       </c>
-      <c r="D123" s="2"/>
+      <c r="D123" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="7">
@@ -2537,7 +2545,9 @@
       <c r="C124" s="9">
         <v>5</v>
       </c>
-      <c r="D124" s="2"/>
+      <c r="D124" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="7">
@@ -2549,7 +2559,9 @@
       <c r="C125" s="9">
         <v>1</v>
       </c>
-      <c r="D125" s="2"/>
+      <c r="D125" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="7">
@@ -2561,7 +2573,9 @@
       <c r="C126" s="9">
         <v>1</v>
       </c>
-      <c r="D126" s="2"/>
+      <c r="D126" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="7">
@@ -2573,7 +2587,9 @@
       <c r="C127" s="9">
         <v>2</v>
       </c>
-      <c r="D127" s="2"/>
+      <c r="D127" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="7">
@@ -2585,7 +2601,9 @@
       <c r="C128" s="9">
         <v>4</v>
       </c>
-      <c r="D128" s="2"/>
+      <c r="D128" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="7">
@@ -2597,95 +2615,159 @@
       <c r="C129" s="9">
         <v>4</v>
       </c>
-      <c r="D129" s="2"/>
+      <c r="D129" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
+      <c r="A130" s="7">
+        <v>45905</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="9">
+        <v>3</v>
+      </c>
       <c r="D130" s="2"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
+      <c r="A131" s="7">
+        <v>45905</v>
+      </c>
+      <c r="B131" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="9">
+        <v>1</v>
+      </c>
       <c r="D131" s="2"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
+      <c r="A132" s="7">
+        <v>45905</v>
+      </c>
+      <c r="B132" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="9">
+        <v>1</v>
+      </c>
       <c r="D132" s="2"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
+      <c r="A133" s="7">
+        <v>45905</v>
+      </c>
+      <c r="B133" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" s="9">
+        <v>5</v>
+      </c>
       <c r="D133" s="2"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="22"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
+      <c r="A134" s="7">
+        <v>45905</v>
+      </c>
+      <c r="B134" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="9">
+        <v>5</v>
+      </c>
       <c r="D134" s="2"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="22"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
+      <c r="A135" s="7">
+        <v>45905</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="9">
+        <v>2</v>
+      </c>
       <c r="D135" s="2"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="22"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
+      <c r="A136" s="7">
+        <v>45905</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="9">
+        <v>5</v>
+      </c>
       <c r="D136" s="2"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="22"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
+      <c r="A137" s="7">
+        <v>45905</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="9">
+        <v>5</v>
+      </c>
       <c r="D137" s="2"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="22"/>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="22"/>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="22"/>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="22"/>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="22"/>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="22"/>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="22"/>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="2"/>
@@ -4060,6 +4142,18 @@
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2"/>
+      <c r="B373" s="2"/>
+      <c r="C373" s="2"/>
+      <c r="D373" s="2"/>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2"/>
+      <c r="B374" s="2"/>
+      <c r="C374" s="2"/>
+      <c r="D374" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="19">
   <si>
     <t>Data</t>
   </si>
@@ -103,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +200,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -229,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -302,6 +314,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -603,7 +621,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D129" sqref="D129"/>
+      <selection pane="bottomLeft" activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -612,9 +630,8 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="20.140625" customWidth="1"/>
     <col min="12" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -2605,7 +2622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:8">
       <c r="A129" s="7">
         <v>45904</v>
       </c>
@@ -2619,7 +2636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:8">
       <c r="A130" s="7">
         <v>45905</v>
       </c>
@@ -2629,9 +2646,11 @@
       <c r="C130" s="9">
         <v>3</v>
       </c>
-      <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="D130" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="7">
         <v>45905</v>
       </c>
@@ -2641,9 +2660,13 @@
       <c r="C131" s="9">
         <v>1</v>
       </c>
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="D131" s="2">
+        <v>2</v>
+      </c>
+      <c r="G131" s="1"/>
+      <c r="H131" s="22"/>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="7">
         <v>45905</v>
       </c>
@@ -2653,9 +2676,13 @@
       <c r="C132" s="9">
         <v>1</v>
       </c>
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="D132" s="2">
+        <v>2</v>
+      </c>
+      <c r="G132" s="1"/>
+      <c r="H132" s="22"/>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="7">
         <v>45905</v>
       </c>
@@ -2665,9 +2692,13 @@
       <c r="C133" s="9">
         <v>5</v>
       </c>
-      <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="D133" s="2">
+        <v>1</v>
+      </c>
+      <c r="G133" s="1"/>
+      <c r="H133" s="22"/>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="7">
         <v>45905</v>
       </c>
@@ -2677,9 +2708,13 @@
       <c r="C134" s="9">
         <v>5</v>
       </c>
-      <c r="D134" s="2"/>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="D134" s="2">
+        <v>1</v>
+      </c>
+      <c r="G134" s="1"/>
+      <c r="H134" s="22"/>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="7">
         <v>45905</v>
       </c>
@@ -2689,11 +2724,13 @@
       <c r="C135" s="9">
         <v>2</v>
       </c>
-      <c r="D135" s="2"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="22"/>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="D135" s="2">
+        <v>2</v>
+      </c>
+      <c r="G135" s="1"/>
+      <c r="H135" s="22"/>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="7">
         <v>45905</v>
       </c>
@@ -2703,11 +2740,13 @@
       <c r="C136" s="9">
         <v>5</v>
       </c>
-      <c r="D136" s="2"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="22"/>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="D136" s="2">
+        <v>1</v>
+      </c>
+      <c r="G136" s="1"/>
+      <c r="H136" s="22"/>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="7">
         <v>45905</v>
       </c>
@@ -2717,92 +2756,170 @@
       <c r="C137" s="9">
         <v>5</v>
       </c>
-      <c r="D137" s="2"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="22"/>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="22"/>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="22"/>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="22"/>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
+      <c r="D137" s="2">
+        <v>1</v>
+      </c>
+      <c r="G137" s="1"/>
+      <c r="H137" s="22"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="7">
+        <v>45905</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" s="9">
+        <v>1</v>
+      </c>
+      <c r="D138" s="2">
+        <v>1</v>
+      </c>
+      <c r="G138" s="1"/>
+      <c r="H138" s="22"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="7">
+        <v>45906</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="9">
+        <v>4</v>
+      </c>
+      <c r="D139" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="7">
+        <v>45906</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" s="9">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="7">
+        <v>45908</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" s="9">
+        <v>1</v>
+      </c>
       <c r="D141" s="2"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="22"/>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="22"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="7">
+        <v>45908</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="9">
+        <v>1</v>
+      </c>
       <c r="D142" s="2"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="22"/>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="22"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="7">
+        <v>45908</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="9">
+        <v>8</v>
+      </c>
       <c r="D143" s="2"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="22"/>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="22"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="7">
+        <v>45908</v>
+      </c>
+      <c r="B144" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="9">
+        <v>13</v>
+      </c>
       <c r="D144" s="2"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="22"/>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
+      <c r="A145" s="7">
+        <v>45908</v>
+      </c>
+      <c r="B145" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="9">
+        <v>13</v>
+      </c>
       <c r="D145" s="2"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
+      <c r="A146" s="7">
+        <v>45908</v>
+      </c>
+      <c r="B146" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" s="9">
+        <v>2</v>
+      </c>
       <c r="D146" s="2"/>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
+      <c r="A147" s="7">
+        <v>45908</v>
+      </c>
+      <c r="B147" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="9">
+        <v>2</v>
+      </c>
       <c r="D147" s="2"/>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
+      <c r="A148" s="7">
+        <v>45908</v>
+      </c>
+      <c r="B148" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="9">
+        <v>1</v>
+      </c>
       <c r="D148" s="2"/>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
+      <c r="A149" s="7">
+        <v>45908</v>
+      </c>
+      <c r="B149" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" s="9">
+        <v>1</v>
+      </c>
       <c r="D149" s="2"/>
     </row>
     <row r="150" spans="1:4">

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="19">
   <si>
     <t>Data</t>
   </si>
@@ -617,11 +617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U374"/>
+  <dimension ref="A1:U375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D136" sqref="D136"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J142" sqref="J142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -630,7 +630,7 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
     <col min="8" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="20.140625" customWidth="1"/>
@@ -2816,7 +2816,9 @@
       <c r="C141" s="9">
         <v>1</v>
       </c>
-      <c r="D141" s="2"/>
+      <c r="D141" s="2">
+        <v>1</v>
+      </c>
       <c r="G141" s="1"/>
       <c r="H141" s="22"/>
     </row>
@@ -2830,7 +2832,9 @@
       <c r="C142" s="9">
         <v>1</v>
       </c>
-      <c r="D142" s="2"/>
+      <c r="D142" s="2">
+        <v>1</v>
+      </c>
       <c r="G142" s="1"/>
       <c r="H142" s="22"/>
     </row>
@@ -2844,7 +2848,9 @@
       <c r="C143" s="9">
         <v>8</v>
       </c>
-      <c r="D143" s="2"/>
+      <c r="D143" s="2">
+        <v>9</v>
+      </c>
       <c r="G143" s="1"/>
       <c r="H143" s="22"/>
     </row>
@@ -2858,11 +2864,13 @@
       <c r="C144" s="9">
         <v>13</v>
       </c>
-      <c r="D144" s="2"/>
+      <c r="D144" s="2">
+        <v>1</v>
+      </c>
       <c r="G144" s="1"/>
       <c r="H144" s="22"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:9">
       <c r="A145" s="7">
         <v>45908</v>
       </c>
@@ -2872,9 +2880,13 @@
       <c r="C145" s="9">
         <v>13</v>
       </c>
-      <c r="D145" s="2"/>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="D145" s="2">
+        <v>1</v>
+      </c>
+      <c r="G145" s="1"/>
+      <c r="H145" s="22"/>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="7">
         <v>45908</v>
       </c>
@@ -2886,7 +2898,7 @@
       </c>
       <c r="D146" s="2"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:9">
       <c r="A147" s="7">
         <v>45908</v>
       </c>
@@ -2898,7 +2910,7 @@
       </c>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:9">
       <c r="A148" s="7">
         <v>45908</v>
       </c>
@@ -2910,7 +2922,7 @@
       </c>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:9">
       <c r="A149" s="7">
         <v>45908</v>
       </c>
@@ -2922,67 +2934,99 @@
       </c>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
+    <row r="150" spans="1:9">
+      <c r="A150" s="7">
+        <v>45909</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" s="9">
+        <v>8</v>
+      </c>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
+    <row r="151" spans="1:9">
+      <c r="A151" s="7">
+        <v>45909</v>
+      </c>
+      <c r="B151" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" s="9">
+        <v>5</v>
+      </c>
       <c r="D151" s="2"/>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
+    <row r="152" spans="1:9">
+      <c r="A152" s="7">
+        <v>45909</v>
+      </c>
+      <c r="B152" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="9">
+        <v>5</v>
+      </c>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
+    <row r="153" spans="1:9">
+      <c r="A153" s="7">
+        <v>45909</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="9">
+        <v>2</v>
+      </c>
       <c r="D153" s="2"/>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
+    <row r="154" spans="1:9">
+      <c r="A154" s="7">
+        <v>45909</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="9">
+        <v>2</v>
+      </c>
       <c r="D154" s="2"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:9">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:9">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:9">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:9">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="H158" s="1"/>
+      <c r="I158" s="22"/>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:9">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -4271,6 +4315,12 @@
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2"/>
+      <c r="B375" s="2"/>
+      <c r="C375" s="2"/>
+      <c r="D375" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="19">
   <si>
     <t>Data</t>
   </si>
@@ -617,11 +617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U375"/>
+  <dimension ref="A1:U382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J142" sqref="J142"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2870,7 +2870,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="22"/>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:8">
       <c r="A145" s="7">
         <v>45908</v>
       </c>
@@ -2883,10 +2883,8 @@
       <c r="D145" s="2">
         <v>1</v>
       </c>
-      <c r="G145" s="1"/>
-      <c r="H145" s="22"/>
-    </row>
-    <row r="146" spans="1:9">
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="7">
         <v>45908</v>
       </c>
@@ -2896,9 +2894,13 @@
       <c r="C146" s="9">
         <v>2</v>
       </c>
-      <c r="D146" s="2"/>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="D146" s="2">
+        <v>0</v>
+      </c>
+      <c r="G146" s="1"/>
+      <c r="H146" s="22"/>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="7">
         <v>45908</v>
       </c>
@@ -2908,9 +2910,13 @@
       <c r="C147" s="9">
         <v>2</v>
       </c>
-      <c r="D147" s="2"/>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="D147" s="2">
+        <v>0</v>
+      </c>
+      <c r="G147" s="1"/>
+      <c r="H147" s="22"/>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="7">
         <v>45908</v>
       </c>
@@ -2920,9 +2926,13 @@
       <c r="C148" s="9">
         <v>1</v>
       </c>
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="D148" s="2">
+        <v>0</v>
+      </c>
+      <c r="G148" s="1"/>
+      <c r="H148" s="22"/>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="7">
         <v>45908</v>
       </c>
@@ -2932,9 +2942,13 @@
       <c r="C149" s="9">
         <v>1</v>
       </c>
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="D149" s="2">
+        <v>0</v>
+      </c>
+      <c r="G149" s="1"/>
+      <c r="H149" s="22"/>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="7">
         <v>45909</v>
       </c>
@@ -2944,9 +2958,13 @@
       <c r="C150" s="9">
         <v>8</v>
       </c>
-      <c r="D150" s="2"/>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="D150" s="2">
+        <v>5</v>
+      </c>
+      <c r="G150" s="1"/>
+      <c r="H150" s="22"/>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="7">
         <v>45909</v>
       </c>
@@ -2956,9 +2974,13 @@
       <c r="C151" s="9">
         <v>5</v>
       </c>
-      <c r="D151" s="2"/>
-    </row>
-    <row r="152" spans="1:9">
+      <c r="D151" s="2">
+        <v>2</v>
+      </c>
+      <c r="G151" s="1"/>
+      <c r="H151" s="22"/>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="7">
         <v>45909</v>
       </c>
@@ -2968,9 +2990,11 @@
       <c r="C152" s="9">
         <v>5</v>
       </c>
-      <c r="D152" s="2"/>
-    </row>
-    <row r="153" spans="1:9">
+      <c r="D152" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="7">
         <v>45909</v>
       </c>
@@ -2980,9 +3004,11 @@
       <c r="C153" s="9">
         <v>2</v>
       </c>
-      <c r="D153" s="2"/>
-    </row>
-    <row r="154" spans="1:9">
+      <c r="D153" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="7">
         <v>45909</v>
       </c>
@@ -2992,141 +3018,277 @@
       <c r="C154" s="9">
         <v>2</v>
       </c>
-      <c r="D154" s="2"/>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="22"/>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-    </row>
-    <row r="160" spans="1:9">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
+      <c r="D154" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="7">
+        <v>45909</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="9">
+        <v>0</v>
+      </c>
+      <c r="D155" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="7">
+        <v>45909</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" s="9">
+        <v>0</v>
+      </c>
+      <c r="D156" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="7">
+        <v>45910</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157" s="9">
+        <v>7</v>
+      </c>
+      <c r="D157" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="7">
+        <v>45910</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="9">
+        <v>4</v>
+      </c>
+      <c r="D158" s="2">
+        <v>4</v>
+      </c>
+      <c r="G158" s="1"/>
+      <c r="H158" s="22"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="7">
+        <v>45910</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="9">
+        <v>4</v>
+      </c>
+      <c r="D159" s="2">
+        <v>4</v>
+      </c>
+      <c r="G159" s="1"/>
+      <c r="H159" s="22"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="7">
+        <v>45910</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" s="9">
+        <v>6</v>
+      </c>
+      <c r="D160" s="2">
+        <v>4</v>
+      </c>
+      <c r="G160" s="1"/>
+      <c r="H160" s="22"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="7">
+        <v>45910</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="9">
+        <v>6</v>
+      </c>
+      <c r="D161" s="2">
+        <v>4</v>
+      </c>
+      <c r="G161" s="1"/>
+      <c r="H161" s="22"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="7">
+        <v>45910</v>
+      </c>
+      <c r="B162" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="9">
+        <v>5</v>
+      </c>
+      <c r="D162" s="2">
+        <v>4</v>
+      </c>
+      <c r="G162" s="1"/>
+      <c r="H162" s="22"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="7">
+        <v>45910</v>
+      </c>
+      <c r="B163" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="9">
+        <v>5</v>
+      </c>
+      <c r="D163" s="2">
+        <v>4</v>
+      </c>
+      <c r="G163" s="1"/>
+      <c r="H163" s="22"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="7">
+        <v>45910</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="9">
+        <v>0</v>
+      </c>
+      <c r="D164" s="9">
+        <v>1</v>
+      </c>
+      <c r="G164" s="1"/>
+      <c r="H164" s="22"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="7">
+        <v>45911</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C165" s="9">
+        <v>6</v>
+      </c>
       <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="22"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="7">
+        <v>45911</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" s="9">
+        <v>6</v>
+      </c>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
+    <row r="167" spans="1:8">
+      <c r="A167" s="7">
+        <v>45911</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" s="9">
+        <v>5</v>
+      </c>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
+    <row r="168" spans="1:8">
+      <c r="A168" s="7">
+        <v>45911</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="9">
+        <v>5</v>
+      </c>
       <c r="D168" s="2"/>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
+    <row r="169" spans="1:8">
+      <c r="A169" s="7">
+        <v>45911</v>
+      </c>
+      <c r="B169" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="9">
+        <v>3</v>
+      </c>
       <c r="D169" s="2"/>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="22"/>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="7">
+        <v>45911</v>
+      </c>
+      <c r="B170" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" s="9">
+        <v>3</v>
+      </c>
       <c r="D170" s="2"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:8">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:8">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:8">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:8">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:8">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:8">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="22"/>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2"/>
@@ -4321,6 +4483,48 @@
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2"/>
+      <c r="B376" s="2"/>
+      <c r="C376" s="2"/>
+      <c r="D376" s="2"/>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2"/>
+      <c r="B377" s="2"/>
+      <c r="C377" s="2"/>
+      <c r="D377" s="2"/>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2"/>
+      <c r="B378" s="2"/>
+      <c r="C378" s="2"/>
+      <c r="D378" s="2"/>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2"/>
+      <c r="B379" s="2"/>
+      <c r="C379" s="2"/>
+      <c r="D379" s="2"/>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2"/>
+      <c r="B380" s="2"/>
+      <c r="C380" s="2"/>
+      <c r="D380" s="2"/>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2"/>
+      <c r="B381" s="2"/>
+      <c r="C381" s="2"/>
+      <c r="D381" s="2"/>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2"/>
+      <c r="B382" s="2"/>
+      <c r="C382" s="2"/>
+      <c r="D382" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="19">
   <si>
     <t>Data</t>
   </si>
@@ -617,11 +617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U382"/>
+  <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E162" sqref="E162"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3112,7 +3112,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="22"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:9">
       <c r="A161" s="7">
         <v>45910</v>
       </c>
@@ -3126,9 +3126,14 @@
         <v>4</v>
       </c>
       <c r="G161" s="1"/>
-      <c r="H161" s="22"/>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="H161" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I161" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="7">
         <v>45910</v>
       </c>
@@ -3142,9 +3147,14 @@
         <v>4</v>
       </c>
       <c r="G162" s="1"/>
-      <c r="H162" s="22"/>
-    </row>
-    <row r="163" spans="1:8">
+      <c r="H162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I162" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="7">
         <v>45910</v>
       </c>
@@ -3160,7 +3170,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="22"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:9">
       <c r="A164" s="7">
         <v>45910</v>
       </c>
@@ -3176,130 +3186,208 @@
       <c r="G164" s="1"/>
       <c r="H164" s="22"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:9">
       <c r="A165" s="7">
         <v>45911</v>
       </c>
-      <c r="B165" s="10" t="s">
-        <v>16</v>
+      <c r="B165" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="C165" s="9">
-        <v>6</v>
-      </c>
-      <c r="D165" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D165" s="9">
+        <v>3</v>
+      </c>
       <c r="G165" s="1"/>
       <c r="H165" s="22"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:9">
       <c r="A166" s="7">
         <v>45911</v>
       </c>
-      <c r="B166" s="10" t="s">
-        <v>10</v>
+      <c r="B166" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C166" s="9">
-        <v>6</v>
-      </c>
-      <c r="D166" s="2"/>
-    </row>
-    <row r="167" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="D166" s="9">
+        <v>1</v>
+      </c>
+      <c r="G166" s="1"/>
+      <c r="H166" s="22"/>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="7">
         <v>45911</v>
       </c>
-      <c r="B167" s="13" t="s">
-        <v>18</v>
+      <c r="B167" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C167" s="9">
-        <v>5</v>
-      </c>
-      <c r="D167" s="2"/>
-    </row>
-    <row r="168" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="D167" s="2">
+        <v>8</v>
+      </c>
+      <c r="G167" s="1"/>
+      <c r="H167" s="22"/>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="7">
         <v>45911</v>
       </c>
-      <c r="B168" s="13" t="s">
+      <c r="B168" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" s="9">
+        <v>6</v>
+      </c>
+      <c r="D168" s="2">
         <v>8</v>
       </c>
-      <c r="C168" s="9">
-        <v>5</v>
-      </c>
-      <c r="D168" s="2"/>
-    </row>
-    <row r="169" spans="1:8">
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="7">
         <v>45911</v>
       </c>
-      <c r="B169" s="28" t="s">
-        <v>7</v>
+      <c r="B169" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="C169" s="9">
-        <v>3</v>
-      </c>
-      <c r="D169" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="D169" s="2">
+        <v>5</v>
+      </c>
       <c r="G169" s="1"/>
       <c r="H169" s="22"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:9">
       <c r="A170" s="7">
         <v>45911</v>
       </c>
-      <c r="B170" s="28" t="s">
+      <c r="B170" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="9">
+        <v>5</v>
+      </c>
+      <c r="D170" s="2">
+        <v>5</v>
+      </c>
+      <c r="G170" s="1"/>
+      <c r="H170" s="22"/>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="7">
+        <v>45911</v>
+      </c>
+      <c r="B171" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="9">
+        <v>3</v>
+      </c>
+      <c r="D171" s="2">
+        <v>2</v>
+      </c>
+      <c r="G171" s="1"/>
+      <c r="H171" s="22"/>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="7">
+        <v>45911</v>
+      </c>
+      <c r="B172" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C170" s="9">
-        <v>3</v>
-      </c>
-      <c r="D170" s="2"/>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
+      <c r="C172" s="9">
+        <v>3</v>
+      </c>
+      <c r="D172" s="2">
+        <v>2</v>
+      </c>
+      <c r="G172" s="1"/>
+      <c r="H172" s="22"/>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="7">
+        <v>45912</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173" s="9">
+        <v>2</v>
+      </c>
       <c r="D173" s="2"/>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="22"/>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="7">
+        <v>45912</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" s="9">
+        <v>2</v>
+      </c>
       <c r="D174" s="2"/>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="22"/>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="7">
+        <v>45912</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="9">
+        <v>3</v>
+      </c>
       <c r="D175" s="2"/>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="22"/>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="7">
+        <v>45912</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" s="9">
+        <v>3</v>
+      </c>
       <c r="D176" s="2"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="22"/>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
+      <c r="A177" s="7">
+        <v>45912</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="9">
+        <v>4</v>
+      </c>
       <c r="D177" s="2"/>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
+      <c r="A178" s="7">
+        <v>45912</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" s="9">
+        <v>4</v>
+      </c>
       <c r="D178" s="2"/>
     </row>
     <row r="179" spans="1:4">
@@ -4525,6 +4613,30 @@
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="2"/>
+      <c r="B383" s="2"/>
+      <c r="C383" s="2"/>
+      <c r="D383" s="2"/>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2"/>
+      <c r="B384" s="2"/>
+      <c r="C384" s="2"/>
+      <c r="D384" s="2"/>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2"/>
+      <c r="B385" s="2"/>
+      <c r="C385" s="2"/>
+      <c r="D385" s="2"/>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2"/>
+      <c r="B386" s="2"/>
+      <c r="C386" s="2"/>
+      <c r="D386" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="19">
   <si>
     <t>Data</t>
   </si>
@@ -103,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +212,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -241,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -320,6 +338,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -617,11 +644,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U386"/>
+  <dimension ref="A1:U389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D160" sqref="D160"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M164" sqref="M164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3126,12 +3153,8 @@
         <v>4</v>
       </c>
       <c r="G161" s="1"/>
-      <c r="H161" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I161" s="22">
-        <v>3</v>
-      </c>
+      <c r="H161" s="1"/>
+      <c r="I161" s="22"/>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="7">
@@ -3147,12 +3170,8 @@
         <v>4</v>
       </c>
       <c r="G162" s="1"/>
-      <c r="H162" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I162" s="22">
-        <v>1</v>
-      </c>
+      <c r="H162" s="1"/>
+      <c r="I162" s="22"/>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="7">
@@ -3322,7 +3341,9 @@
       <c r="C173" s="9">
         <v>2</v>
       </c>
-      <c r="D173" s="2"/>
+      <c r="D173" s="2">
+        <v>2</v>
+      </c>
       <c r="G173" s="1"/>
       <c r="H173" s="22"/>
     </row>
@@ -3336,21 +3357,23 @@
       <c r="C174" s="9">
         <v>2</v>
       </c>
-      <c r="D174" s="2"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="22"/>
+      <c r="D174" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="7">
         <v>45912</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="40" t="s">
         <v>12</v>
       </c>
       <c r="C175" s="9">
         <v>3</v>
       </c>
-      <c r="D175" s="2"/>
+      <c r="D175" s="2">
+        <v>0</v>
+      </c>
       <c r="G175" s="1"/>
       <c r="H175" s="22"/>
     </row>
@@ -3358,213 +3381,319 @@
       <c r="A176" s="7">
         <v>45912</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="40" t="s">
         <v>9</v>
       </c>
       <c r="C176" s="9">
         <v>3</v>
       </c>
-      <c r="D176" s="2"/>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="D176" s="2">
+        <v>0</v>
+      </c>
+      <c r="G176" s="1"/>
+      <c r="H176" s="22"/>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="7">
         <v>45912</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C177" s="9">
         <v>4</v>
       </c>
-      <c r="D177" s="2"/>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="D177" s="2">
+        <v>1</v>
+      </c>
+      <c r="G177" s="1"/>
+      <c r="H177" s="22"/>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="7">
         <v>45912</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C178" s="9">
         <v>4</v>
       </c>
-      <c r="D178" s="2"/>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
+      <c r="D178" s="2">
+        <v>1</v>
+      </c>
+      <c r="G178" s="1"/>
+      <c r="H178" s="22"/>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="7">
+        <v>45913</v>
+      </c>
+      <c r="B179" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C179" s="9">
+        <v>4</v>
+      </c>
+      <c r="D179" s="2">
+        <v>5</v>
+      </c>
+      <c r="G179" s="1"/>
+      <c r="H179" s="22"/>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="7">
+        <v>45913</v>
+      </c>
+      <c r="B180" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" s="9">
+        <v>4</v>
+      </c>
+      <c r="D180" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="7">
+        <v>45913</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="9">
+        <v>7</v>
+      </c>
+      <c r="D181" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="7">
+        <v>45913</v>
+      </c>
+      <c r="B182" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="9">
+        <v>6</v>
+      </c>
+      <c r="D182" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="7">
+        <v>45913</v>
+      </c>
+      <c r="B183" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" s="9">
+        <v>6</v>
+      </c>
+      <c r="D183" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="7">
+        <v>45915</v>
+      </c>
+      <c r="B184" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184" s="9">
+        <v>3</v>
+      </c>
       <c r="D184" s="2"/>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
+    <row r="185" spans="1:8">
+      <c r="A185" s="7">
+        <v>45915</v>
+      </c>
+      <c r="B185" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" s="9">
+        <v>3</v>
+      </c>
       <c r="D185" s="2"/>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
+    <row r="186" spans="1:8">
+      <c r="A186" s="7">
+        <v>45915</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" s="9">
+        <v>1</v>
+      </c>
       <c r="D186" s="2"/>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
+    <row r="187" spans="1:8">
+      <c r="A187" s="7">
+        <v>45915</v>
+      </c>
+      <c r="B187" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C187" s="9">
+        <v>5</v>
+      </c>
       <c r="D187" s="2"/>
     </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
+    <row r="188" spans="1:8">
+      <c r="A188" s="7">
+        <v>45915</v>
+      </c>
+      <c r="B188" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="9">
+        <v>5</v>
+      </c>
       <c r="D188" s="2"/>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
+    <row r="189" spans="1:8">
+      <c r="A189" s="7">
+        <v>45915</v>
+      </c>
+      <c r="B189" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="9">
+        <v>2</v>
+      </c>
       <c r="D189" s="2"/>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
+    <row r="190" spans="1:8">
+      <c r="A190" s="7">
+        <v>45915</v>
+      </c>
+      <c r="B190" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" s="9">
+        <v>2</v>
+      </c>
       <c r="D190" s="2"/>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:8">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:8">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="G192" s="1"/>
+      <c r="H192" s="22"/>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="G193" s="1"/>
+      <c r="H193" s="22"/>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="G194" s="1"/>
+      <c r="H194" s="22"/>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="G195" s="1"/>
+      <c r="H195" s="22"/>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="G196" s="1"/>
+      <c r="H196" s="22"/>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:8">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:8">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:8">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:8">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:8">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:8">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:8">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:8">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:8">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:8">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:8">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -4637,6 +4766,24 @@
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2"/>
+      <c r="B387" s="2"/>
+      <c r="C387" s="2"/>
+      <c r="D387" s="2"/>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2"/>
+      <c r="B388" s="2"/>
+      <c r="C388" s="2"/>
+      <c r="D388" s="2"/>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="2"/>
+      <c r="B389" s="2"/>
+      <c r="C389" s="2"/>
+      <c r="D389" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="19">
   <si>
     <t>Data</t>
   </si>
@@ -644,11 +644,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U389"/>
+  <dimension ref="A1:U391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M164" sqref="M164"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -658,7 +658,8 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="9" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="20.140625" customWidth="1"/>
     <col min="12" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -3507,7 +3508,9 @@
       <c r="C184" s="9">
         <v>3</v>
       </c>
-      <c r="D184" s="2"/>
+      <c r="D184" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="7">
@@ -3519,7 +3522,9 @@
       <c r="C185" s="9">
         <v>3</v>
       </c>
-      <c r="D185" s="2"/>
+      <c r="D185" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="7">
@@ -3531,7 +3536,9 @@
       <c r="C186" s="9">
         <v>1</v>
       </c>
-      <c r="D186" s="2"/>
+      <c r="D186" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="7">
@@ -3543,7 +3550,9 @@
       <c r="C187" s="9">
         <v>5</v>
       </c>
-      <c r="D187" s="2"/>
+      <c r="D187" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="7">
@@ -3555,7 +3564,9 @@
       <c r="C188" s="9">
         <v>5</v>
       </c>
-      <c r="D188" s="2"/>
+      <c r="D188" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="7">
@@ -3567,7 +3578,9 @@
       <c r="C189" s="9">
         <v>2</v>
       </c>
-      <c r="D189" s="2"/>
+      <c r="D189" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="7">
@@ -3579,121 +3592,176 @@
       <c r="C190" s="9">
         <v>2</v>
       </c>
-      <c r="D190" s="2"/>
+      <c r="D190" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
+      <c r="A191" s="7">
+        <v>45916</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" s="9">
+        <v>4</v>
+      </c>
       <c r="D191" s="2"/>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
+      <c r="A192" s="7">
+        <v>45916</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" s="9">
+        <v>1</v>
+      </c>
       <c r="D192" s="2"/>
       <c r="G192" s="1"/>
       <c r="H192" s="22"/>
     </row>
-    <row r="193" spans="1:8">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
+    <row r="193" spans="1:9">
+      <c r="A193" s="7">
+        <v>45916</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" s="9">
+        <v>1</v>
+      </c>
       <c r="D193" s="2"/>
       <c r="G193" s="1"/>
       <c r="H193" s="22"/>
     </row>
-    <row r="194" spans="1:8">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
+    <row r="194" spans="1:9">
+      <c r="A194" s="7">
+        <v>45916</v>
+      </c>
+      <c r="B194" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C194" s="9">
+        <v>5</v>
+      </c>
       <c r="D194" s="2"/>
       <c r="G194" s="1"/>
-      <c r="H194" s="22"/>
-    </row>
-    <row r="195" spans="1:8">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="7">
+        <v>45916</v>
+      </c>
+      <c r="B195" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="9">
+        <v>5</v>
+      </c>
       <c r="D195" s="2"/>
       <c r="G195" s="1"/>
-      <c r="H195" s="22"/>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="7">
+        <v>45916</v>
+      </c>
+      <c r="B196" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" s="9">
+        <v>1</v>
+      </c>
       <c r="D196" s="2"/>
       <c r="G196" s="1"/>
-      <c r="H196" s="22"/>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="22"/>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="7">
+        <v>45916</v>
+      </c>
+      <c r="B197" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" s="9">
+        <v>1</v>
+      </c>
       <c r="D197" s="2"/>
-    </row>
-    <row r="198" spans="1:8">
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="22"/>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
-    </row>
-    <row r="199" spans="1:8">
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="22"/>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
-    </row>
-    <row r="200" spans="1:8">
+      <c r="H199" s="1"/>
+      <c r="I199" s="22"/>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
-    </row>
-    <row r="201" spans="1:8">
+      <c r="H200" s="1"/>
+      <c r="I200" s="22"/>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
-    </row>
-    <row r="202" spans="1:8">
+      <c r="H201" s="1"/>
+      <c r="I201" s="22"/>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:9">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:9">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:9">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:9">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:9">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:9">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -4784,6 +4852,18 @@
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="2"/>
+      <c r="B390" s="2"/>
+      <c r="C390" s="2"/>
+      <c r="D390" s="2"/>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="2"/>
+      <c r="B391" s="2"/>
+      <c r="C391" s="2"/>
+      <c r="D391" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="19">
   <si>
     <t>Data</t>
   </si>
@@ -644,11 +644,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U391"/>
+  <dimension ref="A1:U393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D185" sqref="D185"/>
+      <selection pane="bottomLeft" activeCell="I188" sqref="I188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -657,8 +657,7 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="7" max="8" width="22.42578125" customWidth="1"/>
     <col min="9" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="20.140625" customWidth="1"/>
@@ -3606,73 +3605,86 @@
       <c r="C191" s="9">
         <v>4</v>
       </c>
-      <c r="D191" s="2"/>
+      <c r="D191" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="7">
         <v>45916</v>
       </c>
-      <c r="B192" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C192" s="9">
-        <v>1</v>
-      </c>
-      <c r="D192" s="2"/>
-      <c r="G192" s="1"/>
-      <c r="H192" s="22"/>
+      <c r="B192" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C192" s="2">
+        <v>0</v>
+      </c>
+      <c r="D192" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="7">
         <v>45916</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C193" s="9">
         <v>1</v>
       </c>
-      <c r="D193" s="2"/>
+      <c r="D193" s="2">
+        <v>0</v>
+      </c>
       <c r="G193" s="1"/>
-      <c r="H193" s="22"/>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="7">
         <v>45916</v>
       </c>
-      <c r="B194" s="28" t="s">
-        <v>18</v>
+      <c r="B194" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C194" s="9">
-        <v>5</v>
-      </c>
-      <c r="D194" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D194" s="2">
+        <v>0</v>
+      </c>
       <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="22"/>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="7">
         <v>45916</v>
       </c>
       <c r="B195" s="28" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C195" s="9">
         <v>5</v>
       </c>
-      <c r="D195" s="2"/>
+      <c r="D195" s="2">
+        <v>3</v>
+      </c>
       <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="22"/>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="7">
         <v>45916</v>
       </c>
-      <c r="B196" s="41" t="s">
-        <v>7</v>
+      <c r="B196" s="28" t="s">
+        <v>8</v>
       </c>
       <c r="C196" s="9">
-        <v>1</v>
-      </c>
-      <c r="D196" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="D196" s="2">
+        <v>3</v>
+      </c>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="22"/>
@@ -3682,182 +3694,236 @@
         <v>45916</v>
       </c>
       <c r="B197" s="41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C197" s="9">
         <v>1</v>
       </c>
-      <c r="D197" s="2"/>
+      <c r="D197" s="2">
+        <v>0</v>
+      </c>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="22"/>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
+      <c r="A198" s="7">
+        <v>45916</v>
+      </c>
+      <c r="B198" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" s="9">
+        <v>1</v>
+      </c>
+      <c r="D198" s="2">
+        <v>0</v>
+      </c>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="22"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
+      <c r="A199" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C199" s="9">
+        <v>7</v>
+      </c>
       <c r="D199" s="2"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="22"/>
+      <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
+      <c r="A200" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C200" s="9">
+        <v>7</v>
+      </c>
       <c r="D200" s="2"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="22"/>
     </row>
     <row r="201" spans="1:9">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
+      <c r="A201" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" s="9">
+        <v>5</v>
+      </c>
       <c r="D201" s="2"/>
-      <c r="H201" s="1"/>
-      <c r="I201" s="22"/>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
+      <c r="A202" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B202" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" s="9">
+        <v>1</v>
+      </c>
       <c r="D202" s="2"/>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
+      <c r="A203" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B203" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" s="9">
+        <v>1</v>
+      </c>
       <c r="D203" s="2"/>
     </row>
     <row r="204" spans="1:9">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
+      <c r="A204" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B204" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" s="9">
+        <v>6</v>
+      </c>
       <c r="D204" s="2"/>
+      <c r="G204" s="1"/>
     </row>
     <row r="205" spans="1:9">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
+      <c r="A205" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B205" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" s="9">
+        <v>6</v>
+      </c>
       <c r="D205" s="2"/>
+      <c r="G205" s="1"/>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
+      <c r="G206" s="1"/>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
+      <c r="G207" s="1"/>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
-    </row>
-    <row r="209" spans="1:4">
+      <c r="G208" s="1"/>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="G209" s="1"/>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="G210" s="1"/>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:7">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:7">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:7">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:7">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:7">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:7">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:7">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:7">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:7">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:7">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:7">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:7">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:7">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -4864,6 +4930,18 @@
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="2"/>
+      <c r="B392" s="2"/>
+      <c r="C392" s="2"/>
+      <c r="D392" s="2"/>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="2"/>
+      <c r="B393" s="2"/>
+      <c r="C393" s="2"/>
+      <c r="D393" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="19">
   <si>
     <t>Data</t>
   </si>
@@ -103,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +230,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -259,7 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -347,6 +359,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -644,11 +662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U393"/>
+  <dimension ref="A1:U395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I188" sqref="I188"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -657,8 +675,8 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="7" max="8" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="20.140625" customWidth="1"/>
     <col min="12" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -3733,7 +3751,9 @@
       <c r="C199" s="9">
         <v>7</v>
       </c>
-      <c r="D199" s="2"/>
+      <c r="D199" s="2">
+        <v>5</v>
+      </c>
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:9">
@@ -3746,7 +3766,9 @@
       <c r="C200" s="9">
         <v>7</v>
       </c>
-      <c r="D200" s="2"/>
+      <c r="D200" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="7">
@@ -3758,7 +3780,11 @@
       <c r="C201" s="9">
         <v>5</v>
       </c>
-      <c r="D201" s="2"/>
+      <c r="D201" s="2">
+        <v>5</v>
+      </c>
+      <c r="G201" s="1"/>
+      <c r="H201" s="22"/>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="7">
@@ -3770,7 +3796,11 @@
       <c r="C202" s="9">
         <v>1</v>
       </c>
-      <c r="D202" s="2"/>
+      <c r="D202" s="2">
+        <v>0</v>
+      </c>
+      <c r="G202" s="1"/>
+      <c r="H202" s="22"/>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="7">
@@ -3782,148 +3812,199 @@
       <c r="C203" s="9">
         <v>1</v>
       </c>
-      <c r="D203" s="2"/>
+      <c r="D203" s="2">
+        <v>0</v>
+      </c>
+      <c r="G203" s="1"/>
+      <c r="H203" s="22"/>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="7">
         <v>45917</v>
       </c>
-      <c r="B204" s="34" t="s">
+      <c r="B204" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C204" s="9">
         <v>6</v>
       </c>
-      <c r="D204" s="2"/>
+      <c r="D204" s="2">
+        <v>0</v>
+      </c>
       <c r="G204" s="1"/>
+      <c r="H204" s="22"/>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="7">
         <v>45917</v>
       </c>
-      <c r="B205" s="34" t="s">
+      <c r="B205" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C205" s="9">
         <v>6</v>
       </c>
-      <c r="D205" s="2"/>
-      <c r="G205" s="1"/>
+      <c r="D205" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
+      <c r="A206" s="7">
+        <v>45918</v>
+      </c>
+      <c r="B206" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C206" s="9">
+        <v>7</v>
+      </c>
       <c r="D206" s="2"/>
-      <c r="G206" s="1"/>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
+      <c r="A207" s="7">
+        <v>45918</v>
+      </c>
+      <c r="B207" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207" s="9">
+        <v>7</v>
+      </c>
       <c r="D207" s="2"/>
-      <c r="G207" s="1"/>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
+      <c r="A208" s="7">
+        <v>45918</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208" s="9">
+        <v>7</v>
+      </c>
       <c r="D208" s="2"/>
-      <c r="G208" s="1"/>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="7">
+        <v>45918</v>
+      </c>
+      <c r="B209" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C209" s="9">
+        <v>3</v>
+      </c>
       <c r="D209" s="2"/>
-      <c r="G209" s="1"/>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="7">
+        <v>45918</v>
+      </c>
+      <c r="B210" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" s="9">
+        <v>3</v>
+      </c>
       <c r="D210" s="2"/>
-      <c r="G210" s="1"/>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="7">
+        <v>45918</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" s="9">
+        <v>1</v>
+      </c>
       <c r="D211" s="2"/>
     </row>
-    <row r="212" spans="1:7">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
+    <row r="212" spans="1:4">
+      <c r="A212" s="7">
+        <v>45918</v>
+      </c>
+      <c r="B212" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" s="9">
+        <v>7</v>
+      </c>
       <c r="D212" s="2"/>
     </row>
-    <row r="213" spans="1:7">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
+    <row r="213" spans="1:4">
+      <c r="A213" s="7">
+        <v>45918</v>
+      </c>
+      <c r="B213" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" s="9">
+        <v>7</v>
+      </c>
       <c r="D213" s="2"/>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:4">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:4">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:4">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:4">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:4">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:4">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:4">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:4">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:4">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:4">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:4">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -4942,6 +5023,18 @@
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="2"/>
+      <c r="B394" s="2"/>
+      <c r="C394" s="2"/>
+      <c r="D394" s="2"/>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="2"/>
+      <c r="B395" s="2"/>
+      <c r="C395" s="2"/>
+      <c r="D395" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="19">
   <si>
     <t>Data</t>
   </si>
@@ -662,11 +662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U395"/>
+  <dimension ref="A1:U396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H210" sqref="H210"/>
+      <selection pane="bottomLeft" activeCell="G209" sqref="G209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3858,7 +3858,9 @@
       <c r="C206" s="9">
         <v>7</v>
       </c>
-      <c r="D206" s="2"/>
+      <c r="D206" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="7">
@@ -3870,7 +3872,11 @@
       <c r="C207" s="9">
         <v>7</v>
       </c>
-      <c r="D207" s="2"/>
+      <c r="D207" s="2">
+        <v>6</v>
+      </c>
+      <c r="G207" s="1"/>
+      <c r="H207" s="22"/>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="7">
@@ -3882,9 +3888,13 @@
       <c r="C208" s="9">
         <v>7</v>
       </c>
-      <c r="D208" s="2"/>
-    </row>
-    <row r="209" spans="1:4">
+      <c r="D208" s="2">
+        <v>1</v>
+      </c>
+      <c r="G208" s="1"/>
+      <c r="H208" s="22"/>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="7">
         <v>45918</v>
       </c>
@@ -3894,9 +3904,13 @@
       <c r="C209" s="9">
         <v>3</v>
       </c>
-      <c r="D209" s="2"/>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="D209" s="2">
+        <v>1</v>
+      </c>
+      <c r="G209" s="1"/>
+      <c r="H209" s="22"/>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="7">
         <v>45918</v>
       </c>
@@ -3906,9 +3920,13 @@
       <c r="C210" s="9">
         <v>3</v>
       </c>
-      <c r="D210" s="2"/>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="D210" s="2">
+        <v>1</v>
+      </c>
+      <c r="G210" s="1"/>
+      <c r="H210" s="22"/>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="7">
         <v>45918</v>
       </c>
@@ -3918,9 +3936,13 @@
       <c r="C211" s="9">
         <v>1</v>
       </c>
-      <c r="D211" s="2"/>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="D211" s="2">
+        <v>5</v>
+      </c>
+      <c r="G211" s="1"/>
+      <c r="H211" s="22"/>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="7">
         <v>45918</v>
       </c>
@@ -3930,9 +3952,13 @@
       <c r="C212" s="9">
         <v>7</v>
       </c>
-      <c r="D212" s="2"/>
-    </row>
-    <row r="213" spans="1:4">
+      <c r="D212" s="2">
+        <v>2</v>
+      </c>
+      <c r="G212" s="1"/>
+      <c r="H212" s="22"/>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="7">
         <v>45918</v>
       </c>
@@ -3942,69 +3968,109 @@
       <c r="C213" s="9">
         <v>7</v>
       </c>
-      <c r="D213" s="2"/>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
+      <c r="D213" s="2">
+        <v>2</v>
+      </c>
+      <c r="G213" s="1"/>
+      <c r="H213" s="22"/>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="7">
+        <v>45919</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214" s="9">
+        <v>8</v>
+      </c>
       <c r="D214" s="2"/>
     </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
+    <row r="215" spans="1:8">
+      <c r="A215" s="7">
+        <v>45919</v>
+      </c>
+      <c r="B215" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215" s="9">
+        <v>3</v>
+      </c>
       <c r="D215" s="2"/>
     </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
+    <row r="216" spans="1:8">
+      <c r="A216" s="7">
+        <v>45919</v>
+      </c>
+      <c r="B216" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" s="9">
+        <v>3</v>
+      </c>
       <c r="D216" s="2"/>
     </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
+    <row r="217" spans="1:8">
+      <c r="A217" s="7">
+        <v>45919</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C217" s="9">
+        <v>6</v>
+      </c>
       <c r="D217" s="2"/>
     </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
+    <row r="218" spans="1:8">
+      <c r="A218" s="7">
+        <v>45919</v>
+      </c>
+      <c r="B218" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" s="9">
+        <v>6</v>
+      </c>
       <c r="D218" s="2"/>
     </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
+    <row r="219" spans="1:8">
+      <c r="A219" s="7">
+        <v>45919</v>
+      </c>
+      <c r="B219" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C219" s="9">
+        <v>6</v>
+      </c>
       <c r="D219" s="2"/>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:8">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:8">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:8">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:8">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:8">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -5035,6 +5101,12 @@
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="2"/>
+      <c r="B396" s="2"/>
+      <c r="C396" s="2"/>
+      <c r="D396" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="21015" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="21012" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="19">
   <si>
     <t>Data</t>
   </si>
@@ -81,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +102,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,8 +249,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -266,12 +279,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -366,6 +388,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -662,26 +698,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U396"/>
+  <dimension ref="A1:U366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G209" sqref="G209"/>
+      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M272" sqref="M272"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="9" width="29.42578125" customWidth="1"/>
-    <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.28515625" customWidth="1"/>
-    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" customWidth="1"/>
+    <col min="12" max="19" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.33203125" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3847,6 +3883,8 @@
       <c r="D205" s="2">
         <v>0</v>
       </c>
+      <c r="H205" s="50"/>
+      <c r="I205" s="51"/>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="7">
@@ -3861,6 +3899,8 @@
       <c r="D206" s="2">
         <v>6</v>
       </c>
+      <c r="H206" s="52"/>
+      <c r="I206" s="22"/>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="7">
@@ -3876,7 +3916,8 @@
         <v>6</v>
       </c>
       <c r="G207" s="1"/>
-      <c r="H207" s="22"/>
+      <c r="H207" s="52"/>
+      <c r="I207" s="22"/>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="7">
@@ -3892,9 +3933,10 @@
         <v>1</v>
       </c>
       <c r="G208" s="1"/>
-      <c r="H208" s="22"/>
-    </row>
-    <row r="209" spans="1:8">
+      <c r="H208" s="52"/>
+      <c r="I208" s="22"/>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="7">
         <v>45918</v>
       </c>
@@ -3908,9 +3950,10 @@
         <v>1</v>
       </c>
       <c r="G209" s="1"/>
-      <c r="H209" s="22"/>
-    </row>
-    <row r="210" spans="1:8">
+      <c r="H209" s="52"/>
+      <c r="I209" s="22"/>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="7">
         <v>45918</v>
       </c>
@@ -3924,9 +3967,8 @@
         <v>1</v>
       </c>
       <c r="G210" s="1"/>
-      <c r="H210" s="22"/>
-    </row>
-    <row r="211" spans="1:8">
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="7">
         <v>45918</v>
       </c>
@@ -3940,9 +3982,8 @@
         <v>5</v>
       </c>
       <c r="G211" s="1"/>
-      <c r="H211" s="22"/>
-    </row>
-    <row r="212" spans="1:8">
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="7">
         <v>45918</v>
       </c>
@@ -3956,9 +3997,8 @@
         <v>2</v>
       </c>
       <c r="G212" s="1"/>
-      <c r="H212" s="22"/>
-    </row>
-    <row r="213" spans="1:8">
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="7">
         <v>45918</v>
       </c>
@@ -3972,9 +4012,8 @@
         <v>2</v>
       </c>
       <c r="G213" s="1"/>
-      <c r="H213" s="22"/>
-    </row>
-    <row r="214" spans="1:8">
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="7">
         <v>45919</v>
       </c>
@@ -3984,9 +4023,11 @@
       <c r="C214" s="9">
         <v>8</v>
       </c>
-      <c r="D214" s="2"/>
-    </row>
-    <row r="215" spans="1:8">
+      <c r="D214" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="7">
         <v>45919</v>
       </c>
@@ -3996,9 +4037,11 @@
       <c r="C215" s="9">
         <v>3</v>
       </c>
-      <c r="D215" s="2"/>
-    </row>
-    <row r="216" spans="1:8">
+      <c r="D215" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="7">
         <v>45919</v>
       </c>
@@ -4008,9 +4051,11 @@
       <c r="C216" s="9">
         <v>3</v>
       </c>
-      <c r="D216" s="2"/>
-    </row>
-    <row r="217" spans="1:8">
+      <c r="D216" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="7">
         <v>45919</v>
       </c>
@@ -4020,9 +4065,11 @@
       <c r="C217" s="9">
         <v>6</v>
       </c>
-      <c r="D217" s="2"/>
-    </row>
-    <row r="218" spans="1:8">
+      <c r="D217" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="7">
         <v>45919</v>
       </c>
@@ -4032,9 +4079,11 @@
       <c r="C218" s="9">
         <v>6</v>
       </c>
-      <c r="D218" s="2"/>
-    </row>
-    <row r="219" spans="1:8">
+      <c r="D218" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="7">
         <v>45919</v>
       </c>
@@ -4044,402 +4093,964 @@
       <c r="C219" s="9">
         <v>6</v>
       </c>
-      <c r="D219" s="2"/>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-    </row>
-    <row r="222" spans="1:8">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-    </row>
-    <row r="223" spans="1:8">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
-      <c r="D248" s="2"/>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
-      <c r="D250" s="2"/>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
-      <c r="D251" s="2"/>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
-    </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-    </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
-      <c r="D256" s="2"/>
+      <c r="D219" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" s="7">
+        <v>45920</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220" s="24">
+        <v>8</v>
+      </c>
+      <c r="D220" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" s="7">
+        <v>45920</v>
+      </c>
+      <c r="B221" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C221" s="24">
+        <v>1</v>
+      </c>
+      <c r="D221" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" s="7">
+        <v>45920</v>
+      </c>
+      <c r="B222" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" s="24">
+        <v>1</v>
+      </c>
+      <c r="D222" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" s="7">
+        <v>45920</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223" s="9">
+        <v>8</v>
+      </c>
+      <c r="D223" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" s="7">
+        <v>45922</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C224" s="24">
+        <v>21</v>
+      </c>
+      <c r="D224" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" s="7">
+        <v>45922</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C225" s="24">
+        <v>2</v>
+      </c>
+      <c r="D225" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" s="7">
+        <v>45922</v>
+      </c>
+      <c r="B226" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C226" s="24">
+        <v>1</v>
+      </c>
+      <c r="D226" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" s="7">
+        <v>45922</v>
+      </c>
+      <c r="B227" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227" s="24">
+        <v>1</v>
+      </c>
+      <c r="D227" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" s="7">
+        <v>45922</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C228" s="24">
+        <v>10</v>
+      </c>
+      <c r="D228" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" s="7">
+        <v>45922</v>
+      </c>
+      <c r="B229" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C229" s="2">
+        <v>12</v>
+      </c>
+      <c r="D229" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" s="7">
+        <v>45922</v>
+      </c>
+      <c r="B230" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C230" s="2">
+        <v>12</v>
+      </c>
+      <c r="D230" s="2">
+        <v>4</v>
+      </c>
+      <c r="H230" s="50"/>
+      <c r="I230" s="51"/>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" s="7">
+        <v>45923</v>
+      </c>
+      <c r="B231" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231" s="2">
+        <v>1</v>
+      </c>
+      <c r="D231" s="2">
+        <v>0</v>
+      </c>
+      <c r="H231" s="52"/>
+      <c r="I231" s="22"/>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" s="7">
+        <v>45923</v>
+      </c>
+      <c r="B232" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232" s="2">
+        <v>1</v>
+      </c>
+      <c r="D232" s="2">
+        <v>0</v>
+      </c>
+      <c r="H232" s="52"/>
+      <c r="I232" s="22"/>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" s="7">
+        <v>45923</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C233" s="2">
+        <v>10</v>
+      </c>
+      <c r="D233" s="2">
+        <v>5</v>
+      </c>
+      <c r="H233" s="52"/>
+      <c r="I233" s="22"/>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" s="7">
+        <v>45923</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C234" s="2">
+        <v>9</v>
+      </c>
+      <c r="D234" s="2">
+        <v>8</v>
+      </c>
+      <c r="H234" s="52"/>
+      <c r="I234" s="22"/>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" s="7">
+        <v>45923</v>
+      </c>
+      <c r="B235" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235" s="2">
+        <v>1</v>
+      </c>
+      <c r="D235" s="2">
+        <v>3</v>
+      </c>
+      <c r="H235" s="50"/>
+      <c r="I235" s="51"/>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" s="7">
+        <v>45923</v>
+      </c>
+      <c r="B236" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C236" s="2">
+        <v>1</v>
+      </c>
+      <c r="D236" s="2">
+        <v>3</v>
+      </c>
+      <c r="H236" s="52"/>
+      <c r="I236" s="22"/>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" s="7">
+        <v>45923</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C237" s="2">
+        <v>8</v>
+      </c>
+      <c r="D237" s="2">
+        <v>5</v>
+      </c>
+      <c r="H237" s="52"/>
+      <c r="I237" s="22"/>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="7">
+        <v>45924</v>
+      </c>
+      <c r="B238" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" s="2">
+        <v>3</v>
+      </c>
+      <c r="D238" s="2">
+        <v>0</v>
+      </c>
+      <c r="H238" s="52"/>
+      <c r="I238" s="22"/>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" s="7">
+        <v>45924</v>
+      </c>
+      <c r="B239" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C239" s="2">
+        <v>3</v>
+      </c>
+      <c r="D239" s="2">
+        <v>0</v>
+      </c>
+      <c r="H239" s="52"/>
+      <c r="I239" s="22"/>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" s="7">
+        <v>45924</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C240" s="2">
+        <v>9</v>
+      </c>
+      <c r="D240" s="2">
+        <v>5</v>
+      </c>
+      <c r="H240" s="52"/>
+      <c r="I240" s="22"/>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" s="7">
+        <v>45924</v>
+      </c>
+      <c r="B241" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" s="2">
+        <v>3</v>
+      </c>
+      <c r="D241" s="2">
+        <v>2</v>
+      </c>
+      <c r="H241" s="52"/>
+      <c r="I241" s="22"/>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" s="7">
+        <v>45924</v>
+      </c>
+      <c r="B242" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C242" s="2">
+        <v>3</v>
+      </c>
+      <c r="D242" s="2">
+        <v>2</v>
+      </c>
+      <c r="H242" s="50"/>
+      <c r="I242" s="51"/>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" s="7">
+        <v>45924</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243" s="2">
+        <v>9</v>
+      </c>
+      <c r="D243" s="2">
+        <v>7</v>
+      </c>
+      <c r="H243" s="52"/>
+      <c r="I243" s="22"/>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" s="7">
+        <v>45924</v>
+      </c>
+      <c r="B244" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C244" s="2">
+        <v>0</v>
+      </c>
+      <c r="D244" s="2">
+        <v>3</v>
+      </c>
+      <c r="H244" s="52"/>
+      <c r="I244" s="22"/>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" s="7">
+        <v>45924</v>
+      </c>
+      <c r="B245" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C245" s="2">
+        <v>0</v>
+      </c>
+      <c r="D245" s="2">
+        <v>3</v>
+      </c>
+      <c r="H245" s="52"/>
+      <c r="I245" s="22"/>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" s="7">
+        <v>45925</v>
+      </c>
+      <c r="B246" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246" s="2">
+        <v>7</v>
+      </c>
+      <c r="D246" s="2">
+        <v>3</v>
+      </c>
+      <c r="H246" s="50"/>
+      <c r="I246" s="51"/>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" s="7">
+        <v>45925</v>
+      </c>
+      <c r="B247" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C247" s="2">
+        <v>7</v>
+      </c>
+      <c r="D247" s="2">
+        <v>3</v>
+      </c>
+      <c r="H247" s="52"/>
+      <c r="I247" s="22"/>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" s="7">
+        <v>45925</v>
+      </c>
+      <c r="B248" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C248" s="2">
+        <v>10</v>
+      </c>
+      <c r="D248" s="2">
+        <v>3</v>
+      </c>
+      <c r="H248" s="52"/>
+      <c r="I248" s="22"/>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" s="7">
+        <v>45925</v>
+      </c>
+      <c r="B249" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" s="2">
+        <v>10</v>
+      </c>
+      <c r="D249" s="2">
+        <v>3</v>
+      </c>
+      <c r="H249" s="52"/>
+      <c r="I249" s="22"/>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" s="7">
+        <v>45925</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C250" s="2">
+        <v>11</v>
+      </c>
+      <c r="D250" s="2">
+        <v>2</v>
+      </c>
+      <c r="H250" s="52"/>
+      <c r="I250" s="22"/>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" s="7">
+        <v>45925</v>
+      </c>
+      <c r="B251" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C251" s="2">
+        <v>6</v>
+      </c>
+      <c r="D251" s="2">
+        <v>0</v>
+      </c>
+      <c r="H251" s="52"/>
+      <c r="I251" s="22"/>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" s="7">
+        <v>45925</v>
+      </c>
+      <c r="B252" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C252" s="2">
+        <v>6</v>
+      </c>
+      <c r="D252" s="2">
+        <v>0</v>
+      </c>
+      <c r="H252" s="52"/>
+      <c r="I252" s="22"/>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" s="7">
+        <v>45925</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C253" s="2">
+        <v>4</v>
+      </c>
+      <c r="D253" s="2">
+        <v>6</v>
+      </c>
+      <c r="H253" s="52"/>
+      <c r="I253" s="22"/>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" s="7">
+        <v>45926</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C254" s="2">
+        <v>10</v>
+      </c>
+      <c r="D254" s="2">
+        <v>3</v>
+      </c>
+      <c r="H254" s="52"/>
+      <c r="I254" s="22"/>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" s="7">
+        <v>45926</v>
+      </c>
+      <c r="B255" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C255" s="2">
+        <v>5</v>
+      </c>
+      <c r="D255" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" s="7">
+        <v>45926</v>
+      </c>
+      <c r="B256" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C256" s="2">
+        <v>5</v>
+      </c>
+      <c r="D256" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
-      <c r="D257" s="2"/>
+      <c r="A257" s="7">
+        <v>45926</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C257" s="2">
+        <v>6</v>
+      </c>
+      <c r="D257" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
-      <c r="D258" s="2"/>
+      <c r="A258" s="7">
+        <v>45926</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C258" s="2">
+        <v>6</v>
+      </c>
+      <c r="D258" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="259" spans="1:4">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
+      <c r="A259" s="7">
+        <v>45926</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C259" s="2">
+        <v>9</v>
+      </c>
+      <c r="D259" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
-      <c r="D260" s="2"/>
+      <c r="A260" s="7">
+        <v>45926</v>
+      </c>
+      <c r="B260" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C260" s="9">
+        <v>0</v>
+      </c>
+      <c r="D260" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
-      <c r="C261" s="2"/>
-      <c r="D261" s="2"/>
+      <c r="A261" s="7">
+        <v>45927</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C261" s="2">
+        <v>12</v>
+      </c>
+      <c r="D261" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="262" spans="1:4">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
+      <c r="A262" s="7">
+        <v>45927</v>
+      </c>
+      <c r="B262" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C262" s="2">
+        <v>3</v>
+      </c>
+      <c r="D262" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
+      <c r="A263" s="7">
+        <v>45927</v>
+      </c>
+      <c r="B263" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C263" s="2">
+        <v>3</v>
+      </c>
+      <c r="D263" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
+      <c r="A264" s="7">
+        <v>45927</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C264" s="2">
+        <v>11</v>
+      </c>
+      <c r="D264" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
-      <c r="D265" s="2"/>
+      <c r="A265" s="7">
+        <v>45929</v>
+      </c>
+      <c r="B265" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C265" s="2">
+        <v>6</v>
+      </c>
+      <c r="D265" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
-      <c r="C266" s="2"/>
-      <c r="D266" s="2"/>
+      <c r="A266" s="7">
+        <v>45929</v>
+      </c>
+      <c r="B266" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C266" s="2">
+        <v>6</v>
+      </c>
+      <c r="D266" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
+      <c r="A267" s="7">
+        <v>45929</v>
+      </c>
+      <c r="B267" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" s="2">
+        <v>5</v>
+      </c>
+      <c r="D267" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
+      <c r="A268" s="7">
+        <v>45929</v>
+      </c>
+      <c r="B268" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C268" s="2">
+        <v>5</v>
+      </c>
+      <c r="D268" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="269" spans="1:4">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
-      <c r="C269" s="2"/>
-      <c r="D269" s="2"/>
+      <c r="A269" s="7">
+        <v>45929</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C269" s="2">
+        <v>7</v>
+      </c>
+      <c r="D269" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
+      <c r="A270" s="7">
+        <v>45929</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C270" s="2">
+        <v>7</v>
+      </c>
+      <c r="D270" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
+      <c r="A271" s="7">
+        <v>45929</v>
+      </c>
+      <c r="B271" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C271" s="2">
+        <v>2</v>
+      </c>
+      <c r="D271" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2"/>
-      <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
+      <c r="A272" s="7">
+        <v>45929</v>
+      </c>
+      <c r="B272" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C272" s="2">
+        <v>2</v>
+      </c>
+      <c r="D272" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2"/>
-      <c r="C273" s="2"/>
-      <c r="D273" s="2"/>
+      <c r="A273" s="7">
+        <v>45929</v>
+      </c>
+      <c r="B273" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273" s="2">
+        <v>4</v>
+      </c>
+      <c r="D273" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
-      <c r="C274" s="2"/>
-      <c r="D274" s="2"/>
+      <c r="A274" s="7">
+        <v>45929</v>
+      </c>
+      <c r="B274" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C274" s="2">
+        <v>4</v>
+      </c>
+      <c r="D274" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="275" spans="1:4">
-      <c r="A275" s="2"/>
-      <c r="B275" s="2"/>
-      <c r="C275" s="2"/>
-      <c r="D275" s="2"/>
+      <c r="A275" s="7">
+        <v>45929</v>
+      </c>
+      <c r="B275" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275" s="2">
+        <v>0</v>
+      </c>
+      <c r="D275" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="2"/>
-      <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
-      <c r="D276" s="2"/>
+      <c r="A276" s="7">
+        <v>45929</v>
+      </c>
+      <c r="B276" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C276" s="2">
+        <v>0</v>
+      </c>
+      <c r="D276" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
-      <c r="C277" s="2"/>
+      <c r="A277" s="7">
+        <v>45930</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C277" s="9">
+        <v>3</v>
+      </c>
       <c r="D277" s="2"/>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
-      <c r="C278" s="2"/>
+      <c r="A278" s="7">
+        <v>45930</v>
+      </c>
+      <c r="B278" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C278" s="9">
+        <v>3</v>
+      </c>
       <c r="D278" s="2"/>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
+      <c r="A279" s="7">
+        <v>45930</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279" s="9">
+        <v>6</v>
+      </c>
       <c r="D279" s="2"/>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2"/>
-      <c r="C280" s="2"/>
+      <c r="A280" s="7">
+        <v>45930</v>
+      </c>
+      <c r="B280" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C280" s="9">
+        <v>4</v>
+      </c>
       <c r="D280" s="2"/>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" s="2"/>
-      <c r="B281" s="2"/>
-      <c r="C281" s="2"/>
+      <c r="A281" s="7">
+        <v>45930</v>
+      </c>
+      <c r="B281" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C281" s="9">
+        <v>4</v>
+      </c>
       <c r="D281" s="2"/>
     </row>
     <row r="282" spans="1:4">
-      <c r="A282" s="2"/>
-      <c r="B282" s="2"/>
-      <c r="C282" s="2"/>
+      <c r="A282" s="7">
+        <v>45930</v>
+      </c>
+      <c r="B282" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C282" s="9">
+        <v>4</v>
+      </c>
       <c r="D282" s="2"/>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2"/>
-      <c r="C283" s="2"/>
+      <c r="A283" s="7">
+        <v>45930</v>
+      </c>
+      <c r="B283" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C283" s="9">
+        <v>4</v>
+      </c>
       <c r="D283" s="2"/>
     </row>
     <row r="284" spans="1:4">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2"/>
-      <c r="C284" s="2"/>
+      <c r="A284" s="7">
+        <v>45930</v>
+      </c>
+      <c r="B284" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C284" s="9">
+        <v>2</v>
+      </c>
       <c r="D284" s="2"/>
     </row>
     <row r="285" spans="1:4">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
-      <c r="C285" s="2"/>
+      <c r="A285" s="7">
+        <v>45930</v>
+      </c>
+      <c r="B285" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C285" s="9">
+        <v>2</v>
+      </c>
       <c r="D285" s="2"/>
     </row>
     <row r="286" spans="1:4">
@@ -4927,186 +5538,6 @@
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
-    </row>
-    <row r="367" spans="1:4">
-      <c r="A367" s="2"/>
-      <c r="B367" s="2"/>
-      <c r="C367" s="2"/>
-      <c r="D367" s="2"/>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2"/>
-      <c r="B368" s="2"/>
-      <c r="C368" s="2"/>
-      <c r="D368" s="2"/>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2"/>
-      <c r="B369" s="2"/>
-      <c r="C369" s="2"/>
-      <c r="D369" s="2"/>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2"/>
-      <c r="B370" s="2"/>
-      <c r="C370" s="2"/>
-      <c r="D370" s="2"/>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2"/>
-      <c r="B371" s="2"/>
-      <c r="C371" s="2"/>
-      <c r="D371" s="2"/>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2"/>
-      <c r="B372" s="2"/>
-      <c r="C372" s="2"/>
-      <c r="D372" s="2"/>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2"/>
-      <c r="B373" s="2"/>
-      <c r="C373" s="2"/>
-      <c r="D373" s="2"/>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2"/>
-      <c r="B374" s="2"/>
-      <c r="C374" s="2"/>
-      <c r="D374" s="2"/>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2"/>
-      <c r="B375" s="2"/>
-      <c r="C375" s="2"/>
-      <c r="D375" s="2"/>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2"/>
-      <c r="B376" s="2"/>
-      <c r="C376" s="2"/>
-      <c r="D376" s="2"/>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2"/>
-      <c r="B377" s="2"/>
-      <c r="C377" s="2"/>
-      <c r="D377" s="2"/>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2"/>
-      <c r="B378" s="2"/>
-      <c r="C378" s="2"/>
-      <c r="D378" s="2"/>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2"/>
-      <c r="B379" s="2"/>
-      <c r="C379" s="2"/>
-      <c r="D379" s="2"/>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2"/>
-      <c r="B380" s="2"/>
-      <c r="C380" s="2"/>
-      <c r="D380" s="2"/>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2"/>
-      <c r="B381" s="2"/>
-      <c r="C381" s="2"/>
-      <c r="D381" s="2"/>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2"/>
-      <c r="B382" s="2"/>
-      <c r="C382" s="2"/>
-      <c r="D382" s="2"/>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2"/>
-      <c r="B383" s="2"/>
-      <c r="C383" s="2"/>
-      <c r="D383" s="2"/>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2"/>
-      <c r="B384" s="2"/>
-      <c r="C384" s="2"/>
-      <c r="D384" s="2"/>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2"/>
-      <c r="B385" s="2"/>
-      <c r="C385" s="2"/>
-      <c r="D385" s="2"/>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2"/>
-      <c r="B386" s="2"/>
-      <c r="C386" s="2"/>
-      <c r="D386" s="2"/>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2"/>
-      <c r="B387" s="2"/>
-      <c r="C387" s="2"/>
-      <c r="D387" s="2"/>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2"/>
-      <c r="B388" s="2"/>
-      <c r="C388" s="2"/>
-      <c r="D388" s="2"/>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2"/>
-      <c r="B389" s="2"/>
-      <c r="C389" s="2"/>
-      <c r="D389" s="2"/>
-    </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="2"/>
-      <c r="B390" s="2"/>
-      <c r="C390" s="2"/>
-      <c r="D390" s="2"/>
-    </row>
-    <row r="391" spans="1:4">
-      <c r="A391" s="2"/>
-      <c r="B391" s="2"/>
-      <c r="C391" s="2"/>
-      <c r="D391" s="2"/>
-    </row>
-    <row r="392" spans="1:4">
-      <c r="A392" s="2"/>
-      <c r="B392" s="2"/>
-      <c r="C392" s="2"/>
-      <c r="D392" s="2"/>
-    </row>
-    <row r="393" spans="1:4">
-      <c r="A393" s="2"/>
-      <c r="B393" s="2"/>
-      <c r="C393" s="2"/>
-      <c r="D393" s="2"/>
-    </row>
-    <row r="394" spans="1:4">
-      <c r="A394" s="2"/>
-      <c r="B394" s="2"/>
-      <c r="C394" s="2"/>
-      <c r="D394" s="2"/>
-    </row>
-    <row r="395" spans="1:4">
-      <c r="A395" s="2"/>
-      <c r="B395" s="2"/>
-      <c r="C395" s="2"/>
-      <c r="D395" s="2"/>
-    </row>
-    <row r="396" spans="1:4">
-      <c r="A396" s="2"/>
-      <c r="B396" s="2"/>
-      <c r="C396" s="2"/>
-      <c r="D396" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>
@@ -5121,7 +5552,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="19">
   <si>
     <t>Data</t>
   </si>
@@ -293,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -402,6 +402,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -698,11 +701,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U366"/>
+  <dimension ref="A1:U370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M272" sqref="M272"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G281" sqref="G281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -712,7 +715,7 @@
     <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="22.44140625" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" customWidth="1"/>
     <col min="9" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="20.109375" customWidth="1"/>
     <col min="12" max="19" width="15.88671875" bestFit="1" customWidth="1"/>
@@ -4889,7 +4892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:9">
       <c r="A273" s="7">
         <v>45929</v>
       </c>
@@ -4903,7 +4906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:9">
       <c r="A274" s="7">
         <v>45929</v>
       </c>
@@ -4917,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:9">
       <c r="A275" s="7">
         <v>45929</v>
       </c>
@@ -4931,7 +4934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:9">
       <c r="A276" s="7">
         <v>45929</v>
       </c>
@@ -4945,7 +4948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:9">
       <c r="A277" s="7">
         <v>45930</v>
       </c>
@@ -4955,9 +4958,13 @@
       <c r="C277" s="9">
         <v>3</v>
       </c>
-      <c r="D277" s="2"/>
-    </row>
-    <row r="278" spans="1:4">
+      <c r="D277" s="2">
+        <v>4</v>
+      </c>
+      <c r="H277" s="1"/>
+      <c r="I277" s="22"/>
+    </row>
+    <row r="278" spans="1:9">
       <c r="A278" s="7">
         <v>45930</v>
       </c>
@@ -4967,9 +4974,13 @@
       <c r="C278" s="9">
         <v>3</v>
       </c>
-      <c r="D278" s="2"/>
-    </row>
-    <row r="279" spans="1:4">
+      <c r="D278" s="2">
+        <v>4</v>
+      </c>
+      <c r="H278" s="1"/>
+      <c r="I278" s="22"/>
+    </row>
+    <row r="279" spans="1:9">
       <c r="A279" s="7">
         <v>45930</v>
       </c>
@@ -4979,9 +4990,13 @@
       <c r="C279" s="9">
         <v>6</v>
       </c>
-      <c r="D279" s="2"/>
-    </row>
-    <row r="280" spans="1:4">
+      <c r="D279" s="2">
+        <v>4</v>
+      </c>
+      <c r="H279" s="1"/>
+      <c r="I279" s="22"/>
+    </row>
+    <row r="280" spans="1:9">
       <c r="A280" s="7">
         <v>45930</v>
       </c>
@@ -4991,9 +5006,13 @@
       <c r="C280" s="9">
         <v>4</v>
       </c>
-      <c r="D280" s="2"/>
-    </row>
-    <row r="281" spans="1:4">
+      <c r="D280" s="2">
+        <v>3</v>
+      </c>
+      <c r="H280" s="1"/>
+      <c r="I280" s="22"/>
+    </row>
+    <row r="281" spans="1:9">
       <c r="A281" s="7">
         <v>45930</v>
       </c>
@@ -5003,9 +5022,13 @@
       <c r="C281" s="9">
         <v>4</v>
       </c>
-      <c r="D281" s="2"/>
-    </row>
-    <row r="282" spans="1:4">
+      <c r="D281" s="2">
+        <v>3</v>
+      </c>
+      <c r="H281" s="1"/>
+      <c r="I281" s="22"/>
+    </row>
+    <row r="282" spans="1:9">
       <c r="A282" s="7">
         <v>45930</v>
       </c>
@@ -5015,9 +5038,13 @@
       <c r="C282" s="9">
         <v>4</v>
       </c>
-      <c r="D282" s="2"/>
-    </row>
-    <row r="283" spans="1:4">
+      <c r="D282" s="2">
+        <v>5</v>
+      </c>
+      <c r="H282" s="1"/>
+      <c r="I282" s="22"/>
+    </row>
+    <row r="283" spans="1:9">
       <c r="A283" s="7">
         <v>45930</v>
       </c>
@@ -5027,9 +5054,13 @@
       <c r="C283" s="9">
         <v>4</v>
       </c>
-      <c r="D283" s="2"/>
-    </row>
-    <row r="284" spans="1:4">
+      <c r="D283" s="2">
+        <v>5</v>
+      </c>
+      <c r="H283" s="1"/>
+      <c r="I283" s="22"/>
+    </row>
+    <row r="284" spans="1:9">
       <c r="A284" s="7">
         <v>45930</v>
       </c>
@@ -5039,9 +5070,13 @@
       <c r="C284" s="9">
         <v>2</v>
       </c>
-      <c r="D284" s="2"/>
-    </row>
-    <row r="285" spans="1:4">
+      <c r="D284" s="2">
+        <v>2</v>
+      </c>
+      <c r="H284" s="1"/>
+      <c r="I284" s="22"/>
+    </row>
+    <row r="285" spans="1:9">
       <c r="A285" s="7">
         <v>45930</v>
       </c>
@@ -5051,117 +5086,181 @@
       <c r="C285" s="9">
         <v>2</v>
       </c>
-      <c r="D285" s="2"/>
-    </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="2"/>
-      <c r="B286" s="2"/>
-      <c r="C286" s="2"/>
-      <c r="D286" s="2"/>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="2"/>
-      <c r="B287" s="2"/>
-      <c r="C287" s="2"/>
+      <c r="D285" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286" s="7">
+        <v>45930</v>
+      </c>
+      <c r="B286" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C286" s="9">
+        <v>0</v>
+      </c>
+      <c r="D286" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" s="7">
+        <v>45931</v>
+      </c>
+      <c r="B287" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C287" s="9">
+        <v>2</v>
+      </c>
       <c r="D287" s="2"/>
     </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2"/>
-      <c r="C288" s="2"/>
+    <row r="288" spans="1:9">
+      <c r="A288" s="7">
+        <v>45931</v>
+      </c>
+      <c r="B288" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288" s="9">
+        <v>2</v>
+      </c>
       <c r="D288" s="2"/>
     </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="2"/>
-      <c r="B289" s="2"/>
-      <c r="C289" s="2"/>
+    <row r="289" spans="1:9">
+      <c r="A289" s="7">
+        <v>45931</v>
+      </c>
+      <c r="B289" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289" s="9">
+        <v>6</v>
+      </c>
       <c r="D289" s="2"/>
     </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="2"/>
-      <c r="B290" s="2"/>
-      <c r="C290" s="2"/>
+    <row r="290" spans="1:9">
+      <c r="A290" s="7">
+        <v>45931</v>
+      </c>
+      <c r="B290" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C290" s="9">
+        <v>6</v>
+      </c>
       <c r="D290" s="2"/>
     </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="2"/>
-      <c r="B291" s="2"/>
-      <c r="C291" s="2"/>
+    <row r="291" spans="1:9">
+      <c r="A291" s="7">
+        <v>45931</v>
+      </c>
+      <c r="B291" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291" s="9">
+        <v>4</v>
+      </c>
       <c r="D291" s="2"/>
     </row>
-    <row r="292" spans="1:4">
-      <c r="A292" s="2"/>
-      <c r="B292" s="2"/>
-      <c r="C292" s="2"/>
+    <row r="292" spans="1:9">
+      <c r="A292" s="7">
+        <v>45931</v>
+      </c>
+      <c r="B292" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C292" s="9">
+        <v>4</v>
+      </c>
       <c r="D292" s="2"/>
     </row>
-    <row r="293" spans="1:4">
-      <c r="A293" s="2"/>
-      <c r="B293" s="2"/>
-      <c r="C293" s="2"/>
+    <row r="293" spans="1:9">
+      <c r="A293" s="7">
+        <v>45931</v>
+      </c>
+      <c r="B293" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293" s="9">
+        <v>2</v>
+      </c>
       <c r="D293" s="2"/>
     </row>
-    <row r="294" spans="1:4">
-      <c r="A294" s="2"/>
-      <c r="B294" s="2"/>
-      <c r="C294" s="2"/>
+    <row r="294" spans="1:9">
+      <c r="A294" s="7">
+        <v>45931</v>
+      </c>
+      <c r="B294" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C294" s="9">
+        <v>2</v>
+      </c>
       <c r="D294" s="2"/>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:9">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
-    </row>
-    <row r="296" spans="1:4">
+      <c r="H295" s="1"/>
+      <c r="I295" s="22"/>
+    </row>
+    <row r="296" spans="1:9">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
-    </row>
-    <row r="297" spans="1:4">
+      <c r="H296" s="1"/>
+      <c r="I296" s="22"/>
+    </row>
+    <row r="297" spans="1:9">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
-    </row>
-    <row r="298" spans="1:4">
+      <c r="H297" s="1"/>
+      <c r="I297" s="22"/>
+    </row>
+    <row r="298" spans="1:9">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:9">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:9">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:9">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:9">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:9">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:9">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -5538,6 +5637,30 @@
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="2"/>
+      <c r="B367" s="2"/>
+      <c r="C367" s="2"/>
+      <c r="D367" s="2"/>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2"/>
+      <c r="B368" s="2"/>
+      <c r="C368" s="2"/>
+      <c r="D368" s="2"/>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2"/>
+      <c r="B369" s="2"/>
+      <c r="C369" s="2"/>
+      <c r="D369" s="2"/>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2"/>
+      <c r="B370" s="2"/>
+      <c r="C370" s="2"/>
+      <c r="D370" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="19">
   <si>
     <t>Data</t>
   </si>
@@ -110,7 +110,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +255,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -293,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -404,6 +410,9 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -701,11 +710,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U370"/>
+  <dimension ref="A1:U372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G281" sqref="G281"/>
+      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G283" sqref="G283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -715,7 +724,7 @@
     <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="22.44140625" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="20.109375" customWidth="1"/>
     <col min="12" max="19" width="15.88671875" bestFit="1" customWidth="1"/>
@@ -5114,7 +5123,9 @@
       <c r="C287" s="9">
         <v>2</v>
       </c>
-      <c r="D287" s="2"/>
+      <c r="D287" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="288" spans="1:9">
       <c r="A288" s="7">
@@ -5126,7 +5137,9 @@
       <c r="C288" s="9">
         <v>2</v>
       </c>
-      <c r="D288" s="2"/>
+      <c r="D288" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="289" spans="1:9">
       <c r="A289" s="7">
@@ -5138,7 +5151,9 @@
       <c r="C289" s="9">
         <v>6</v>
       </c>
-      <c r="D289" s="2"/>
+      <c r="D289" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="290" spans="1:9">
       <c r="A290" s="7">
@@ -5150,7 +5165,9 @@
       <c r="C290" s="9">
         <v>6</v>
       </c>
-      <c r="D290" s="2"/>
+      <c r="D290" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="291" spans="1:9">
       <c r="A291" s="7">
@@ -5162,7 +5179,9 @@
       <c r="C291" s="9">
         <v>4</v>
       </c>
-      <c r="D291" s="2"/>
+      <c r="D291" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="292" spans="1:9">
       <c r="A292" s="7">
@@ -5174,7 +5193,9 @@
       <c r="C292" s="9">
         <v>4</v>
       </c>
-      <c r="D292" s="2"/>
+      <c r="D292" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="293" spans="1:9">
       <c r="A293" s="7">
@@ -5186,7 +5207,9 @@
       <c r="C293" s="9">
         <v>2</v>
       </c>
-      <c r="D293" s="2"/>
+      <c r="D293" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="294" spans="1:9">
       <c r="A294" s="7">
@@ -5198,108 +5221,232 @@
       <c r="C294" s="9">
         <v>2</v>
       </c>
-      <c r="D294" s="2"/>
+      <c r="D294" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="295" spans="1:9">
-      <c r="A295" s="2"/>
-      <c r="B295" s="2"/>
-      <c r="C295" s="2"/>
-      <c r="D295" s="2"/>
+      <c r="A295" s="7">
+        <v>45932</v>
+      </c>
+      <c r="B295" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C295" s="2">
+        <v>3</v>
+      </c>
+      <c r="D295" s="2">
+        <v>3</v>
+      </c>
       <c r="H295" s="1"/>
       <c r="I295" s="22"/>
     </row>
     <row r="296" spans="1:9">
-      <c r="A296" s="2"/>
-      <c r="B296" s="2"/>
-      <c r="C296" s="2"/>
-      <c r="D296" s="2"/>
+      <c r="A296" s="7">
+        <v>45932</v>
+      </c>
+      <c r="B296" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C296" s="2">
+        <v>3</v>
+      </c>
+      <c r="D296" s="2">
+        <v>3</v>
+      </c>
       <c r="H296" s="1"/>
       <c r="I296" s="22"/>
     </row>
     <row r="297" spans="1:9">
-      <c r="A297" s="2"/>
-      <c r="B297" s="2"/>
-      <c r="C297" s="2"/>
-      <c r="D297" s="2"/>
-      <c r="H297" s="1"/>
-      <c r="I297" s="22"/>
+      <c r="A297" s="7">
+        <v>45932</v>
+      </c>
+      <c r="B297" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C297" s="2">
+        <v>1</v>
+      </c>
+      <c r="D297" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="298" spans="1:9">
-      <c r="A298" s="2"/>
-      <c r="B298" s="2"/>
-      <c r="C298" s="2"/>
-      <c r="D298" s="2"/>
+      <c r="A298" s="7">
+        <v>45932</v>
+      </c>
+      <c r="B298" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C298" s="2">
+        <v>1</v>
+      </c>
+      <c r="D298" s="2">
+        <v>2</v>
+      </c>
+      <c r="H298" s="1"/>
+      <c r="I298" s="22"/>
     </row>
     <row r="299" spans="1:9">
-      <c r="A299" s="2"/>
-      <c r="B299" s="2"/>
-      <c r="C299" s="2"/>
-      <c r="D299" s="2"/>
+      <c r="A299" s="7">
+        <v>45932</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C299" s="2">
+        <v>3</v>
+      </c>
+      <c r="D299" s="2">
+        <v>7</v>
+      </c>
+      <c r="H299" s="1"/>
+      <c r="I299" s="22"/>
     </row>
     <row r="300" spans="1:9">
-      <c r="A300" s="2"/>
-      <c r="B300" s="2"/>
-      <c r="C300" s="2"/>
-      <c r="D300" s="2"/>
+      <c r="A300" s="7">
+        <v>45932</v>
+      </c>
+      <c r="B300" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" s="2">
+        <v>6</v>
+      </c>
+      <c r="D300" s="2">
+        <v>0</v>
+      </c>
+      <c r="H300" s="1"/>
+      <c r="I300" s="22"/>
     </row>
     <row r="301" spans="1:9">
-      <c r="A301" s="2"/>
-      <c r="B301" s="2"/>
-      <c r="C301" s="2"/>
-      <c r="D301" s="2"/>
+      <c r="A301" s="7">
+        <v>45932</v>
+      </c>
+      <c r="B301" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C301" s="2">
+        <v>6</v>
+      </c>
+      <c r="D301" s="2">
+        <v>0</v>
+      </c>
+      <c r="H301" s="1"/>
+      <c r="I301" s="22"/>
     </row>
     <row r="302" spans="1:9">
-      <c r="A302" s="2"/>
-      <c r="B302" s="2"/>
-      <c r="C302" s="2"/>
-      <c r="D302" s="2"/>
+      <c r="A302" s="7">
+        <v>45932</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C302" s="2">
+        <v>12</v>
+      </c>
+      <c r="D302" s="2">
+        <v>5</v>
+      </c>
+      <c r="H302" s="1"/>
+      <c r="I302" s="22"/>
     </row>
     <row r="303" spans="1:9">
-      <c r="A303" s="2"/>
-      <c r="B303" s="2"/>
-      <c r="C303" s="2"/>
+      <c r="A303" s="7">
+        <v>45933</v>
+      </c>
+      <c r="B303" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C303" s="9">
+        <v>3</v>
+      </c>
       <c r="D303" s="2"/>
+      <c r="H303" s="1"/>
+      <c r="I303" s="22"/>
     </row>
     <row r="304" spans="1:9">
-      <c r="A304" s="2"/>
-      <c r="B304" s="2"/>
-      <c r="C304" s="2"/>
+      <c r="A304" s="7">
+        <v>45933</v>
+      </c>
+      <c r="B304" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C304" s="9">
+        <v>3</v>
+      </c>
       <c r="D304" s="2"/>
     </row>
     <row r="305" spans="1:4">
-      <c r="A305" s="2"/>
-      <c r="B305" s="2"/>
-      <c r="C305" s="2"/>
+      <c r="A305" s="7">
+        <v>45933</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C305" s="9">
+        <v>3</v>
+      </c>
       <c r="D305" s="2"/>
     </row>
     <row r="306" spans="1:4">
-      <c r="A306" s="2"/>
-      <c r="B306" s="2"/>
-      <c r="C306" s="2"/>
+      <c r="A306" s="7">
+        <v>45933</v>
+      </c>
+      <c r="B306" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C306" s="9">
+        <v>4</v>
+      </c>
       <c r="D306" s="2"/>
     </row>
     <row r="307" spans="1:4">
-      <c r="A307" s="2"/>
-      <c r="B307" s="2"/>
-      <c r="C307" s="2"/>
+      <c r="A307" s="7">
+        <v>45933</v>
+      </c>
+      <c r="B307" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C307" s="9">
+        <v>4</v>
+      </c>
       <c r="D307" s="2"/>
     </row>
     <row r="308" spans="1:4">
-      <c r="A308" s="2"/>
-      <c r="B308" s="2"/>
-      <c r="C308" s="2"/>
+      <c r="A308" s="7">
+        <v>45933</v>
+      </c>
+      <c r="B308" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C308" s="9">
+        <v>1</v>
+      </c>
       <c r="D308" s="2"/>
     </row>
     <row r="309" spans="1:4">
-      <c r="A309" s="2"/>
-      <c r="B309" s="2"/>
-      <c r="C309" s="2"/>
+      <c r="A309" s="7">
+        <v>45933</v>
+      </c>
+      <c r="B309" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C309" s="9">
+        <v>1</v>
+      </c>
       <c r="D309" s="2"/>
     </row>
     <row r="310" spans="1:4">
-      <c r="A310" s="2"/>
-      <c r="B310" s="2"/>
-      <c r="C310" s="2"/>
+      <c r="A310" s="7">
+        <v>45933</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C310" s="9">
+        <v>7</v>
+      </c>
       <c r="D310" s="2"/>
     </row>
     <row r="311" spans="1:4">
@@ -5661,6 +5808,18 @@
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2"/>
+      <c r="B371" s="2"/>
+      <c r="C371" s="2"/>
+      <c r="D371" s="2"/>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2"/>
+      <c r="B372" s="2"/>
+      <c r="C372" s="2"/>
+      <c r="D372" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -76,6 +76,9 @@
   <si>
     <t>ROCCELLA ALBERTO</t>
   </si>
+  <si>
+    <t>DI MAURO SALVATORE</t>
+  </si>
 </sst>
 </file>
 
@@ -110,7 +113,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +264,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -299,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -415,6 +424,8 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -710,11 +721,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U372"/>
+  <dimension ref="A1:U373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G283" sqref="G283"/>
+      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G310" sqref="G310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -723,7 +734,7 @@
     <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="20.109375" customWidth="1"/>
@@ -5377,7 +5388,7 @@
       </c>
       <c r="D304" s="2"/>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:9">
       <c r="A305" s="7">
         <v>45933</v>
       </c>
@@ -5387,9 +5398,11 @@
       <c r="C305" s="9">
         <v>3</v>
       </c>
-      <c r="D305" s="2"/>
-    </row>
-    <row r="306" spans="1:4">
+      <c r="D305" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
       <c r="A306" s="7">
         <v>45933</v>
       </c>
@@ -5399,9 +5412,13 @@
       <c r="C306" s="9">
         <v>4</v>
       </c>
-      <c r="D306" s="2"/>
-    </row>
-    <row r="307" spans="1:4">
+      <c r="D306" s="2">
+        <v>0</v>
+      </c>
+      <c r="G306" s="1"/>
+      <c r="H306" s="22"/>
+    </row>
+    <row r="307" spans="1:9">
       <c r="A307" s="7">
         <v>45933</v>
       </c>
@@ -5411,9 +5428,13 @@
       <c r="C307" s="9">
         <v>4</v>
       </c>
-      <c r="D307" s="2"/>
-    </row>
-    <row r="308" spans="1:4">
+      <c r="D307" s="2">
+        <v>0</v>
+      </c>
+      <c r="G307" s="1"/>
+      <c r="H307" s="22"/>
+    </row>
+    <row r="308" spans="1:9">
       <c r="A308" s="7">
         <v>45933</v>
       </c>
@@ -5423,9 +5444,13 @@
       <c r="C308" s="9">
         <v>1</v>
       </c>
-      <c r="D308" s="2"/>
-    </row>
-    <row r="309" spans="1:4">
+      <c r="D308" s="2">
+        <v>1</v>
+      </c>
+      <c r="G308" s="1"/>
+      <c r="H308" s="22"/>
+    </row>
+    <row r="309" spans="1:9">
       <c r="A309" s="7">
         <v>45933</v>
       </c>
@@ -5435,9 +5460,13 @@
       <c r="C309" s="9">
         <v>1</v>
       </c>
-      <c r="D309" s="2"/>
-    </row>
-    <row r="310" spans="1:4">
+      <c r="D309" s="2">
+        <v>1</v>
+      </c>
+      <c r="G309" s="1"/>
+      <c r="H309" s="22"/>
+    </row>
+    <row r="310" spans="1:9">
       <c r="A310" s="7">
         <v>45933</v>
       </c>
@@ -5447,72 +5476,160 @@
       <c r="C310" s="9">
         <v>7</v>
       </c>
-      <c r="D310" s="2"/>
-    </row>
-    <row r="311" spans="1:4">
-      <c r="A311" s="2"/>
-      <c r="B311" s="2"/>
-      <c r="C311" s="2"/>
-      <c r="D311" s="2"/>
-    </row>
-    <row r="312" spans="1:4">
-      <c r="A312" s="2"/>
-      <c r="B312" s="2"/>
-      <c r="C312" s="2"/>
-      <c r="D312" s="2"/>
-    </row>
-    <row r="313" spans="1:4">
-      <c r="A313" s="2"/>
-      <c r="B313" s="2"/>
-      <c r="C313" s="2"/>
-      <c r="D313" s="2"/>
-    </row>
-    <row r="314" spans="1:4">
-      <c r="A314" s="2"/>
-      <c r="B314" s="2"/>
-      <c r="C314" s="2"/>
-      <c r="D314" s="2"/>
-    </row>
-    <row r="315" spans="1:4">
-      <c r="A315" s="2"/>
-      <c r="B315" s="2"/>
-      <c r="C315" s="2"/>
+      <c r="D310" s="2">
+        <v>0</v>
+      </c>
+      <c r="G310" s="1"/>
+      <c r="H310" s="22"/>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="A311" s="7">
+        <v>45933</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C311" s="9">
+        <v>0</v>
+      </c>
+      <c r="D311" s="2">
+        <v>2</v>
+      </c>
+      <c r="G311" s="1"/>
+      <c r="H311" s="22"/>
+    </row>
+    <row r="312" spans="1:9">
+      <c r="A312" s="7">
+        <v>45934</v>
+      </c>
+      <c r="B312" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C312" s="2">
+        <v>13</v>
+      </c>
+      <c r="D312" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
+      <c r="A313" s="7">
+        <v>45934</v>
+      </c>
+      <c r="B313" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C313" s="2">
+        <v>13</v>
+      </c>
+      <c r="D313" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
+      <c r="A314" s="7">
+        <v>45934</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C314" s="2">
+        <v>13</v>
+      </c>
+      <c r="D314" s="2">
+        <v>6</v>
+      </c>
+      <c r="H314" s="1"/>
+      <c r="I314" s="22"/>
+    </row>
+    <row r="315" spans="1:9">
+      <c r="A315" s="7">
+        <v>45936</v>
+      </c>
+      <c r="B315" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C315" s="2">
+        <v>8</v>
+      </c>
       <c r="D315" s="2"/>
-    </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="2"/>
-      <c r="B316" s="2"/>
-      <c r="C316" s="2"/>
+      <c r="H315" s="1"/>
+      <c r="I315" s="22"/>
+    </row>
+    <row r="316" spans="1:9">
+      <c r="A316" s="7">
+        <v>45936</v>
+      </c>
+      <c r="B316" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C316" s="2">
+        <v>8</v>
+      </c>
       <c r="D316" s="2"/>
-    </row>
-    <row r="317" spans="1:4">
-      <c r="A317" s="2"/>
-      <c r="B317" s="2"/>
-      <c r="C317" s="2"/>
+      <c r="H316" s="1"/>
+      <c r="I316" s="22"/>
+    </row>
+    <row r="317" spans="1:9">
+      <c r="A317" s="7">
+        <v>45936</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C317" s="2">
+        <v>6</v>
+      </c>
       <c r="D317" s="2"/>
-    </row>
-    <row r="318" spans="1:4">
-      <c r="A318" s="2"/>
-      <c r="B318" s="2"/>
-      <c r="C318" s="2"/>
+      <c r="H317" s="1"/>
+      <c r="I317" s="22"/>
+    </row>
+    <row r="318" spans="1:9">
+      <c r="A318" s="7">
+        <v>45936</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C318" s="2">
+        <v>3</v>
+      </c>
       <c r="D318" s="2"/>
     </row>
-    <row r="319" spans="1:4">
-      <c r="A319" s="2"/>
-      <c r="B319" s="2"/>
-      <c r="C319" s="2"/>
+    <row r="319" spans="1:9">
+      <c r="A319" s="7">
+        <v>45936</v>
+      </c>
+      <c r="B319" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C319" s="2">
+        <v>5</v>
+      </c>
       <c r="D319" s="2"/>
     </row>
-    <row r="320" spans="1:4">
-      <c r="A320" s="2"/>
-      <c r="B320" s="2"/>
-      <c r="C320" s="2"/>
+    <row r="320" spans="1:9">
+      <c r="A320" s="7">
+        <v>45936</v>
+      </c>
+      <c r="B320" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C320" s="2">
+        <v>5</v>
+      </c>
       <c r="D320" s="2"/>
     </row>
     <row r="321" spans="1:4">
-      <c r="A321" s="2"/>
-      <c r="B321" s="2"/>
-      <c r="C321" s="2"/>
+      <c r="A321" s="7">
+        <v>45936</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C321" s="2">
+        <v>9</v>
+      </c>
       <c r="D321" s="2"/>
     </row>
     <row r="322" spans="1:4">
@@ -5820,6 +5937,12 @@
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2"/>
+      <c r="B373" s="2"/>
+      <c r="C373" s="2"/>
+      <c r="D373" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -721,11 +721,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U373"/>
+  <dimension ref="A1:U375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G310" sqref="G310"/>
+      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H314" sqref="H314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -735,8 +735,7 @@
     <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="21.109375" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="28" customWidth="1"/>
+    <col min="8" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="20.109375" customWidth="1"/>
     <col min="12" max="19" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.33203125" customWidth="1"/>
@@ -5552,9 +5551,9 @@
       <c r="C315" s="2">
         <v>8</v>
       </c>
-      <c r="D315" s="2"/>
-      <c r="H315" s="1"/>
-      <c r="I315" s="22"/>
+      <c r="D315" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="316" spans="1:9">
       <c r="A316" s="7">
@@ -5566,9 +5565,11 @@
       <c r="C316" s="2">
         <v>8</v>
       </c>
-      <c r="D316" s="2"/>
-      <c r="H316" s="1"/>
-      <c r="I316" s="22"/>
+      <c r="D316" s="2">
+        <v>0</v>
+      </c>
+      <c r="G316" s="1"/>
+      <c r="H316" s="22"/>
     </row>
     <row r="317" spans="1:9">
       <c r="A317" s="7">
@@ -5580,9 +5581,11 @@
       <c r="C317" s="2">
         <v>6</v>
       </c>
-      <c r="D317" s="2"/>
-      <c r="H317" s="1"/>
-      <c r="I317" s="22"/>
+      <c r="D317" s="2">
+        <v>0</v>
+      </c>
+      <c r="G317" s="1"/>
+      <c r="H317" s="22"/>
     </row>
     <row r="318" spans="1:9">
       <c r="A318" s="7">
@@ -5594,7 +5597,11 @@
       <c r="C318" s="2">
         <v>3</v>
       </c>
-      <c r="D318" s="2"/>
+      <c r="D318" s="2">
+        <v>4</v>
+      </c>
+      <c r="G318" s="1"/>
+      <c r="H318" s="22"/>
     </row>
     <row r="319" spans="1:9">
       <c r="A319" s="7">
@@ -5606,7 +5613,11 @@
       <c r="C319" s="2">
         <v>5</v>
       </c>
-      <c r="D319" s="2"/>
+      <c r="D319" s="2">
+        <v>6</v>
+      </c>
+      <c r="G319" s="1"/>
+      <c r="H319" s="22"/>
     </row>
     <row r="320" spans="1:9">
       <c r="A320" s="7">
@@ -5618,7 +5629,11 @@
       <c r="C320" s="2">
         <v>5</v>
       </c>
-      <c r="D320" s="2"/>
+      <c r="D320" s="2">
+        <v>6</v>
+      </c>
+      <c r="G320" s="1"/>
+      <c r="H320" s="22"/>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="7">
@@ -5630,54 +5645,104 @@
       <c r="C321" s="2">
         <v>9</v>
       </c>
-      <c r="D321" s="2"/>
+      <c r="D321" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="322" spans="1:4">
-      <c r="A322" s="2"/>
-      <c r="B322" s="2"/>
-      <c r="C322" s="2"/>
+      <c r="A322" s="7">
+        <v>45937</v>
+      </c>
+      <c r="B322" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C322" s="9">
+        <v>1</v>
+      </c>
       <c r="D322" s="2"/>
     </row>
     <row r="323" spans="1:4">
-      <c r="A323" s="2"/>
-      <c r="B323" s="2"/>
-      <c r="C323" s="2"/>
+      <c r="A323" s="7">
+        <v>45937</v>
+      </c>
+      <c r="B323" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C323" s="9">
+        <v>1</v>
+      </c>
       <c r="D323" s="2"/>
     </row>
     <row r="324" spans="1:4">
-      <c r="A324" s="2"/>
-      <c r="B324" s="2"/>
-      <c r="C324" s="2"/>
+      <c r="A324" s="7">
+        <v>45937</v>
+      </c>
+      <c r="B324" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C324" s="9">
+        <v>8</v>
+      </c>
       <c r="D324" s="2"/>
     </row>
     <row r="325" spans="1:4">
-      <c r="A325" s="2"/>
-      <c r="B325" s="2"/>
-      <c r="C325" s="2"/>
+      <c r="A325" s="7">
+        <v>45937</v>
+      </c>
+      <c r="B325" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C325" s="9">
+        <v>8</v>
+      </c>
       <c r="D325" s="2"/>
     </row>
     <row r="326" spans="1:4">
-      <c r="A326" s="2"/>
-      <c r="B326" s="2"/>
-      <c r="C326" s="2"/>
+      <c r="A326" s="7">
+        <v>45937</v>
+      </c>
+      <c r="B326" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C326" s="9">
+        <v>16</v>
+      </c>
       <c r="D326" s="2"/>
     </row>
     <row r="327" spans="1:4">
-      <c r="A327" s="2"/>
-      <c r="B327" s="2"/>
-      <c r="C327" s="2"/>
+      <c r="A327" s="7">
+        <v>45937</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C327" s="9">
+        <v>6</v>
+      </c>
       <c r="D327" s="2"/>
     </row>
     <row r="328" spans="1:4">
-      <c r="A328" s="2"/>
-      <c r="B328" s="2"/>
-      <c r="C328" s="2"/>
+      <c r="A328" s="7">
+        <v>45937</v>
+      </c>
+      <c r="B328" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C328" s="9">
+        <v>2</v>
+      </c>
       <c r="D328" s="2"/>
     </row>
     <row r="329" spans="1:4">
-      <c r="A329" s="2"/>
-      <c r="B329" s="2"/>
-      <c r="C329" s="2"/>
+      <c r="A329" s="7">
+        <v>45937</v>
+      </c>
+      <c r="B329" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C329" s="9">
+        <v>2</v>
+      </c>
       <c r="D329" s="2"/>
     </row>
     <row r="330" spans="1:4">
@@ -5943,6 +6008,18 @@
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2"/>
+      <c r="B374" s="2"/>
+      <c r="C374" s="2"/>
+      <c r="D374" s="2"/>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2"/>
+      <c r="B375" s="2"/>
+      <c r="C375" s="2"/>
+      <c r="D375" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -721,11 +721,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U375"/>
+  <dimension ref="A1:U379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H314" sqref="H314"/>
+      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F320" sqref="F320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -734,8 +734,10 @@
     <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1"/>
-    <col min="8" max="10" width="28" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" customWidth="1"/>
+    <col min="9" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="20.109375" customWidth="1"/>
     <col min="12" max="19" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.33203125" customWidth="1"/>
@@ -5635,7 +5637,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="22"/>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:9">
       <c r="A321" s="7">
         <v>45936</v>
       </c>
@@ -5649,7 +5651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:9">
       <c r="A322" s="7">
         <v>45937</v>
       </c>
@@ -5659,9 +5661,11 @@
       <c r="C322" s="9">
         <v>1</v>
       </c>
-      <c r="D322" s="2"/>
-    </row>
-    <row r="323" spans="1:4">
+      <c r="D322" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
       <c r="A323" s="7">
         <v>45937</v>
       </c>
@@ -5671,9 +5675,13 @@
       <c r="C323" s="9">
         <v>1</v>
       </c>
-      <c r="D323" s="2"/>
-    </row>
-    <row r="324" spans="1:4">
+      <c r="D323" s="2">
+        <v>0</v>
+      </c>
+      <c r="F323" s="1"/>
+      <c r="G323" s="22"/>
+    </row>
+    <row r="324" spans="1:9">
       <c r="A324" s="7">
         <v>45937</v>
       </c>
@@ -5683,9 +5691,13 @@
       <c r="C324" s="9">
         <v>8</v>
       </c>
-      <c r="D324" s="2"/>
-    </row>
-    <row r="325" spans="1:4">
+      <c r="D324" s="2">
+        <v>5</v>
+      </c>
+      <c r="F324" s="1"/>
+      <c r="G324" s="22"/>
+    </row>
+    <row r="325" spans="1:9">
       <c r="A325" s="7">
         <v>45937</v>
       </c>
@@ -5695,9 +5707,13 @@
       <c r="C325" s="9">
         <v>8</v>
       </c>
-      <c r="D325" s="2"/>
-    </row>
-    <row r="326" spans="1:4">
+      <c r="D325" s="2">
+        <v>5</v>
+      </c>
+      <c r="F325" s="1"/>
+      <c r="G325" s="22"/>
+    </row>
+    <row r="326" spans="1:9">
       <c r="A326" s="7">
         <v>45937</v>
       </c>
@@ -5707,9 +5723,13 @@
       <c r="C326" s="9">
         <v>16</v>
       </c>
-      <c r="D326" s="2"/>
-    </row>
-    <row r="327" spans="1:4">
+      <c r="D326" s="2">
+        <v>9</v>
+      </c>
+      <c r="F326" s="1"/>
+      <c r="G326" s="22"/>
+    </row>
+    <row r="327" spans="1:9">
       <c r="A327" s="7">
         <v>45937</v>
       </c>
@@ -5719,9 +5739,13 @@
       <c r="C327" s="9">
         <v>6</v>
       </c>
-      <c r="D327" s="2"/>
-    </row>
-    <row r="328" spans="1:4">
+      <c r="D327" s="2">
+        <v>2</v>
+      </c>
+      <c r="F327" s="1"/>
+      <c r="G327" s="22"/>
+    </row>
+    <row r="328" spans="1:9">
       <c r="A328" s="7">
         <v>45937</v>
       </c>
@@ -5731,9 +5755,13 @@
       <c r="C328" s="9">
         <v>2</v>
       </c>
-      <c r="D328" s="2"/>
-    </row>
-    <row r="329" spans="1:4">
+      <c r="D328" s="2">
+        <v>2</v>
+      </c>
+      <c r="F328" s="1"/>
+      <c r="G328" s="22"/>
+    </row>
+    <row r="329" spans="1:9">
       <c r="A329" s="7">
         <v>45937</v>
       </c>
@@ -5743,141 +5771,224 @@
       <c r="C329" s="9">
         <v>2</v>
       </c>
-      <c r="D329" s="2"/>
-    </row>
-    <row r="330" spans="1:4">
-      <c r="A330" s="2"/>
-      <c r="B330" s="2"/>
-      <c r="C330" s="2"/>
+      <c r="D329" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330" s="7">
+        <v>45938</v>
+      </c>
+      <c r="B330" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C330" s="9">
+        <v>4</v>
+      </c>
       <c r="D330" s="2"/>
     </row>
-    <row r="331" spans="1:4">
-      <c r="A331" s="2"/>
-      <c r="B331" s="2"/>
-      <c r="C331" s="2"/>
+    <row r="331" spans="1:9">
+      <c r="A331" s="7">
+        <v>45938</v>
+      </c>
+      <c r="B331" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C331" s="9">
+        <v>4</v>
+      </c>
       <c r="D331" s="2"/>
     </row>
-    <row r="332" spans="1:4">
-      <c r="A332" s="2"/>
-      <c r="B332" s="2"/>
-      <c r="C332" s="2"/>
+    <row r="332" spans="1:9">
+      <c r="A332" s="7">
+        <v>45938</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C332" s="9">
+        <v>5</v>
+      </c>
       <c r="D332" s="2"/>
     </row>
-    <row r="333" spans="1:4">
-      <c r="A333" s="2"/>
-      <c r="B333" s="2"/>
-      <c r="C333" s="2"/>
+    <row r="333" spans="1:9">
+      <c r="A333" s="7">
+        <v>45938</v>
+      </c>
+      <c r="B333" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C333" s="9">
+        <v>4</v>
+      </c>
       <c r="D333" s="2"/>
-    </row>
-    <row r="334" spans="1:4">
-      <c r="A334" s="2"/>
-      <c r="B334" s="2"/>
-      <c r="C334" s="2"/>
+      <c r="I333" s="22"/>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" s="7">
+        <v>45938</v>
+      </c>
+      <c r="B334" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C334" s="9">
+        <v>4</v>
+      </c>
       <c r="D334" s="2"/>
-    </row>
-    <row r="335" spans="1:4">
-      <c r="A335" s="2"/>
-      <c r="B335" s="2"/>
-      <c r="C335" s="2"/>
+      <c r="I334" s="22"/>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" s="7">
+        <v>45938</v>
+      </c>
+      <c r="B335" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C335" s="9">
+        <v>8</v>
+      </c>
       <c r="D335" s="2"/>
-    </row>
-    <row r="336" spans="1:4">
-      <c r="A336" s="2"/>
-      <c r="B336" s="2"/>
-      <c r="C336" s="2"/>
+      <c r="I335" s="22"/>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" s="7">
+        <v>45938</v>
+      </c>
+      <c r="B336" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C336" s="9">
+        <v>8</v>
+      </c>
       <c r="D336" s="2"/>
-    </row>
-    <row r="337" spans="1:4">
-      <c r="A337" s="2"/>
-      <c r="B337" s="2"/>
-      <c r="C337" s="2"/>
+      <c r="I336" s="22"/>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" s="7">
+        <v>45938</v>
+      </c>
+      <c r="B337" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C337" s="9">
+        <v>1</v>
+      </c>
       <c r="D337" s="2"/>
-    </row>
-    <row r="338" spans="1:4">
-      <c r="A338" s="2"/>
-      <c r="B338" s="2"/>
-      <c r="C338" s="2"/>
+      <c r="I337" s="22"/>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" s="7">
+        <v>45938</v>
+      </c>
+      <c r="B338" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C338" s="9">
+        <v>1</v>
+      </c>
       <c r="D338" s="2"/>
-    </row>
-    <row r="339" spans="1:4">
-      <c r="A339" s="2"/>
-      <c r="B339" s="2"/>
-      <c r="C339" s="2"/>
+      <c r="I338" s="22"/>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" s="7">
+        <v>45938</v>
+      </c>
+      <c r="B339" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C339" s="9">
+        <v>8</v>
+      </c>
       <c r="D339" s="2"/>
-    </row>
-    <row r="340" spans="1:4">
-      <c r="A340" s="2"/>
-      <c r="B340" s="2"/>
-      <c r="C340" s="2"/>
+      <c r="I339" s="22"/>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" s="7">
+        <v>45938</v>
+      </c>
+      <c r="B340" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C340" s="9">
+        <v>8</v>
+      </c>
       <c r="D340" s="2"/>
-    </row>
-    <row r="341" spans="1:4">
+      <c r="H340" s="1"/>
+      <c r="I340" s="22"/>
+    </row>
+    <row r="341" spans="1:9">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
-    </row>
-    <row r="342" spans="1:4">
+      <c r="H341" s="1"/>
+      <c r="I341" s="22"/>
+    </row>
+    <row r="342" spans="1:9">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
-    </row>
-    <row r="343" spans="1:4">
+      <c r="H342" s="1"/>
+      <c r="I342" s="22"/>
+    </row>
+    <row r="343" spans="1:9">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
-    </row>
-    <row r="344" spans="1:4">
+      <c r="H343" s="1"/>
+      <c r="I343" s="22"/>
+    </row>
+    <row r="344" spans="1:9">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:9">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:9">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:9">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:9">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:9">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:9">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:9">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:9">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -6020,6 +6131,30 @@
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2"/>
+      <c r="B376" s="2"/>
+      <c r="C376" s="2"/>
+      <c r="D376" s="2"/>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2"/>
+      <c r="B377" s="2"/>
+      <c r="C377" s="2"/>
+      <c r="D377" s="2"/>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2"/>
+      <c r="B378" s="2"/>
+      <c r="C378" s="2"/>
+      <c r="D378" s="2"/>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2"/>
+      <c r="B379" s="2"/>
+      <c r="C379" s="2"/>
+      <c r="D379" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -721,11 +721,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U379"/>
+  <dimension ref="A1:U382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F320" sqref="F320"/>
+      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D358" sqref="D358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -735,9 +735,8 @@
     <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" customWidth="1"/>
-    <col min="9" max="10" width="28" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="8" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="20.109375" customWidth="1"/>
     <col min="12" max="19" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.33203125" customWidth="1"/>
@@ -5637,7 +5636,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="22"/>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:8">
       <c r="A321" s="7">
         <v>45936</v>
       </c>
@@ -5651,7 +5650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:8">
       <c r="A322" s="7">
         <v>45937</v>
       </c>
@@ -5665,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:8">
       <c r="A323" s="7">
         <v>45937</v>
       </c>
@@ -5681,7 +5680,7 @@
       <c r="F323" s="1"/>
       <c r="G323" s="22"/>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:8">
       <c r="A324" s="7">
         <v>45937</v>
       </c>
@@ -5697,7 +5696,7 @@
       <c r="F324" s="1"/>
       <c r="G324" s="22"/>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:8">
       <c r="A325" s="7">
         <v>45937</v>
       </c>
@@ -5713,7 +5712,7 @@
       <c r="F325" s="1"/>
       <c r="G325" s="22"/>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:8">
       <c r="A326" s="7">
         <v>45937</v>
       </c>
@@ -5729,7 +5728,7 @@
       <c r="F326" s="1"/>
       <c r="G326" s="22"/>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:8">
       <c r="A327" s="7">
         <v>45937</v>
       </c>
@@ -5745,7 +5744,7 @@
       <c r="F327" s="1"/>
       <c r="G327" s="22"/>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:8">
       <c r="A328" s="7">
         <v>45937</v>
       </c>
@@ -5761,7 +5760,7 @@
       <c r="F328" s="1"/>
       <c r="G328" s="22"/>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:8">
       <c r="A329" s="7">
         <v>45937</v>
       </c>
@@ -5775,7 +5774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:8">
       <c r="A330" s="7">
         <v>45938</v>
       </c>
@@ -5785,9 +5784,11 @@
       <c r="C330" s="9">
         <v>4</v>
       </c>
-      <c r="D330" s="2"/>
-    </row>
-    <row r="331" spans="1:9">
+      <c r="D330" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331" s="7">
         <v>45938</v>
       </c>
@@ -5797,9 +5798,11 @@
       <c r="C331" s="9">
         <v>4</v>
       </c>
-      <c r="D331" s="2"/>
-    </row>
-    <row r="332" spans="1:9">
+      <c r="D331" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332" s="7">
         <v>45938</v>
       </c>
@@ -5809,9 +5812,11 @@
       <c r="C332" s="9">
         <v>5</v>
       </c>
-      <c r="D332" s="2"/>
-    </row>
-    <row r="333" spans="1:9">
+      <c r="D332" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
       <c r="A333" s="7">
         <v>45938</v>
       </c>
@@ -5821,10 +5826,13 @@
       <c r="C333" s="9">
         <v>4</v>
       </c>
-      <c r="D333" s="2"/>
-      <c r="I333" s="22"/>
-    </row>
-    <row r="334" spans="1:9">
+      <c r="D333" s="2">
+        <v>1</v>
+      </c>
+      <c r="G333" s="1"/>
+      <c r="H333" s="22"/>
+    </row>
+    <row r="334" spans="1:8">
       <c r="A334" s="7">
         <v>45938</v>
       </c>
@@ -5834,10 +5842,13 @@
       <c r="C334" s="9">
         <v>4</v>
       </c>
-      <c r="D334" s="2"/>
-      <c r="I334" s="22"/>
-    </row>
-    <row r="335" spans="1:9">
+      <c r="D334" s="2">
+        <v>1</v>
+      </c>
+      <c r="G334" s="1"/>
+      <c r="H334" s="22"/>
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335" s="7">
         <v>45938</v>
       </c>
@@ -5847,10 +5858,13 @@
       <c r="C335" s="9">
         <v>8</v>
       </c>
-      <c r="D335" s="2"/>
-      <c r="I335" s="22"/>
-    </row>
-    <row r="336" spans="1:9">
+      <c r="D335" s="2">
+        <v>3</v>
+      </c>
+      <c r="G335" s="1"/>
+      <c r="H335" s="22"/>
+    </row>
+    <row r="336" spans="1:8">
       <c r="A336" s="7">
         <v>45938</v>
       </c>
@@ -5860,10 +5874,13 @@
       <c r="C336" s="9">
         <v>8</v>
       </c>
-      <c r="D336" s="2"/>
-      <c r="I336" s="22"/>
-    </row>
-    <row r="337" spans="1:9">
+      <c r="D336" s="2">
+        <v>3</v>
+      </c>
+      <c r="G336" s="1"/>
+      <c r="H336" s="22"/>
+    </row>
+    <row r="337" spans="1:8">
       <c r="A337" s="7">
         <v>45938</v>
       </c>
@@ -5873,10 +5890,13 @@
       <c r="C337" s="9">
         <v>1</v>
       </c>
-      <c r="D337" s="2"/>
-      <c r="I337" s="22"/>
-    </row>
-    <row r="338" spans="1:9">
+      <c r="D337" s="2">
+        <v>1</v>
+      </c>
+      <c r="G337" s="1"/>
+      <c r="H337" s="22"/>
+    </row>
+    <row r="338" spans="1:8">
       <c r="A338" s="7">
         <v>45938</v>
       </c>
@@ -5886,10 +5906,13 @@
       <c r="C338" s="9">
         <v>1</v>
       </c>
-      <c r="D338" s="2"/>
-      <c r="I338" s="22"/>
-    </row>
-    <row r="339" spans="1:9">
+      <c r="D338" s="2">
+        <v>1</v>
+      </c>
+      <c r="G338" s="1"/>
+      <c r="H338" s="22"/>
+    </row>
+    <row r="339" spans="1:8">
       <c r="A339" s="7">
         <v>45938</v>
       </c>
@@ -5899,10 +5922,13 @@
       <c r="C339" s="9">
         <v>8</v>
       </c>
-      <c r="D339" s="2"/>
-      <c r="I339" s="22"/>
-    </row>
-    <row r="340" spans="1:9">
+      <c r="D339" s="2">
+        <v>2</v>
+      </c>
+      <c r="G339" s="1"/>
+      <c r="H339" s="22"/>
+    </row>
+    <row r="340" spans="1:8">
       <c r="A340" s="7">
         <v>45938</v>
       </c>
@@ -5912,179 +5938,253 @@
       <c r="C340" s="9">
         <v>8</v>
       </c>
-      <c r="D340" s="2"/>
-      <c r="H340" s="1"/>
-      <c r="I340" s="22"/>
-    </row>
-    <row r="341" spans="1:9">
-      <c r="A341" s="2"/>
-      <c r="B341" s="2"/>
-      <c r="C341" s="2"/>
+      <c r="D340" s="2">
+        <v>2</v>
+      </c>
+      <c r="G340" s="1"/>
+      <c r="H340" s="22"/>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341" s="7">
+        <v>45939</v>
+      </c>
+      <c r="B341" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C341" s="9">
+        <v>10</v>
+      </c>
       <c r="D341" s="2"/>
-      <c r="H341" s="1"/>
-      <c r="I341" s="22"/>
-    </row>
-    <row r="342" spans="1:9">
-      <c r="A342" s="2"/>
-      <c r="B342" s="2"/>
-      <c r="C342" s="2"/>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342" s="7">
+        <v>45939</v>
+      </c>
+      <c r="B342" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C342" s="9">
+        <v>10</v>
+      </c>
       <c r="D342" s="2"/>
-      <c r="H342" s="1"/>
-      <c r="I342" s="22"/>
-    </row>
-    <row r="343" spans="1:9">
-      <c r="A343" s="2"/>
-      <c r="B343" s="2"/>
-      <c r="C343" s="2"/>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343" s="7">
+        <v>45939</v>
+      </c>
+      <c r="B343" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C343" s="9">
+        <v>3</v>
+      </c>
       <c r="D343" s="2"/>
-      <c r="H343" s="1"/>
-      <c r="I343" s="22"/>
-    </row>
-    <row r="344" spans="1:9">
-      <c r="A344" s="2"/>
-      <c r="B344" s="2"/>
-      <c r="C344" s="2"/>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="A344" s="7">
+        <v>45939</v>
+      </c>
+      <c r="B344" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C344" s="9">
+        <v>3</v>
+      </c>
       <c r="D344" s="2"/>
     </row>
-    <row r="345" spans="1:9">
-      <c r="A345" s="2"/>
-      <c r="B345" s="2"/>
-      <c r="C345" s="2"/>
+    <row r="345" spans="1:8">
+      <c r="A345" s="7">
+        <v>45939</v>
+      </c>
+      <c r="B345" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C345" s="9">
+        <v>4</v>
+      </c>
       <c r="D345" s="2"/>
-    </row>
-    <row r="346" spans="1:9">
-      <c r="A346" s="2"/>
-      <c r="B346" s="2"/>
-      <c r="C346" s="2"/>
+      <c r="G345" s="1"/>
+      <c r="H345" s="22"/>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346" s="7">
+        <v>45939</v>
+      </c>
+      <c r="B346" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C346" s="9">
+        <v>4</v>
+      </c>
       <c r="D346" s="2"/>
-    </row>
-    <row r="347" spans="1:9">
-      <c r="A347" s="2"/>
-      <c r="B347" s="2"/>
-      <c r="C347" s="2"/>
+      <c r="G346" s="1"/>
+      <c r="H346" s="22"/>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="A347" s="7">
+        <v>45939</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C347" s="9">
+        <v>10</v>
+      </c>
       <c r="D347" s="2"/>
-    </row>
-    <row r="348" spans="1:9">
-      <c r="A348" s="2"/>
-      <c r="B348" s="2"/>
-      <c r="C348" s="2"/>
+      <c r="G347" s="1"/>
+      <c r="H347" s="22"/>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="A348" s="7">
+        <v>45939</v>
+      </c>
+      <c r="B348" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C348" s="9">
+        <v>4</v>
+      </c>
       <c r="D348" s="2"/>
-    </row>
-    <row r="349" spans="1:9">
-      <c r="A349" s="2"/>
-      <c r="B349" s="2"/>
-      <c r="C349" s="2"/>
+      <c r="G348" s="1"/>
+      <c r="H348" s="22"/>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="A349" s="7">
+        <v>45939</v>
+      </c>
+      <c r="B349" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C349" s="9">
+        <v>3</v>
+      </c>
       <c r="D349" s="2"/>
-    </row>
-    <row r="350" spans="1:9">
-      <c r="A350" s="2"/>
-      <c r="B350" s="2"/>
-      <c r="C350" s="2"/>
+      <c r="G349" s="1"/>
+      <c r="H349" s="22"/>
+    </row>
+    <row r="350" spans="1:8">
+      <c r="A350" s="7">
+        <v>45939</v>
+      </c>
+      <c r="B350" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C350" s="9">
+        <v>3</v>
+      </c>
       <c r="D350" s="2"/>
-    </row>
-    <row r="351" spans="1:9">
+      <c r="G350" s="1"/>
+      <c r="H350" s="22"/>
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
-    </row>
-    <row r="352" spans="1:9">
+      <c r="G351" s="1"/>
+      <c r="H351" s="22"/>
+    </row>
+    <row r="352" spans="1:8">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
-    </row>
-    <row r="353" spans="1:4">
+      <c r="G352" s="1"/>
+      <c r="H352" s="22"/>
+    </row>
+    <row r="353" spans="1:8">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
-    </row>
-    <row r="354" spans="1:4">
+      <c r="G353" s="1"/>
+      <c r="H353" s="22"/>
+    </row>
+    <row r="354" spans="1:8">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:8">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:8">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:8">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:8">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:8">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:8">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:8">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:8">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:8">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:8">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:8">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:8">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:8">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:8">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -6155,6 +6255,24 @@
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2"/>
+      <c r="B380" s="2"/>
+      <c r="C380" s="2"/>
+      <c r="D380" s="2"/>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2"/>
+      <c r="B381" s="2"/>
+      <c r="C381" s="2"/>
+      <c r="D381" s="2"/>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2"/>
+      <c r="B382" s="2"/>
+      <c r="C382" s="2"/>
+      <c r="D382" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -113,7 +113,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +270,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -308,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -426,6 +432,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -725,7 +734,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D358" sqref="D358"/>
+      <selection pane="bottomLeft" activeCell="G338" sqref="G338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -734,9 +743,8 @@
     <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1"/>
-    <col min="8" max="10" width="28" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="20.109375" customWidth="1"/>
     <col min="12" max="19" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.33203125" customWidth="1"/>
@@ -5954,7 +5962,9 @@
       <c r="C341" s="9">
         <v>10</v>
       </c>
-      <c r="D341" s="2"/>
+      <c r="D341" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="7">
@@ -5966,7 +5976,11 @@
       <c r="C342" s="9">
         <v>10</v>
       </c>
-      <c r="D342" s="2"/>
+      <c r="D342" s="2">
+        <v>2</v>
+      </c>
+      <c r="F342" s="1"/>
+      <c r="G342" s="22"/>
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="7">
@@ -5978,7 +5992,11 @@
       <c r="C343" s="9">
         <v>3</v>
       </c>
-      <c r="D343" s="2"/>
+      <c r="D343" s="2">
+        <v>6</v>
+      </c>
+      <c r="F343" s="1"/>
+      <c r="G343" s="22"/>
     </row>
     <row r="344" spans="1:8">
       <c r="A344" s="7">
@@ -5990,7 +6008,11 @@
       <c r="C344" s="9">
         <v>3</v>
       </c>
-      <c r="D344" s="2"/>
+      <c r="D344" s="2">
+        <v>6</v>
+      </c>
+      <c r="F344" s="1"/>
+      <c r="G344" s="22"/>
     </row>
     <row r="345" spans="1:8">
       <c r="A345" s="7">
@@ -6002,9 +6024,11 @@
       <c r="C345" s="9">
         <v>4</v>
       </c>
-      <c r="D345" s="2"/>
-      <c r="G345" s="1"/>
-      <c r="H345" s="22"/>
+      <c r="D345" s="2">
+        <v>6</v>
+      </c>
+      <c r="F345" s="1"/>
+      <c r="G345" s="22"/>
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="7">
@@ -6016,9 +6040,11 @@
       <c r="C346" s="9">
         <v>4</v>
       </c>
-      <c r="D346" s="2"/>
-      <c r="G346" s="1"/>
-      <c r="H346" s="22"/>
+      <c r="D346" s="2">
+        <v>6</v>
+      </c>
+      <c r="F346" s="1"/>
+      <c r="G346" s="22"/>
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7">
@@ -6030,9 +6056,11 @@
       <c r="C347" s="9">
         <v>10</v>
       </c>
-      <c r="D347" s="2"/>
-      <c r="G347" s="1"/>
-      <c r="H347" s="22"/>
+      <c r="D347" s="2">
+        <v>7</v>
+      </c>
+      <c r="F347" s="1"/>
+      <c r="G347" s="22"/>
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7">
@@ -6044,9 +6072,11 @@
       <c r="C348" s="9">
         <v>4</v>
       </c>
-      <c r="D348" s="2"/>
-      <c r="G348" s="1"/>
-      <c r="H348" s="22"/>
+      <c r="D348" s="2">
+        <v>2</v>
+      </c>
+      <c r="F348" s="1"/>
+      <c r="G348" s="22"/>
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="7">
@@ -6058,9 +6088,11 @@
       <c r="C349" s="9">
         <v>3</v>
       </c>
-      <c r="D349" s="2"/>
-      <c r="G349" s="1"/>
-      <c r="H349" s="22"/>
+      <c r="D349" s="2">
+        <v>3</v>
+      </c>
+      <c r="F349" s="1"/>
+      <c r="G349" s="22"/>
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="7">
@@ -6072,119 +6104,155 @@
       <c r="C350" s="9">
         <v>3</v>
       </c>
-      <c r="D350" s="2"/>
-      <c r="G350" s="1"/>
-      <c r="H350" s="22"/>
+      <c r="D350" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="351" spans="1:8">
-      <c r="A351" s="2"/>
-      <c r="B351" s="2"/>
-      <c r="C351" s="2"/>
+      <c r="A351" s="7">
+        <v>45940</v>
+      </c>
+      <c r="B351" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C351" s="2">
+        <v>7</v>
+      </c>
       <c r="D351" s="2"/>
-      <c r="G351" s="1"/>
-      <c r="H351" s="22"/>
     </row>
     <row r="352" spans="1:8">
-      <c r="A352" s="2"/>
-      <c r="B352" s="2"/>
-      <c r="C352" s="2"/>
+      <c r="A352" s="7">
+        <v>45940</v>
+      </c>
+      <c r="B352" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C352" s="2">
+        <v>7</v>
+      </c>
       <c r="D352" s="2"/>
-      <c r="G352" s="1"/>
-      <c r="H352" s="22"/>
-    </row>
-    <row r="353" spans="1:8">
-      <c r="A353" s="2"/>
-      <c r="B353" s="2"/>
-      <c r="C353" s="2"/>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="7">
+        <v>45940</v>
+      </c>
+      <c r="B353" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C353" s="2">
+        <v>1</v>
+      </c>
       <c r="D353" s="2"/>
-      <c r="G353" s="1"/>
-      <c r="H353" s="22"/>
-    </row>
-    <row r="354" spans="1:8">
-      <c r="A354" s="2"/>
-      <c r="B354" s="2"/>
-      <c r="C354" s="2"/>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="7">
+        <v>45940</v>
+      </c>
+      <c r="B354" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C354" s="2">
+        <v>1</v>
+      </c>
       <c r="D354" s="2"/>
     </row>
-    <row r="355" spans="1:8">
-      <c r="A355" s="2"/>
-      <c r="B355" s="2"/>
-      <c r="C355" s="2"/>
+    <row r="355" spans="1:4">
+      <c r="A355" s="7">
+        <v>45940</v>
+      </c>
+      <c r="B355" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C355" s="2">
+        <v>5</v>
+      </c>
       <c r="D355" s="2"/>
     </row>
-    <row r="356" spans="1:8">
-      <c r="A356" s="2"/>
-      <c r="B356" s="2"/>
-      <c r="C356" s="2"/>
+    <row r="356" spans="1:4">
+      <c r="A356" s="7">
+        <v>45940</v>
+      </c>
+      <c r="B356" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C356" s="2">
+        <v>5</v>
+      </c>
       <c r="D356" s="2"/>
     </row>
-    <row r="357" spans="1:8">
-      <c r="A357" s="2"/>
-      <c r="B357" s="2"/>
-      <c r="C357" s="2"/>
+    <row r="357" spans="1:4">
+      <c r="A357" s="7">
+        <v>45940</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C357" s="2">
+        <v>6</v>
+      </c>
       <c r="D357" s="2"/>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:4">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:4">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:4">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:4">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:4">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:4">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:4">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:4">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:4">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:4">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:4">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -314,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -435,6 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -733,8 +734,8 @@
   <dimension ref="A1:U382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G338" sqref="G338"/>
+      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G355" sqref="G355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -743,7 +744,7 @@
     <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="20.109375" customWidth="1"/>
     <col min="12" max="19" width="15.88671875" bestFit="1" customWidth="1"/>
@@ -6118,7 +6119,9 @@
       <c r="C351" s="2">
         <v>7</v>
       </c>
-      <c r="D351" s="2"/>
+      <c r="D351" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="7">
@@ -6130,9 +6133,11 @@
       <c r="C352" s="2">
         <v>7</v>
       </c>
-      <c r="D352" s="2"/>
-    </row>
-    <row r="353" spans="1:4">
+      <c r="D352" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
       <c r="A353" s="7">
         <v>45940</v>
       </c>
@@ -6142,9 +6147,11 @@
       <c r="C353" s="2">
         <v>1</v>
       </c>
-      <c r="D353" s="2"/>
-    </row>
-    <row r="354" spans="1:4">
+      <c r="D353" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
       <c r="A354" s="7">
         <v>45940</v>
       </c>
@@ -6154,9 +6161,11 @@
       <c r="C354" s="2">
         <v>1</v>
       </c>
-      <c r="D354" s="2"/>
-    </row>
-    <row r="355" spans="1:4">
+      <c r="D354" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
       <c r="A355" s="7">
         <v>45940</v>
       </c>
@@ -6166,9 +6175,11 @@
       <c r="C355" s="2">
         <v>5</v>
       </c>
-      <c r="D355" s="2"/>
-    </row>
-    <row r="356" spans="1:4">
+      <c r="D355" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
       <c r="A356" s="7">
         <v>45940</v>
       </c>
@@ -6178,9 +6189,11 @@
       <c r="C356" s="2">
         <v>5</v>
       </c>
-      <c r="D356" s="2"/>
-    </row>
-    <row r="357" spans="1:4">
+      <c r="D356" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
       <c r="A357" s="7">
         <v>45940</v>
       </c>
@@ -6190,69 +6203,143 @@
       <c r="C357" s="2">
         <v>6</v>
       </c>
-      <c r="D357" s="2"/>
-    </row>
-    <row r="358" spans="1:4">
-      <c r="A358" s="2"/>
-      <c r="B358" s="2"/>
-      <c r="C358" s="2"/>
-      <c r="D358" s="2"/>
-    </row>
-    <row r="359" spans="1:4">
-      <c r="A359" s="2"/>
-      <c r="B359" s="2"/>
-      <c r="C359" s="2"/>
-      <c r="D359" s="2"/>
-    </row>
-    <row r="360" spans="1:4">
-      <c r="A360" s="2"/>
-      <c r="B360" s="2"/>
-      <c r="C360" s="2"/>
-      <c r="D360" s="2"/>
-    </row>
-    <row r="361" spans="1:4">
-      <c r="A361" s="2"/>
-      <c r="B361" s="2"/>
-      <c r="C361" s="2"/>
-      <c r="D361" s="2"/>
-    </row>
-    <row r="362" spans="1:4">
-      <c r="A362" s="2"/>
-      <c r="B362" s="2"/>
-      <c r="C362" s="2"/>
+      <c r="D357" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" s="7">
+        <v>45941</v>
+      </c>
+      <c r="B358" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C358" s="2">
+        <v>6</v>
+      </c>
+      <c r="D358" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" s="7">
+        <v>45941</v>
+      </c>
+      <c r="B359" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C359" s="2">
+        <v>6</v>
+      </c>
+      <c r="D359" s="2">
+        <v>8</v>
+      </c>
+      <c r="F359" s="1"/>
+      <c r="G359" s="22"/>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" s="7">
+        <v>45941</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C360" s="2">
+        <v>10</v>
+      </c>
+      <c r="D360" s="2">
+        <v>8</v>
+      </c>
+      <c r="F360" s="1"/>
+      <c r="G360" s="22"/>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" s="7">
+        <v>45941</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C361" s="2">
+        <v>21</v>
+      </c>
+      <c r="D361" s="2">
+        <v>19</v>
+      </c>
+      <c r="F361" s="1"/>
+      <c r="G361" s="22"/>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" s="7">
+        <v>45943</v>
+      </c>
+      <c r="B362" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C362" s="2">
+        <v>5</v>
+      </c>
       <c r="D362" s="2"/>
-    </row>
-    <row r="363" spans="1:4">
-      <c r="A363" s="2"/>
-      <c r="B363" s="2"/>
-      <c r="C363" s="2"/>
+      <c r="F362" s="1"/>
+      <c r="G362" s="22"/>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" s="7">
+        <v>45943</v>
+      </c>
+      <c r="B363" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C363" s="2">
+        <v>5</v>
+      </c>
       <c r="D363" s="2"/>
-    </row>
-    <row r="364" spans="1:4">
-      <c r="A364" s="2"/>
-      <c r="B364" s="2"/>
-      <c r="C364" s="2"/>
+      <c r="F363" s="1"/>
+      <c r="G363" s="22"/>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="7">
+        <v>45943</v>
+      </c>
+      <c r="B364" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C364" s="2">
+        <v>7</v>
+      </c>
       <c r="D364" s="2"/>
     </row>
-    <row r="365" spans="1:4">
-      <c r="A365" s="2"/>
-      <c r="B365" s="2"/>
-      <c r="C365" s="2"/>
+    <row r="365" spans="1:7">
+      <c r="A365" s="7">
+        <v>45943</v>
+      </c>
+      <c r="B365" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C365" s="2">
+        <v>7</v>
+      </c>
       <c r="D365" s="2"/>
     </row>
-    <row r="366" spans="1:4">
-      <c r="A366" s="2"/>
-      <c r="B366" s="2"/>
-      <c r="C366" s="2"/>
+    <row r="366" spans="1:7">
+      <c r="A366" s="7">
+        <v>45943</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C366" s="2">
+        <v>2</v>
+      </c>
       <c r="D366" s="2"/>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:7">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:7">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -731,11 +731,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U382"/>
+  <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G355" sqref="G355"/>
+      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D377" sqref="D377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6279,9 +6279,9 @@
       <c r="C362" s="2">
         <v>5</v>
       </c>
-      <c r="D362" s="2"/>
-      <c r="F362" s="1"/>
-      <c r="G362" s="22"/>
+      <c r="D362" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="363" spans="1:7">
       <c r="A363" s="7">
@@ -6293,7 +6293,9 @@
       <c r="C363" s="2">
         <v>5</v>
       </c>
-      <c r="D363" s="2"/>
+      <c r="D363" s="2">
+        <v>3</v>
+      </c>
       <c r="F363" s="1"/>
       <c r="G363" s="22"/>
     </row>
@@ -6307,7 +6309,11 @@
       <c r="C364" s="2">
         <v>7</v>
       </c>
-      <c r="D364" s="2"/>
+      <c r="D364" s="2">
+        <v>1</v>
+      </c>
+      <c r="F364" s="1"/>
+      <c r="G364" s="22"/>
     </row>
     <row r="365" spans="1:7">
       <c r="A365" s="7">
@@ -6319,7 +6325,11 @@
       <c r="C365" s="2">
         <v>7</v>
       </c>
-      <c r="D365" s="2"/>
+      <c r="D365" s="2">
+        <v>1</v>
+      </c>
+      <c r="F365" s="1"/>
+      <c r="G365" s="22"/>
     </row>
     <row r="366" spans="1:7">
       <c r="A366" s="7">
@@ -6331,103 +6341,195 @@
       <c r="C366" s="2">
         <v>2</v>
       </c>
-      <c r="D366" s="2"/>
+      <c r="D366" s="2">
+        <v>1</v>
+      </c>
+      <c r="F366" s="1"/>
+      <c r="G366" s="22"/>
     </row>
     <row r="367" spans="1:7">
-      <c r="A367" s="2"/>
-      <c r="B367" s="2"/>
-      <c r="C367" s="2"/>
-      <c r="D367" s="2"/>
+      <c r="A367" s="7">
+        <v>45943</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C367" s="2">
+        <v>0</v>
+      </c>
+      <c r="D367" s="2">
+        <v>1</v>
+      </c>
+      <c r="F367" s="1"/>
+      <c r="G367" s="22"/>
     </row>
     <row r="368" spans="1:7">
-      <c r="A368" s="2"/>
-      <c r="B368" s="2"/>
-      <c r="C368" s="2"/>
-      <c r="D368" s="2"/>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2"/>
-      <c r="B369" s="2"/>
-      <c r="C369" s="2"/>
+      <c r="A368" s="7">
+        <v>45943</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C368" s="2">
+        <v>0</v>
+      </c>
+      <c r="D368" s="2">
+        <v>1</v>
+      </c>
+      <c r="F368" s="1"/>
+      <c r="G368" s="22"/>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" s="7">
+        <v>45944</v>
+      </c>
+      <c r="B369" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C369" s="9">
+        <v>4</v>
+      </c>
       <c r="D369" s="2"/>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2"/>
-      <c r="B370" s="2"/>
-      <c r="C370" s="2"/>
+      <c r="F369" s="1"/>
+      <c r="G369" s="22"/>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" s="7">
+        <v>45944</v>
+      </c>
+      <c r="B370" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C370" s="9">
+        <v>4</v>
+      </c>
       <c r="D370" s="2"/>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2"/>
-      <c r="B371" s="2"/>
-      <c r="C371" s="2"/>
+      <c r="F370" s="1"/>
+      <c r="G370" s="22"/>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" s="7">
+        <v>45944</v>
+      </c>
+      <c r="B371" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C371" s="9">
+        <v>2</v>
+      </c>
       <c r="D371" s="2"/>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2"/>
-      <c r="B372" s="2"/>
-      <c r="C372" s="2"/>
+      <c r="F371" s="1"/>
+      <c r="G371" s="22"/>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372" s="7">
+        <v>45944</v>
+      </c>
+      <c r="B372" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C372" s="9">
+        <v>2</v>
+      </c>
       <c r="D372" s="2"/>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2"/>
-      <c r="B373" s="2"/>
-      <c r="C373" s="2"/>
+      <c r="F372" s="1"/>
+      <c r="G372" s="22"/>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" s="7">
+        <v>45944</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C373" s="9">
+        <v>7</v>
+      </c>
       <c r="D373" s="2"/>
     </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2"/>
-      <c r="B374" s="2"/>
-      <c r="C374" s="2"/>
+    <row r="374" spans="1:7">
+      <c r="A374" s="7">
+        <v>45944</v>
+      </c>
+      <c r="B374" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C374" s="9">
+        <v>11</v>
+      </c>
       <c r="D374" s="2"/>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:7">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:7">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:7">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:7">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:7">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:7">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:7">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:7">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383" s="2"/>
+      <c r="B383" s="2"/>
+      <c r="C383" s="2"/>
+      <c r="D383" s="2"/>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384" s="2"/>
+      <c r="B384" s="2"/>
+      <c r="C384" s="2"/>
+      <c r="D384" s="2"/>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2"/>
+      <c r="B385" s="2"/>
+      <c r="C385" s="2"/>
+      <c r="D385" s="2"/>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2"/>
+      <c r="B386" s="2"/>
+      <c r="C386" s="2"/>
+      <c r="D386" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -113,7 +113,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +276,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -314,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -436,6 +442,9 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -731,11 +740,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U386"/>
+  <dimension ref="A1:U390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D377" sqref="D377"/>
+      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F362" sqref="F362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -744,7 +753,7 @@
     <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
     <col min="7" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="20.109375" customWidth="1"/>
     <col min="12" max="19" width="15.88671875" bestFit="1" customWidth="1"/>
@@ -6389,9 +6398,9 @@
       <c r="C369" s="9">
         <v>4</v>
       </c>
-      <c r="D369" s="2"/>
-      <c r="F369" s="1"/>
-      <c r="G369" s="22"/>
+      <c r="D369" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="370" spans="1:7">
       <c r="A370" s="7">
@@ -6403,7 +6412,9 @@
       <c r="C370" s="9">
         <v>4</v>
       </c>
-      <c r="D370" s="2"/>
+      <c r="D370" s="2">
+        <v>0</v>
+      </c>
       <c r="F370" s="1"/>
       <c r="G370" s="22"/>
     </row>
@@ -6417,7 +6428,9 @@
       <c r="C371" s="9">
         <v>2</v>
       </c>
-      <c r="D371" s="2"/>
+      <c r="D371" s="2">
+        <v>2</v>
+      </c>
       <c r="F371" s="1"/>
       <c r="G371" s="22"/>
     </row>
@@ -6431,7 +6444,9 @@
       <c r="C372" s="9">
         <v>2</v>
       </c>
-      <c r="D372" s="2"/>
+      <c r="D372" s="2">
+        <v>2</v>
+      </c>
       <c r="F372" s="1"/>
       <c r="G372" s="22"/>
     </row>
@@ -6445,7 +6460,11 @@
       <c r="C373" s="9">
         <v>7</v>
       </c>
-      <c r="D373" s="2"/>
+      <c r="D373" s="2">
+        <v>0</v>
+      </c>
+      <c r="F373" s="1"/>
+      <c r="G373" s="22"/>
     </row>
     <row r="374" spans="1:7">
       <c r="A374" s="7">
@@ -6457,79 +6476,179 @@
       <c r="C374" s="9">
         <v>11</v>
       </c>
-      <c r="D374" s="2"/>
+      <c r="D374" s="2">
+        <v>9</v>
+      </c>
+      <c r="F374" s="1"/>
+      <c r="G374" s="22"/>
     </row>
     <row r="375" spans="1:7">
-      <c r="A375" s="2"/>
-      <c r="B375" s="2"/>
-      <c r="C375" s="2"/>
-      <c r="D375" s="2"/>
+      <c r="A375" s="7">
+        <v>45944</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C375" s="9">
+        <v>0</v>
+      </c>
+      <c r="D375" s="9">
+        <v>1</v>
+      </c>
+      <c r="F375" s="1"/>
+      <c r="G375" s="22"/>
     </row>
     <row r="376" spans="1:7">
-      <c r="A376" s="2"/>
-      <c r="B376" s="2"/>
-      <c r="C376" s="2"/>
+      <c r="A376" s="7">
+        <v>45945</v>
+      </c>
+      <c r="B376" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C376" s="9">
+        <v>8</v>
+      </c>
       <c r="D376" s="2"/>
     </row>
     <row r="377" spans="1:7">
-      <c r="A377" s="2"/>
-      <c r="B377" s="2"/>
-      <c r="C377" s="2"/>
+      <c r="A377" s="7">
+        <v>45945</v>
+      </c>
+      <c r="B377" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C377" s="9">
+        <v>5</v>
+      </c>
       <c r="D377" s="2"/>
     </row>
     <row r="378" spans="1:7">
-      <c r="A378" s="2"/>
-      <c r="B378" s="2"/>
-      <c r="C378" s="2"/>
+      <c r="A378" s="7">
+        <v>45945</v>
+      </c>
+      <c r="B378" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C378" s="9">
+        <v>5</v>
+      </c>
       <c r="D378" s="2"/>
     </row>
     <row r="379" spans="1:7">
-      <c r="A379" s="2"/>
-      <c r="B379" s="2"/>
-      <c r="C379" s="2"/>
+      <c r="A379" s="7">
+        <v>45945</v>
+      </c>
+      <c r="B379" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C379" s="9">
+        <v>5</v>
+      </c>
       <c r="D379" s="2"/>
     </row>
     <row r="380" spans="1:7">
-      <c r="A380" s="2"/>
-      <c r="B380" s="2"/>
-      <c r="C380" s="2"/>
+      <c r="A380" s="7">
+        <v>45945</v>
+      </c>
+      <c r="B380" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C380" s="9">
+        <v>5</v>
+      </c>
       <c r="D380" s="2"/>
     </row>
     <row r="381" spans="1:7">
-      <c r="A381" s="2"/>
-      <c r="B381" s="2"/>
-      <c r="C381" s="2"/>
+      <c r="A381" s="7">
+        <v>45945</v>
+      </c>
+      <c r="B381" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C381" s="9">
+        <v>5</v>
+      </c>
       <c r="D381" s="2"/>
     </row>
     <row r="382" spans="1:7">
-      <c r="A382" s="2"/>
-      <c r="B382" s="2"/>
-      <c r="C382" s="2"/>
+      <c r="A382" s="7">
+        <v>45945</v>
+      </c>
+      <c r="B382" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C382" s="9">
+        <v>5</v>
+      </c>
       <c r="D382" s="2"/>
     </row>
     <row r="383" spans="1:7">
-      <c r="A383" s="2"/>
-      <c r="B383" s="2"/>
-      <c r="C383" s="2"/>
+      <c r="A383" s="7">
+        <v>45945</v>
+      </c>
+      <c r="B383" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C383" s="9">
+        <v>6</v>
+      </c>
       <c r="D383" s="2"/>
     </row>
     <row r="384" spans="1:7">
-      <c r="A384" s="2"/>
-      <c r="B384" s="2"/>
-      <c r="C384" s="2"/>
+      <c r="A384" s="7">
+        <v>45945</v>
+      </c>
+      <c r="B384" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C384" s="9">
+        <v>3</v>
+      </c>
       <c r="D384" s="2"/>
     </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2"/>
-      <c r="B385" s="2"/>
-      <c r="C385" s="2"/>
+    <row r="385" spans="1:7">
+      <c r="A385" s="7">
+        <v>45945</v>
+      </c>
+      <c r="B385" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C385" s="9">
+        <v>3</v>
+      </c>
       <c r="D385" s="2"/>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:7">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387" s="2"/>
+      <c r="B387" s="2"/>
+      <c r="C387" s="2"/>
+      <c r="D387" s="2"/>
+    </row>
+    <row r="388" spans="1:7">
+      <c r="A388" s="2"/>
+      <c r="B388" s="2"/>
+      <c r="C388" s="2"/>
+      <c r="D388" s="2"/>
+      <c r="F388" s="1"/>
+      <c r="G388" s="22"/>
+    </row>
+    <row r="389" spans="1:7">
+      <c r="A389" s="2"/>
+      <c r="B389" s="2"/>
+      <c r="C389" s="2"/>
+      <c r="D389" s="2"/>
+    </row>
+    <row r="390" spans="1:7">
+      <c r="A390" s="2"/>
+      <c r="B390" s="2"/>
+      <c r="C390" s="2"/>
+      <c r="D390" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="21012" windowHeight="7956"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="21015" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -740,25 +740,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U390"/>
+  <dimension ref="A1:U428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F362" sqref="F362"/>
+      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G386" sqref="G386"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
-    <col min="7" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" customWidth="1"/>
-    <col min="12" max="19" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.33203125" customWidth="1"/>
-    <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="8" width="29.42578125" customWidth="1"/>
+    <col min="9" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -6508,7 +6509,9 @@
       <c r="C376" s="9">
         <v>8</v>
       </c>
-      <c r="D376" s="2"/>
+      <c r="D376" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="377" spans="1:7">
       <c r="A377" s="7">
@@ -6520,7 +6523,11 @@
       <c r="C377" s="9">
         <v>5</v>
       </c>
-      <c r="D377" s="2"/>
+      <c r="D377" s="2">
+        <v>2</v>
+      </c>
+      <c r="F377" s="1"/>
+      <c r="G377" s="22"/>
     </row>
     <row r="378" spans="1:7">
       <c r="A378" s="7">
@@ -6532,7 +6539,11 @@
       <c r="C378" s="9">
         <v>5</v>
       </c>
-      <c r="D378" s="2"/>
+      <c r="D378" s="2">
+        <v>2</v>
+      </c>
+      <c r="F378" s="1"/>
+      <c r="G378" s="22"/>
     </row>
     <row r="379" spans="1:7">
       <c r="A379" s="7">
@@ -6544,7 +6555,11 @@
       <c r="C379" s="9">
         <v>5</v>
       </c>
-      <c r="D379" s="2"/>
+      <c r="D379" s="2">
+        <v>4</v>
+      </c>
+      <c r="F379" s="1"/>
+      <c r="G379" s="22"/>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="7">
@@ -6556,7 +6571,11 @@
       <c r="C380" s="9">
         <v>5</v>
       </c>
-      <c r="D380" s="2"/>
+      <c r="D380" s="2">
+        <v>4</v>
+      </c>
+      <c r="F380" s="1"/>
+      <c r="G380" s="22"/>
     </row>
     <row r="381" spans="1:7">
       <c r="A381" s="7">
@@ -6568,7 +6587,11 @@
       <c r="C381" s="9">
         <v>5</v>
       </c>
-      <c r="D381" s="2"/>
+      <c r="D381" s="2">
+        <v>3</v>
+      </c>
+      <c r="F381" s="1"/>
+      <c r="G381" s="22"/>
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="7">
@@ -6580,7 +6603,11 @@
       <c r="C382" s="9">
         <v>5</v>
       </c>
-      <c r="D382" s="2"/>
+      <c r="D382" s="2">
+        <v>3</v>
+      </c>
+      <c r="F382" s="1"/>
+      <c r="G382" s="22"/>
     </row>
     <row r="383" spans="1:7">
       <c r="A383" s="7">
@@ -6592,7 +6619,11 @@
       <c r="C383" s="9">
         <v>6</v>
       </c>
-      <c r="D383" s="2"/>
+      <c r="D383" s="2">
+        <v>4</v>
+      </c>
+      <c r="F383" s="1"/>
+      <c r="G383" s="22"/>
     </row>
     <row r="384" spans="1:7">
       <c r="A384" s="7">
@@ -6604,9 +6635,13 @@
       <c r="C384" s="9">
         <v>3</v>
       </c>
-      <c r="D384" s="2"/>
-    </row>
-    <row r="385" spans="1:7">
+      <c r="D384" s="2">
+        <v>3</v>
+      </c>
+      <c r="F384" s="1"/>
+      <c r="G384" s="22"/>
+    </row>
+    <row r="385" spans="1:8">
       <c r="A385" s="7">
         <v>45945</v>
       </c>
@@ -6616,39 +6651,315 @@
       <c r="C385" s="9">
         <v>3</v>
       </c>
-      <c r="D385" s="2"/>
-    </row>
-    <row r="386" spans="1:7">
-      <c r="A386" s="2"/>
-      <c r="B386" s="2"/>
-      <c r="C386" s="2"/>
+      <c r="D385" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
+      <c r="A386" s="7">
+        <v>45946</v>
+      </c>
+      <c r="B386" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C386" s="9">
+        <v>6</v>
+      </c>
       <c r="D386" s="2"/>
     </row>
-    <row r="387" spans="1:7">
-      <c r="A387" s="2"/>
-      <c r="B387" s="2"/>
-      <c r="C387" s="2"/>
+    <row r="387" spans="1:8">
+      <c r="A387" s="7">
+        <v>45946</v>
+      </c>
+      <c r="B387" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C387" s="9">
+        <v>6</v>
+      </c>
       <c r="D387" s="2"/>
     </row>
-    <row r="388" spans="1:7">
-      <c r="A388" s="2"/>
-      <c r="B388" s="2"/>
-      <c r="C388" s="2"/>
+    <row r="388" spans="1:8">
+      <c r="A388" s="7">
+        <v>45946</v>
+      </c>
+      <c r="B388" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C388" s="9">
+        <v>1</v>
+      </c>
       <c r="D388" s="2"/>
-      <c r="F388" s="1"/>
-      <c r="G388" s="22"/>
-    </row>
-    <row r="389" spans="1:7">
-      <c r="A389" s="2"/>
-      <c r="B389" s="2"/>
-      <c r="C389" s="2"/>
+    </row>
+    <row r="389" spans="1:8">
+      <c r="A389" s="7">
+        <v>45946</v>
+      </c>
+      <c r="B389" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C389" s="9">
+        <v>8</v>
+      </c>
       <c r="D389" s="2"/>
     </row>
-    <row r="390" spans="1:7">
-      <c r="A390" s="2"/>
-      <c r="B390" s="2"/>
-      <c r="C390" s="2"/>
+    <row r="390" spans="1:8">
+      <c r="A390" s="7">
+        <v>45946</v>
+      </c>
+      <c r="B390" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C390" s="9">
+        <v>9</v>
+      </c>
       <c r="D390" s="2"/>
+    </row>
+    <row r="391" spans="1:8">
+      <c r="A391" s="7">
+        <v>45946</v>
+      </c>
+      <c r="B391" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C391" s="9">
+        <v>3</v>
+      </c>
+      <c r="D391" s="2"/>
+    </row>
+    <row r="392" spans="1:8">
+      <c r="A392" s="7">
+        <v>45946</v>
+      </c>
+      <c r="B392" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C392" s="9">
+        <v>3</v>
+      </c>
+      <c r="D392" s="2"/>
+    </row>
+    <row r="393" spans="1:8">
+      <c r="A393" s="7"/>
+      <c r="B393" s="2"/>
+      <c r="C393" s="2"/>
+      <c r="D393" s="2"/>
+    </row>
+    <row r="394" spans="1:8">
+      <c r="A394" s="7"/>
+      <c r="B394" s="2"/>
+      <c r="C394" s="2"/>
+      <c r="D394" s="2"/>
+      <c r="G394" s="1"/>
+      <c r="H394" s="22"/>
+    </row>
+    <row r="395" spans="1:8">
+      <c r="A395" s="2"/>
+      <c r="B395" s="2"/>
+      <c r="C395" s="2"/>
+      <c r="D395" s="2"/>
+      <c r="G395" s="1"/>
+      <c r="H395" s="22"/>
+    </row>
+    <row r="396" spans="1:8">
+      <c r="A396" s="2"/>
+      <c r="B396" s="2"/>
+      <c r="C396" s="2"/>
+      <c r="D396" s="2"/>
+      <c r="G396" s="1"/>
+      <c r="H396" s="22"/>
+    </row>
+    <row r="397" spans="1:8">
+      <c r="A397" s="2"/>
+      <c r="B397" s="2"/>
+      <c r="C397" s="2"/>
+      <c r="D397" s="2"/>
+    </row>
+    <row r="398" spans="1:8">
+      <c r="A398" s="2"/>
+      <c r="B398" s="2"/>
+      <c r="C398" s="2"/>
+      <c r="D398" s="2"/>
+    </row>
+    <row r="399" spans="1:8">
+      <c r="A399" s="2"/>
+      <c r="B399" s="2"/>
+      <c r="C399" s="2"/>
+      <c r="D399" s="2"/>
+    </row>
+    <row r="400" spans="1:8">
+      <c r="A400" s="2"/>
+      <c r="B400" s="2"/>
+      <c r="C400" s="2"/>
+      <c r="D400" s="2"/>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="2"/>
+      <c r="B401" s="2"/>
+      <c r="C401" s="2"/>
+      <c r="D401" s="2"/>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="2"/>
+      <c r="B402" s="2"/>
+      <c r="C402" s="2"/>
+      <c r="D402" s="2"/>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="2"/>
+      <c r="B403" s="2"/>
+      <c r="C403" s="2"/>
+      <c r="D403" s="2"/>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="2"/>
+      <c r="B404" s="2"/>
+      <c r="C404" s="2"/>
+      <c r="D404" s="2"/>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="2"/>
+      <c r="B405" s="2"/>
+      <c r="C405" s="2"/>
+      <c r="D405" s="2"/>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="2"/>
+      <c r="B406" s="2"/>
+      <c r="C406" s="2"/>
+      <c r="D406" s="2"/>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="2"/>
+      <c r="B407" s="2"/>
+      <c r="C407" s="2"/>
+      <c r="D407" s="2"/>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="2"/>
+      <c r="B408" s="2"/>
+      <c r="C408" s="2"/>
+      <c r="D408" s="2"/>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="2"/>
+      <c r="B409" s="2"/>
+      <c r="C409" s="2"/>
+      <c r="D409" s="2"/>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="2"/>
+      <c r="B410" s="2"/>
+      <c r="C410" s="2"/>
+      <c r="D410" s="2"/>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="2"/>
+      <c r="B411" s="2"/>
+      <c r="C411" s="2"/>
+      <c r="D411" s="2"/>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="2"/>
+      <c r="B412" s="2"/>
+      <c r="C412" s="2"/>
+      <c r="D412" s="2"/>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="2"/>
+      <c r="B413" s="2"/>
+      <c r="C413" s="2"/>
+      <c r="D413" s="2"/>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="2"/>
+      <c r="B414" s="2"/>
+      <c r="C414" s="2"/>
+      <c r="D414" s="2"/>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="2"/>
+      <c r="B415" s="2"/>
+      <c r="C415" s="2"/>
+      <c r="D415" s="2"/>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="2"/>
+      <c r="B416" s="2"/>
+      <c r="C416" s="2"/>
+      <c r="D416" s="2"/>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="2"/>
+      <c r="B417" s="2"/>
+      <c r="C417" s="2"/>
+      <c r="D417" s="2"/>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="2"/>
+      <c r="B418" s="2"/>
+      <c r="C418" s="2"/>
+      <c r="D418" s="2"/>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="2"/>
+      <c r="B419" s="2"/>
+      <c r="C419" s="2"/>
+      <c r="D419" s="2"/>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="2"/>
+      <c r="B420" s="2"/>
+      <c r="C420" s="2"/>
+      <c r="D420" s="2"/>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="2"/>
+      <c r="B421" s="2"/>
+      <c r="C421" s="2"/>
+      <c r="D421" s="2"/>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="2"/>
+      <c r="B422" s="2"/>
+      <c r="C422" s="2"/>
+      <c r="D422" s="2"/>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="2"/>
+      <c r="B423" s="2"/>
+      <c r="C423" s="2"/>
+      <c r="D423" s="2"/>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="2"/>
+      <c r="B424" s="2"/>
+      <c r="C424" s="2"/>
+      <c r="D424" s="2"/>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="2"/>
+      <c r="B425" s="2"/>
+      <c r="C425" s="2"/>
+      <c r="D425" s="2"/>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="2"/>
+      <c r="B426" s="2"/>
+      <c r="C426" s="2"/>
+      <c r="D426" s="2"/>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="2"/>
+      <c r="B427" s="2"/>
+      <c r="C427" s="2"/>
+      <c r="D427" s="2"/>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="2"/>
+      <c r="B428" s="2"/>
+      <c r="C428" s="2"/>
+      <c r="D428" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>
@@ -6663,7 +6974,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -740,11 +740,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U428"/>
+  <dimension ref="A1:U430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G386" sqref="G386"/>
+      <selection pane="bottomLeft" activeCell="A393" sqref="A393:D394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6641,7 +6641,7 @@
       <c r="F384" s="1"/>
       <c r="G384" s="22"/>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:7">
       <c r="A385" s="7">
         <v>45945</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:7">
       <c r="A386" s="7">
         <v>45946</v>
       </c>
@@ -6665,9 +6665,11 @@
       <c r="C386" s="9">
         <v>6</v>
       </c>
-      <c r="D386" s="2"/>
-    </row>
-    <row r="387" spans="1:8">
+      <c r="D386" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
       <c r="A387" s="7">
         <v>45946</v>
       </c>
@@ -6677,9 +6679,13 @@
       <c r="C387" s="9">
         <v>6</v>
       </c>
-      <c r="D387" s="2"/>
-    </row>
-    <row r="388" spans="1:8">
+      <c r="D387" s="2">
+        <v>5</v>
+      </c>
+      <c r="F387" s="1"/>
+      <c r="G387" s="22"/>
+    </row>
+    <row r="388" spans="1:7">
       <c r="A388" s="7">
         <v>45946</v>
       </c>
@@ -6689,9 +6695,13 @@
       <c r="C388" s="9">
         <v>1</v>
       </c>
-      <c r="D388" s="2"/>
-    </row>
-    <row r="389" spans="1:8">
+      <c r="D388" s="2">
+        <v>1</v>
+      </c>
+      <c r="F388" s="1"/>
+      <c r="G388" s="22"/>
+    </row>
+    <row r="389" spans="1:7">
       <c r="A389" s="7">
         <v>45946</v>
       </c>
@@ -6701,9 +6711,13 @@
       <c r="C389" s="9">
         <v>8</v>
       </c>
-      <c r="D389" s="2"/>
-    </row>
-    <row r="390" spans="1:8">
+      <c r="D389" s="2">
+        <v>8</v>
+      </c>
+      <c r="F389" s="1"/>
+      <c r="G389" s="22"/>
+    </row>
+    <row r="390" spans="1:7">
       <c r="A390" s="7">
         <v>45946</v>
       </c>
@@ -6713,9 +6727,13 @@
       <c r="C390" s="9">
         <v>9</v>
       </c>
-      <c r="D390" s="2"/>
-    </row>
-    <row r="391" spans="1:8">
+      <c r="D390" s="2">
+        <v>4</v>
+      </c>
+      <c r="F390" s="1"/>
+      <c r="G390" s="22"/>
+    </row>
+    <row r="391" spans="1:7">
       <c r="A391" s="7">
         <v>45946</v>
       </c>
@@ -6725,9 +6743,13 @@
       <c r="C391" s="9">
         <v>3</v>
       </c>
-      <c r="D391" s="2"/>
-    </row>
-    <row r="392" spans="1:8">
+      <c r="D391" s="2">
+        <v>0</v>
+      </c>
+      <c r="F391" s="1"/>
+      <c r="G391" s="22"/>
+    </row>
+    <row r="392" spans="1:7">
       <c r="A392" s="7">
         <v>45946</v>
       </c>
@@ -6737,66 +6759,118 @@
       <c r="C392" s="9">
         <v>3</v>
       </c>
-      <c r="D392" s="2"/>
-    </row>
-    <row r="393" spans="1:8">
-      <c r="A393" s="7"/>
-      <c r="B393" s="2"/>
-      <c r="C393" s="2"/>
+      <c r="D392" s="2">
+        <v>0</v>
+      </c>
+      <c r="F392" s="1"/>
+      <c r="G392" s="22"/>
+    </row>
+    <row r="393" spans="1:7">
+      <c r="A393" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B393" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C393" s="9">
+        <v>5</v>
+      </c>
       <c r="D393" s="2"/>
     </row>
-    <row r="394" spans="1:8">
-      <c r="A394" s="7"/>
-      <c r="B394" s="2"/>
-      <c r="C394" s="2"/>
+    <row r="394" spans="1:7">
+      <c r="A394" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B394" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C394" s="9">
+        <v>5</v>
+      </c>
       <c r="D394" s="2"/>
-      <c r="G394" s="1"/>
-      <c r="H394" s="22"/>
-    </row>
-    <row r="395" spans="1:8">
-      <c r="A395" s="2"/>
-      <c r="B395" s="2"/>
-      <c r="C395" s="2"/>
+    </row>
+    <row r="395" spans="1:7">
+      <c r="A395" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B395" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C395" s="9">
+        <v>7</v>
+      </c>
       <c r="D395" s="2"/>
-      <c r="G395" s="1"/>
-      <c r="H395" s="22"/>
-    </row>
-    <row r="396" spans="1:8">
-      <c r="A396" s="2"/>
-      <c r="B396" s="2"/>
-      <c r="C396" s="2"/>
+    </row>
+    <row r="396" spans="1:7">
+      <c r="A396" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B396" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C396" s="9">
+        <v>7</v>
+      </c>
       <c r="D396" s="2"/>
-      <c r="G396" s="1"/>
-      <c r="H396" s="22"/>
-    </row>
-    <row r="397" spans="1:8">
-      <c r="A397" s="2"/>
-      <c r="B397" s="2"/>
-      <c r="C397" s="2"/>
+    </row>
+    <row r="397" spans="1:7">
+      <c r="A397" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B397" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C397" s="9">
+        <v>1</v>
+      </c>
       <c r="D397" s="2"/>
     </row>
-    <row r="398" spans="1:8">
-      <c r="A398" s="2"/>
-      <c r="B398" s="2"/>
-      <c r="C398" s="2"/>
+    <row r="398" spans="1:7">
+      <c r="A398" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B398" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C398" s="9">
+        <v>1</v>
+      </c>
       <c r="D398" s="2"/>
     </row>
-    <row r="399" spans="1:8">
-      <c r="A399" s="2"/>
-      <c r="B399" s="2"/>
-      <c r="C399" s="2"/>
+    <row r="399" spans="1:7">
+      <c r="A399" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C399" s="9">
+        <v>8</v>
+      </c>
       <c r="D399" s="2"/>
     </row>
-    <row r="400" spans="1:8">
-      <c r="A400" s="2"/>
-      <c r="B400" s="2"/>
-      <c r="C400" s="2"/>
+    <row r="400" spans="1:7">
+      <c r="A400" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B400" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C400" s="9">
+        <v>4</v>
+      </c>
       <c r="D400" s="2"/>
     </row>
     <row r="401" spans="1:4">
-      <c r="A401" s="2"/>
-      <c r="B401" s="2"/>
-      <c r="C401" s="2"/>
+      <c r="A401" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B401" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C401" s="9">
+        <v>4</v>
+      </c>
       <c r="D401" s="2"/>
     </row>
     <row r="402" spans="1:4">
@@ -6960,6 +7034,18 @@
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="2"/>
+      <c r="B429" s="2"/>
+      <c r="C429" s="2"/>
+      <c r="D429" s="2"/>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="2"/>
+      <c r="B430" s="2"/>
+      <c r="C430" s="2"/>
+      <c r="D430" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -740,11 +740,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U430"/>
+  <dimension ref="A1:U433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A393" sqref="A393:D394"/>
+      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F399" sqref="F399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6775,7 +6775,9 @@
       <c r="C393" s="9">
         <v>5</v>
       </c>
-      <c r="D393" s="2"/>
+      <c r="D393" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="394" spans="1:7">
       <c r="A394" s="7">
@@ -6787,7 +6789,11 @@
       <c r="C394" s="9">
         <v>5</v>
       </c>
-      <c r="D394" s="2"/>
+      <c r="D394" s="2">
+        <v>2</v>
+      </c>
+      <c r="F394" s="1"/>
+      <c r="G394" s="22"/>
     </row>
     <row r="395" spans="1:7">
       <c r="A395" s="7">
@@ -6799,7 +6805,11 @@
       <c r="C395" s="9">
         <v>7</v>
       </c>
-      <c r="D395" s="2"/>
+      <c r="D395" s="2">
+        <v>8</v>
+      </c>
+      <c r="F395" s="1"/>
+      <c r="G395" s="22"/>
     </row>
     <row r="396" spans="1:7">
       <c r="A396" s="7">
@@ -6811,7 +6821,11 @@
       <c r="C396" s="9">
         <v>7</v>
       </c>
-      <c r="D396" s="2"/>
+      <c r="D396" s="2">
+        <v>8</v>
+      </c>
+      <c r="F396" s="1"/>
+      <c r="G396" s="22"/>
     </row>
     <row r="397" spans="1:7">
       <c r="A397" s="7">
@@ -6823,7 +6837,11 @@
       <c r="C397" s="9">
         <v>1</v>
       </c>
-      <c r="D397" s="2"/>
+      <c r="D397" s="2">
+        <v>1</v>
+      </c>
+      <c r="F397" s="1"/>
+      <c r="G397" s="22"/>
     </row>
     <row r="398" spans="1:7">
       <c r="A398" s="7">
@@ -6835,7 +6853,11 @@
       <c r="C398" s="9">
         <v>1</v>
       </c>
-      <c r="D398" s="2"/>
+      <c r="D398" s="2">
+        <v>1</v>
+      </c>
+      <c r="F398" s="1"/>
+      <c r="G398" s="22"/>
     </row>
     <row r="399" spans="1:7">
       <c r="A399" s="7">
@@ -6847,7 +6869,11 @@
       <c r="C399" s="9">
         <v>8</v>
       </c>
-      <c r="D399" s="2"/>
+      <c r="D399" s="2">
+        <v>2</v>
+      </c>
+      <c r="F399" s="1"/>
+      <c r="G399" s="22"/>
     </row>
     <row r="400" spans="1:7">
       <c r="A400" s="7">
@@ -6859,9 +6885,13 @@
       <c r="C400" s="9">
         <v>4</v>
       </c>
-      <c r="D400" s="2"/>
-    </row>
-    <row r="401" spans="1:4">
+      <c r="D400" s="2">
+        <v>3</v>
+      </c>
+      <c r="F400" s="1"/>
+      <c r="G400" s="22"/>
+    </row>
+    <row r="401" spans="1:7">
       <c r="A401" s="7">
         <v>45947</v>
       </c>
@@ -6871,181 +6901,329 @@
       <c r="C401" s="9">
         <v>4</v>
       </c>
-      <c r="D401" s="2"/>
-    </row>
-    <row r="402" spans="1:4">
-      <c r="A402" s="2"/>
-      <c r="B402" s="2"/>
-      <c r="C402" s="2"/>
-      <c r="D402" s="2"/>
-    </row>
-    <row r="403" spans="1:4">
-      <c r="A403" s="2"/>
-      <c r="B403" s="2"/>
-      <c r="C403" s="2"/>
-      <c r="D403" s="2"/>
-    </row>
-    <row r="404" spans="1:4">
-      <c r="A404" s="2"/>
-      <c r="B404" s="2"/>
-      <c r="C404" s="2"/>
-      <c r="D404" s="2"/>
-    </row>
-    <row r="405" spans="1:4">
-      <c r="A405" s="2"/>
-      <c r="B405" s="2"/>
-      <c r="C405" s="2"/>
-      <c r="D405" s="2"/>
-    </row>
-    <row r="406" spans="1:4">
-      <c r="A406" s="2"/>
-      <c r="B406" s="2"/>
-      <c r="C406" s="2"/>
-      <c r="D406" s="2"/>
-    </row>
-    <row r="407" spans="1:4">
-      <c r="A407" s="2"/>
-      <c r="B407" s="2"/>
-      <c r="C407" s="2"/>
+      <c r="D401" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
+      <c r="A402" s="7">
+        <v>45948</v>
+      </c>
+      <c r="B402" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C402" s="2">
+        <v>5</v>
+      </c>
+      <c r="D402" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
+      <c r="A403" s="7">
+        <v>45948</v>
+      </c>
+      <c r="B403" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C403" s="2">
+        <v>5</v>
+      </c>
+      <c r="D403" s="2">
+        <v>7</v>
+      </c>
+      <c r="F403" s="1"/>
+      <c r="G403" s="22"/>
+    </row>
+    <row r="404" spans="1:7">
+      <c r="A404" s="7">
+        <v>45948</v>
+      </c>
+      <c r="B404" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C404" s="2">
+        <v>7</v>
+      </c>
+      <c r="D404" s="2">
+        <v>5</v>
+      </c>
+      <c r="F404" s="1"/>
+      <c r="G404" s="22"/>
+    </row>
+    <row r="405" spans="1:7">
+      <c r="A405" s="7">
+        <v>45948</v>
+      </c>
+      <c r="B405" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C405" s="2">
+        <v>7</v>
+      </c>
+      <c r="D405" s="2">
+        <v>5</v>
+      </c>
+      <c r="F405" s="1"/>
+      <c r="G405" s="22"/>
+    </row>
+    <row r="406" spans="1:7">
+      <c r="A406" s="7">
+        <v>45948</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C406" s="2">
+        <v>14</v>
+      </c>
+      <c r="D406" s="2">
+        <v>14</v>
+      </c>
+      <c r="F406" s="1"/>
+      <c r="G406" s="22"/>
+    </row>
+    <row r="407" spans="1:7">
+      <c r="A407" s="7">
+        <v>45950</v>
+      </c>
+      <c r="B407" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C407" s="9">
+        <v>5</v>
+      </c>
       <c r="D407" s="2"/>
     </row>
-    <row r="408" spans="1:4">
-      <c r="A408" s="2"/>
-      <c r="B408" s="2"/>
-      <c r="C408" s="2"/>
+    <row r="408" spans="1:7">
+      <c r="A408" s="7">
+        <v>45950</v>
+      </c>
+      <c r="B408" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C408" s="9">
+        <v>5</v>
+      </c>
       <c r="D408" s="2"/>
     </row>
-    <row r="409" spans="1:4">
-      <c r="A409" s="2"/>
-      <c r="B409" s="2"/>
-      <c r="C409" s="2"/>
+    <row r="409" spans="1:7">
+      <c r="A409" s="7">
+        <v>45950</v>
+      </c>
+      <c r="B409" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C409" s="9">
+        <v>6</v>
+      </c>
       <c r="D409" s="2"/>
-    </row>
-    <row r="410" spans="1:4">
-      <c r="A410" s="2"/>
-      <c r="B410" s="2"/>
-      <c r="C410" s="2"/>
+      <c r="F409" s="1"/>
+      <c r="G409" s="22"/>
+    </row>
+    <row r="410" spans="1:7">
+      <c r="A410" s="7">
+        <v>45950</v>
+      </c>
+      <c r="B410" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C410" s="9">
+        <v>6</v>
+      </c>
       <c r="D410" s="2"/>
-    </row>
-    <row r="411" spans="1:4">
-      <c r="A411" s="2"/>
-      <c r="B411" s="2"/>
-      <c r="C411" s="2"/>
+      <c r="F410" s="1"/>
+      <c r="G410" s="22"/>
+    </row>
+    <row r="411" spans="1:7">
+      <c r="A411" s="7">
+        <v>45950</v>
+      </c>
+      <c r="B411" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C411" s="9">
+        <v>1</v>
+      </c>
       <c r="D411" s="2"/>
-    </row>
-    <row r="412" spans="1:4">
-      <c r="A412" s="2"/>
-      <c r="B412" s="2"/>
-      <c r="C412" s="2"/>
+      <c r="F411" s="1"/>
+      <c r="G411" s="22"/>
+    </row>
+    <row r="412" spans="1:7">
+      <c r="A412" s="7">
+        <v>45950</v>
+      </c>
+      <c r="B412" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C412" s="9">
+        <v>1</v>
+      </c>
       <c r="D412" s="2"/>
-    </row>
-    <row r="413" spans="1:4">
-      <c r="A413" s="2"/>
-      <c r="B413" s="2"/>
-      <c r="C413" s="2"/>
+      <c r="F412" s="1"/>
+      <c r="G412" s="22"/>
+    </row>
+    <row r="413" spans="1:7">
+      <c r="A413" s="7">
+        <v>45950</v>
+      </c>
+      <c r="B413" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C413" s="9">
+        <v>3</v>
+      </c>
       <c r="D413" s="2"/>
-    </row>
-    <row r="414" spans="1:4">
-      <c r="A414" s="2"/>
-      <c r="B414" s="2"/>
-      <c r="C414" s="2"/>
+      <c r="F413" s="1"/>
+      <c r="G413" s="22"/>
+    </row>
+    <row r="414" spans="1:7">
+      <c r="A414" s="7">
+        <v>45950</v>
+      </c>
+      <c r="B414" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C414" s="9">
+        <v>3</v>
+      </c>
       <c r="D414" s="2"/>
-    </row>
-    <row r="415" spans="1:4">
-      <c r="A415" s="2"/>
-      <c r="B415" s="2"/>
-      <c r="C415" s="2"/>
+      <c r="F414" s="1"/>
+      <c r="G414" s="22"/>
+    </row>
+    <row r="415" spans="1:7">
+      <c r="A415" s="7">
+        <v>45950</v>
+      </c>
+      <c r="B415" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C415" s="9">
+        <v>2</v>
+      </c>
       <c r="D415" s="2"/>
-    </row>
-    <row r="416" spans="1:4">
-      <c r="A416" s="2"/>
-      <c r="B416" s="2"/>
-      <c r="C416" s="2"/>
+      <c r="F415" s="1"/>
+      <c r="G415" s="22"/>
+    </row>
+    <row r="416" spans="1:7">
+      <c r="A416" s="7">
+        <v>45950</v>
+      </c>
+      <c r="B416" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C416" s="9">
+        <v>2</v>
+      </c>
       <c r="D416" s="2"/>
-    </row>
-    <row r="417" spans="1:4">
+      <c r="F416" s="1"/>
+      <c r="G416" s="22"/>
+    </row>
+    <row r="417" spans="1:7">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
-    </row>
-    <row r="418" spans="1:4">
+      <c r="F417" s="1"/>
+      <c r="G417" s="22"/>
+    </row>
+    <row r="418" spans="1:7">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
-    </row>
-    <row r="419" spans="1:4">
+      <c r="F418" s="1"/>
+      <c r="G418" s="22"/>
+    </row>
+    <row r="419" spans="1:7">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:7">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:7">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:7">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:7">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:7">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:7">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:7">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:7">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:7">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:7">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:7">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
+    </row>
+    <row r="431" spans="1:7">
+      <c r="A431" s="2"/>
+      <c r="B431" s="2"/>
+      <c r="C431" s="2"/>
+      <c r="D431" s="2"/>
+    </row>
+    <row r="432" spans="1:7">
+      <c r="A432" s="2"/>
+      <c r="B432" s="2"/>
+      <c r="C432" s="2"/>
+      <c r="D432" s="2"/>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="2"/>
+      <c r="B433" s="2"/>
+      <c r="C433" s="2"/>
+      <c r="D433" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -320,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -443,6 +443,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -740,11 +743,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U433"/>
+  <dimension ref="A1:U437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F399" sqref="F399"/>
+      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A418" sqref="A418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6993,7 +6996,9 @@
       <c r="C407" s="9">
         <v>5</v>
       </c>
-      <c r="D407" s="2"/>
+      <c r="D407" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="408" spans="1:7">
       <c r="A408" s="7">
@@ -7005,7 +7010,11 @@
       <c r="C408" s="9">
         <v>5</v>
       </c>
-      <c r="D408" s="2"/>
+      <c r="D408" s="2">
+        <v>3</v>
+      </c>
+      <c r="F408" s="1"/>
+      <c r="G408" s="22"/>
     </row>
     <row r="409" spans="1:7">
       <c r="A409" s="7">
@@ -7017,7 +7026,9 @@
       <c r="C409" s="9">
         <v>6</v>
       </c>
-      <c r="D409" s="2"/>
+      <c r="D409" s="2">
+        <v>5</v>
+      </c>
       <c r="F409" s="1"/>
       <c r="G409" s="22"/>
     </row>
@@ -7031,7 +7042,9 @@
       <c r="C410" s="9">
         <v>6</v>
       </c>
-      <c r="D410" s="2"/>
+      <c r="D410" s="2">
+        <v>5</v>
+      </c>
       <c r="F410" s="1"/>
       <c r="G410" s="22"/>
     </row>
@@ -7045,7 +7058,9 @@
       <c r="C411" s="9">
         <v>1</v>
       </c>
-      <c r="D411" s="2"/>
+      <c r="D411" s="2">
+        <v>1</v>
+      </c>
       <c r="F411" s="1"/>
       <c r="G411" s="22"/>
     </row>
@@ -7059,7 +7074,9 @@
       <c r="C412" s="9">
         <v>1</v>
       </c>
-      <c r="D412" s="2"/>
+      <c r="D412" s="2">
+        <v>1</v>
+      </c>
       <c r="F412" s="1"/>
       <c r="G412" s="22"/>
     </row>
@@ -7073,7 +7090,9 @@
       <c r="C413" s="9">
         <v>3</v>
       </c>
-      <c r="D413" s="2"/>
+      <c r="D413" s="2">
+        <v>1</v>
+      </c>
       <c r="F413" s="1"/>
       <c r="G413" s="22"/>
     </row>
@@ -7087,7 +7106,9 @@
       <c r="C414" s="9">
         <v>3</v>
       </c>
-      <c r="D414" s="2"/>
+      <c r="D414" s="2">
+        <v>1</v>
+      </c>
       <c r="F414" s="1"/>
       <c r="G414" s="22"/>
     </row>
@@ -7101,7 +7122,9 @@
       <c r="C415" s="9">
         <v>2</v>
       </c>
-      <c r="D415" s="2"/>
+      <c r="D415" s="2">
+        <v>1</v>
+      </c>
       <c r="F415" s="1"/>
       <c r="G415" s="22"/>
     </row>
@@ -7115,105 +7138,169 @@
       <c r="C416" s="9">
         <v>2</v>
       </c>
-      <c r="D416" s="2"/>
+      <c r="D416" s="2">
+        <v>1</v>
+      </c>
       <c r="F416" s="1"/>
       <c r="G416" s="22"/>
     </row>
-    <row r="417" spans="1:7">
-      <c r="A417" s="2"/>
-      <c r="B417" s="2"/>
-      <c r="C417" s="2"/>
-      <c r="D417" s="2"/>
+    <row r="417" spans="1:8">
+      <c r="A417" s="7">
+        <v>45950</v>
+      </c>
+      <c r="B417" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C417" s="9">
+        <v>0</v>
+      </c>
+      <c r="D417" s="2">
+        <v>1</v>
+      </c>
       <c r="F417" s="1"/>
       <c r="G417" s="22"/>
     </row>
-    <row r="418" spans="1:7">
-      <c r="A418" s="2"/>
-      <c r="B418" s="2"/>
-      <c r="C418" s="2"/>
+    <row r="418" spans="1:8">
+      <c r="A418" s="7">
+        <v>45951</v>
+      </c>
+      <c r="B418" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C418" s="9">
+        <v>16</v>
+      </c>
       <c r="D418" s="2"/>
       <c r="F418" s="1"/>
       <c r="G418" s="22"/>
     </row>
-    <row r="419" spans="1:7">
-      <c r="A419" s="2"/>
-      <c r="B419" s="2"/>
-      <c r="C419" s="2"/>
+    <row r="419" spans="1:8">
+      <c r="A419" s="7">
+        <v>45951</v>
+      </c>
+      <c r="B419" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C419" s="9">
+        <v>16</v>
+      </c>
       <c r="D419" s="2"/>
     </row>
-    <row r="420" spans="1:7">
-      <c r="A420" s="2"/>
-      <c r="B420" s="2"/>
-      <c r="C420" s="2"/>
+    <row r="420" spans="1:8">
+      <c r="A420" s="7">
+        <v>45951</v>
+      </c>
+      <c r="B420" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C420" s="9">
+        <v>2</v>
+      </c>
       <c r="D420" s="2"/>
     </row>
-    <row r="421" spans="1:7">
-      <c r="A421" s="2"/>
-      <c r="B421" s="2"/>
-      <c r="C421" s="2"/>
+    <row r="421" spans="1:8">
+      <c r="A421" s="7">
+        <v>45951</v>
+      </c>
+      <c r="B421" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C421" s="9">
+        <v>2</v>
+      </c>
       <c r="D421" s="2"/>
     </row>
-    <row r="422" spans="1:7">
-      <c r="A422" s="2"/>
-      <c r="B422" s="2"/>
-      <c r="C422" s="2"/>
+    <row r="422" spans="1:8">
+      <c r="A422" s="7">
+        <v>45951</v>
+      </c>
+      <c r="B422" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C422" s="9">
+        <v>4</v>
+      </c>
       <c r="D422" s="2"/>
     </row>
-    <row r="423" spans="1:7">
-      <c r="A423" s="2"/>
-      <c r="B423" s="2"/>
-      <c r="C423" s="2"/>
+    <row r="423" spans="1:8">
+      <c r="A423" s="7">
+        <v>45951</v>
+      </c>
+      <c r="B423" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C423" s="9">
+        <v>4</v>
+      </c>
       <c r="D423" s="2"/>
     </row>
-    <row r="424" spans="1:7">
-      <c r="A424" s="2"/>
-      <c r="B424" s="2"/>
-      <c r="C424" s="2"/>
+    <row r="424" spans="1:8">
+      <c r="A424" s="7">
+        <v>45951</v>
+      </c>
+      <c r="B424" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C424" s="9">
+        <v>1</v>
+      </c>
       <c r="D424" s="2"/>
     </row>
-    <row r="425" spans="1:7">
-      <c r="A425" s="2"/>
-      <c r="B425" s="2"/>
-      <c r="C425" s="2"/>
+    <row r="425" spans="1:8">
+      <c r="A425" s="7">
+        <v>45951</v>
+      </c>
+      <c r="B425" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C425" s="9">
+        <v>1</v>
+      </c>
       <c r="D425" s="2"/>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:8">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
-    </row>
-    <row r="427" spans="1:7">
+      <c r="G426" s="1"/>
+      <c r="H426" s="22"/>
+    </row>
+    <row r="427" spans="1:8">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
-    </row>
-    <row r="428" spans="1:7">
+      <c r="G427" s="1"/>
+      <c r="H427" s="22"/>
+    </row>
+    <row r="428" spans="1:8">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
-    </row>
-    <row r="429" spans="1:7">
+      <c r="G428" s="1"/>
+      <c r="H428" s="22"/>
+    </row>
+    <row r="429" spans="1:8">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:8">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:8">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:8">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -7224,6 +7311,30 @@
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="2"/>
+      <c r="B434" s="2"/>
+      <c r="C434" s="2"/>
+      <c r="D434" s="2"/>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="2"/>
+      <c r="B435" s="2"/>
+      <c r="C435" s="2"/>
+      <c r="D435" s="2"/>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="2"/>
+      <c r="B436" s="2"/>
+      <c r="C436" s="2"/>
+      <c r="D436" s="2"/>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="2"/>
+      <c r="B437" s="2"/>
+      <c r="C437" s="2"/>
+      <c r="D437" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -743,11 +743,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U437"/>
+  <dimension ref="A1:U443"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A418" sqref="A418"/>
+      <pane ySplit="1" topLeftCell="A407" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G407" sqref="G407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7013,8 +7013,6 @@
       <c r="D408" s="2">
         <v>3</v>
       </c>
-      <c r="F408" s="1"/>
-      <c r="G408" s="22"/>
     </row>
     <row r="409" spans="1:7">
       <c r="A409" s="7">
@@ -7144,7 +7142,7 @@
       <c r="F416" s="1"/>
       <c r="G416" s="22"/>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:7">
       <c r="A417" s="7">
         <v>45950</v>
       </c>
@@ -7160,7 +7158,7 @@
       <c r="F417" s="1"/>
       <c r="G417" s="22"/>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:7">
       <c r="A418" s="7">
         <v>45951</v>
       </c>
@@ -7170,11 +7168,11 @@
       <c r="C418" s="9">
         <v>16</v>
       </c>
-      <c r="D418" s="2"/>
-      <c r="F418" s="1"/>
-      <c r="G418" s="22"/>
-    </row>
-    <row r="419" spans="1:8">
+      <c r="D418" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
       <c r="A419" s="7">
         <v>45951</v>
       </c>
@@ -7184,9 +7182,11 @@
       <c r="C419" s="9">
         <v>16</v>
       </c>
-      <c r="D419" s="2"/>
-    </row>
-    <row r="420" spans="1:8">
+      <c r="D419" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
       <c r="A420" s="7">
         <v>45951</v>
       </c>
@@ -7196,9 +7196,11 @@
       <c r="C420" s="9">
         <v>2</v>
       </c>
-      <c r="D420" s="2"/>
-    </row>
-    <row r="421" spans="1:8">
+      <c r="D420" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
       <c r="A421" s="7">
         <v>45951</v>
       </c>
@@ -7208,9 +7210,11 @@
       <c r="C421" s="9">
         <v>2</v>
       </c>
-      <c r="D421" s="2"/>
-    </row>
-    <row r="422" spans="1:8">
+      <c r="D421" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
       <c r="A422" s="7">
         <v>45951</v>
       </c>
@@ -7220,9 +7224,11 @@
       <c r="C422" s="9">
         <v>4</v>
       </c>
-      <c r="D422" s="2"/>
-    </row>
-    <row r="423" spans="1:8">
+      <c r="D422" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
       <c r="A423" s="7">
         <v>45951</v>
       </c>
@@ -7232,9 +7238,11 @@
       <c r="C423" s="9">
         <v>4</v>
       </c>
-      <c r="D423" s="2"/>
-    </row>
-    <row r="424" spans="1:8">
+      <c r="D423" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
       <c r="A424" s="7">
         <v>45951</v>
       </c>
@@ -7244,9 +7252,11 @@
       <c r="C424" s="9">
         <v>1</v>
       </c>
-      <c r="D424" s="2"/>
-    </row>
-    <row r="425" spans="1:8">
+      <c r="D424" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
       <c r="A425" s="7">
         <v>45951</v>
       </c>
@@ -7256,85 +7266,203 @@
       <c r="C425" s="9">
         <v>1</v>
       </c>
-      <c r="D425" s="2"/>
-    </row>
-    <row r="426" spans="1:8">
-      <c r="A426" s="2"/>
-      <c r="B426" s="2"/>
-      <c r="C426" s="2"/>
-      <c r="D426" s="2"/>
-      <c r="G426" s="1"/>
-      <c r="H426" s="22"/>
-    </row>
-    <row r="427" spans="1:8">
-      <c r="A427" s="2"/>
-      <c r="B427" s="2"/>
-      <c r="C427" s="2"/>
-      <c r="D427" s="2"/>
-      <c r="G427" s="1"/>
-      <c r="H427" s="22"/>
-    </row>
-    <row r="428" spans="1:8">
-      <c r="A428" s="2"/>
-      <c r="B428" s="2"/>
-      <c r="C428" s="2"/>
-      <c r="D428" s="2"/>
-      <c r="G428" s="1"/>
-      <c r="H428" s="22"/>
-    </row>
-    <row r="429" spans="1:8">
-      <c r="A429" s="2"/>
-      <c r="B429" s="2"/>
-      <c r="C429" s="2"/>
-      <c r="D429" s="2"/>
-    </row>
-    <row r="430" spans="1:8">
-      <c r="A430" s="2"/>
-      <c r="B430" s="2"/>
-      <c r="C430" s="2"/>
+      <c r="D425" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
+      <c r="A426" s="7">
+        <v>45951</v>
+      </c>
+      <c r="B426" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C426" s="9">
+        <v>0</v>
+      </c>
+      <c r="D426" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
+      <c r="A427" s="7">
+        <v>45951</v>
+      </c>
+      <c r="B427" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C427" s="9">
+        <v>0</v>
+      </c>
+      <c r="D427" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
+      <c r="A428" s="7">
+        <v>45951</v>
+      </c>
+      <c r="B428" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C428" s="9">
+        <v>0</v>
+      </c>
+      <c r="D428" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
+      <c r="A429" s="7">
+        <v>45951</v>
+      </c>
+      <c r="B429" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C429" s="9">
+        <v>0</v>
+      </c>
+      <c r="D429" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
+      <c r="A430" s="7">
+        <v>45952</v>
+      </c>
+      <c r="B430" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C430" s="9">
+        <v>8</v>
+      </c>
       <c r="D430" s="2"/>
     </row>
-    <row r="431" spans="1:8">
-      <c r="A431" s="2"/>
-      <c r="B431" s="2"/>
-      <c r="C431" s="2"/>
+    <row r="431" spans="1:7">
+      <c r="A431" s="7">
+        <v>45952</v>
+      </c>
+      <c r="B431" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C431" s="9">
+        <v>1</v>
+      </c>
       <c r="D431" s="2"/>
     </row>
-    <row r="432" spans="1:8">
-      <c r="A432" s="2"/>
-      <c r="B432" s="2"/>
-      <c r="C432" s="2"/>
+    <row r="432" spans="1:7">
+      <c r="A432" s="7">
+        <v>45952</v>
+      </c>
+      <c r="B432" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C432" s="9">
+        <v>3</v>
+      </c>
       <c r="D432" s="2"/>
     </row>
     <row r="433" spans="1:4">
-      <c r="A433" s="2"/>
-      <c r="B433" s="2"/>
-      <c r="C433" s="2"/>
+      <c r="A433" s="7">
+        <v>45952</v>
+      </c>
+      <c r="B433" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C433" s="9">
+        <v>3</v>
+      </c>
       <c r="D433" s="2"/>
     </row>
     <row r="434" spans="1:4">
-      <c r="A434" s="2"/>
-      <c r="B434" s="2"/>
-      <c r="C434" s="2"/>
+      <c r="A434" s="7">
+        <v>45952</v>
+      </c>
+      <c r="B434" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C434" s="9">
+        <v>5</v>
+      </c>
       <c r="D434" s="2"/>
     </row>
     <row r="435" spans="1:4">
-      <c r="A435" s="2"/>
-      <c r="B435" s="2"/>
-      <c r="C435" s="2"/>
+      <c r="A435" s="7">
+        <v>45952</v>
+      </c>
+      <c r="B435" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C435" s="9">
+        <v>5</v>
+      </c>
       <c r="D435" s="2"/>
     </row>
     <row r="436" spans="1:4">
-      <c r="A436" s="2"/>
-      <c r="B436" s="2"/>
-      <c r="C436" s="2"/>
+      <c r="A436" s="7">
+        <v>45952</v>
+      </c>
+      <c r="B436" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C436" s="9">
+        <v>1</v>
+      </c>
       <c r="D436" s="2"/>
     </row>
     <row r="437" spans="1:4">
-      <c r="A437" s="2"/>
-      <c r="B437" s="2"/>
-      <c r="C437" s="2"/>
+      <c r="A437" s="7">
+        <v>45952</v>
+      </c>
+      <c r="B437" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C437" s="9">
+        <v>3</v>
+      </c>
       <c r="D437" s="2"/>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="7">
+        <v>45952</v>
+      </c>
+      <c r="B438" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C438" s="9">
+        <v>3</v>
+      </c>
+      <c r="D438" s="2"/>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="2"/>
+      <c r="B439" s="2"/>
+      <c r="C439" s="2"/>
+      <c r="D439" s="2"/>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="2"/>
+      <c r="B440" s="2"/>
+      <c r="C440" s="2"/>
+      <c r="D440" s="2"/>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="2"/>
+      <c r="B441" s="2"/>
+      <c r="C441" s="2"/>
+      <c r="D441" s="2"/>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="2"/>
+      <c r="B442" s="2"/>
+      <c r="C442" s="2"/>
+      <c r="D442" s="2"/>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="2"/>
+      <c r="B443" s="2"/>
+      <c r="C443" s="2"/>
+      <c r="D443" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -743,11 +743,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U443"/>
+  <dimension ref="A1:U445"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A407" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G407" sqref="G407"/>
+      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B443" sqref="B442:B443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7336,7 +7336,9 @@
       <c r="C430" s="9">
         <v>8</v>
       </c>
-      <c r="D430" s="2"/>
+      <c r="D430" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="431" spans="1:7">
       <c r="A431" s="7">
@@ -7348,7 +7350,11 @@
       <c r="C431" s="9">
         <v>1</v>
       </c>
-      <c r="D431" s="2"/>
+      <c r="D431" s="2">
+        <v>4</v>
+      </c>
+      <c r="F431" s="1"/>
+      <c r="G431" s="22"/>
     </row>
     <row r="432" spans="1:7">
       <c r="A432" s="7">
@@ -7360,9 +7366,13 @@
       <c r="C432" s="9">
         <v>3</v>
       </c>
-      <c r="D432" s="2"/>
-    </row>
-    <row r="433" spans="1:4">
+      <c r="D432" s="2">
+        <v>0</v>
+      </c>
+      <c r="F432" s="1"/>
+      <c r="G432" s="22"/>
+    </row>
+    <row r="433" spans="1:7">
       <c r="A433" s="7">
         <v>45952</v>
       </c>
@@ -7372,9 +7382,13 @@
       <c r="C433" s="9">
         <v>3</v>
       </c>
-      <c r="D433" s="2"/>
-    </row>
-    <row r="434" spans="1:4">
+      <c r="D433" s="2">
+        <v>0</v>
+      </c>
+      <c r="F433" s="1"/>
+      <c r="G433" s="22"/>
+    </row>
+    <row r="434" spans="1:7">
       <c r="A434" s="7">
         <v>45952</v>
       </c>
@@ -7384,9 +7398,13 @@
       <c r="C434" s="9">
         <v>5</v>
       </c>
-      <c r="D434" s="2"/>
-    </row>
-    <row r="435" spans="1:4">
+      <c r="D434" s="2">
+        <v>6</v>
+      </c>
+      <c r="F434" s="1"/>
+      <c r="G434" s="22"/>
+    </row>
+    <row r="435" spans="1:7">
       <c r="A435" s="7">
         <v>45952</v>
       </c>
@@ -7396,9 +7414,13 @@
       <c r="C435" s="9">
         <v>5</v>
       </c>
-      <c r="D435" s="2"/>
-    </row>
-    <row r="436" spans="1:4">
+      <c r="D435" s="2">
+        <v>6</v>
+      </c>
+      <c r="F435" s="1"/>
+      <c r="G435" s="22"/>
+    </row>
+    <row r="436" spans="1:7">
       <c r="A436" s="7">
         <v>45952</v>
       </c>
@@ -7408,9 +7430,13 @@
       <c r="C436" s="9">
         <v>1</v>
       </c>
-      <c r="D436" s="2"/>
-    </row>
-    <row r="437" spans="1:4">
+      <c r="D436" s="2">
+        <v>2</v>
+      </c>
+      <c r="F436" s="1"/>
+      <c r="G436" s="22"/>
+    </row>
+    <row r="437" spans="1:7">
       <c r="A437" s="7">
         <v>45952</v>
       </c>
@@ -7420,9 +7446,13 @@
       <c r="C437" s="9">
         <v>3</v>
       </c>
-      <c r="D437" s="2"/>
-    </row>
-    <row r="438" spans="1:4">
+      <c r="D437" s="2">
+        <v>1</v>
+      </c>
+      <c r="F437" s="1"/>
+      <c r="G437" s="22"/>
+    </row>
+    <row r="438" spans="1:7">
       <c r="A438" s="7">
         <v>45952</v>
       </c>
@@ -7432,37 +7462,83 @@
       <c r="C438" s="9">
         <v>3</v>
       </c>
-      <c r="D438" s="2"/>
-    </row>
-    <row r="439" spans="1:4">
-      <c r="A439" s="2"/>
-      <c r="B439" s="2"/>
-      <c r="C439" s="2"/>
+      <c r="D438" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7">
+      <c r="A439" s="7">
+        <v>45953</v>
+      </c>
+      <c r="B439" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C439" s="9">
+        <v>3</v>
+      </c>
       <c r="D439" s="2"/>
     </row>
-    <row r="440" spans="1:4">
-      <c r="A440" s="2"/>
-      <c r="B440" s="2"/>
-      <c r="C440" s="2"/>
+    <row r="440" spans="1:7">
+      <c r="A440" s="7">
+        <v>45953</v>
+      </c>
+      <c r="B440" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C440" s="9">
+        <v>3</v>
+      </c>
       <c r="D440" s="2"/>
     </row>
-    <row r="441" spans="1:4">
-      <c r="A441" s="2"/>
-      <c r="B441" s="2"/>
-      <c r="C441" s="2"/>
+    <row r="441" spans="1:7">
+      <c r="A441" s="7">
+        <v>45953</v>
+      </c>
+      <c r="B441" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C441" s="9">
+        <v>6</v>
+      </c>
       <c r="D441" s="2"/>
-    </row>
-    <row r="442" spans="1:4">
-      <c r="A442" s="2"/>
-      <c r="B442" s="2"/>
-      <c r="C442" s="2"/>
+      <c r="F441" s="1"/>
+      <c r="G441" s="22"/>
+    </row>
+    <row r="442" spans="1:7">
+      <c r="A442" s="7">
+        <v>45953</v>
+      </c>
+      <c r="B442" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C442" s="9">
+        <v>6</v>
+      </c>
       <c r="D442" s="2"/>
-    </row>
-    <row r="443" spans="1:4">
-      <c r="A443" s="2"/>
-      <c r="B443" s="2"/>
-      <c r="C443" s="2"/>
+      <c r="F442" s="1"/>
+      <c r="G442" s="22"/>
+    </row>
+    <row r="443" spans="1:7">
+      <c r="A443" s="7">
+        <v>45953</v>
+      </c>
+      <c r="B443" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C443" s="9">
+        <v>6</v>
+      </c>
       <c r="D443" s="2"/>
+      <c r="F443" s="1"/>
+      <c r="G443" s="22"/>
+    </row>
+    <row r="444" spans="1:7">
+      <c r="F444" s="1"/>
+      <c r="G444" s="22"/>
+    </row>
+    <row r="445" spans="1:7">
+      <c r="F445" s="1"/>
+      <c r="G445" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -743,11 +743,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U445"/>
+  <dimension ref="A1:U459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B443" sqref="B442:B443"/>
+      <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F447" sqref="F447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7449,8 +7449,6 @@
       <c r="D437" s="2">
         <v>1</v>
       </c>
-      <c r="F437" s="1"/>
-      <c r="G437" s="22"/>
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="7">
@@ -7476,7 +7474,9 @@
       <c r="C439" s="9">
         <v>3</v>
       </c>
-      <c r="D439" s="2"/>
+      <c r="D439" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="7">
@@ -7488,7 +7488,9 @@
       <c r="C440" s="9">
         <v>3</v>
       </c>
-      <c r="D440" s="2"/>
+      <c r="D440" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="441" spans="1:7">
       <c r="A441" s="7">
@@ -7500,45 +7502,179 @@
       <c r="C441" s="9">
         <v>6</v>
       </c>
-      <c r="D441" s="2"/>
-      <c r="F441" s="1"/>
-      <c r="G441" s="22"/>
+      <c r="D441" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="442" spans="1:7">
       <c r="A442" s="7">
         <v>45953</v>
       </c>
-      <c r="B442" s="34" t="s">
-        <v>7</v>
+      <c r="B442" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C442" s="9">
-        <v>6</v>
-      </c>
-      <c r="D442" s="2"/>
-      <c r="F442" s="1"/>
-      <c r="G442" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="D442" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="443" spans="1:7">
       <c r="A443" s="7">
         <v>45953</v>
       </c>
-      <c r="B443" s="34" t="s">
+      <c r="B443" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C443" s="2">
+        <v>0</v>
+      </c>
+      <c r="D443" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7">
+      <c r="A444" s="7">
+        <v>45953</v>
+      </c>
+      <c r="B444" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C444" s="9">
+        <v>6</v>
+      </c>
+      <c r="D444" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7">
+      <c r="A445" s="7">
+        <v>45953</v>
+      </c>
+      <c r="B445" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C443" s="9">
-        <v>6</v>
-      </c>
-      <c r="D443" s="2"/>
-      <c r="F443" s="1"/>
-      <c r="G443" s="22"/>
-    </row>
-    <row r="444" spans="1:7">
-      <c r="F444" s="1"/>
-      <c r="G444" s="22"/>
-    </row>
-    <row r="445" spans="1:7">
-      <c r="F445" s="1"/>
-      <c r="G445" s="22"/>
+      <c r="C445" s="9">
+        <v>6</v>
+      </c>
+      <c r="D445" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7">
+      <c r="A446" s="7">
+        <v>45954</v>
+      </c>
+      <c r="B446" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C446" s="9">
+        <v>5</v>
+      </c>
+      <c r="D446" s="2"/>
+    </row>
+    <row r="447" spans="1:7">
+      <c r="A447" s="7">
+        <v>45954</v>
+      </c>
+      <c r="B447" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C447" s="9">
+        <v>2</v>
+      </c>
+      <c r="D447" s="2"/>
+    </row>
+    <row r="448" spans="1:7">
+      <c r="A448" s="7">
+        <v>45954</v>
+      </c>
+      <c r="B448" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C448" s="9">
+        <v>2</v>
+      </c>
+      <c r="D448" s="2"/>
+    </row>
+    <row r="449" spans="1:7">
+      <c r="A449" s="7">
+        <v>45954</v>
+      </c>
+      <c r="B449" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C449" s="9">
+        <v>9</v>
+      </c>
+      <c r="D449" s="2"/>
+    </row>
+    <row r="450" spans="1:7">
+      <c r="A450" s="7">
+        <v>45954</v>
+      </c>
+      <c r="B450" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C450" s="9">
+        <v>6</v>
+      </c>
+      <c r="D450" s="2"/>
+      <c r="F450" s="1"/>
+      <c r="G450" s="22"/>
+    </row>
+    <row r="451" spans="1:7">
+      <c r="A451" s="7">
+        <v>45954</v>
+      </c>
+      <c r="B451" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C451" s="9">
+        <v>5</v>
+      </c>
+      <c r="D451" s="2"/>
+    </row>
+    <row r="452" spans="1:7">
+      <c r="A452" s="7">
+        <v>45954</v>
+      </c>
+      <c r="B452" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C452" s="9">
+        <v>5</v>
+      </c>
+      <c r="D452" s="2"/>
+    </row>
+    <row r="453" spans="1:7">
+      <c r="F453" s="1"/>
+      <c r="G453" s="22"/>
+    </row>
+    <row r="454" spans="1:7">
+      <c r="F454" s="1"/>
+      <c r="G454" s="22"/>
+    </row>
+    <row r="455" spans="1:7">
+      <c r="F455" s="1"/>
+      <c r="G455" s="22"/>
+    </row>
+    <row r="456" spans="1:7">
+      <c r="F456" s="1"/>
+      <c r="G456" s="22"/>
+    </row>
+    <row r="457" spans="1:7">
+      <c r="F457" s="1"/>
+      <c r="G457" s="22"/>
+    </row>
+    <row r="458" spans="1:7">
+      <c r="F458" s="1"/>
+      <c r="G458" s="22"/>
+    </row>
+    <row r="459" spans="1:7">
+      <c r="F459" s="1"/>
+      <c r="G459" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -320,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -448,6 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -743,11 +744,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U459"/>
+  <dimension ref="A1:U468"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F447" sqref="F447"/>
+      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B451" sqref="B451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -756,7 +757,7 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
     <col min="7" max="8" width="29.42578125" customWidth="1"/>
     <col min="9" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="20.140625" customWidth="1"/>
@@ -7372,7 +7373,7 @@
       <c r="F432" s="1"/>
       <c r="G432" s="22"/>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:8">
       <c r="A433" s="7">
         <v>45952</v>
       </c>
@@ -7388,7 +7389,7 @@
       <c r="F433" s="1"/>
       <c r="G433" s="22"/>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:8">
       <c r="A434" s="7">
         <v>45952</v>
       </c>
@@ -7404,7 +7405,7 @@
       <c r="F434" s="1"/>
       <c r="G434" s="22"/>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:8">
       <c r="A435" s="7">
         <v>45952</v>
       </c>
@@ -7418,9 +7419,8 @@
         <v>6</v>
       </c>
       <c r="F435" s="1"/>
-      <c r="G435" s="22"/>
-    </row>
-    <row r="436" spans="1:7">
+    </row>
+    <row r="436" spans="1:8">
       <c r="A436" s="7">
         <v>45952</v>
       </c>
@@ -7434,9 +7434,10 @@
         <v>2</v>
       </c>
       <c r="F436" s="1"/>
-      <c r="G436" s="22"/>
-    </row>
-    <row r="437" spans="1:7">
+      <c r="G436" s="1"/>
+      <c r="H436" s="22"/>
+    </row>
+    <row r="437" spans="1:8">
       <c r="A437" s="7">
         <v>45952</v>
       </c>
@@ -7449,8 +7450,10 @@
       <c r="D437" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="438" spans="1:7">
+      <c r="G437" s="1"/>
+      <c r="H437" s="22"/>
+    </row>
+    <row r="438" spans="1:8">
       <c r="A438" s="7">
         <v>45952</v>
       </c>
@@ -7463,8 +7466,10 @@
       <c r="D438" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="439" spans="1:7">
+      <c r="G438" s="1"/>
+      <c r="H438" s="22"/>
+    </row>
+    <row r="439" spans="1:8">
       <c r="A439" s="7">
         <v>45953</v>
       </c>
@@ -7477,8 +7482,10 @@
       <c r="D439" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="440" spans="1:7">
+      <c r="G439" s="1"/>
+      <c r="H439" s="22"/>
+    </row>
+    <row r="440" spans="1:8">
       <c r="A440" s="7">
         <v>45953</v>
       </c>
@@ -7491,8 +7498,10 @@
       <c r="D440" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="441" spans="1:7">
+      <c r="G440" s="1"/>
+      <c r="H440" s="22"/>
+    </row>
+    <row r="441" spans="1:8">
       <c r="A441" s="7">
         <v>45953</v>
       </c>
@@ -7505,8 +7514,10 @@
       <c r="D441" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="442" spans="1:7">
+      <c r="G441" s="1"/>
+      <c r="H441" s="22"/>
+    </row>
+    <row r="442" spans="1:8">
       <c r="A442" s="7">
         <v>45953</v>
       </c>
@@ -7519,8 +7530,10 @@
       <c r="D442" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="443" spans="1:7">
+      <c r="G442" s="1"/>
+      <c r="H442" s="22"/>
+    </row>
+    <row r="443" spans="1:8">
       <c r="A443" s="7">
         <v>45953</v>
       </c>
@@ -7533,8 +7546,10 @@
       <c r="D443" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="444" spans="1:7">
+      <c r="G443" s="1"/>
+      <c r="H443" s="22"/>
+    </row>
+    <row r="444" spans="1:8">
       <c r="A444" s="7">
         <v>45953</v>
       </c>
@@ -7547,8 +7562,10 @@
       <c r="D444" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="445" spans="1:7">
+      <c r="G444" s="1"/>
+      <c r="H444" s="22"/>
+    </row>
+    <row r="445" spans="1:8">
       <c r="A445" s="7">
         <v>45953</v>
       </c>
@@ -7561,9 +7578,11 @@
       <c r="D445" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="446" spans="1:7">
-      <c r="A446" s="7">
+      <c r="G445" s="1"/>
+      <c r="H445" s="22"/>
+    </row>
+    <row r="446" spans="1:8">
+      <c r="A446" s="12">
         <v>45954</v>
       </c>
       <c r="B446" s="8" t="s">
@@ -7572,109 +7591,311 @@
       <c r="C446" s="9">
         <v>5</v>
       </c>
-      <c r="D446" s="2"/>
-    </row>
-    <row r="447" spans="1:7">
-      <c r="A447" s="7">
+      <c r="D446" s="2">
+        <v>6</v>
+      </c>
+      <c r="G446" s="1"/>
+      <c r="H446" s="22"/>
+    </row>
+    <row r="447" spans="1:8">
+      <c r="A447" s="12">
         <v>45954</v>
       </c>
-      <c r="B447" s="13" t="s">
+      <c r="B447" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C447" s="9">
+        <v>0</v>
+      </c>
+      <c r="D447" s="9">
+        <v>1</v>
+      </c>
+      <c r="G447" s="1"/>
+      <c r="H447" s="22"/>
+    </row>
+    <row r="448" spans="1:8">
+      <c r="A448" s="12">
+        <v>45954</v>
+      </c>
+      <c r="B448" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C447" s="9">
-        <v>2</v>
-      </c>
-      <c r="D447" s="2"/>
-    </row>
-    <row r="448" spans="1:7">
-      <c r="A448" s="7">
+      <c r="C448" s="9">
+        <v>2</v>
+      </c>
+      <c r="D448" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7">
+      <c r="A449" s="12">
         <v>45954</v>
       </c>
-      <c r="B448" s="13" t="s">
+      <c r="B449" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C448" s="9">
-        <v>2</v>
-      </c>
-      <c r="D448" s="2"/>
-    </row>
-    <row r="449" spans="1:7">
-      <c r="A449" s="7">
+      <c r="C449" s="9">
+        <v>2</v>
+      </c>
+      <c r="D449" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7">
+      <c r="A450" s="12">
         <v>45954</v>
       </c>
-      <c r="B449" s="8" t="s">
+      <c r="B450" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C449" s="9">
+      <c r="C450" s="9">
         <v>9</v>
       </c>
-      <c r="D449" s="2"/>
-    </row>
-    <row r="450" spans="1:7">
-      <c r="A450" s="7">
+      <c r="D450" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7">
+      <c r="A451" s="12">
         <v>45954</v>
       </c>
-      <c r="B450" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C450" s="9">
-        <v>6</v>
-      </c>
-      <c r="D450" s="2"/>
-      <c r="F450" s="1"/>
-      <c r="G450" s="22"/>
-    </row>
-    <row r="451" spans="1:7">
-      <c r="A451" s="7">
+      <c r="B451" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C451" s="9">
+        <v>6</v>
+      </c>
+      <c r="D451" s="2">
+        <v>4</v>
+      </c>
+      <c r="F451" s="1"/>
+    </row>
+    <row r="452" spans="1:7">
+      <c r="A452" s="12">
         <v>45954</v>
       </c>
-      <c r="B451" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C451" s="9">
-        <v>5</v>
-      </c>
-      <c r="D451" s="2"/>
-    </row>
-    <row r="452" spans="1:7">
-      <c r="A452" s="7">
+      <c r="B452" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C452" s="9">
+        <v>5</v>
+      </c>
+      <c r="D452" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7">
+      <c r="A453" s="12">
         <v>45954</v>
       </c>
-      <c r="B452" s="34" t="s">
+      <c r="B453" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C452" s="9">
-        <v>5</v>
-      </c>
-      <c r="D452" s="2"/>
-    </row>
-    <row r="453" spans="1:7">
-      <c r="F453" s="1"/>
-      <c r="G453" s="22"/>
+      <c r="C453" s="9">
+        <v>5</v>
+      </c>
+      <c r="D453" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="454" spans="1:7">
-      <c r="F454" s="1"/>
-      <c r="G454" s="22"/>
+      <c r="A454" s="12">
+        <v>45954</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C454" s="9">
+        <v>0</v>
+      </c>
+      <c r="D454" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="455" spans="1:7">
-      <c r="F455" s="1"/>
-      <c r="G455" s="22"/>
+      <c r="A455" s="12">
+        <v>45954</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C455" s="9">
+        <v>0</v>
+      </c>
+      <c r="D455" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="456" spans="1:7">
-      <c r="F456" s="1"/>
-      <c r="G456" s="22"/>
+      <c r="A456" s="12">
+        <v>45955</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C456" s="24">
+        <v>4</v>
+      </c>
+      <c r="D456" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="457" spans="1:7">
+      <c r="A457" s="12">
+        <v>45955</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C457" s="24">
+        <v>13</v>
+      </c>
+      <c r="D457" s="2">
+        <v>9</v>
+      </c>
       <c r="F457" s="1"/>
       <c r="G457" s="22"/>
     </row>
     <row r="458" spans="1:7">
+      <c r="A458" s="12">
+        <v>45955</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C458" s="24">
+        <v>6</v>
+      </c>
+      <c r="D458" s="2">
+        <v>10</v>
+      </c>
       <c r="F458" s="1"/>
       <c r="G458" s="22"/>
     </row>
     <row r="459" spans="1:7">
+      <c r="A459" s="12">
+        <v>45955</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C459" s="24">
+        <v>3</v>
+      </c>
+      <c r="D459" s="2">
+        <v>7</v>
+      </c>
       <c r="F459" s="1"/>
       <c r="G459" s="22"/>
+    </row>
+    <row r="460" spans="1:7">
+      <c r="A460" s="7">
+        <v>45957</v>
+      </c>
+      <c r="B460" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C460" s="9">
+        <v>2</v>
+      </c>
+      <c r="D460" s="2"/>
+      <c r="F460" s="1"/>
+      <c r="G460" s="22"/>
+    </row>
+    <row r="461" spans="1:7">
+      <c r="A461" s="7">
+        <v>45957</v>
+      </c>
+      <c r="B461" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C461" s="9">
+        <v>5</v>
+      </c>
+      <c r="D461" s="2"/>
+      <c r="F461" s="1"/>
+      <c r="G461" s="22"/>
+    </row>
+    <row r="462" spans="1:7">
+      <c r="A462" s="7">
+        <v>45957</v>
+      </c>
+      <c r="B462" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C462" s="9">
+        <v>5</v>
+      </c>
+      <c r="D462" s="2"/>
+      <c r="F462" s="1"/>
+      <c r="G462" s="22"/>
+    </row>
+    <row r="463" spans="1:7">
+      <c r="A463" s="7">
+        <v>45957</v>
+      </c>
+      <c r="B463" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C463" s="9">
+        <v>2</v>
+      </c>
+      <c r="D463" s="2"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="22"/>
+    </row>
+    <row r="464" spans="1:7">
+      <c r="A464" s="7">
+        <v>45957</v>
+      </c>
+      <c r="B464" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C464" s="9">
+        <v>2</v>
+      </c>
+      <c r="D464" s="2"/>
+      <c r="F464" s="1"/>
+      <c r="G464" s="22"/>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="7">
+        <v>45957</v>
+      </c>
+      <c r="B465" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C465" s="9">
+        <v>1</v>
+      </c>
+      <c r="D465" s="2"/>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="7">
+        <v>45957</v>
+      </c>
+      <c r="B466" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C466" s="9">
+        <v>1</v>
+      </c>
+      <c r="D466" s="2"/>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="7">
+        <v>45957</v>
+      </c>
+      <c r="B467" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C467" s="9">
+        <v>3</v>
+      </c>
+      <c r="D467" s="2"/>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="63"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -448,7 +448,9 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -744,11 +746,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U468"/>
+  <dimension ref="A1:U481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B451" sqref="B451"/>
+      <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D457" sqref="D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7789,7 +7791,7 @@
       <c r="G459" s="22"/>
     </row>
     <row r="460" spans="1:7">
-      <c r="A460" s="7">
+      <c r="A460" s="12">
         <v>45957</v>
       </c>
       <c r="B460" s="8" t="s">
@@ -7798,12 +7800,14 @@
       <c r="C460" s="9">
         <v>2</v>
       </c>
-      <c r="D460" s="2"/>
+      <c r="D460" s="2">
+        <v>2</v>
+      </c>
       <c r="F460" s="1"/>
       <c r="G460" s="22"/>
     </row>
     <row r="461" spans="1:7">
-      <c r="A461" s="7">
+      <c r="A461" s="12">
         <v>45957</v>
       </c>
       <c r="B461" s="37" t="s">
@@ -7812,12 +7816,14 @@
       <c r="C461" s="9">
         <v>5</v>
       </c>
-      <c r="D461" s="2"/>
+      <c r="D461" s="2">
+        <v>0</v>
+      </c>
       <c r="F461" s="1"/>
       <c r="G461" s="22"/>
     </row>
     <row r="462" spans="1:7">
-      <c r="A462" s="7">
+      <c r="A462" s="12">
         <v>45957</v>
       </c>
       <c r="B462" s="37" t="s">
@@ -7826,12 +7832,14 @@
       <c r="C462" s="9">
         <v>5</v>
       </c>
-      <c r="D462" s="2"/>
+      <c r="D462" s="2">
+        <v>0</v>
+      </c>
       <c r="F462" s="1"/>
       <c r="G462" s="22"/>
     </row>
     <row r="463" spans="1:7">
-      <c r="A463" s="7">
+      <c r="A463" s="12">
         <v>45957</v>
       </c>
       <c r="B463" s="34" t="s">
@@ -7840,12 +7848,14 @@
       <c r="C463" s="9">
         <v>2</v>
       </c>
-      <c r="D463" s="2"/>
+      <c r="D463" s="2">
+        <v>1</v>
+      </c>
       <c r="F463" s="1"/>
       <c r="G463" s="22"/>
     </row>
     <row r="464" spans="1:7">
-      <c r="A464" s="7">
+      <c r="A464" s="12">
         <v>45957</v>
       </c>
       <c r="B464" s="34" t="s">
@@ -7854,12 +7864,14 @@
       <c r="C464" s="9">
         <v>2</v>
       </c>
-      <c r="D464" s="2"/>
+      <c r="D464" s="2">
+        <v>1</v>
+      </c>
       <c r="F464" s="1"/>
       <c r="G464" s="22"/>
     </row>
-    <row r="465" spans="1:4">
-      <c r="A465" s="7">
+    <row r="465" spans="1:7">
+      <c r="A465" s="12">
         <v>45957</v>
       </c>
       <c r="B465" s="42" t="s">
@@ -7868,10 +7880,12 @@
       <c r="C465" s="9">
         <v>1</v>
       </c>
-      <c r="D465" s="2"/>
-    </row>
-    <row r="466" spans="1:4">
-      <c r="A466" s="7">
+      <c r="D465" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7">
+      <c r="A466" s="12">
         <v>45957</v>
       </c>
       <c r="B466" s="42" t="s">
@@ -7880,10 +7894,12 @@
       <c r="C466" s="9">
         <v>1</v>
       </c>
-      <c r="D466" s="2"/>
-    </row>
-    <row r="467" spans="1:4">
-      <c r="A467" s="7">
+      <c r="D466" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7">
+      <c r="A467" s="12">
         <v>45957</v>
       </c>
       <c r="B467" s="8" t="s">
@@ -7892,10 +7908,155 @@
       <c r="C467" s="9">
         <v>3</v>
       </c>
-      <c r="D467" s="2"/>
-    </row>
-    <row r="468" spans="1:4">
-      <c r="A468" s="63"/>
+      <c r="D467" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7">
+      <c r="A468" s="12">
+        <v>45957</v>
+      </c>
+      <c r="B468" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C468" s="9">
+        <v>0</v>
+      </c>
+      <c r="D468" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7">
+      <c r="A469" s="7">
+        <v>45958</v>
+      </c>
+      <c r="B469" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C469" s="9">
+        <v>8</v>
+      </c>
+      <c r="D469" s="2"/>
+    </row>
+    <row r="470" spans="1:7">
+      <c r="A470" s="7">
+        <v>45958</v>
+      </c>
+      <c r="B470" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C470" s="9">
+        <v>8</v>
+      </c>
+      <c r="D470" s="2"/>
+    </row>
+    <row r="471" spans="1:7">
+      <c r="A471" s="7">
+        <v>45958</v>
+      </c>
+      <c r="B471" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C471" s="9">
+        <v>3</v>
+      </c>
+      <c r="D471" s="2"/>
+    </row>
+    <row r="472" spans="1:7">
+      <c r="A472" s="7">
+        <v>45958</v>
+      </c>
+      <c r="B472" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C472" s="9">
+        <v>3</v>
+      </c>
+      <c r="D472" s="2"/>
+    </row>
+    <row r="473" spans="1:7">
+      <c r="A473" s="7">
+        <v>45958</v>
+      </c>
+      <c r="B473" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C473" s="9">
+        <v>2</v>
+      </c>
+      <c r="D473" s="2"/>
+    </row>
+    <row r="474" spans="1:7">
+      <c r="A474" s="7">
+        <v>45958</v>
+      </c>
+      <c r="B474" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C474" s="9">
+        <v>2</v>
+      </c>
+      <c r="D474" s="2"/>
+    </row>
+    <row r="475" spans="1:7">
+      <c r="A475" s="7">
+        <v>45958</v>
+      </c>
+      <c r="B475" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C475" s="9">
+        <v>2</v>
+      </c>
+      <c r="D475" s="2"/>
+    </row>
+    <row r="476" spans="1:7">
+      <c r="A476" s="7">
+        <v>45958</v>
+      </c>
+      <c r="B476" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C476" s="9">
+        <v>2</v>
+      </c>
+      <c r="D476" s="2"/>
+    </row>
+    <row r="477" spans="1:7">
+      <c r="A477" s="7">
+        <v>45958</v>
+      </c>
+      <c r="B477" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C477" s="9">
+        <v>1</v>
+      </c>
+      <c r="D477" s="2"/>
+    </row>
+    <row r="478" spans="1:7">
+      <c r="A478" s="7">
+        <v>45958</v>
+      </c>
+      <c r="B478" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C478" s="9">
+        <v>1</v>
+      </c>
+      <c r="D478" s="2"/>
+    </row>
+    <row r="479" spans="1:7">
+      <c r="F479" s="1"/>
+      <c r="G479" s="22"/>
+    </row>
+    <row r="480" spans="1:7">
+      <c r="F480" s="1"/>
+      <c r="G480" s="22"/>
+    </row>
+    <row r="481" spans="6:7">
+      <c r="F481" s="1"/>
+      <c r="G481" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -746,11 +746,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U481"/>
+  <dimension ref="A1:U490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D457" sqref="D457"/>
+      <pane ySplit="1" topLeftCell="A458" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G473" sqref="G473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -759,11 +759,12 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="8" width="29.42578125" customWidth="1"/>
-    <col min="9" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="11" width="22.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.28515625" customWidth="1"/>
     <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -7936,7 +7937,9 @@
       <c r="C469" s="9">
         <v>8</v>
       </c>
-      <c r="D469" s="2"/>
+      <c r="D469" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="470" spans="1:7">
       <c r="A470" s="7">
@@ -7948,7 +7951,11 @@
       <c r="C470" s="9">
         <v>8</v>
       </c>
-      <c r="D470" s="2"/>
+      <c r="D470" s="2">
+        <v>3</v>
+      </c>
+      <c r="F470" s="1"/>
+      <c r="G470" s="22"/>
     </row>
     <row r="471" spans="1:7">
       <c r="A471" s="7">
@@ -7960,7 +7967,11 @@
       <c r="C471" s="9">
         <v>3</v>
       </c>
-      <c r="D471" s="2"/>
+      <c r="D471" s="2">
+        <v>3</v>
+      </c>
+      <c r="F471" s="1"/>
+      <c r="G471" s="22"/>
     </row>
     <row r="472" spans="1:7">
       <c r="A472" s="7">
@@ -7972,7 +7983,11 @@
       <c r="C472" s="9">
         <v>3</v>
       </c>
-      <c r="D472" s="2"/>
+      <c r="D472" s="2">
+        <v>3</v>
+      </c>
+      <c r="F472" s="1"/>
+      <c r="G472" s="22"/>
     </row>
     <row r="473" spans="1:7">
       <c r="A473" s="7">
@@ -7984,7 +7999,11 @@
       <c r="C473" s="9">
         <v>2</v>
       </c>
-      <c r="D473" s="2"/>
+      <c r="D473" s="2">
+        <v>1</v>
+      </c>
+      <c r="F473" s="1"/>
+      <c r="G473" s="22"/>
     </row>
     <row r="474" spans="1:7">
       <c r="A474" s="7">
@@ -7996,7 +8015,11 @@
       <c r="C474" s="9">
         <v>2</v>
       </c>
-      <c r="D474" s="2"/>
+      <c r="D474" s="2">
+        <v>1</v>
+      </c>
+      <c r="F474" s="1"/>
+      <c r="G474" s="22"/>
     </row>
     <row r="475" spans="1:7">
       <c r="A475" s="7">
@@ -8008,7 +8031,11 @@
       <c r="C475" s="9">
         <v>2</v>
       </c>
-      <c r="D475" s="2"/>
+      <c r="D475" s="2">
+        <v>2</v>
+      </c>
+      <c r="F475" s="1"/>
+      <c r="G475" s="22"/>
     </row>
     <row r="476" spans="1:7">
       <c r="A476" s="7">
@@ -8020,7 +8047,11 @@
       <c r="C476" s="9">
         <v>2</v>
       </c>
-      <c r="D476" s="2"/>
+      <c r="D476" s="2">
+        <v>2</v>
+      </c>
+      <c r="F476" s="1"/>
+      <c r="G476" s="22"/>
     </row>
     <row r="477" spans="1:7">
       <c r="A477" s="7">
@@ -8032,7 +8063,11 @@
       <c r="C477" s="9">
         <v>1</v>
       </c>
-      <c r="D477" s="2"/>
+      <c r="D477" s="2">
+        <v>1</v>
+      </c>
+      <c r="F477" s="1"/>
+      <c r="G477" s="22"/>
     </row>
     <row r="478" spans="1:7">
       <c r="A478" s="7">
@@ -8044,19 +8079,141 @@
       <c r="C478" s="9">
         <v>1</v>
       </c>
-      <c r="D478" s="2"/>
+      <c r="D478" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="479" spans="1:7">
-      <c r="F479" s="1"/>
-      <c r="G479" s="22"/>
+      <c r="A479" s="7">
+        <v>45959</v>
+      </c>
+      <c r="B479" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C479" s="9">
+        <v>3</v>
+      </c>
+      <c r="D479" s="2"/>
     </row>
     <row r="480" spans="1:7">
-      <c r="F480" s="1"/>
-      <c r="G480" s="22"/>
-    </row>
-    <row r="481" spans="6:7">
-      <c r="F481" s="1"/>
-      <c r="G481" s="22"/>
+      <c r="A480" s="7">
+        <v>45959</v>
+      </c>
+      <c r="B480" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C480" s="9">
+        <v>3</v>
+      </c>
+      <c r="D480" s="2"/>
+    </row>
+    <row r="481" spans="1:7">
+      <c r="A481" s="7">
+        <v>45959</v>
+      </c>
+      <c r="B481" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C481" s="9">
+        <v>2</v>
+      </c>
+      <c r="D481" s="2"/>
+    </row>
+    <row r="482" spans="1:7">
+      <c r="A482" s="7">
+        <v>45959</v>
+      </c>
+      <c r="B482" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C482" s="9">
+        <v>2</v>
+      </c>
+      <c r="D482" s="2"/>
+    </row>
+    <row r="483" spans="1:7">
+      <c r="A483" s="7">
+        <v>45959</v>
+      </c>
+      <c r="B483" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C483" s="9">
+        <v>2</v>
+      </c>
+      <c r="D483" s="2"/>
+    </row>
+    <row r="484" spans="1:7">
+      <c r="A484" s="7">
+        <v>45959</v>
+      </c>
+      <c r="B484" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C484" s="9">
+        <v>2</v>
+      </c>
+      <c r="D484" s="2"/>
+    </row>
+    <row r="485" spans="1:7">
+      <c r="A485" s="7">
+        <v>45959</v>
+      </c>
+      <c r="B485" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C485" s="9">
+        <v>2</v>
+      </c>
+      <c r="D485" s="2"/>
+    </row>
+    <row r="486" spans="1:7">
+      <c r="A486" s="7">
+        <v>45959</v>
+      </c>
+      <c r="B486" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C486" s="9">
+        <v>7</v>
+      </c>
+      <c r="D486" s="2"/>
+    </row>
+    <row r="487" spans="1:7">
+      <c r="A487" s="7">
+        <v>45959</v>
+      </c>
+      <c r="B487" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C487" s="9">
+        <v>2</v>
+      </c>
+      <c r="D487" s="2"/>
+      <c r="F487" s="1"/>
+      <c r="G487" s="22"/>
+    </row>
+    <row r="488" spans="1:7">
+      <c r="A488" s="7">
+        <v>45959</v>
+      </c>
+      <c r="B488" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C488" s="9">
+        <v>2</v>
+      </c>
+      <c r="D488" s="2"/>
+      <c r="F488" s="1"/>
+      <c r="G488" s="22"/>
+    </row>
+    <row r="489" spans="1:7">
+      <c r="F489" s="1"/>
+      <c r="G489" s="22"/>
+    </row>
+    <row r="490" spans="1:7">
+      <c r="F490" s="1"/>
+      <c r="G490" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -746,11 +746,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U490"/>
+  <dimension ref="A1:U499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A458" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G473" sqref="G473"/>
+      <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F486" sqref="F486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -759,9 +759,9 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="11" width="22.7109375" customWidth="1"/>
+    <col min="6" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="9" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -7871,7 +7871,7 @@
       <c r="F464" s="1"/>
       <c r="G464" s="22"/>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:8">
       <c r="A465" s="12">
         <v>45957</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:8">
       <c r="A466" s="12">
         <v>45957</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:8">
       <c r="A467" s="12">
         <v>45957</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:8">
       <c r="A468" s="12">
         <v>45957</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:8">
       <c r="A469" s="7">
         <v>45958</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:8">
       <c r="A470" s="7">
         <v>45958</v>
       </c>
@@ -7957,7 +7957,7 @@
       <c r="F470" s="1"/>
       <c r="G470" s="22"/>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:8">
       <c r="A471" s="7">
         <v>45958</v>
       </c>
@@ -7973,7 +7973,7 @@
       <c r="F471" s="1"/>
       <c r="G471" s="22"/>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:8">
       <c r="A472" s="7">
         <v>45958</v>
       </c>
@@ -7989,7 +7989,7 @@
       <c r="F472" s="1"/>
       <c r="G472" s="22"/>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:8">
       <c r="A473" s="7">
         <v>45958</v>
       </c>
@@ -8005,7 +8005,7 @@
       <c r="F473" s="1"/>
       <c r="G473" s="22"/>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:8">
       <c r="A474" s="7">
         <v>45958</v>
       </c>
@@ -8021,7 +8021,7 @@
       <c r="F474" s="1"/>
       <c r="G474" s="22"/>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:8">
       <c r="A475" s="7">
         <v>45958</v>
       </c>
@@ -8037,7 +8037,7 @@
       <c r="F475" s="1"/>
       <c r="G475" s="22"/>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:8">
       <c r="A476" s="7">
         <v>45958</v>
       </c>
@@ -8053,7 +8053,7 @@
       <c r="F476" s="1"/>
       <c r="G476" s="22"/>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:8">
       <c r="A477" s="7">
         <v>45958</v>
       </c>
@@ -8069,7 +8069,7 @@
       <c r="F477" s="1"/>
       <c r="G477" s="22"/>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:8">
       <c r="A478" s="7">
         <v>45958</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:8">
       <c r="A479" s="7">
         <v>45959</v>
       </c>
@@ -8093,9 +8093,13 @@
       <c r="C479" s="9">
         <v>3</v>
       </c>
-      <c r="D479" s="2"/>
-    </row>
-    <row r="480" spans="1:7">
+      <c r="D479" s="2">
+        <v>1</v>
+      </c>
+      <c r="G479" s="1"/>
+      <c r="H479" s="22"/>
+    </row>
+    <row r="480" spans="1:8">
       <c r="A480" s="7">
         <v>45959</v>
       </c>
@@ -8105,9 +8109,13 @@
       <c r="C480" s="9">
         <v>3</v>
       </c>
-      <c r="D480" s="2"/>
-    </row>
-    <row r="481" spans="1:7">
+      <c r="D480" s="2">
+        <v>1</v>
+      </c>
+      <c r="G480" s="1"/>
+      <c r="H480" s="22"/>
+    </row>
+    <row r="481" spans="1:8">
       <c r="A481" s="7">
         <v>45959</v>
       </c>
@@ -8117,9 +8125,13 @@
       <c r="C481" s="9">
         <v>2</v>
       </c>
-      <c r="D481" s="2"/>
-    </row>
-    <row r="482" spans="1:7">
+      <c r="D481" s="2">
+        <v>5</v>
+      </c>
+      <c r="G481" s="1"/>
+      <c r="H481" s="22"/>
+    </row>
+    <row r="482" spans="1:8">
       <c r="A482" s="7">
         <v>45959</v>
       </c>
@@ -8129,9 +8141,13 @@
       <c r="C482" s="9">
         <v>2</v>
       </c>
-      <c r="D482" s="2"/>
-    </row>
-    <row r="483" spans="1:7">
+      <c r="D482" s="2">
+        <v>0</v>
+      </c>
+      <c r="G482" s="1"/>
+      <c r="H482" s="22"/>
+    </row>
+    <row r="483" spans="1:8">
       <c r="A483" s="7">
         <v>45959</v>
       </c>
@@ -8141,9 +8157,13 @@
       <c r="C483" s="9">
         <v>2</v>
       </c>
-      <c r="D483" s="2"/>
-    </row>
-    <row r="484" spans="1:7">
+      <c r="D483" s="2">
+        <v>0</v>
+      </c>
+      <c r="G483" s="1"/>
+      <c r="H483" s="22"/>
+    </row>
+    <row r="484" spans="1:8">
       <c r="A484" s="7">
         <v>45959</v>
       </c>
@@ -8153,9 +8173,13 @@
       <c r="C484" s="9">
         <v>2</v>
       </c>
-      <c r="D484" s="2"/>
-    </row>
-    <row r="485" spans="1:7">
+      <c r="D484" s="2">
+        <v>2</v>
+      </c>
+      <c r="G484" s="1"/>
+      <c r="H484" s="22"/>
+    </row>
+    <row r="485" spans="1:8">
       <c r="A485" s="7">
         <v>45959</v>
       </c>
@@ -8165,9 +8189,13 @@
       <c r="C485" s="9">
         <v>2</v>
       </c>
-      <c r="D485" s="2"/>
-    </row>
-    <row r="486" spans="1:7">
+      <c r="D485" s="2">
+        <v>2</v>
+      </c>
+      <c r="G485" s="1"/>
+      <c r="H485" s="22"/>
+    </row>
+    <row r="486" spans="1:8">
       <c r="A486" s="7">
         <v>45959</v>
       </c>
@@ -8177,9 +8205,11 @@
       <c r="C486" s="9">
         <v>7</v>
       </c>
-      <c r="D486" s="2"/>
-    </row>
-    <row r="487" spans="1:7">
+      <c r="D486" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
       <c r="A487" s="7">
         <v>45959</v>
       </c>
@@ -8189,11 +8219,12 @@
       <c r="C487" s="9">
         <v>2</v>
       </c>
-      <c r="D487" s="2"/>
+      <c r="D487" s="2">
+        <v>0</v>
+      </c>
       <c r="F487" s="1"/>
-      <c r="G487" s="22"/>
-    </row>
-    <row r="488" spans="1:7">
+    </row>
+    <row r="488" spans="1:8">
       <c r="A488" s="7">
         <v>45959</v>
       </c>
@@ -8203,17 +8234,105 @@
       <c r="C488" s="9">
         <v>2</v>
       </c>
-      <c r="D488" s="2"/>
+      <c r="D488" s="2">
+        <v>0</v>
+      </c>
       <c r="F488" s="1"/>
-      <c r="G488" s="22"/>
-    </row>
-    <row r="489" spans="1:7">
+    </row>
+    <row r="489" spans="1:8">
+      <c r="A489" s="7">
+        <v>45960</v>
+      </c>
+      <c r="B489" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C489" s="9">
+        <v>6</v>
+      </c>
+      <c r="D489" s="2"/>
       <c r="F489" s="1"/>
-      <c r="G489" s="22"/>
-    </row>
-    <row r="490" spans="1:7">
-      <c r="F490" s="1"/>
-      <c r="G490" s="22"/>
+    </row>
+    <row r="490" spans="1:8">
+      <c r="A490" s="7">
+        <v>45960</v>
+      </c>
+      <c r="B490" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C490" s="9">
+        <v>2</v>
+      </c>
+      <c r="D490" s="2"/>
+    </row>
+    <row r="491" spans="1:8">
+      <c r="A491" s="7">
+        <v>45960</v>
+      </c>
+      <c r="B491" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C491" s="9">
+        <v>2</v>
+      </c>
+      <c r="D491" s="2"/>
+    </row>
+    <row r="492" spans="1:8">
+      <c r="A492" s="7">
+        <v>45960</v>
+      </c>
+      <c r="B492" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C492" s="9">
+        <v>6</v>
+      </c>
+      <c r="D492" s="2"/>
+      <c r="F492" s="1"/>
+    </row>
+    <row r="493" spans="1:8">
+      <c r="A493" s="7">
+        <v>45960</v>
+      </c>
+      <c r="B493" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C493" s="9">
+        <v>6</v>
+      </c>
+      <c r="D493" s="2"/>
+      <c r="F493" s="1"/>
+    </row>
+    <row r="494" spans="1:8">
+      <c r="A494" s="7">
+        <v>45960</v>
+      </c>
+      <c r="B494" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C494" s="9">
+        <v>4</v>
+      </c>
+      <c r="D494" s="2"/>
+      <c r="F494" s="1"/>
+    </row>
+    <row r="495" spans="1:8">
+      <c r="F495" s="1"/>
+    </row>
+    <row r="496" spans="1:8">
+      <c r="F496" s="1"/>
+      <c r="G496" s="22"/>
+    </row>
+    <row r="497" spans="6:7">
+      <c r="F497" s="1"/>
+      <c r="G497" s="22"/>
+    </row>
+    <row r="498" spans="6:7">
+      <c r="F498" s="1"/>
+      <c r="G498" s="22"/>
+    </row>
+    <row r="499" spans="6:7">
+      <c r="F499" s="1"/>
+      <c r="G499" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -746,11 +746,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U499"/>
+  <dimension ref="A1:U503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F486" sqref="F486"/>
+      <selection pane="bottomLeft" activeCell="D492" sqref="D492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8249,8 +8249,12 @@
       <c r="C489" s="9">
         <v>6</v>
       </c>
-      <c r="D489" s="2"/>
+      <c r="D489" s="2">
+        <v>3</v>
+      </c>
       <c r="F489" s="1"/>
+      <c r="G489" s="1"/>
+      <c r="H489" s="22"/>
     </row>
     <row r="490" spans="1:8">
       <c r="A490" s="7">
@@ -8262,7 +8266,11 @@
       <c r="C490" s="9">
         <v>2</v>
       </c>
-      <c r="D490" s="2"/>
+      <c r="D490" s="2">
+        <v>2</v>
+      </c>
+      <c r="G490" s="1"/>
+      <c r="H490" s="22"/>
     </row>
     <row r="491" spans="1:8">
       <c r="A491" s="7">
@@ -8274,7 +8282,11 @@
       <c r="C491" s="9">
         <v>2</v>
       </c>
-      <c r="D491" s="2"/>
+      <c r="D491" s="2">
+        <v>2</v>
+      </c>
+      <c r="G491" s="1"/>
+      <c r="H491" s="22"/>
     </row>
     <row r="492" spans="1:8">
       <c r="A492" s="7">
@@ -8286,8 +8298,12 @@
       <c r="C492" s="9">
         <v>6</v>
       </c>
-      <c r="D492" s="2"/>
+      <c r="D492" s="2">
+        <v>6</v>
+      </c>
       <c r="F492" s="1"/>
+      <c r="G492" s="1"/>
+      <c r="H492" s="22"/>
     </row>
     <row r="493" spans="1:8">
       <c r="A493" s="7">
@@ -8299,8 +8315,12 @@
       <c r="C493" s="9">
         <v>6</v>
       </c>
-      <c r="D493" s="2"/>
+      <c r="D493" s="2">
+        <v>6</v>
+      </c>
       <c r="F493" s="1"/>
+      <c r="G493" s="1"/>
+      <c r="H493" s="22"/>
     </row>
     <row r="494" spans="1:8">
       <c r="A494" s="7">
@@ -8312,27 +8332,110 @@
       <c r="C494" s="9">
         <v>4</v>
       </c>
-      <c r="D494" s="2"/>
+      <c r="D494" s="2">
+        <v>3</v>
+      </c>
       <c r="F494" s="1"/>
+      <c r="G494" s="1"/>
+      <c r="H494" s="22"/>
     </row>
     <row r="495" spans="1:8">
+      <c r="A495" s="7">
+        <v>45961</v>
+      </c>
+      <c r="B495" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C495" s="9">
+        <v>2</v>
+      </c>
+      <c r="D495" s="2"/>
       <c r="F495" s="1"/>
     </row>
     <row r="496" spans="1:8">
+      <c r="A496" s="7">
+        <v>45961</v>
+      </c>
+      <c r="B496" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C496" s="9">
+        <v>2</v>
+      </c>
+      <c r="D496" s="2"/>
       <c r="F496" s="1"/>
-      <c r="G496" s="22"/>
-    </row>
-    <row r="497" spans="6:7">
+    </row>
+    <row r="497" spans="1:8">
+      <c r="A497" s="7">
+        <v>45961</v>
+      </c>
+      <c r="B497" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C497" s="9">
+        <v>1</v>
+      </c>
+      <c r="D497" s="2"/>
       <c r="F497" s="1"/>
-      <c r="G497" s="22"/>
-    </row>
-    <row r="498" spans="6:7">
+      <c r="G497" s="1"/>
+      <c r="H497" s="22"/>
+    </row>
+    <row r="498" spans="1:8">
+      <c r="A498" s="7">
+        <v>45961</v>
+      </c>
+      <c r="B498" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C498" s="9">
+        <v>4</v>
+      </c>
+      <c r="D498" s="2"/>
       <c r="F498" s="1"/>
-      <c r="G498" s="22"/>
-    </row>
-    <row r="499" spans="6:7">
+      <c r="G498" s="1"/>
+      <c r="H498" s="22"/>
+    </row>
+    <row r="499" spans="1:8">
+      <c r="A499" s="7">
+        <v>45961</v>
+      </c>
+      <c r="B499" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C499" s="9">
+        <v>4</v>
+      </c>
+      <c r="D499" s="2"/>
       <c r="F499" s="1"/>
-      <c r="G499" s="22"/>
+      <c r="G499" s="1"/>
+      <c r="H499" s="22"/>
+    </row>
+    <row r="500" spans="1:8">
+      <c r="A500" s="7">
+        <v>45961</v>
+      </c>
+      <c r="B500" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C500" s="9">
+        <v>4</v>
+      </c>
+      <c r="D500" s="2"/>
+      <c r="F500" s="1"/>
+      <c r="G500" s="1"/>
+      <c r="H500" s="22"/>
+    </row>
+    <row r="501" spans="1:8">
+      <c r="G501" s="1"/>
+      <c r="H501" s="22"/>
+    </row>
+    <row r="502" spans="1:8">
+      <c r="G502" s="1"/>
+      <c r="H502" s="22"/>
+    </row>
+    <row r="503" spans="1:8">
+      <c r="G503" s="1"/>
+      <c r="H503" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -456,7 +456,36 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -746,11 +775,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U503"/>
+  <dimension ref="A1:U508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D492" sqref="D492"/>
+      <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G495" sqref="G495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8238,6 +8267,8 @@
         <v>0</v>
       </c>
       <c r="F488" s="1"/>
+      <c r="G488" s="1"/>
+      <c r="H488" s="22"/>
     </row>
     <row r="489" spans="1:8">
       <c r="A489" s="7">
@@ -8349,8 +8380,12 @@
       <c r="C495" s="9">
         <v>2</v>
       </c>
-      <c r="D495" s="2"/>
+      <c r="D495" s="2">
+        <v>3</v>
+      </c>
       <c r="F495" s="1"/>
+      <c r="G495" s="1"/>
+      <c r="H495" s="22"/>
     </row>
     <row r="496" spans="1:8">
       <c r="A496" s="7">
@@ -8362,10 +8397,12 @@
       <c r="C496" s="9">
         <v>2</v>
       </c>
-      <c r="D496" s="2"/>
+      <c r="D496" s="2">
+        <v>3</v>
+      </c>
       <c r="F496" s="1"/>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:6">
       <c r="A497" s="7">
         <v>45961</v>
       </c>
@@ -8375,12 +8412,12 @@
       <c r="C497" s="9">
         <v>1</v>
       </c>
-      <c r="D497" s="2"/>
+      <c r="D497" s="2">
+        <v>2</v>
+      </c>
       <c r="F497" s="1"/>
-      <c r="G497" s="1"/>
-      <c r="H497" s="22"/>
-    </row>
-    <row r="498" spans="1:8">
+    </row>
+    <row r="498" spans="1:6">
       <c r="A498" s="7">
         <v>45961</v>
       </c>
@@ -8390,12 +8427,12 @@
       <c r="C498" s="9">
         <v>4</v>
       </c>
-      <c r="D498" s="2"/>
+      <c r="D498" s="2">
+        <v>6</v>
+      </c>
       <c r="F498" s="1"/>
-      <c r="G498" s="1"/>
-      <c r="H498" s="22"/>
-    </row>
-    <row r="499" spans="1:8">
+    </row>
+    <row r="499" spans="1:6">
       <c r="A499" s="7">
         <v>45961</v>
       </c>
@@ -8405,12 +8442,12 @@
       <c r="C499" s="9">
         <v>4</v>
       </c>
-      <c r="D499" s="2"/>
+      <c r="D499" s="2">
+        <v>6</v>
+      </c>
       <c r="F499" s="1"/>
-      <c r="G499" s="1"/>
-      <c r="H499" s="22"/>
-    </row>
-    <row r="500" spans="1:8">
+    </row>
+    <row r="500" spans="1:6">
       <c r="A500" s="7">
         <v>45961</v>
       </c>
@@ -8420,22 +8457,109 @@
       <c r="C500" s="9">
         <v>4</v>
       </c>
-      <c r="D500" s="2"/>
+      <c r="D500" s="2">
+        <v>3</v>
+      </c>
       <c r="F500" s="1"/>
-      <c r="G500" s="1"/>
-      <c r="H500" s="22"/>
-    </row>
-    <row r="501" spans="1:8">
-      <c r="G501" s="1"/>
-      <c r="H501" s="22"/>
-    </row>
-    <row r="502" spans="1:8">
-      <c r="G502" s="1"/>
-      <c r="H502" s="22"/>
-    </row>
-    <row r="503" spans="1:8">
-      <c r="G503" s="1"/>
-      <c r="H503" s="22"/>
+    </row>
+    <row r="501" spans="1:6">
+      <c r="A501" s="7">
+        <v>45961</v>
+      </c>
+      <c r="B501" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C501" s="9">
+        <v>0</v>
+      </c>
+      <c r="D501" s="2">
+        <v>1</v>
+      </c>
+      <c r="F501" s="1"/>
+    </row>
+    <row r="502" spans="1:6">
+      <c r="A502" s="7">
+        <v>45964</v>
+      </c>
+      <c r="B502" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C502" s="9">
+        <v>4</v>
+      </c>
+      <c r="D502" s="2"/>
+    </row>
+    <row r="503" spans="1:6">
+      <c r="A503" s="7">
+        <v>45964</v>
+      </c>
+      <c r="B503" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C503" s="9">
+        <v>4</v>
+      </c>
+      <c r="D503" s="2"/>
+    </row>
+    <row r="504" spans="1:6">
+      <c r="A504" s="7">
+        <v>45964</v>
+      </c>
+      <c r="B504" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C504" s="9">
+        <v>3</v>
+      </c>
+      <c r="D504" s="2"/>
+    </row>
+    <row r="505" spans="1:6">
+      <c r="A505" s="7">
+        <v>45964</v>
+      </c>
+      <c r="B505" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C505" s="9">
+        <v>3</v>
+      </c>
+      <c r="D505" s="2"/>
+    </row>
+    <row r="506" spans="1:6">
+      <c r="A506" s="7">
+        <v>45964</v>
+      </c>
+      <c r="B506" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C506" s="9">
+        <v>8</v>
+      </c>
+      <c r="D506" s="2"/>
+    </row>
+    <row r="507" spans="1:6">
+      <c r="A507" s="7">
+        <v>45964</v>
+      </c>
+      <c r="B507" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C507" s="9">
+        <v>10</v>
+      </c>
+      <c r="D507" s="2"/>
+    </row>
+    <row r="508" spans="1:6">
+      <c r="A508" s="7">
+        <v>45964</v>
+      </c>
+      <c r="B508" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C508" s="9">
+        <v>10</v>
+      </c>
+      <c r="D508" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -456,36 +456,7 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -775,11 +746,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U508"/>
+  <dimension ref="A1:U519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G495" sqref="G495"/>
+      <selection pane="bottomLeft" activeCell="F499" sqref="F499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8402,7 +8373,7 @@
       </c>
       <c r="F496" s="1"/>
     </row>
-    <row r="497" spans="1:6">
+    <row r="497" spans="1:8">
       <c r="A497" s="7">
         <v>45961</v>
       </c>
@@ -8417,7 +8388,7 @@
       </c>
       <c r="F497" s="1"/>
     </row>
-    <row r="498" spans="1:6">
+    <row r="498" spans="1:8">
       <c r="A498" s="7">
         <v>45961</v>
       </c>
@@ -8432,7 +8403,7 @@
       </c>
       <c r="F498" s="1"/>
     </row>
-    <row r="499" spans="1:6">
+    <row r="499" spans="1:8">
       <c r="A499" s="7">
         <v>45961</v>
       </c>
@@ -8447,7 +8418,7 @@
       </c>
       <c r="F499" s="1"/>
     </row>
-    <row r="500" spans="1:6">
+    <row r="500" spans="1:8">
       <c r="A500" s="7">
         <v>45961</v>
       </c>
@@ -8462,7 +8433,7 @@
       </c>
       <c r="F500" s="1"/>
     </row>
-    <row r="501" spans="1:6">
+    <row r="501" spans="1:8">
       <c r="A501" s="7">
         <v>45961</v>
       </c>
@@ -8477,7 +8448,7 @@
       </c>
       <c r="F501" s="1"/>
     </row>
-    <row r="502" spans="1:6">
+    <row r="502" spans="1:8">
       <c r="A502" s="7">
         <v>45964</v>
       </c>
@@ -8487,9 +8458,11 @@
       <c r="C502" s="9">
         <v>4</v>
       </c>
-      <c r="D502" s="2"/>
-    </row>
-    <row r="503" spans="1:6">
+      <c r="D502" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8">
       <c r="A503" s="7">
         <v>45964</v>
       </c>
@@ -8499,9 +8472,11 @@
       <c r="C503" s="9">
         <v>4</v>
       </c>
-      <c r="D503" s="2"/>
-    </row>
-    <row r="504" spans="1:6">
+      <c r="D503" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
       <c r="A504" s="7">
         <v>45964</v>
       </c>
@@ -8511,9 +8486,11 @@
       <c r="C504" s="9">
         <v>3</v>
       </c>
-      <c r="D504" s="2"/>
-    </row>
-    <row r="505" spans="1:6">
+      <c r="D504" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
       <c r="A505" s="7">
         <v>45964</v>
       </c>
@@ -8523,9 +8500,11 @@
       <c r="C505" s="9">
         <v>3</v>
       </c>
-      <c r="D505" s="2"/>
-    </row>
-    <row r="506" spans="1:6">
+      <c r="D505" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8">
       <c r="A506" s="7">
         <v>45964</v>
       </c>
@@ -8535,9 +8514,11 @@
       <c r="C506" s="9">
         <v>8</v>
       </c>
-      <c r="D506" s="2"/>
-    </row>
-    <row r="507" spans="1:6">
+      <c r="D506" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8">
       <c r="A507" s="7">
         <v>45964</v>
       </c>
@@ -8547,9 +8528,11 @@
       <c r="C507" s="9">
         <v>10</v>
       </c>
-      <c r="D507" s="2"/>
-    </row>
-    <row r="508" spans="1:6">
+      <c r="D507" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8">
       <c r="A508" s="7">
         <v>45964</v>
       </c>
@@ -8559,7 +8542,129 @@
       <c r="C508" s="9">
         <v>10</v>
       </c>
-      <c r="D508" s="2"/>
+      <c r="D508" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8">
+      <c r="A509" s="7">
+        <v>45965</v>
+      </c>
+      <c r="B509" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C509" s="9">
+        <v>9</v>
+      </c>
+      <c r="D509" s="2"/>
+    </row>
+    <row r="510" spans="1:8">
+      <c r="A510" s="7">
+        <v>45965</v>
+      </c>
+      <c r="B510" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C510" s="9">
+        <v>9</v>
+      </c>
+      <c r="D510" s="2"/>
+    </row>
+    <row r="511" spans="1:8">
+      <c r="A511" s="7">
+        <v>45965</v>
+      </c>
+      <c r="B511" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C511" s="9">
+        <v>10</v>
+      </c>
+      <c r="D511" s="2"/>
+      <c r="G511" s="1"/>
+      <c r="H511" s="22"/>
+    </row>
+    <row r="512" spans="1:8">
+      <c r="A512" s="7">
+        <v>45965</v>
+      </c>
+      <c r="B512" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C512" s="9">
+        <v>10</v>
+      </c>
+      <c r="D512" s="2"/>
+      <c r="G512" s="1"/>
+      <c r="H512" s="22"/>
+    </row>
+    <row r="513" spans="1:8">
+      <c r="A513" s="7">
+        <v>45965</v>
+      </c>
+      <c r="B513" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C513" s="9">
+        <v>11</v>
+      </c>
+      <c r="D513" s="2"/>
+      <c r="G513" s="1"/>
+      <c r="H513" s="22"/>
+    </row>
+    <row r="514" spans="1:8">
+      <c r="A514" s="7">
+        <v>45965</v>
+      </c>
+      <c r="B514" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C514" s="9">
+        <v>11</v>
+      </c>
+      <c r="D514" s="2"/>
+      <c r="G514" s="1"/>
+      <c r="H514" s="22"/>
+    </row>
+    <row r="515" spans="1:8">
+      <c r="A515" s="7">
+        <v>45965</v>
+      </c>
+      <c r="B515" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C515" s="9">
+        <v>7</v>
+      </c>
+      <c r="D515" s="2"/>
+      <c r="G515" s="1"/>
+      <c r="H515" s="22"/>
+    </row>
+    <row r="516" spans="1:8">
+      <c r="A516" s="7">
+        <v>45965</v>
+      </c>
+      <c r="B516" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C516" s="9">
+        <v>11</v>
+      </c>
+      <c r="D516" s="2"/>
+      <c r="G516" s="1"/>
+      <c r="H516" s="22"/>
+    </row>
+    <row r="517" spans="1:8">
+      <c r="G517" s="1"/>
+      <c r="H517" s="22"/>
+    </row>
+    <row r="518" spans="1:8">
+      <c r="G518" s="1"/>
+      <c r="H518" s="22"/>
+    </row>
+    <row r="519" spans="1:8">
+      <c r="G519" s="1"/>
+      <c r="H519" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -746,11 +746,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U519"/>
+  <dimension ref="A1:U529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F499" sqref="F499"/>
+      <pane ySplit="1" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F508" sqref="F508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8556,7 +8556,9 @@
       <c r="C509" s="9">
         <v>9</v>
       </c>
-      <c r="D509" s="2"/>
+      <c r="D509" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="510" spans="1:8">
       <c r="A510" s="7">
@@ -8568,7 +8570,11 @@
       <c r="C510" s="9">
         <v>9</v>
       </c>
-      <c r="D510" s="2"/>
+      <c r="D510" s="2">
+        <v>3</v>
+      </c>
+      <c r="G510" s="1"/>
+      <c r="H510" s="22"/>
     </row>
     <row r="511" spans="1:8">
       <c r="A511" s="7">
@@ -8580,7 +8586,9 @@
       <c r="C511" s="9">
         <v>10</v>
       </c>
-      <c r="D511" s="2"/>
+      <c r="D511" s="2">
+        <v>5</v>
+      </c>
       <c r="G511" s="1"/>
       <c r="H511" s="22"/>
     </row>
@@ -8594,7 +8602,9 @@
       <c r="C512" s="9">
         <v>10</v>
       </c>
-      <c r="D512" s="2"/>
+      <c r="D512" s="2">
+        <v>5</v>
+      </c>
       <c r="G512" s="1"/>
       <c r="H512" s="22"/>
     </row>
@@ -8608,7 +8618,9 @@
       <c r="C513" s="9">
         <v>11</v>
       </c>
-      <c r="D513" s="2"/>
+      <c r="D513" s="2">
+        <v>4</v>
+      </c>
       <c r="G513" s="1"/>
       <c r="H513" s="22"/>
     </row>
@@ -8622,7 +8634,9 @@
       <c r="C514" s="9">
         <v>11</v>
       </c>
-      <c r="D514" s="2"/>
+      <c r="D514" s="2">
+        <v>4</v>
+      </c>
       <c r="G514" s="1"/>
       <c r="H514" s="22"/>
     </row>
@@ -8636,7 +8650,9 @@
       <c r="C515" s="9">
         <v>7</v>
       </c>
-      <c r="D515" s="2"/>
+      <c r="D515" s="2">
+        <v>5</v>
+      </c>
       <c r="G515" s="1"/>
       <c r="H515" s="22"/>
     </row>
@@ -8650,21 +8666,161 @@
       <c r="C516" s="9">
         <v>11</v>
       </c>
-      <c r="D516" s="2"/>
+      <c r="D516" s="2">
+        <v>9</v>
+      </c>
       <c r="G516" s="1"/>
       <c r="H516" s="22"/>
     </row>
     <row r="517" spans="1:8">
+      <c r="A517" s="7">
+        <v>45965</v>
+      </c>
+      <c r="B517" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C517" s="24">
+        <v>0</v>
+      </c>
+      <c r="D517" s="6">
+        <v>2</v>
+      </c>
       <c r="G517" s="1"/>
       <c r="H517" s="22"/>
     </row>
     <row r="518" spans="1:8">
-      <c r="G518" s="1"/>
-      <c r="H518" s="22"/>
+      <c r="A518" s="7">
+        <v>45965</v>
+      </c>
+      <c r="B518" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C518" s="24">
+        <v>0</v>
+      </c>
+      <c r="D518" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="519" spans="1:8">
-      <c r="G519" s="1"/>
-      <c r="H519" s="22"/>
+      <c r="A519" s="7">
+        <v>45966</v>
+      </c>
+      <c r="B519" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C519" s="9">
+        <v>2</v>
+      </c>
+      <c r="D519" s="2"/>
+    </row>
+    <row r="520" spans="1:8">
+      <c r="A520" s="7">
+        <v>45966</v>
+      </c>
+      <c r="B520" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C520" s="9">
+        <v>2</v>
+      </c>
+      <c r="D520" s="2"/>
+    </row>
+    <row r="521" spans="1:8">
+      <c r="A521" s="7">
+        <v>45966</v>
+      </c>
+      <c r="B521" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C521" s="9">
+        <v>3</v>
+      </c>
+      <c r="D521" s="2"/>
+      <c r="G521" s="1"/>
+      <c r="H521" s="22"/>
+    </row>
+    <row r="522" spans="1:8">
+      <c r="A522" s="7">
+        <v>45966</v>
+      </c>
+      <c r="B522" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C522" s="9">
+        <v>3</v>
+      </c>
+      <c r="D522" s="2"/>
+      <c r="G522" s="1"/>
+      <c r="H522" s="22"/>
+    </row>
+    <row r="523" spans="1:8">
+      <c r="A523" s="7">
+        <v>45966</v>
+      </c>
+      <c r="B523" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C523" s="9">
+        <v>7</v>
+      </c>
+      <c r="D523" s="2"/>
+      <c r="G523" s="1"/>
+      <c r="H523" s="22"/>
+    </row>
+    <row r="524" spans="1:8">
+      <c r="A524" s="7">
+        <v>45966</v>
+      </c>
+      <c r="B524" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C524" s="9">
+        <v>10</v>
+      </c>
+      <c r="D524" s="2"/>
+      <c r="G524" s="1"/>
+      <c r="H524" s="22"/>
+    </row>
+    <row r="525" spans="1:8">
+      <c r="A525" s="7">
+        <v>45966</v>
+      </c>
+      <c r="B525" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C525" s="9">
+        <v>9</v>
+      </c>
+      <c r="D525" s="2"/>
+      <c r="G525" s="1"/>
+      <c r="H525" s="22"/>
+    </row>
+    <row r="526" spans="1:8">
+      <c r="A526" s="7">
+        <v>45966</v>
+      </c>
+      <c r="B526" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C526" s="9">
+        <v>9</v>
+      </c>
+      <c r="D526" s="2"/>
+      <c r="G526" s="1"/>
+      <c r="H526" s="22"/>
+    </row>
+    <row r="527" spans="1:8">
+      <c r="G527" s="1"/>
+      <c r="H527" s="22"/>
+    </row>
+    <row r="528" spans="1:8">
+      <c r="G528" s="1"/>
+      <c r="H528" s="22"/>
+    </row>
+    <row r="529" spans="7:8">
+      <c r="G529" s="1"/>
+      <c r="H529" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -746,11 +746,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U529"/>
+  <dimension ref="A1:U532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F508" sqref="F508"/>
+      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A527" sqref="A527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8712,7 +8712,9 @@
       <c r="C519" s="9">
         <v>2</v>
       </c>
-      <c r="D519" s="2"/>
+      <c r="D519" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="520" spans="1:8">
       <c r="A520" s="7">
@@ -8724,7 +8726,9 @@
       <c r="C520" s="9">
         <v>2</v>
       </c>
-      <c r="D520" s="2"/>
+      <c r="D520" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="521" spans="1:8">
       <c r="A521" s="7">
@@ -8736,7 +8740,9 @@
       <c r="C521" s="9">
         <v>3</v>
       </c>
-      <c r="D521" s="2"/>
+      <c r="D521" s="2">
+        <v>2</v>
+      </c>
       <c r="G521" s="1"/>
       <c r="H521" s="22"/>
     </row>
@@ -8750,7 +8756,9 @@
       <c r="C522" s="9">
         <v>3</v>
       </c>
-      <c r="D522" s="2"/>
+      <c r="D522" s="2">
+        <v>2</v>
+      </c>
       <c r="G522" s="1"/>
       <c r="H522" s="22"/>
     </row>
@@ -8764,7 +8772,9 @@
       <c r="C523" s="9">
         <v>7</v>
       </c>
-      <c r="D523" s="2"/>
+      <c r="D523" s="2">
+        <v>3</v>
+      </c>
       <c r="G523" s="1"/>
       <c r="H523" s="22"/>
     </row>
@@ -8778,7 +8788,9 @@
       <c r="C524" s="9">
         <v>10</v>
       </c>
-      <c r="D524" s="2"/>
+      <c r="D524" s="2">
+        <v>8</v>
+      </c>
       <c r="G524" s="1"/>
       <c r="H524" s="22"/>
     </row>
@@ -8792,7 +8804,9 @@
       <c r="C525" s="9">
         <v>9</v>
       </c>
-      <c r="D525" s="2"/>
+      <c r="D525" s="2">
+        <v>4</v>
+      </c>
       <c r="G525" s="1"/>
       <c r="H525" s="22"/>
     </row>
@@ -8806,21 +8820,85 @@
       <c r="C526" s="9">
         <v>9</v>
       </c>
-      <c r="D526" s="2"/>
+      <c r="D526" s="2">
+        <v>4</v>
+      </c>
       <c r="G526" s="1"/>
       <c r="H526" s="22"/>
     </row>
     <row r="527" spans="1:8">
+      <c r="A527" s="7">
+        <v>45967</v>
+      </c>
+      <c r="B527" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C527" s="24">
+        <v>2</v>
+      </c>
+      <c r="D527" s="2"/>
       <c r="G527" s="1"/>
       <c r="H527" s="22"/>
     </row>
     <row r="528" spans="1:8">
-      <c r="G528" s="1"/>
-      <c r="H528" s="22"/>
-    </row>
-    <row r="529" spans="7:8">
-      <c r="G529" s="1"/>
-      <c r="H529" s="22"/>
+      <c r="A528" s="7">
+        <v>45967</v>
+      </c>
+      <c r="B528" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C528" s="24">
+        <v>2</v>
+      </c>
+      <c r="D528" s="2"/>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" s="7">
+        <v>45967</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C529" s="24">
+        <v>3</v>
+      </c>
+      <c r="D529" s="2"/>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" s="7">
+        <v>45967</v>
+      </c>
+      <c r="B530" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C530" s="24">
+        <v>3</v>
+      </c>
+      <c r="D530" s="2"/>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" s="7">
+        <v>45967</v>
+      </c>
+      <c r="B531" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C531" s="2">
+        <v>3</v>
+      </c>
+      <c r="D531" s="2"/>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="7">
+        <v>45967</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C532" s="2">
+        <v>5</v>
+      </c>
+      <c r="D532" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -746,11 +746,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U532"/>
+  <dimension ref="A1:U540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A527" sqref="A527"/>
+      <pane ySplit="1" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D533" sqref="D533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -759,8 +759,8 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="8" width="29.42578125" customWidth="1"/>
     <col min="9" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -8836,9 +8836,9 @@
       <c r="C527" s="24">
         <v>2</v>
       </c>
-      <c r="D527" s="2"/>
-      <c r="G527" s="1"/>
-      <c r="H527" s="22"/>
+      <c r="D527" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="528" spans="1:8">
       <c r="A528" s="7">
@@ -8850,9 +8850,13 @@
       <c r="C528" s="24">
         <v>2</v>
       </c>
-      <c r="D528" s="2"/>
-    </row>
-    <row r="529" spans="1:4">
+      <c r="D528" s="2">
+        <v>0</v>
+      </c>
+      <c r="F528" s="1"/>
+      <c r="G528" s="22"/>
+    </row>
+    <row r="529" spans="1:7">
       <c r="A529" s="7">
         <v>45967</v>
       </c>
@@ -8862,9 +8866,13 @@
       <c r="C529" s="24">
         <v>3</v>
       </c>
-      <c r="D529" s="2"/>
-    </row>
-    <row r="530" spans="1:4">
+      <c r="D529" s="2">
+        <v>1</v>
+      </c>
+      <c r="F529" s="1"/>
+      <c r="G529" s="22"/>
+    </row>
+    <row r="530" spans="1:7">
       <c r="A530" s="7">
         <v>45967</v>
       </c>
@@ -8874,9 +8882,13 @@
       <c r="C530" s="24">
         <v>3</v>
       </c>
-      <c r="D530" s="2"/>
-    </row>
-    <row r="531" spans="1:4">
+      <c r="D530" s="2">
+        <v>1</v>
+      </c>
+      <c r="F530" s="1"/>
+      <c r="G530" s="22"/>
+    </row>
+    <row r="531" spans="1:7">
       <c r="A531" s="7">
         <v>45967</v>
       </c>
@@ -8886,9 +8898,13 @@
       <c r="C531" s="2">
         <v>3</v>
       </c>
-      <c r="D531" s="2"/>
-    </row>
-    <row r="532" spans="1:4">
+      <c r="D531" s="2">
+        <v>1</v>
+      </c>
+      <c r="F531" s="1"/>
+      <c r="G531" s="22"/>
+    </row>
+    <row r="532" spans="1:7">
       <c r="A532" s="7">
         <v>45967</v>
       </c>
@@ -8898,7 +8914,111 @@
       <c r="C532" s="2">
         <v>5</v>
       </c>
-      <c r="D532" s="2"/>
+      <c r="D532" s="2">
+        <v>6</v>
+      </c>
+      <c r="F532" s="1"/>
+      <c r="G532" s="22"/>
+    </row>
+    <row r="533" spans="1:7">
+      <c r="A533" s="7">
+        <v>45967</v>
+      </c>
+      <c r="B533" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C533" s="2">
+        <v>0</v>
+      </c>
+      <c r="D533" s="9">
+        <v>1</v>
+      </c>
+      <c r="F533" s="1"/>
+      <c r="G533" s="22"/>
+    </row>
+    <row r="534" spans="1:7">
+      <c r="A534" s="7">
+        <v>45968</v>
+      </c>
+      <c r="B534" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C534" s="6">
+        <v>5</v>
+      </c>
+      <c r="D534" s="2"/>
+    </row>
+    <row r="535" spans="1:7">
+      <c r="A535" s="7">
+        <v>45968</v>
+      </c>
+      <c r="B535" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C535" s="6">
+        <v>5</v>
+      </c>
+      <c r="D535" s="2"/>
+    </row>
+    <row r="536" spans="1:7">
+      <c r="A536" s="7">
+        <v>45968</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C536" s="6">
+        <v>5</v>
+      </c>
+      <c r="D536" s="2"/>
+    </row>
+    <row r="537" spans="1:7">
+      <c r="A537" s="7">
+        <v>45968</v>
+      </c>
+      <c r="B537" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C537" s="6">
+        <v>1</v>
+      </c>
+      <c r="D537" s="2"/>
+    </row>
+    <row r="538" spans="1:7">
+      <c r="A538" s="7">
+        <v>45968</v>
+      </c>
+      <c r="B538" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C538" s="6">
+        <v>1</v>
+      </c>
+      <c r="D538" s="2"/>
+    </row>
+    <row r="539" spans="1:7">
+      <c r="A539" s="7">
+        <v>45968</v>
+      </c>
+      <c r="B539" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C539" s="6">
+        <v>1</v>
+      </c>
+      <c r="D539" s="2"/>
+    </row>
+    <row r="540" spans="1:7">
+      <c r="A540" s="7">
+        <v>45968</v>
+      </c>
+      <c r="B540" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C540" s="2">
+        <v>1</v>
+      </c>
+      <c r="D540" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -746,11 +746,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U540"/>
+  <dimension ref="A1:U554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D533" sqref="D533"/>
+      <pane ySplit="1" topLeftCell="A521" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H538" sqref="H538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -759,8 +759,9 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="8" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" customWidth="1"/>
     <col min="9" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -8856,7 +8857,7 @@
       <c r="F528" s="1"/>
       <c r="G528" s="22"/>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" spans="1:8">
       <c r="A529" s="7">
         <v>45967</v>
       </c>
@@ -8872,7 +8873,7 @@
       <c r="F529" s="1"/>
       <c r="G529" s="22"/>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:8">
       <c r="A530" s="7">
         <v>45967</v>
       </c>
@@ -8888,7 +8889,7 @@
       <c r="F530" s="1"/>
       <c r="G530" s="22"/>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:8">
       <c r="A531" s="7">
         <v>45967</v>
       </c>
@@ -8904,7 +8905,7 @@
       <c r="F531" s="1"/>
       <c r="G531" s="22"/>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:8">
       <c r="A532" s="7">
         <v>45967</v>
       </c>
@@ -8920,7 +8921,7 @@
       <c r="F532" s="1"/>
       <c r="G532" s="22"/>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:8">
       <c r="A533" s="7">
         <v>45967</v>
       </c>
@@ -8936,7 +8937,7 @@
       <c r="F533" s="1"/>
       <c r="G533" s="22"/>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:8">
       <c r="A534" s="7">
         <v>45968</v>
       </c>
@@ -8946,9 +8947,11 @@
       <c r="C534" s="6">
         <v>5</v>
       </c>
-      <c r="D534" s="2"/>
-    </row>
-    <row r="535" spans="1:7">
+      <c r="D534" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8">
       <c r="A535" s="7">
         <v>45968</v>
       </c>
@@ -8958,9 +8961,13 @@
       <c r="C535" s="6">
         <v>5</v>
       </c>
-      <c r="D535" s="2"/>
-    </row>
-    <row r="536" spans="1:7">
+      <c r="D535" s="2">
+        <v>3</v>
+      </c>
+      <c r="F535" s="1"/>
+      <c r="G535" s="22"/>
+    </row>
+    <row r="536" spans="1:8">
       <c r="A536" s="7">
         <v>45968</v>
       </c>
@@ -8970,9 +8977,13 @@
       <c r="C536" s="6">
         <v>5</v>
       </c>
-      <c r="D536" s="2"/>
-    </row>
-    <row r="537" spans="1:7">
+      <c r="D536" s="2">
+        <v>1</v>
+      </c>
+      <c r="F536" s="1"/>
+      <c r="G536" s="22"/>
+    </row>
+    <row r="537" spans="1:8">
       <c r="A537" s="7">
         <v>45968</v>
       </c>
@@ -8982,9 +8993,13 @@
       <c r="C537" s="6">
         <v>1</v>
       </c>
-      <c r="D537" s="2"/>
-    </row>
-    <row r="538" spans="1:7">
+      <c r="D537" s="2">
+        <v>1</v>
+      </c>
+      <c r="F537" s="1"/>
+      <c r="G537" s="22"/>
+    </row>
+    <row r="538" spans="1:8">
       <c r="A538" s="7">
         <v>45968</v>
       </c>
@@ -8994,9 +9009,13 @@
       <c r="C538" s="6">
         <v>1</v>
       </c>
-      <c r="D538" s="2"/>
-    </row>
-    <row r="539" spans="1:7">
+      <c r="D538" s="2">
+        <v>1</v>
+      </c>
+      <c r="F538" s="1"/>
+      <c r="G538" s="22"/>
+    </row>
+    <row r="539" spans="1:8">
       <c r="A539" s="7">
         <v>45968</v>
       </c>
@@ -9006,9 +9025,13 @@
       <c r="C539" s="6">
         <v>1</v>
       </c>
-      <c r="D539" s="2"/>
-    </row>
-    <row r="540" spans="1:7">
+      <c r="D539" s="2">
+        <v>0</v>
+      </c>
+      <c r="F539" s="1"/>
+      <c r="G539" s="22"/>
+    </row>
+    <row r="540" spans="1:8">
       <c r="A540" s="7">
         <v>45968</v>
       </c>
@@ -9018,7 +9041,209 @@
       <c r="C540" s="2">
         <v>1</v>
       </c>
-      <c r="D540" s="2"/>
+      <c r="D540" s="2">
+        <v>0</v>
+      </c>
+      <c r="F540" s="1"/>
+      <c r="G540" s="22"/>
+    </row>
+    <row r="541" spans="1:8">
+      <c r="A541" s="7">
+        <v>45968</v>
+      </c>
+      <c r="B541" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C541" s="2">
+        <v>0</v>
+      </c>
+      <c r="D541" s="2">
+        <v>1</v>
+      </c>
+      <c r="F541" s="1"/>
+      <c r="G541" s="22"/>
+    </row>
+    <row r="542" spans="1:8">
+      <c r="A542" s="7">
+        <v>45969</v>
+      </c>
+      <c r="B542" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C542" s="9">
+        <v>2</v>
+      </c>
+      <c r="D542" s="2">
+        <v>2</v>
+      </c>
+      <c r="F542" s="1"/>
+    </row>
+    <row r="543" spans="1:8">
+      <c r="A543" s="7">
+        <v>45969</v>
+      </c>
+      <c r="B543" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C543" s="9">
+        <v>2</v>
+      </c>
+      <c r="D543" s="2">
+        <v>2</v>
+      </c>
+      <c r="F543" s="1"/>
+      <c r="G543" s="1"/>
+      <c r="H543" s="22"/>
+    </row>
+    <row r="544" spans="1:8">
+      <c r="A544" s="7">
+        <v>45969</v>
+      </c>
+      <c r="B544" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C544" s="9">
+        <v>6</v>
+      </c>
+      <c r="D544" s="2">
+        <v>7</v>
+      </c>
+      <c r="G544" s="1"/>
+      <c r="H544" s="22"/>
+    </row>
+    <row r="545" spans="1:8">
+      <c r="A545" s="7">
+        <v>45969</v>
+      </c>
+      <c r="B545" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C545" s="9">
+        <v>2</v>
+      </c>
+      <c r="D545" s="2">
+        <v>2</v>
+      </c>
+      <c r="G545" s="1"/>
+      <c r="H545" s="22"/>
+    </row>
+    <row r="546" spans="1:8">
+      <c r="A546" s="7">
+        <v>45969</v>
+      </c>
+      <c r="B546" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C546" s="9">
+        <v>5</v>
+      </c>
+      <c r="D546" s="2">
+        <v>4</v>
+      </c>
+      <c r="G546" s="1"/>
+      <c r="H546" s="22"/>
+    </row>
+    <row r="547" spans="1:8">
+      <c r="A547" s="7">
+        <v>45969</v>
+      </c>
+      <c r="B547" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C547" s="9">
+        <v>5</v>
+      </c>
+      <c r="D547" s="2">
+        <v>4</v>
+      </c>
+      <c r="G547" s="1"/>
+      <c r="H547" s="22"/>
+    </row>
+    <row r="548" spans="1:8">
+      <c r="A548" s="7">
+        <v>45971</v>
+      </c>
+      <c r="B548" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C548" s="9">
+        <v>6</v>
+      </c>
+      <c r="D548" s="2"/>
+      <c r="G548" s="1"/>
+      <c r="H548" s="22"/>
+    </row>
+    <row r="549" spans="1:8">
+      <c r="A549" s="7">
+        <v>45971</v>
+      </c>
+      <c r="B549" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C549" s="9">
+        <v>6</v>
+      </c>
+      <c r="D549" s="2"/>
+    </row>
+    <row r="550" spans="1:8">
+      <c r="A550" s="7">
+        <v>45971</v>
+      </c>
+      <c r="B550" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C550" s="9">
+        <v>6</v>
+      </c>
+      <c r="D550" s="2"/>
+    </row>
+    <row r="551" spans="1:8">
+      <c r="A551" s="7">
+        <v>45971</v>
+      </c>
+      <c r="B551" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C551" s="9">
+        <v>6</v>
+      </c>
+      <c r="D551" s="2"/>
+    </row>
+    <row r="552" spans="1:8">
+      <c r="A552" s="7">
+        <v>45971</v>
+      </c>
+      <c r="B552" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C552" s="9">
+        <v>4</v>
+      </c>
+      <c r="D552" s="2"/>
+    </row>
+    <row r="553" spans="1:8">
+      <c r="A553" s="7">
+        <v>45971</v>
+      </c>
+      <c r="B553" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C553" s="9">
+        <v>4</v>
+      </c>
+      <c r="D553" s="2"/>
+    </row>
+    <row r="554" spans="1:8">
+      <c r="A554" s="7">
+        <v>45971</v>
+      </c>
+      <c r="B554" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C554" s="9">
+        <v>6</v>
+      </c>
+      <c r="D554" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -320,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -451,6 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -746,11 +747,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U554"/>
+  <dimension ref="A1:U560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A521" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H538" sqref="H538"/>
+      <pane ySplit="1" topLeftCell="A534" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H562" sqref="H562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -760,7 +761,7 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
     <col min="8" max="8" width="29.42578125" customWidth="1"/>
     <col min="9" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -9169,9 +9170,9 @@
       <c r="C548" s="9">
         <v>6</v>
       </c>
-      <c r="D548" s="2"/>
-      <c r="G548" s="1"/>
-      <c r="H548" s="22"/>
+      <c r="D548" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="549" spans="1:8">
       <c r="A549" s="7">
@@ -9183,7 +9184,11 @@
       <c r="C549" s="9">
         <v>6</v>
       </c>
-      <c r="D549" s="2"/>
+      <c r="D549" s="2">
+        <v>4</v>
+      </c>
+      <c r="G549" s="1"/>
+      <c r="H549" s="22"/>
     </row>
     <row r="550" spans="1:8">
       <c r="A550" s="7">
@@ -9195,7 +9200,11 @@
       <c r="C550" s="9">
         <v>6</v>
       </c>
-      <c r="D550" s="2"/>
+      <c r="D550" s="2">
+        <v>0</v>
+      </c>
+      <c r="G550" s="1"/>
+      <c r="H550" s="22"/>
     </row>
     <row r="551" spans="1:8">
       <c r="A551" s="7">
@@ -9207,7 +9216,11 @@
       <c r="C551" s="9">
         <v>6</v>
       </c>
-      <c r="D551" s="2"/>
+      <c r="D551" s="2">
+        <v>0</v>
+      </c>
+      <c r="G551" s="1"/>
+      <c r="H551" s="22"/>
     </row>
     <row r="552" spans="1:8">
       <c r="A552" s="7">
@@ -9219,7 +9232,11 @@
       <c r="C552" s="9">
         <v>4</v>
       </c>
-      <c r="D552" s="2"/>
+      <c r="D552" s="2">
+        <v>1</v>
+      </c>
+      <c r="G552" s="1"/>
+      <c r="H552" s="22"/>
     </row>
     <row r="553" spans="1:8">
       <c r="A553" s="7">
@@ -9231,7 +9248,11 @@
       <c r="C553" s="9">
         <v>4</v>
       </c>
-      <c r="D553" s="2"/>
+      <c r="D553" s="2">
+        <v>1</v>
+      </c>
+      <c r="G553" s="1"/>
+      <c r="H553" s="22"/>
     </row>
     <row r="554" spans="1:8">
       <c r="A554" s="7">
@@ -9243,7 +9264,83 @@
       <c r="C554" s="9">
         <v>6</v>
       </c>
-      <c r="D554" s="2"/>
+      <c r="D554" s="2">
+        <v>2</v>
+      </c>
+      <c r="G554" s="1"/>
+      <c r="H554" s="22"/>
+    </row>
+    <row r="555" spans="1:8">
+      <c r="A555" s="7">
+        <v>45972</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C555" s="24">
+        <v>6</v>
+      </c>
+      <c r="D555" s="2"/>
+    </row>
+    <row r="556" spans="1:8">
+      <c r="A556" s="7">
+        <v>45972</v>
+      </c>
+      <c r="B556" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C556" s="24">
+        <v>4</v>
+      </c>
+      <c r="D556" s="2"/>
+    </row>
+    <row r="557" spans="1:8">
+      <c r="A557" s="7">
+        <v>45972</v>
+      </c>
+      <c r="B557" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C557" s="24">
+        <v>4</v>
+      </c>
+      <c r="D557" s="2"/>
+    </row>
+    <row r="558" spans="1:8">
+      <c r="A558" s="7">
+        <v>45972</v>
+      </c>
+      <c r="B558" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C558" s="24">
+        <v>8</v>
+      </c>
+      <c r="D558" s="2"/>
+    </row>
+    <row r="559" spans="1:8">
+      <c r="A559" s="7">
+        <v>45972</v>
+      </c>
+      <c r="B559" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C559" s="2">
+        <v>8</v>
+      </c>
+      <c r="D559" s="2"/>
+    </row>
+    <row r="560" spans="1:8">
+      <c r="A560" s="7">
+        <v>45972</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C560" s="2">
+        <v>7</v>
+      </c>
+      <c r="D560" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -320,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -452,6 +452,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -747,11 +748,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U560"/>
+  <dimension ref="A1:U602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A534" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H562" sqref="H562"/>
+      <pane ySplit="1" topLeftCell="A560" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D587" sqref="D587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -760,9 +761,9 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1"/>
     <col min="9" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -9251,8 +9252,6 @@
       <c r="D553" s="2">
         <v>1</v>
       </c>
-      <c r="G553" s="1"/>
-      <c r="H553" s="22"/>
     </row>
     <row r="554" spans="1:8">
       <c r="A554" s="7">
@@ -9267,8 +9266,6 @@
       <c r="D554" s="2">
         <v>2</v>
       </c>
-      <c r="G554" s="1"/>
-      <c r="H554" s="22"/>
     </row>
     <row r="555" spans="1:8">
       <c r="A555" s="7">
@@ -9280,7 +9277,9 @@
       <c r="C555" s="24">
         <v>6</v>
       </c>
-      <c r="D555" s="2"/>
+      <c r="D555" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="556" spans="1:8">
       <c r="A556" s="7">
@@ -9292,7 +9291,9 @@
       <c r="C556" s="24">
         <v>4</v>
       </c>
-      <c r="D556" s="2"/>
+      <c r="D556" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="557" spans="1:8">
       <c r="A557" s="7">
@@ -9304,7 +9305,9 @@
       <c r="C557" s="24">
         <v>4</v>
       </c>
-      <c r="D557" s="2"/>
+      <c r="D557" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="558" spans="1:8">
       <c r="A558" s="7">
@@ -9316,7 +9319,9 @@
       <c r="C558" s="24">
         <v>8</v>
       </c>
-      <c r="D558" s="2"/>
+      <c r="D558" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="559" spans="1:8">
       <c r="A559" s="7">
@@ -9328,7 +9333,9 @@
       <c r="C559" s="2">
         <v>8</v>
       </c>
-      <c r="D559" s="2"/>
+      <c r="D559" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="560" spans="1:8">
       <c r="A560" s="7">
@@ -9340,7 +9347,440 @@
       <c r="C560" s="2">
         <v>7</v>
       </c>
-      <c r="D560" s="2"/>
+      <c r="D560" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561" s="7">
+        <v>45972</v>
+      </c>
+      <c r="B561" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C561" s="9">
+        <v>0</v>
+      </c>
+      <c r="D561" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562" s="7">
+        <v>45972</v>
+      </c>
+      <c r="B562" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C562" s="9">
+        <v>0</v>
+      </c>
+      <c r="D562" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="A563" s="7">
+        <v>45973</v>
+      </c>
+      <c r="B563" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C563" s="6">
+        <v>2</v>
+      </c>
+      <c r="D563" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="A564" s="7">
+        <v>45973</v>
+      </c>
+      <c r="B564" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C564" s="6">
+        <v>2</v>
+      </c>
+      <c r="D564" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="A565" s="7">
+        <v>45973</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C565" s="6">
+        <v>6</v>
+      </c>
+      <c r="D565" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="A566" s="7">
+        <v>45973</v>
+      </c>
+      <c r="B566" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C566" s="6">
+        <v>6</v>
+      </c>
+      <c r="D566" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="A567" s="7">
+        <v>45973</v>
+      </c>
+      <c r="B567" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C567" s="6">
+        <v>6</v>
+      </c>
+      <c r="D567" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="A568" s="7">
+        <v>45973</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C568" s="6">
+        <v>15</v>
+      </c>
+      <c r="D568" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="A569" s="7">
+        <v>45973</v>
+      </c>
+      <c r="B569" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C569" s="6">
+        <v>0</v>
+      </c>
+      <c r="D569" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="A570" s="7">
+        <v>45973</v>
+      </c>
+      <c r="B570" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C570" s="6">
+        <v>0</v>
+      </c>
+      <c r="D570" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="A571" s="7">
+        <v>45974</v>
+      </c>
+      <c r="B571" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C571" s="6">
+        <v>1</v>
+      </c>
+      <c r="D571" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4">
+      <c r="A572" s="7">
+        <v>45974</v>
+      </c>
+      <c r="B572" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C572" s="6">
+        <v>1</v>
+      </c>
+      <c r="D572" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573" s="7">
+        <v>45974</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C573" s="6">
+        <v>12</v>
+      </c>
+      <c r="D573" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574" s="7">
+        <v>45974</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C574" s="6">
+        <v>7</v>
+      </c>
+      <c r="D574" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575" s="7">
+        <v>45974</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C575" s="6">
+        <v>2</v>
+      </c>
+      <c r="D575" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576" s="7">
+        <v>45974</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C576" s="6">
+        <v>7</v>
+      </c>
+      <c r="D576" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8">
+      <c r="A577" s="7">
+        <v>45974</v>
+      </c>
+      <c r="B577" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C577" s="6">
+        <v>0</v>
+      </c>
+      <c r="D577" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8">
+      <c r="A578" s="7">
+        <v>45974</v>
+      </c>
+      <c r="B578" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C578" s="6">
+        <v>0</v>
+      </c>
+      <c r="D578" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8">
+      <c r="A579" s="7">
+        <v>45975</v>
+      </c>
+      <c r="B579" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C579" s="9">
+        <v>1</v>
+      </c>
+      <c r="D579" s="2"/>
+    </row>
+    <row r="580" spans="1:8">
+      <c r="A580" s="7">
+        <v>45975</v>
+      </c>
+      <c r="B580" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C580" s="9">
+        <v>1</v>
+      </c>
+      <c r="D580" s="2"/>
+    </row>
+    <row r="581" spans="1:8">
+      <c r="A581" s="7">
+        <v>45975</v>
+      </c>
+      <c r="B581" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C581" s="9">
+        <v>7</v>
+      </c>
+      <c r="D581" s="2"/>
+      <c r="F581" s="1"/>
+    </row>
+    <row r="582" spans="1:8">
+      <c r="A582" s="7">
+        <v>45975</v>
+      </c>
+      <c r="B582" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C582" s="9">
+        <v>8</v>
+      </c>
+      <c r="D582" s="2"/>
+      <c r="F582" s="1"/>
+      <c r="G582" s="1"/>
+      <c r="H582" s="22"/>
+    </row>
+    <row r="583" spans="1:8">
+      <c r="A583" s="7">
+        <v>45975</v>
+      </c>
+      <c r="B583" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C583" s="9">
+        <v>8</v>
+      </c>
+      <c r="D583" s="2"/>
+      <c r="F583" s="1"/>
+      <c r="G583" s="1"/>
+      <c r="H583" s="22"/>
+    </row>
+    <row r="584" spans="1:8">
+      <c r="A584" s="7">
+        <v>45975</v>
+      </c>
+      <c r="B584" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C584" s="9">
+        <v>2</v>
+      </c>
+      <c r="D584" s="2"/>
+      <c r="F584" s="1"/>
+      <c r="G584" s="52"/>
+      <c r="H584" s="22"/>
+    </row>
+    <row r="585" spans="1:8">
+      <c r="A585" s="7">
+        <v>45975</v>
+      </c>
+      <c r="B585" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C585" s="9">
+        <v>2</v>
+      </c>
+      <c r="D585" s="2"/>
+      <c r="F585" s="1"/>
+      <c r="G585" s="52"/>
+      <c r="H585" s="22"/>
+    </row>
+    <row r="586" spans="1:8">
+      <c r="A586" s="7">
+        <v>45975</v>
+      </c>
+      <c r="B586" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C586" s="9">
+        <v>13</v>
+      </c>
+      <c r="D586" s="2"/>
+      <c r="F586" s="1"/>
+      <c r="G586" s="52"/>
+      <c r="H586" s="22"/>
+    </row>
+    <row r="587" spans="1:8">
+      <c r="F587" s="1"/>
+      <c r="G587" s="52"/>
+      <c r="H587" s="22"/>
+    </row>
+    <row r="588" spans="1:8">
+      <c r="F588" s="1"/>
+      <c r="G588" s="52"/>
+      <c r="H588" s="22"/>
+    </row>
+    <row r="589" spans="1:8">
+      <c r="F589" s="1"/>
+      <c r="G589" s="1"/>
+      <c r="H589" s="22"/>
+    </row>
+    <row r="590" spans="1:8">
+      <c r="G590" s="52"/>
+      <c r="H590" s="22"/>
+    </row>
+    <row r="591" spans="1:8">
+      <c r="G591" s="52"/>
+      <c r="H591" s="22"/>
+    </row>
+    <row r="592" spans="1:8">
+      <c r="G592" s="52"/>
+      <c r="H592" s="22"/>
+    </row>
+    <row r="593" spans="7:8">
+      <c r="G593" s="52"/>
+      <c r="H593" s="22"/>
+    </row>
+    <row r="594" spans="7:8">
+      <c r="G594" s="1"/>
+      <c r="H594" s="22"/>
+    </row>
+    <row r="595" spans="7:8">
+      <c r="G595" s="52"/>
+      <c r="H595" s="22"/>
+    </row>
+    <row r="596" spans="7:8">
+      <c r="G596" s="52"/>
+      <c r="H596" s="22"/>
+    </row>
+    <row r="597" spans="7:8">
+      <c r="G597" s="52"/>
+      <c r="H597" s="22"/>
+    </row>
+    <row r="598" spans="7:8">
+      <c r="G598" s="52"/>
+      <c r="H598" s="22"/>
+    </row>
+    <row r="599" spans="7:8">
+      <c r="G599" s="52"/>
+      <c r="H599" s="22"/>
+    </row>
+    <row r="600" spans="7:8">
+      <c r="G600" s="1"/>
+      <c r="H600" s="22"/>
+    </row>
+    <row r="601" spans="7:8">
+      <c r="G601" s="52"/>
+      <c r="H601" s="22"/>
+    </row>
+    <row r="602" spans="7:8">
+      <c r="G602" s="1"/>
+      <c r="H602" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>DI MAURO SALVATORE</t>
+  </si>
+  <si>
+    <t>LA ROCCA STEFANO</t>
   </si>
 </sst>
 </file>
@@ -748,11 +751,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U602"/>
+  <dimension ref="A1:U605"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A560" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D587" sqref="D587"/>
+      <pane ySplit="1" topLeftCell="A572" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C598" sqref="C598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -761,9 +764,8 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1"/>
+    <col min="6" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" customWidth="1"/>
     <col min="9" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -9613,7 +9615,9 @@
       <c r="C579" s="9">
         <v>1</v>
       </c>
-      <c r="D579" s="2"/>
+      <c r="D579" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="580" spans="1:8">
       <c r="A580" s="7">
@@ -9625,7 +9629,11 @@
       <c r="C580" s="9">
         <v>1</v>
       </c>
-      <c r="D580" s="2"/>
+      <c r="D580" s="2">
+        <v>1</v>
+      </c>
+      <c r="G580" s="1"/>
+      <c r="H580" s="22"/>
     </row>
     <row r="581" spans="1:8">
       <c r="A581" s="7">
@@ -9637,8 +9645,12 @@
       <c r="C581" s="9">
         <v>7</v>
       </c>
-      <c r="D581" s="2"/>
+      <c r="D581" s="2">
+        <v>7</v>
+      </c>
       <c r="F581" s="1"/>
+      <c r="G581" s="1"/>
+      <c r="H581" s="22"/>
     </row>
     <row r="582" spans="1:8">
       <c r="A582" s="7">
@@ -9650,7 +9662,9 @@
       <c r="C582" s="9">
         <v>8</v>
       </c>
-      <c r="D582" s="2"/>
+      <c r="D582" s="2">
+        <v>1</v>
+      </c>
       <c r="F582" s="1"/>
       <c r="G582" s="1"/>
       <c r="H582" s="22"/>
@@ -9665,7 +9679,9 @@
       <c r="C583" s="9">
         <v>8</v>
       </c>
-      <c r="D583" s="2"/>
+      <c r="D583" s="2">
+        <v>1</v>
+      </c>
       <c r="F583" s="1"/>
       <c r="G583" s="1"/>
       <c r="H583" s="22"/>
@@ -9680,9 +9696,11 @@
       <c r="C584" s="9">
         <v>2</v>
       </c>
-      <c r="D584" s="2"/>
+      <c r="D584" s="2">
+        <v>1</v>
+      </c>
       <c r="F584" s="1"/>
-      <c r="G584" s="52"/>
+      <c r="G584" s="1"/>
       <c r="H584" s="22"/>
     </row>
     <row r="585" spans="1:8">
@@ -9695,9 +9713,11 @@
       <c r="C585" s="9">
         <v>2</v>
       </c>
-      <c r="D585" s="2"/>
+      <c r="D585" s="2">
+        <v>1</v>
+      </c>
       <c r="F585" s="1"/>
-      <c r="G585" s="52"/>
+      <c r="G585" s="1"/>
       <c r="H585" s="22"/>
     </row>
     <row r="586" spans="1:8">
@@ -9710,77 +9730,275 @@
       <c r="C586" s="9">
         <v>13</v>
       </c>
-      <c r="D586" s="2"/>
+      <c r="D586" s="2">
+        <v>8</v>
+      </c>
       <c r="F586" s="1"/>
-      <c r="G586" s="52"/>
+      <c r="G586" s="1"/>
       <c r="H586" s="22"/>
     </row>
     <row r="587" spans="1:8">
+      <c r="A587" s="7">
+        <v>45975</v>
+      </c>
+      <c r="B587" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C587" s="2">
+        <v>0</v>
+      </c>
+      <c r="D587" s="6">
+        <v>2</v>
+      </c>
       <c r="F587" s="1"/>
-      <c r="G587" s="52"/>
+      <c r="G587" s="1"/>
       <c r="H587" s="22"/>
     </row>
     <row r="588" spans="1:8">
+      <c r="A588" s="7">
+        <v>45975</v>
+      </c>
+      <c r="B588" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C588" s="2">
+        <v>0</v>
+      </c>
+      <c r="D588" s="2">
+        <v>2</v>
+      </c>
       <c r="F588" s="1"/>
-      <c r="G588" s="52"/>
+      <c r="G588" s="1"/>
       <c r="H588" s="22"/>
     </row>
     <row r="589" spans="1:8">
+      <c r="A589" s="7">
+        <v>45976</v>
+      </c>
+      <c r="B589" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C589" s="6">
+        <v>9</v>
+      </c>
+      <c r="D589" s="2">
+        <v>2</v>
+      </c>
       <c r="F589" s="1"/>
-      <c r="G589" s="1"/>
-      <c r="H589" s="22"/>
     </row>
     <row r="590" spans="1:8">
-      <c r="G590" s="52"/>
-      <c r="H590" s="22"/>
+      <c r="A590" s="7">
+        <v>45976</v>
+      </c>
+      <c r="B590" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C590" s="6">
+        <v>9</v>
+      </c>
+      <c r="D590" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="591" spans="1:8">
-      <c r="G591" s="52"/>
-      <c r="H591" s="22"/>
+      <c r="A591" s="7">
+        <v>45976</v>
+      </c>
+      <c r="B591" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C591" s="6">
+        <v>6</v>
+      </c>
+      <c r="D591" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="592" spans="1:8">
-      <c r="G592" s="52"/>
-      <c r="H592" s="22"/>
-    </row>
-    <row r="593" spans="7:8">
-      <c r="G593" s="52"/>
-      <c r="H593" s="22"/>
-    </row>
-    <row r="594" spans="7:8">
-      <c r="G594" s="1"/>
-      <c r="H594" s="22"/>
-    </row>
-    <row r="595" spans="7:8">
-      <c r="G595" s="52"/>
-      <c r="H595" s="22"/>
-    </row>
-    <row r="596" spans="7:8">
-      <c r="G596" s="52"/>
-      <c r="H596" s="22"/>
-    </row>
-    <row r="597" spans="7:8">
+      <c r="A592" s="7">
+        <v>45976</v>
+      </c>
+      <c r="B592" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C592" s="6">
+        <v>6</v>
+      </c>
+      <c r="D592" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8">
+      <c r="A593" s="7">
+        <v>45976</v>
+      </c>
+      <c r="B593" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C593" s="6">
+        <v>6</v>
+      </c>
+      <c r="D593" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8">
+      <c r="A594" s="7">
+        <v>45976</v>
+      </c>
+      <c r="B594" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C594" s="6">
+        <v>6</v>
+      </c>
+      <c r="D594" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8">
+      <c r="A595" s="7">
+        <v>45977</v>
+      </c>
+      <c r="B595" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C595" s="6">
+        <v>7</v>
+      </c>
+      <c r="D595" s="2"/>
+    </row>
+    <row r="596" spans="1:8">
+      <c r="A596" s="7">
+        <v>45977</v>
+      </c>
+      <c r="B596" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C596" s="6">
+        <v>7</v>
+      </c>
+      <c r="D596" s="2"/>
+    </row>
+    <row r="597" spans="1:8">
+      <c r="A597" s="7">
+        <v>45977</v>
+      </c>
+      <c r="B597" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C597" s="6">
+        <v>4</v>
+      </c>
+      <c r="D597" s="2"/>
       <c r="G597" s="52"/>
       <c r="H597" s="22"/>
     </row>
-    <row r="598" spans="7:8">
+    <row r="598" spans="1:8">
+      <c r="A598" s="7">
+        <v>45977</v>
+      </c>
+      <c r="B598" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C598" s="6">
+        <v>4</v>
+      </c>
+      <c r="D598" s="2"/>
       <c r="G598" s="52"/>
       <c r="H598" s="22"/>
     </row>
-    <row r="599" spans="7:8">
+    <row r="599" spans="1:8">
+      <c r="A599" s="7">
+        <v>45977</v>
+      </c>
+      <c r="B599" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C599" s="6">
+        <v>1</v>
+      </c>
+      <c r="D599" s="2"/>
       <c r="G599" s="52"/>
       <c r="H599" s="22"/>
     </row>
-    <row r="600" spans="7:8">
+    <row r="600" spans="1:8">
+      <c r="A600" s="7">
+        <v>45977</v>
+      </c>
+      <c r="B600" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C600" s="6">
+        <v>1</v>
+      </c>
+      <c r="D600" s="2"/>
       <c r="G600" s="1"/>
       <c r="H600" s="22"/>
     </row>
-    <row r="601" spans="7:8">
+    <row r="601" spans="1:8">
+      <c r="A601" s="7">
+        <v>45977</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C601" s="6">
+        <v>7</v>
+      </c>
+      <c r="D601" s="2"/>
       <c r="G601" s="52"/>
       <c r="H601" s="22"/>
     </row>
-    <row r="602" spans="7:8">
+    <row r="602" spans="1:8">
+      <c r="A602" s="7">
+        <v>45977</v>
+      </c>
+      <c r="B602" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C602" s="6">
+        <v>2</v>
+      </c>
+      <c r="D602" s="2"/>
       <c r="G602" s="1"/>
       <c r="H602" s="22"/>
+    </row>
+    <row r="603" spans="1:8">
+      <c r="A603" s="7">
+        <v>45977</v>
+      </c>
+      <c r="B603" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C603" s="6">
+        <v>2</v>
+      </c>
+      <c r="D603" s="2"/>
+    </row>
+    <row r="604" spans="1:8">
+      <c r="A604" s="7">
+        <v>45977</v>
+      </c>
+      <c r="B604" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C604" s="6">
+        <v>4</v>
+      </c>
+      <c r="D604" s="2"/>
+    </row>
+    <row r="605" spans="1:8">
+      <c r="A605" s="7">
+        <v>45977</v>
+      </c>
+      <c r="B605" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C605" s="6">
+        <v>4</v>
+      </c>
+      <c r="D605" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -323,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -456,6 +456,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -751,11 +752,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U605"/>
+  <dimension ref="A1:U616"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A572" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C598" sqref="C598"/>
+      <pane ySplit="1" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A616" sqref="A616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9858,7 +9859,7 @@
     </row>
     <row r="595" spans="1:8">
       <c r="A595" s="7">
-        <v>45977</v>
+        <v>45978</v>
       </c>
       <c r="B595" s="29" t="s">
         <v>18</v>
@@ -9866,11 +9867,13 @@
       <c r="C595" s="6">
         <v>7</v>
       </c>
-      <c r="D595" s="2"/>
+      <c r="D595" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="596" spans="1:8">
       <c r="A596" s="7">
-        <v>45977</v>
+        <v>45978</v>
       </c>
       <c r="B596" s="29" t="s">
         <v>8</v>
@@ -9878,11 +9881,13 @@
       <c r="C596" s="6">
         <v>7</v>
       </c>
-      <c r="D596" s="2"/>
+      <c r="D596" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="597" spans="1:8">
       <c r="A597" s="7">
-        <v>45977</v>
+        <v>45978</v>
       </c>
       <c r="B597" s="65" t="s">
         <v>7</v>
@@ -9890,13 +9895,15 @@
       <c r="C597" s="6">
         <v>4</v>
       </c>
-      <c r="D597" s="2"/>
+      <c r="D597" s="2">
+        <v>1</v>
+      </c>
       <c r="G597" s="52"/>
       <c r="H597" s="22"/>
     </row>
     <row r="598" spans="1:8">
       <c r="A598" s="7">
-        <v>45977</v>
+        <v>45978</v>
       </c>
       <c r="B598" s="65" t="s">
         <v>11</v>
@@ -9904,13 +9911,15 @@
       <c r="C598" s="6">
         <v>4</v>
       </c>
-      <c r="D598" s="2"/>
+      <c r="D598" s="2">
+        <v>1</v>
+      </c>
       <c r="G598" s="52"/>
       <c r="H598" s="22"/>
     </row>
     <row r="599" spans="1:8">
       <c r="A599" s="7">
-        <v>45977</v>
+        <v>45978</v>
       </c>
       <c r="B599" s="59" t="s">
         <v>3</v>
@@ -9918,13 +9927,15 @@
       <c r="C599" s="6">
         <v>1</v>
       </c>
-      <c r="D599" s="2"/>
+      <c r="D599" s="2">
+        <v>1</v>
+      </c>
       <c r="G599" s="52"/>
       <c r="H599" s="22"/>
     </row>
     <row r="600" spans="1:8">
       <c r="A600" s="7">
-        <v>45977</v>
+        <v>45978</v>
       </c>
       <c r="B600" s="59" t="s">
         <v>13</v>
@@ -9932,13 +9943,15 @@
       <c r="C600" s="6">
         <v>1</v>
       </c>
-      <c r="D600" s="2"/>
+      <c r="D600" s="2">
+        <v>1</v>
+      </c>
       <c r="G600" s="1"/>
       <c r="H600" s="22"/>
     </row>
     <row r="601" spans="1:8">
       <c r="A601" s="7">
-        <v>45977</v>
+        <v>45978</v>
       </c>
       <c r="B601" s="2" t="s">
         <v>6</v>
@@ -9946,13 +9959,13 @@
       <c r="C601" s="6">
         <v>7</v>
       </c>
-      <c r="D601" s="2"/>
-      <c r="G601" s="52"/>
-      <c r="H601" s="22"/>
+      <c r="D601" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="602" spans="1:8">
       <c r="A602" s="7">
-        <v>45977</v>
+        <v>45978</v>
       </c>
       <c r="B602" s="57" t="s">
         <v>16</v>
@@ -9960,13 +9973,15 @@
       <c r="C602" s="6">
         <v>2</v>
       </c>
-      <c r="D602" s="2"/>
+      <c r="D602" s="2">
+        <v>3</v>
+      </c>
       <c r="G602" s="1"/>
       <c r="H602" s="22"/>
     </row>
     <row r="603" spans="1:8">
       <c r="A603" s="7">
-        <v>45977</v>
+        <v>45978</v>
       </c>
       <c r="B603" s="57" t="s">
         <v>10</v>
@@ -9974,11 +9989,15 @@
       <c r="C603" s="6">
         <v>2</v>
       </c>
-      <c r="D603" s="2"/>
+      <c r="D603" s="2">
+        <v>3</v>
+      </c>
+      <c r="G603" s="1"/>
+      <c r="H603" s="22"/>
     </row>
     <row r="604" spans="1:8">
       <c r="A604" s="7">
-        <v>45977</v>
+        <v>45978</v>
       </c>
       <c r="B604" s="30" t="s">
         <v>12</v>
@@ -9986,11 +10005,15 @@
       <c r="C604" s="6">
         <v>4</v>
       </c>
-      <c r="D604" s="2"/>
+      <c r="D604" s="2">
+        <v>3</v>
+      </c>
+      <c r="G604" s="1"/>
+      <c r="H604" s="22"/>
     </row>
     <row r="605" spans="1:8">
       <c r="A605" s="7">
-        <v>45977</v>
+        <v>45978</v>
       </c>
       <c r="B605" s="30" t="s">
         <v>9</v>
@@ -9998,7 +10021,124 @@
       <c r="C605" s="6">
         <v>4</v>
       </c>
-      <c r="D605" s="2"/>
+      <c r="D605" s="2">
+        <v>3</v>
+      </c>
+      <c r="G605" s="1"/>
+      <c r="H605" s="22"/>
+    </row>
+    <row r="606" spans="1:8">
+      <c r="A606" s="7">
+        <v>45979</v>
+      </c>
+      <c r="B606" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C606" s="6">
+        <v>2</v>
+      </c>
+      <c r="D606" s="2"/>
+      <c r="G606" s="1"/>
+      <c r="H606" s="22"/>
+    </row>
+    <row r="607" spans="1:8">
+      <c r="A607" s="7">
+        <v>45979</v>
+      </c>
+      <c r="B607" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C607" s="2">
+        <v>2</v>
+      </c>
+      <c r="D607" s="2"/>
+      <c r="G607" s="1"/>
+      <c r="H607" s="22"/>
+    </row>
+    <row r="608" spans="1:8">
+      <c r="A608" s="7">
+        <v>45979</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C608" s="2">
+        <v>4</v>
+      </c>
+      <c r="D608" s="2"/>
+      <c r="G608" s="1"/>
+      <c r="H608" s="22"/>
+    </row>
+    <row r="609" spans="1:8">
+      <c r="A609" s="7">
+        <v>45979</v>
+      </c>
+      <c r="B609" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C609" s="2">
+        <v>6</v>
+      </c>
+      <c r="D609" s="2"/>
+      <c r="G609" s="1"/>
+      <c r="H609" s="22"/>
+    </row>
+    <row r="610" spans="1:8">
+      <c r="A610" s="7">
+        <v>45979</v>
+      </c>
+      <c r="B610" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C610" s="2">
+        <v>6</v>
+      </c>
+      <c r="D610" s="2"/>
+    </row>
+    <row r="611" spans="1:8">
+      <c r="A611" s="7">
+        <v>45979</v>
+      </c>
+      <c r="B611" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C611" s="2">
+        <v>1</v>
+      </c>
+      <c r="D611" s="2"/>
+    </row>
+    <row r="612" spans="1:8">
+      <c r="A612" s="7">
+        <v>45979</v>
+      </c>
+      <c r="B612" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C612" s="2">
+        <v>1</v>
+      </c>
+      <c r="D612" s="2"/>
+    </row>
+    <row r="613" spans="1:8">
+      <c r="A613" s="7">
+        <v>45979</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C613" s="2">
+        <v>3</v>
+      </c>
+      <c r="D613" s="2"/>
+    </row>
+    <row r="614" spans="1:8">
+      <c r="A614" s="66"/>
+    </row>
+    <row r="615" spans="1:8">
+      <c r="A615" s="66"/>
+    </row>
+    <row r="616" spans="1:8">
+      <c r="A616" s="66"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -456,7 +456,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -752,11 +752,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U616"/>
+  <dimension ref="A1:U623"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A616" sqref="A616"/>
+      <pane ySplit="1" topLeftCell="A587" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B597" sqref="B597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -765,7 +765,8 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="7" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
     <col min="8" max="8" width="29.42578125" customWidth="1"/>
     <col min="9" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -10037,9 +10038,9 @@
       <c r="C606" s="6">
         <v>2</v>
       </c>
-      <c r="D606" s="2"/>
-      <c r="G606" s="1"/>
-      <c r="H606" s="22"/>
+      <c r="D606" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="607" spans="1:8">
       <c r="A607" s="7">
@@ -10051,7 +10052,9 @@
       <c r="C607" s="2">
         <v>2</v>
       </c>
-      <c r="D607" s="2"/>
+      <c r="D607" s="2">
+        <v>3</v>
+      </c>
       <c r="G607" s="1"/>
       <c r="H607" s="22"/>
     </row>
@@ -10065,7 +10068,9 @@
       <c r="C608" s="2">
         <v>4</v>
       </c>
-      <c r="D608" s="2"/>
+      <c r="D608" s="2">
+        <v>0</v>
+      </c>
       <c r="G608" s="1"/>
       <c r="H608" s="22"/>
     </row>
@@ -10079,7 +10084,9 @@
       <c r="C609" s="2">
         <v>6</v>
       </c>
-      <c r="D609" s="2"/>
+      <c r="D609" s="2">
+        <v>4</v>
+      </c>
       <c r="G609" s="1"/>
       <c r="H609" s="22"/>
     </row>
@@ -10093,7 +10100,11 @@
       <c r="C610" s="2">
         <v>6</v>
       </c>
-      <c r="D610" s="2"/>
+      <c r="D610" s="2">
+        <v>4</v>
+      </c>
+      <c r="G610" s="1"/>
+      <c r="H610" s="22"/>
     </row>
     <row r="611" spans="1:8">
       <c r="A611" s="7">
@@ -10105,7 +10116,11 @@
       <c r="C611" s="2">
         <v>1</v>
       </c>
-      <c r="D611" s="2"/>
+      <c r="D611" s="2">
+        <v>0</v>
+      </c>
+      <c r="G611" s="1"/>
+      <c r="H611" s="22"/>
     </row>
     <row r="612" spans="1:8">
       <c r="A612" s="7">
@@ -10117,7 +10132,11 @@
       <c r="C612" s="2">
         <v>1</v>
       </c>
-      <c r="D612" s="2"/>
+      <c r="D612" s="2">
+        <v>0</v>
+      </c>
+      <c r="G612" s="1"/>
+      <c r="H612" s="22"/>
     </row>
     <row r="613" spans="1:8">
       <c r="A613" s="7">
@@ -10129,16 +10148,133 @@
       <c r="C613" s="2">
         <v>3</v>
       </c>
-      <c r="D613" s="2"/>
+      <c r="D613" s="2">
+        <v>1</v>
+      </c>
+      <c r="G613" s="1"/>
+      <c r="H613" s="22"/>
     </row>
     <row r="614" spans="1:8">
-      <c r="A614" s="66"/>
+      <c r="A614" s="7">
+        <v>45979</v>
+      </c>
+      <c r="B614" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C614" s="6">
+        <v>0</v>
+      </c>
+      <c r="D614" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="615" spans="1:8">
-      <c r="A615" s="66"/>
+      <c r="A615" s="7">
+        <v>45980</v>
+      </c>
+      <c r="B615" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C615" s="6">
+        <v>9</v>
+      </c>
+      <c r="D615" s="2"/>
     </row>
     <row r="616" spans="1:8">
-      <c r="A616" s="66"/>
+      <c r="A616" s="7">
+        <v>45980</v>
+      </c>
+      <c r="B616" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C616" s="6">
+        <v>9</v>
+      </c>
+      <c r="D616" s="2"/>
+    </row>
+    <row r="617" spans="1:8">
+      <c r="A617" s="7">
+        <v>45980</v>
+      </c>
+      <c r="B617" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C617" s="6">
+        <v>5</v>
+      </c>
+      <c r="D617" s="2"/>
+    </row>
+    <row r="618" spans="1:8">
+      <c r="A618" s="7">
+        <v>45980</v>
+      </c>
+      <c r="B618" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C618" s="6">
+        <v>5</v>
+      </c>
+      <c r="D618" s="2"/>
+    </row>
+    <row r="619" spans="1:8">
+      <c r="A619" s="7">
+        <v>45980</v>
+      </c>
+      <c r="B619" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C619" s="6">
+        <v>5</v>
+      </c>
+      <c r="D619" s="2"/>
+    </row>
+    <row r="620" spans="1:8">
+      <c r="A620" s="7">
+        <v>45980</v>
+      </c>
+      <c r="B620" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C620" s="6">
+        <v>5</v>
+      </c>
+      <c r="D620" s="2"/>
+    </row>
+    <row r="621" spans="1:8">
+      <c r="A621" s="7">
+        <v>45980</v>
+      </c>
+      <c r="B621" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C621" s="6">
+        <v>4</v>
+      </c>
+      <c r="D621" s="2"/>
+    </row>
+    <row r="622" spans="1:8">
+      <c r="A622" s="7">
+        <v>45980</v>
+      </c>
+      <c r="B622" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C622" s="6">
+        <v>4</v>
+      </c>
+      <c r="D622" s="2"/>
+    </row>
+    <row r="623" spans="1:8">
+      <c r="A623" s="7">
+        <v>45980</v>
+      </c>
+      <c r="B623" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C623" s="6">
+        <v>1</v>
+      </c>
+      <c r="D623" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -752,11 +752,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U623"/>
+  <dimension ref="A1:U632"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A587" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B597" sqref="B597"/>
+      <pane ySplit="1" topLeftCell="A599" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C611" sqref="C611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -765,8 +765,7 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="6" max="7" width="22.42578125" customWidth="1"/>
     <col min="8" max="8" width="29.42578125" customWidth="1"/>
     <col min="9" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -10178,7 +10177,9 @@
       <c r="C615" s="6">
         <v>9</v>
       </c>
-      <c r="D615" s="2"/>
+      <c r="D615" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="616" spans="1:8">
       <c r="A616" s="7">
@@ -10190,7 +10191,9 @@
       <c r="C616" s="6">
         <v>9</v>
       </c>
-      <c r="D616" s="2"/>
+      <c r="D616" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="617" spans="1:8">
       <c r="A617" s="7">
@@ -10202,7 +10205,11 @@
       <c r="C617" s="6">
         <v>5</v>
       </c>
-      <c r="D617" s="2"/>
+      <c r="D617" s="2">
+        <v>2</v>
+      </c>
+      <c r="G617" s="1"/>
+      <c r="H617" s="22"/>
     </row>
     <row r="618" spans="1:8">
       <c r="A618" s="7">
@@ -10214,7 +10221,11 @@
       <c r="C618" s="6">
         <v>5</v>
       </c>
-      <c r="D618" s="2"/>
+      <c r="D618" s="2">
+        <v>2</v>
+      </c>
+      <c r="G618" s="1"/>
+      <c r="H618" s="22"/>
     </row>
     <row r="619" spans="1:8">
       <c r="A619" s="7">
@@ -10226,7 +10237,11 @@
       <c r="C619" s="6">
         <v>5</v>
       </c>
-      <c r="D619" s="2"/>
+      <c r="D619" s="2">
+        <v>4</v>
+      </c>
+      <c r="G619" s="1"/>
+      <c r="H619" s="22"/>
     </row>
     <row r="620" spans="1:8">
       <c r="A620" s="7">
@@ -10238,7 +10253,11 @@
       <c r="C620" s="6">
         <v>5</v>
       </c>
-      <c r="D620" s="2"/>
+      <c r="D620" s="2">
+        <v>4</v>
+      </c>
+      <c r="G620" s="1"/>
+      <c r="H620" s="22"/>
     </row>
     <row r="621" spans="1:8">
       <c r="A621" s="7">
@@ -10250,7 +10269,11 @@
       <c r="C621" s="6">
         <v>4</v>
       </c>
-      <c r="D621" s="2"/>
+      <c r="D621" s="2">
+        <v>0</v>
+      </c>
+      <c r="G621" s="1"/>
+      <c r="H621" s="22"/>
     </row>
     <row r="622" spans="1:8">
       <c r="A622" s="7">
@@ -10262,7 +10285,11 @@
       <c r="C622" s="6">
         <v>4</v>
       </c>
-      <c r="D622" s="2"/>
+      <c r="D622" s="2">
+        <v>0</v>
+      </c>
+      <c r="G622" s="1"/>
+      <c r="H622" s="22"/>
     </row>
     <row r="623" spans="1:8">
       <c r="A623" s="7">
@@ -10274,7 +10301,113 @@
       <c r="C623" s="6">
         <v>1</v>
       </c>
-      <c r="D623" s="2"/>
+      <c r="D623" s="2">
+        <v>3</v>
+      </c>
+      <c r="G623" s="1"/>
+      <c r="H623" s="22"/>
+    </row>
+    <row r="624" spans="1:8">
+      <c r="A624" s="7">
+        <v>45981</v>
+      </c>
+      <c r="B624" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C624" s="6">
+        <v>2</v>
+      </c>
+      <c r="D624" s="2"/>
+    </row>
+    <row r="625" spans="1:4">
+      <c r="A625" s="7">
+        <v>45981</v>
+      </c>
+      <c r="B625" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C625" s="6">
+        <v>2</v>
+      </c>
+      <c r="D625" s="2"/>
+    </row>
+    <row r="626" spans="1:4">
+      <c r="A626" s="7">
+        <v>45981</v>
+      </c>
+      <c r="B626" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C626" s="6">
+        <v>5</v>
+      </c>
+      <c r="D626" s="2"/>
+    </row>
+    <row r="627" spans="1:4">
+      <c r="A627" s="7">
+        <v>45981</v>
+      </c>
+      <c r="B627" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C627" s="6">
+        <v>5</v>
+      </c>
+      <c r="D627" s="2"/>
+    </row>
+    <row r="628" spans="1:4">
+      <c r="A628" s="7">
+        <v>45981</v>
+      </c>
+      <c r="B628" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C628" s="6">
+        <v>5</v>
+      </c>
+      <c r="D628" s="2"/>
+    </row>
+    <row r="629" spans="1:4">
+      <c r="A629" s="7">
+        <v>45981</v>
+      </c>
+      <c r="B629" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C629" s="6">
+        <v>1</v>
+      </c>
+      <c r="D629" s="2"/>
+    </row>
+    <row r="630" spans="1:4">
+      <c r="A630" s="7">
+        <v>45981</v>
+      </c>
+      <c r="B630" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C630" s="6">
+        <v>1</v>
+      </c>
+      <c r="D630" s="2"/>
+    </row>
+    <row r="631" spans="1:4">
+      <c r="A631" s="7">
+        <v>45981</v>
+      </c>
+      <c r="B631" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C631" s="6">
+        <v>7</v>
+      </c>
+      <c r="D631" s="2"/>
+    </row>
+    <row r="632" spans="1:4">
+      <c r="A632" s="2"/>
+      <c r="B632" s="2"/>
+      <c r="C632" s="2"/>
+      <c r="D632" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -286,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -318,12 +318,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -457,6 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -752,11 +766,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U632"/>
+  <dimension ref="A1:U642"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A599" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C611" sqref="C611"/>
+      <pane ySplit="1" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D642" sqref="D642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10317,9 +10331,11 @@
       <c r="C624" s="6">
         <v>2</v>
       </c>
-      <c r="D624" s="2"/>
-    </row>
-    <row r="625" spans="1:4">
+      <c r="D624" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8">
       <c r="A625" s="7">
         <v>45981</v>
       </c>
@@ -10329,9 +10345,13 @@
       <c r="C625" s="6">
         <v>2</v>
       </c>
-      <c r="D625" s="2"/>
-    </row>
-    <row r="626" spans="1:4">
+      <c r="D625" s="2">
+        <v>0</v>
+      </c>
+      <c r="G625" s="1"/>
+      <c r="H625" s="22"/>
+    </row>
+    <row r="626" spans="1:8">
       <c r="A626" s="7">
         <v>45981</v>
       </c>
@@ -10341,9 +10361,13 @@
       <c r="C626" s="6">
         <v>5</v>
       </c>
-      <c r="D626" s="2"/>
-    </row>
-    <row r="627" spans="1:4">
+      <c r="D626" s="2">
+        <v>6</v>
+      </c>
+      <c r="G626" s="1"/>
+      <c r="H626" s="22"/>
+    </row>
+    <row r="627" spans="1:8">
       <c r="A627" s="7">
         <v>45981</v>
       </c>
@@ -10353,9 +10377,13 @@
       <c r="C627" s="6">
         <v>5</v>
       </c>
-      <c r="D627" s="2"/>
-    </row>
-    <row r="628" spans="1:4">
+      <c r="D627" s="2">
+        <v>6</v>
+      </c>
+      <c r="G627" s="1"/>
+      <c r="H627" s="22"/>
+    </row>
+    <row r="628" spans="1:8">
       <c r="A628" s="7">
         <v>45981</v>
       </c>
@@ -10365,9 +10393,13 @@
       <c r="C628" s="6">
         <v>5</v>
       </c>
-      <c r="D628" s="2"/>
-    </row>
-    <row r="629" spans="1:4">
+      <c r="D628" s="2">
+        <v>6</v>
+      </c>
+      <c r="G628" s="1"/>
+      <c r="H628" s="22"/>
+    </row>
+    <row r="629" spans="1:8">
       <c r="A629" s="7">
         <v>45981</v>
       </c>
@@ -10377,9 +10409,13 @@
       <c r="C629" s="6">
         <v>1</v>
       </c>
-      <c r="D629" s="2"/>
-    </row>
-    <row r="630" spans="1:4">
+      <c r="D629" s="2">
+        <v>4</v>
+      </c>
+      <c r="G629" s="1"/>
+      <c r="H629" s="22"/>
+    </row>
+    <row r="630" spans="1:8">
       <c r="A630" s="7">
         <v>45981</v>
       </c>
@@ -10389,9 +10425,13 @@
       <c r="C630" s="6">
         <v>1</v>
       </c>
-      <c r="D630" s="2"/>
-    </row>
-    <row r="631" spans="1:4">
+      <c r="D630" s="2">
+        <v>4</v>
+      </c>
+      <c r="G630" s="1"/>
+      <c r="H630" s="22"/>
+    </row>
+    <row r="631" spans="1:8">
       <c r="A631" s="7">
         <v>45981</v>
       </c>
@@ -10401,13 +10441,123 @@
       <c r="C631" s="6">
         <v>7</v>
       </c>
-      <c r="D631" s="2"/>
-    </row>
-    <row r="632" spans="1:4">
-      <c r="A632" s="2"/>
-      <c r="B632" s="2"/>
-      <c r="C632" s="2"/>
+      <c r="D631" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8">
+      <c r="A632" s="7">
+        <v>45982</v>
+      </c>
+      <c r="B632" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C632" s="2">
+        <v>1</v>
+      </c>
       <c r="D632" s="2"/>
+    </row>
+    <row r="633" spans="1:8">
+      <c r="A633" s="7">
+        <v>45982</v>
+      </c>
+      <c r="B633" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C633" s="6">
+        <v>1</v>
+      </c>
+      <c r="D633" s="2"/>
+    </row>
+    <row r="634" spans="1:8">
+      <c r="A634" s="7">
+        <v>45982</v>
+      </c>
+      <c r="B634" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C634" s="6">
+        <v>5</v>
+      </c>
+      <c r="D634" s="2"/>
+    </row>
+    <row r="635" spans="1:8">
+      <c r="A635" s="7">
+        <v>45982</v>
+      </c>
+      <c r="B635" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C635" s="6">
+        <v>5</v>
+      </c>
+      <c r="D635" s="2"/>
+    </row>
+    <row r="636" spans="1:8">
+      <c r="A636" s="7">
+        <v>45982</v>
+      </c>
+      <c r="B636" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C636" s="6">
+        <v>2</v>
+      </c>
+      <c r="D636" s="2"/>
+    </row>
+    <row r="637" spans="1:8">
+      <c r="A637" s="7">
+        <v>45982</v>
+      </c>
+      <c r="B637" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C637" s="6">
+        <v>2</v>
+      </c>
+      <c r="D637" s="2"/>
+    </row>
+    <row r="638" spans="1:8">
+      <c r="A638" s="7">
+        <v>45982</v>
+      </c>
+      <c r="B638" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C638" s="6">
+        <v>3</v>
+      </c>
+      <c r="D638" s="2"/>
+    </row>
+    <row r="639" spans="1:8">
+      <c r="A639" s="7">
+        <v>45982</v>
+      </c>
+      <c r="B639" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C639" s="6">
+        <v>3</v>
+      </c>
+      <c r="D639" s="2"/>
+    </row>
+    <row r="640" spans="1:8">
+      <c r="A640" s="7">
+        <v>45982</v>
+      </c>
+      <c r="B640" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C640" s="6">
+        <v>1</v>
+      </c>
+      <c r="D640" s="2"/>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641" s="67"/>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -286,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -318,25 +318,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -470,7 +457,6 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -766,11 +752,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U642"/>
+  <dimension ref="A1:U656"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D642" sqref="D642"/>
+      <pane ySplit="1" topLeftCell="A622" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C634" sqref="C634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -779,7 +765,8 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="7" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
     <col min="8" max="8" width="29.42578125" customWidth="1"/>
     <col min="9" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -10455,7 +10442,9 @@
       <c r="C632" s="2">
         <v>1</v>
       </c>
-      <c r="D632" s="2"/>
+      <c r="D632" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="633" spans="1:8">
       <c r="A633" s="7">
@@ -10467,7 +10456,10 @@
       <c r="C633" s="6">
         <v>1</v>
       </c>
-      <c r="D633" s="2"/>
+      <c r="D633" s="2">
+        <v>0</v>
+      </c>
+      <c r="F633" s="1"/>
     </row>
     <row r="634" spans="1:8">
       <c r="A634" s="7">
@@ -10479,7 +10471,12 @@
       <c r="C634" s="6">
         <v>5</v>
       </c>
-      <c r="D634" s="2"/>
+      <c r="D634" s="2">
+        <v>9</v>
+      </c>
+      <c r="F634" s="1"/>
+      <c r="G634" s="1"/>
+      <c r="H634" s="22"/>
     </row>
     <row r="635" spans="1:8">
       <c r="A635" s="7">
@@ -10491,7 +10488,12 @@
       <c r="C635" s="6">
         <v>5</v>
       </c>
-      <c r="D635" s="2"/>
+      <c r="D635" s="2">
+        <v>9</v>
+      </c>
+      <c r="F635" s="1"/>
+      <c r="G635" s="52"/>
+      <c r="H635" s="22"/>
     </row>
     <row r="636" spans="1:8">
       <c r="A636" s="7">
@@ -10503,7 +10505,12 @@
       <c r="C636" s="6">
         <v>2</v>
       </c>
-      <c r="D636" s="2"/>
+      <c r="D636" s="2">
+        <v>0</v>
+      </c>
+      <c r="F636" s="1"/>
+      <c r="G636" s="52"/>
+      <c r="H636" s="22"/>
     </row>
     <row r="637" spans="1:8">
       <c r="A637" s="7">
@@ -10515,7 +10522,12 @@
       <c r="C637" s="6">
         <v>2</v>
       </c>
-      <c r="D637" s="2"/>
+      <c r="D637" s="2">
+        <v>0</v>
+      </c>
+      <c r="F637" s="1"/>
+      <c r="G637" s="1"/>
+      <c r="H637" s="22"/>
     </row>
     <row r="638" spans="1:8">
       <c r="A638" s="7">
@@ -10527,7 +10539,12 @@
       <c r="C638" s="6">
         <v>3</v>
       </c>
-      <c r="D638" s="2"/>
+      <c r="D638" s="2">
+        <v>0</v>
+      </c>
+      <c r="F638" s="1"/>
+      <c r="G638" s="52"/>
+      <c r="H638" s="22"/>
     </row>
     <row r="639" spans="1:8">
       <c r="A639" s="7">
@@ -10539,7 +10556,12 @@
       <c r="C639" s="6">
         <v>3</v>
       </c>
-      <c r="D639" s="2"/>
+      <c r="D639" s="2">
+        <v>0</v>
+      </c>
+      <c r="F639" s="1"/>
+      <c r="G639" s="52"/>
+      <c r="H639" s="22"/>
     </row>
     <row r="640" spans="1:8">
       <c r="A640" s="7">
@@ -10551,13 +10573,244 @@
       <c r="C640" s="6">
         <v>1</v>
       </c>
-      <c r="D640" s="2"/>
-    </row>
-    <row r="641" spans="1:1">
-      <c r="A641" s="67"/>
-    </row>
-    <row r="642" spans="1:1">
-      <c r="A642" s="7"/>
+      <c r="D640" s="2">
+        <v>0</v>
+      </c>
+      <c r="F640" s="1"/>
+      <c r="G640" s="52"/>
+      <c r="H640" s="22"/>
+    </row>
+    <row r="641" spans="1:8">
+      <c r="A641" s="7">
+        <v>45982</v>
+      </c>
+      <c r="B641" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C641" s="9">
+        <v>0</v>
+      </c>
+      <c r="D641" s="6">
+        <v>1</v>
+      </c>
+      <c r="F641" s="1"/>
+      <c r="G641" s="52"/>
+      <c r="H641" s="22"/>
+    </row>
+    <row r="642" spans="1:8">
+      <c r="A642" s="7">
+        <v>45982</v>
+      </c>
+      <c r="B642" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C642" s="9">
+        <v>0</v>
+      </c>
+      <c r="D642" s="6">
+        <v>1</v>
+      </c>
+      <c r="F642" s="1"/>
+      <c r="G642" s="1"/>
+      <c r="H642" s="22"/>
+    </row>
+    <row r="643" spans="1:8">
+      <c r="A643" s="7">
+        <v>45983</v>
+      </c>
+      <c r="B643" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C643" s="24">
+        <v>3</v>
+      </c>
+      <c r="D643" s="6">
+        <v>2</v>
+      </c>
+      <c r="F643" s="1"/>
+      <c r="G643" s="52"/>
+      <c r="H643" s="22"/>
+    </row>
+    <row r="644" spans="1:8">
+      <c r="A644" s="7">
+        <v>45983</v>
+      </c>
+      <c r="B644" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C644" s="2">
+        <v>3</v>
+      </c>
+      <c r="D644" s="6">
+        <v>2</v>
+      </c>
+      <c r="F644" s="1"/>
+      <c r="G644" s="1"/>
+      <c r="H644" s="22"/>
+    </row>
+    <row r="645" spans="1:8">
+      <c r="A645" s="7">
+        <v>45983</v>
+      </c>
+      <c r="B645" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C645" s="2">
+        <v>6</v>
+      </c>
+      <c r="D645" s="6">
+        <v>4</v>
+      </c>
+      <c r="F645" s="1"/>
+    </row>
+    <row r="646" spans="1:8">
+      <c r="A646" s="7">
+        <v>45983</v>
+      </c>
+      <c r="B646" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C646" s="2">
+        <v>6</v>
+      </c>
+      <c r="D646" s="2">
+        <v>4</v>
+      </c>
+      <c r="F646" s="1"/>
+    </row>
+    <row r="647" spans="1:8">
+      <c r="A647" s="7">
+        <v>45983</v>
+      </c>
+      <c r="B647" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C647" s="2">
+        <v>4</v>
+      </c>
+      <c r="D647" s="2">
+        <v>5</v>
+      </c>
+      <c r="F647" s="1"/>
+    </row>
+    <row r="648" spans="1:8">
+      <c r="A648" s="7">
+        <v>45983</v>
+      </c>
+      <c r="B648" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C648" s="2">
+        <v>4</v>
+      </c>
+      <c r="D648" s="2">
+        <v>4</v>
+      </c>
+      <c r="F648" s="1"/>
+    </row>
+    <row r="649" spans="1:8">
+      <c r="A649" s="7">
+        <v>45983</v>
+      </c>
+      <c r="B649" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C649" s="2">
+        <v>4</v>
+      </c>
+      <c r="D649" s="2">
+        <v>4</v>
+      </c>
+      <c r="F649" s="1"/>
+    </row>
+    <row r="650" spans="1:8">
+      <c r="A650" s="7">
+        <v>45985</v>
+      </c>
+      <c r="B650" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C650" s="6">
+        <v>1</v>
+      </c>
+      <c r="D650" s="2"/>
+      <c r="F650" s="1"/>
+    </row>
+    <row r="651" spans="1:8">
+      <c r="A651" s="7">
+        <v>45985</v>
+      </c>
+      <c r="B651" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C651" s="6">
+        <v>1</v>
+      </c>
+      <c r="D651" s="2"/>
+      <c r="F651" s="1"/>
+      <c r="G651" s="22"/>
+    </row>
+    <row r="652" spans="1:8">
+      <c r="A652" s="7">
+        <v>45985</v>
+      </c>
+      <c r="B652" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C652" s="6">
+        <v>3</v>
+      </c>
+      <c r="D652" s="2"/>
+      <c r="F652" s="1"/>
+      <c r="G652" s="22"/>
+    </row>
+    <row r="653" spans="1:8">
+      <c r="A653" s="7">
+        <v>45985</v>
+      </c>
+      <c r="B653" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C653" s="6">
+        <v>3</v>
+      </c>
+      <c r="D653" s="2"/>
+    </row>
+    <row r="654" spans="1:8">
+      <c r="A654" s="7">
+        <v>45985</v>
+      </c>
+      <c r="B654" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C654" s="2">
+        <v>1</v>
+      </c>
+      <c r="D654" s="2"/>
+    </row>
+    <row r="655" spans="1:8">
+      <c r="A655" s="7">
+        <v>45985</v>
+      </c>
+      <c r="B655" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C655" s="6">
+        <v>3</v>
+      </c>
+      <c r="D655" s="2"/>
+    </row>
+    <row r="656" spans="1:8">
+      <c r="A656" s="7">
+        <v>45985</v>
+      </c>
+      <c r="B656" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C656" s="6">
+        <v>3</v>
+      </c>
+      <c r="D656" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -286,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -318,12 +318,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -457,6 +494,11 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -752,11 +794,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U656"/>
+  <dimension ref="A1:U664"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A622" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C634" sqref="C634"/>
+      <pane ySplit="1" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D647" sqref="D647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -765,9 +807,8 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="8" width="29.42578125" customWidth="1"/>
     <col min="9" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -10733,7 +10774,9 @@
       <c r="C650" s="6">
         <v>1</v>
       </c>
-      <c r="D650" s="2"/>
+      <c r="D650" s="2">
+        <v>1</v>
+      </c>
       <c r="F650" s="1"/>
     </row>
     <row r="651" spans="1:8">
@@ -10746,7 +10789,9 @@
       <c r="C651" s="6">
         <v>1</v>
       </c>
-      <c r="D651" s="2"/>
+      <c r="D651" s="2">
+        <v>1</v>
+      </c>
       <c r="F651" s="1"/>
       <c r="G651" s="22"/>
     </row>
@@ -10760,9 +10805,9 @@
       <c r="C652" s="6">
         <v>3</v>
       </c>
-      <c r="D652" s="2"/>
-      <c r="F652" s="1"/>
-      <c r="G652" s="22"/>
+      <c r="D652" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="653" spans="1:8">
       <c r="A653" s="7">
@@ -10774,7 +10819,11 @@
       <c r="C653" s="6">
         <v>3</v>
       </c>
-      <c r="D653" s="2"/>
+      <c r="D653" s="2">
+        <v>1</v>
+      </c>
+      <c r="F653" s="1"/>
+      <c r="G653" s="22"/>
     </row>
     <row r="654" spans="1:8">
       <c r="A654" s="7">
@@ -10786,7 +10835,11 @@
       <c r="C654" s="2">
         <v>1</v>
       </c>
-      <c r="D654" s="2"/>
+      <c r="D654" s="2">
+        <v>3</v>
+      </c>
+      <c r="F654" s="1"/>
+      <c r="G654" s="22"/>
     </row>
     <row r="655" spans="1:8">
       <c r="A655" s="7">
@@ -10798,7 +10851,11 @@
       <c r="C655" s="6">
         <v>3</v>
       </c>
-      <c r="D655" s="2"/>
+      <c r="D655" s="2">
+        <v>2</v>
+      </c>
+      <c r="F655" s="1"/>
+      <c r="G655" s="22"/>
     </row>
     <row r="656" spans="1:8">
       <c r="A656" s="7">
@@ -10810,7 +10867,115 @@
       <c r="C656" s="6">
         <v>3</v>
       </c>
-      <c r="D656" s="2"/>
+      <c r="D656" s="2">
+        <v>2</v>
+      </c>
+      <c r="F656" s="1"/>
+      <c r="G656" s="22"/>
+    </row>
+    <row r="657" spans="1:7">
+      <c r="A657" s="67">
+        <v>45985</v>
+      </c>
+      <c r="B657" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C657" s="6">
+        <v>0</v>
+      </c>
+      <c r="D657" s="69">
+        <v>2</v>
+      </c>
+      <c r="F657" s="1"/>
+      <c r="G657" s="22"/>
+    </row>
+    <row r="658" spans="1:7">
+      <c r="A658" s="7">
+        <v>45986</v>
+      </c>
+      <c r="B658" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C658" s="6">
+        <v>2</v>
+      </c>
+      <c r="D658" s="2"/>
+      <c r="F658" s="1"/>
+      <c r="G658" s="22"/>
+    </row>
+    <row r="659" spans="1:7">
+      <c r="A659" s="7">
+        <v>45986</v>
+      </c>
+      <c r="B659" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C659" s="6">
+        <v>2</v>
+      </c>
+      <c r="D659" s="2"/>
+      <c r="F659" s="1"/>
+      <c r="G659" s="22"/>
+    </row>
+    <row r="660" spans="1:7">
+      <c r="A660" s="7">
+        <v>45986</v>
+      </c>
+      <c r="B660" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C660" s="6">
+        <v>4</v>
+      </c>
+      <c r="D660" s="2"/>
+    </row>
+    <row r="661" spans="1:7">
+      <c r="A661" s="7">
+        <v>45986</v>
+      </c>
+      <c r="B661" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C661" s="6">
+        <v>1</v>
+      </c>
+      <c r="D661" s="2"/>
+    </row>
+    <row r="662" spans="1:7">
+      <c r="A662" s="7">
+        <v>45986</v>
+      </c>
+      <c r="B662" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C662" s="6">
+        <v>1</v>
+      </c>
+      <c r="D662" s="2"/>
+    </row>
+    <row r="663" spans="1:7">
+      <c r="A663" s="7">
+        <v>45986</v>
+      </c>
+      <c r="B663" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C663" s="6">
+        <v>1</v>
+      </c>
+      <c r="D663" s="2"/>
+    </row>
+    <row r="664" spans="1:7">
+      <c r="A664" s="7">
+        <v>45986</v>
+      </c>
+      <c r="B664" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C664" s="2">
+        <v>1</v>
+      </c>
+      <c r="D664" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -794,11 +794,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U664"/>
+  <dimension ref="A1:U683"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D647" sqref="D647"/>
+      <pane ySplit="1" topLeftCell="A664" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H656" sqref="H656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -808,7 +808,8 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="8" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" customWidth="1"/>
     <col min="9" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -10763,6 +10764,8 @@
         <v>4</v>
       </c>
       <c r="F649" s="1"/>
+      <c r="G649" s="1"/>
+      <c r="H649" s="22"/>
     </row>
     <row r="650" spans="1:8">
       <c r="A650" s="7">
@@ -10778,6 +10781,8 @@
         <v>1</v>
       </c>
       <c r="F650" s="1"/>
+      <c r="G650" s="52"/>
+      <c r="H650" s="22"/>
     </row>
     <row r="651" spans="1:8">
       <c r="A651" s="7">
@@ -10793,7 +10798,8 @@
         <v>1</v>
       </c>
       <c r="F651" s="1"/>
-      <c r="G651" s="22"/>
+      <c r="G651" s="52"/>
+      <c r="H651" s="22"/>
     </row>
     <row r="652" spans="1:8">
       <c r="A652" s="7">
@@ -10808,6 +10814,8 @@
       <c r="D652" s="2">
         <v>1</v>
       </c>
+      <c r="G652" s="52"/>
+      <c r="H652" s="22"/>
     </row>
     <row r="653" spans="1:8">
       <c r="A653" s="7">
@@ -10823,7 +10831,8 @@
         <v>1</v>
       </c>
       <c r="F653" s="1"/>
-      <c r="G653" s="22"/>
+      <c r="G653" s="52"/>
+      <c r="H653" s="22"/>
     </row>
     <row r="654" spans="1:8">
       <c r="A654" s="7">
@@ -10839,7 +10848,8 @@
         <v>3</v>
       </c>
       <c r="F654" s="1"/>
-      <c r="G654" s="22"/>
+      <c r="G654" s="1"/>
+      <c r="H654" s="22"/>
     </row>
     <row r="655" spans="1:8">
       <c r="A655" s="7">
@@ -10855,7 +10865,8 @@
         <v>2</v>
       </c>
       <c r="F655" s="1"/>
-      <c r="G655" s="22"/>
+      <c r="G655" s="52"/>
+      <c r="H655" s="22"/>
     </row>
     <row r="656" spans="1:8">
       <c r="A656" s="7">
@@ -10871,9 +10882,10 @@
         <v>2</v>
       </c>
       <c r="F656" s="1"/>
-      <c r="G656" s="22"/>
-    </row>
-    <row r="657" spans="1:7">
+      <c r="G656" s="52"/>
+      <c r="H656" s="22"/>
+    </row>
+    <row r="657" spans="1:8">
       <c r="A657" s="67">
         <v>45985</v>
       </c>
@@ -10887,9 +10899,10 @@
         <v>2</v>
       </c>
       <c r="F657" s="1"/>
-      <c r="G657" s="22"/>
-    </row>
-    <row r="658" spans="1:7">
+      <c r="G657" s="52"/>
+      <c r="H657" s="22"/>
+    </row>
+    <row r="658" spans="1:8">
       <c r="A658" s="7">
         <v>45986</v>
       </c>
@@ -10899,11 +10912,14 @@
       <c r="C658" s="6">
         <v>2</v>
       </c>
-      <c r="D658" s="2"/>
+      <c r="D658" s="2">
+        <v>1</v>
+      </c>
       <c r="F658" s="1"/>
-      <c r="G658" s="22"/>
-    </row>
-    <row r="659" spans="1:7">
+      <c r="G658" s="52"/>
+      <c r="H658" s="22"/>
+    </row>
+    <row r="659" spans="1:8">
       <c r="A659" s="7">
         <v>45986</v>
       </c>
@@ -10913,11 +10929,14 @@
       <c r="C659" s="6">
         <v>2</v>
       </c>
-      <c r="D659" s="2"/>
+      <c r="D659" s="2">
+        <v>1</v>
+      </c>
       <c r="F659" s="1"/>
-      <c r="G659" s="22"/>
-    </row>
-    <row r="660" spans="1:7">
+      <c r="G659" s="52"/>
+      <c r="H659" s="22"/>
+    </row>
+    <row r="660" spans="1:8">
       <c r="A660" s="7">
         <v>45986</v>
       </c>
@@ -10927,9 +10946,13 @@
       <c r="C660" s="6">
         <v>4</v>
       </c>
-      <c r="D660" s="2"/>
-    </row>
-    <row r="661" spans="1:7">
+      <c r="D660" s="2">
+        <v>6</v>
+      </c>
+      <c r="G660" s="1"/>
+      <c r="H660" s="22"/>
+    </row>
+    <row r="661" spans="1:8">
       <c r="A661" s="7">
         <v>45986</v>
       </c>
@@ -10939,9 +10962,13 @@
       <c r="C661" s="6">
         <v>1</v>
       </c>
-      <c r="D661" s="2"/>
-    </row>
-    <row r="662" spans="1:7">
+      <c r="D661" s="2">
+        <v>0</v>
+      </c>
+      <c r="G661" s="52"/>
+      <c r="H661" s="22"/>
+    </row>
+    <row r="662" spans="1:8">
       <c r="A662" s="7">
         <v>45986</v>
       </c>
@@ -10951,9 +10978,13 @@
       <c r="C662" s="6">
         <v>1</v>
       </c>
-      <c r="D662" s="2"/>
-    </row>
-    <row r="663" spans="1:7">
+      <c r="D662" s="2">
+        <v>0</v>
+      </c>
+      <c r="G662" s="1"/>
+      <c r="H662" s="22"/>
+    </row>
+    <row r="663" spans="1:8">
       <c r="A663" s="7">
         <v>45986</v>
       </c>
@@ -10963,9 +10994,11 @@
       <c r="C663" s="6">
         <v>1</v>
       </c>
-      <c r="D663" s="2"/>
-    </row>
-    <row r="664" spans="1:7">
+      <c r="D663" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8">
       <c r="A664" s="7">
         <v>45986</v>
       </c>
@@ -10975,7 +11008,261 @@
       <c r="C664" s="2">
         <v>1</v>
       </c>
-      <c r="D664" s="2"/>
+      <c r="D664" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8">
+      <c r="A665" s="7">
+        <v>45986</v>
+      </c>
+      <c r="B665" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C665" s="2">
+        <v>0</v>
+      </c>
+      <c r="D665" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8">
+      <c r="A666" s="7">
+        <v>45987</v>
+      </c>
+      <c r="B666" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C666" s="6">
+        <v>3</v>
+      </c>
+      <c r="D666" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8">
+      <c r="A667" s="7">
+        <v>45987</v>
+      </c>
+      <c r="B667" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C667" s="6">
+        <v>3</v>
+      </c>
+      <c r="D667" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8">
+      <c r="A668" s="7">
+        <v>45987</v>
+      </c>
+      <c r="B668" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C668" s="6">
+        <v>5</v>
+      </c>
+      <c r="D668" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8">
+      <c r="A669" s="7">
+        <v>45987</v>
+      </c>
+      <c r="B669" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C669" s="6">
+        <v>2</v>
+      </c>
+      <c r="D669" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8">
+      <c r="A670" s="7">
+        <v>45987</v>
+      </c>
+      <c r="B670" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C670" s="6">
+        <v>2</v>
+      </c>
+      <c r="D670" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8">
+      <c r="A671" s="7">
+        <v>45987</v>
+      </c>
+      <c r="B671" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C671" s="6">
+        <v>2</v>
+      </c>
+      <c r="D671" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8">
+      <c r="A672" s="7">
+        <v>45987</v>
+      </c>
+      <c r="B672" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C672" s="6">
+        <v>2</v>
+      </c>
+      <c r="D672" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4">
+      <c r="A673" s="7">
+        <v>45987</v>
+      </c>
+      <c r="B673" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C673" s="6">
+        <v>0</v>
+      </c>
+      <c r="D673" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4">
+      <c r="A674" s="7">
+        <v>45987</v>
+      </c>
+      <c r="B674" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C674" s="6">
+        <v>0</v>
+      </c>
+      <c r="D674" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4">
+      <c r="A675" s="7">
+        <v>45987</v>
+      </c>
+      <c r="B675" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C675" s="6">
+        <v>0</v>
+      </c>
+      <c r="D675" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4">
+      <c r="A676" s="7">
+        <v>45987</v>
+      </c>
+      <c r="B676" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C676" s="6">
+        <v>0</v>
+      </c>
+      <c r="D676" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4">
+      <c r="A677" s="7">
+        <v>45988</v>
+      </c>
+      <c r="B677" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C677" s="6">
+        <v>5</v>
+      </c>
+      <c r="D677" s="2"/>
+    </row>
+    <row r="678" spans="1:4">
+      <c r="A678" s="7">
+        <v>45988</v>
+      </c>
+      <c r="B678" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C678" s="6">
+        <v>5</v>
+      </c>
+      <c r="D678" s="2"/>
+    </row>
+    <row r="679" spans="1:4">
+      <c r="A679" s="7">
+        <v>45988</v>
+      </c>
+      <c r="B679" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C679" s="6">
+        <v>2</v>
+      </c>
+      <c r="D679" s="2"/>
+    </row>
+    <row r="680" spans="1:4">
+      <c r="A680" s="7">
+        <v>45988</v>
+      </c>
+      <c r="B680" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C680" s="6">
+        <v>2</v>
+      </c>
+      <c r="D680" s="2"/>
+    </row>
+    <row r="681" spans="1:4">
+      <c r="A681" s="7">
+        <v>45988</v>
+      </c>
+      <c r="B681" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C681" s="6">
+        <v>4</v>
+      </c>
+      <c r="D681" s="2"/>
+    </row>
+    <row r="682" spans="1:4">
+      <c r="A682" s="7">
+        <v>45988</v>
+      </c>
+      <c r="B682" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C682" s="6">
+        <v>4</v>
+      </c>
+      <c r="D682" s="2"/>
+    </row>
+    <row r="683" spans="1:4">
+      <c r="A683" s="7">
+        <v>45988</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C683" s="6">
+        <v>2</v>
+      </c>
+      <c r="D683" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -360,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -499,6 +499,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -794,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U683"/>
+  <dimension ref="A1:U757"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A664" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H656" sqref="H656"/>
+      <pane ySplit="1" topLeftCell="A719" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H735" sqref="H735"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -808,7 +809,7 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="29.42578125" customWidth="1"/>
     <col min="9" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -11190,7 +11191,9 @@
       <c r="C677" s="6">
         <v>5</v>
       </c>
-      <c r="D677" s="2"/>
+      <c r="D677" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="678" spans="1:4">
       <c r="A678" s="7">
@@ -11202,7 +11205,9 @@
       <c r="C678" s="6">
         <v>5</v>
       </c>
-      <c r="D678" s="2"/>
+      <c r="D678" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="679" spans="1:4">
       <c r="A679" s="7">
@@ -11214,7 +11219,9 @@
       <c r="C679" s="6">
         <v>2</v>
       </c>
-      <c r="D679" s="2"/>
+      <c r="D679" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="680" spans="1:4">
       <c r="A680" s="7">
@@ -11226,7 +11233,9 @@
       <c r="C680" s="6">
         <v>2</v>
       </c>
-      <c r="D680" s="2"/>
+      <c r="D680" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="681" spans="1:4">
       <c r="A681" s="7">
@@ -11238,7 +11247,9 @@
       <c r="C681" s="6">
         <v>4</v>
       </c>
-      <c r="D681" s="2"/>
+      <c r="D681" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="682" spans="1:4">
       <c r="A682" s="7">
@@ -11250,7 +11261,9 @@
       <c r="C682" s="6">
         <v>4</v>
       </c>
-      <c r="D682" s="2"/>
+      <c r="D682" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="683" spans="1:4">
       <c r="A683" s="7">
@@ -11262,7 +11275,1047 @@
       <c r="C683" s="6">
         <v>2</v>
       </c>
-      <c r="D683" s="2"/>
+      <c r="D683" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4">
+      <c r="A684" s="7">
+        <v>45988</v>
+      </c>
+      <c r="B684" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C684" s="6">
+        <v>0</v>
+      </c>
+      <c r="D684" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4">
+      <c r="A685" s="7">
+        <v>45988</v>
+      </c>
+      <c r="B685" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C685" s="6">
+        <v>0</v>
+      </c>
+      <c r="D685" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4">
+      <c r="A686" s="7">
+        <v>45988</v>
+      </c>
+      <c r="B686" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C686" s="6">
+        <v>0</v>
+      </c>
+      <c r="D686" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4">
+      <c r="A687" s="7">
+        <v>45988</v>
+      </c>
+      <c r="B687" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C687" s="6">
+        <v>0</v>
+      </c>
+      <c r="D687" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4">
+      <c r="A688" s="12">
+        <v>45989</v>
+      </c>
+      <c r="B688" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C688" s="6">
+        <v>1</v>
+      </c>
+      <c r="D688" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4">
+      <c r="A689" s="12">
+        <v>45989</v>
+      </c>
+      <c r="B689" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C689" s="6">
+        <v>1</v>
+      </c>
+      <c r="D689" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4">
+      <c r="A690" s="12">
+        <v>45989</v>
+      </c>
+      <c r="B690" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C690" s="6">
+        <v>7</v>
+      </c>
+      <c r="D690" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4">
+      <c r="A691" s="12">
+        <v>45989</v>
+      </c>
+      <c r="B691" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C691" s="2">
+        <v>4</v>
+      </c>
+      <c r="D691" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4">
+      <c r="A692" s="12">
+        <v>45989</v>
+      </c>
+      <c r="B692" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C692" s="2">
+        <v>3</v>
+      </c>
+      <c r="D692" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4">
+      <c r="A693" s="12">
+        <v>45989</v>
+      </c>
+      <c r="B693" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C693" s="6">
+        <v>2</v>
+      </c>
+      <c r="D693" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4">
+      <c r="A694" s="12">
+        <v>45989</v>
+      </c>
+      <c r="B694" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C694" s="6">
+        <v>2</v>
+      </c>
+      <c r="D694" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4">
+      <c r="A695" s="12">
+        <v>45989</v>
+      </c>
+      <c r="B695" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C695" s="6">
+        <v>0</v>
+      </c>
+      <c r="D695" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4">
+      <c r="A696" s="12">
+        <v>45989</v>
+      </c>
+      <c r="B696" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C696" s="6">
+        <v>0</v>
+      </c>
+      <c r="D696" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4">
+      <c r="A697" s="12">
+        <v>45990</v>
+      </c>
+      <c r="B697" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C697" s="6">
+        <v>7</v>
+      </c>
+      <c r="D697" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4">
+      <c r="A698" s="12">
+        <v>45990</v>
+      </c>
+      <c r="B698" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C698" s="6">
+        <v>7</v>
+      </c>
+      <c r="D698" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4">
+      <c r="A699" s="12">
+        <v>45990</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C699" s="6">
+        <v>6</v>
+      </c>
+      <c r="D699" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4">
+      <c r="A700" s="12">
+        <v>45990</v>
+      </c>
+      <c r="B700" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C700" s="6">
+        <v>6</v>
+      </c>
+      <c r="D700" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4">
+      <c r="A701" s="12">
+        <v>45990</v>
+      </c>
+      <c r="B701" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C701" s="6">
+        <v>6</v>
+      </c>
+      <c r="D701" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4">
+      <c r="A702" s="12">
+        <v>45992</v>
+      </c>
+      <c r="B702" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C702" s="2">
+        <v>1</v>
+      </c>
+      <c r="D702" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4">
+      <c r="A703" s="12">
+        <v>45992</v>
+      </c>
+      <c r="B703" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C703" s="6">
+        <v>3</v>
+      </c>
+      <c r="D703" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4">
+      <c r="A704" s="12">
+        <v>45992</v>
+      </c>
+      <c r="B704" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C704" s="6">
+        <v>3</v>
+      </c>
+      <c r="D704" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4">
+      <c r="A705" s="12">
+        <v>45992</v>
+      </c>
+      <c r="B705" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C705" s="6">
+        <v>4</v>
+      </c>
+      <c r="D705" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4">
+      <c r="A706" s="12">
+        <v>45992</v>
+      </c>
+      <c r="B706" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C706" s="6">
+        <v>4</v>
+      </c>
+      <c r="D706" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4">
+      <c r="A707" s="12">
+        <v>45992</v>
+      </c>
+      <c r="B707" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C707" s="6">
+        <v>4</v>
+      </c>
+      <c r="D707" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4">
+      <c r="A708" s="12">
+        <v>45992</v>
+      </c>
+      <c r="B708" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C708" s="6">
+        <v>4</v>
+      </c>
+      <c r="D708" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4">
+      <c r="A709" s="12">
+        <v>45992</v>
+      </c>
+      <c r="B709" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C709" s="6">
+        <v>3</v>
+      </c>
+      <c r="D709" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4">
+      <c r="A710" s="12">
+        <v>45992</v>
+      </c>
+      <c r="B710" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C710" s="6">
+        <v>3</v>
+      </c>
+      <c r="D710" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4">
+      <c r="A711" s="12">
+        <v>45992</v>
+      </c>
+      <c r="B711" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C711" s="6">
+        <v>0</v>
+      </c>
+      <c r="D711" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4">
+      <c r="A712" s="12">
+        <v>45992</v>
+      </c>
+      <c r="B712" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C712" s="6">
+        <v>0</v>
+      </c>
+      <c r="D712" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4">
+      <c r="A713" s="12">
+        <v>45993</v>
+      </c>
+      <c r="B713" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C713" s="6">
+        <v>0</v>
+      </c>
+      <c r="D713" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4">
+      <c r="A714" s="12">
+        <v>45993</v>
+      </c>
+      <c r="B714" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C714" s="6">
+        <v>1</v>
+      </c>
+      <c r="D714" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4">
+      <c r="A715" s="12">
+        <v>45993</v>
+      </c>
+      <c r="B715" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C715" s="6">
+        <v>1</v>
+      </c>
+      <c r="D715" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4">
+      <c r="A716" s="12">
+        <v>45993</v>
+      </c>
+      <c r="B716" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C716" s="6">
+        <v>6</v>
+      </c>
+      <c r="D716" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4">
+      <c r="A717" s="12">
+        <v>45993</v>
+      </c>
+      <c r="B717" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C717" s="6">
+        <v>6</v>
+      </c>
+      <c r="D717" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4">
+      <c r="A718" s="12">
+        <v>45993</v>
+      </c>
+      <c r="B718" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C718" s="6">
+        <v>3</v>
+      </c>
+      <c r="D718" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4">
+      <c r="A719" s="12">
+        <v>45993</v>
+      </c>
+      <c r="B719" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C719" s="6">
+        <v>5</v>
+      </c>
+      <c r="D719" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4">
+      <c r="A720" s="12">
+        <v>45993</v>
+      </c>
+      <c r="B720" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C720" s="6">
+        <v>5</v>
+      </c>
+      <c r="D720" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8">
+      <c r="A721" s="12">
+        <v>45993</v>
+      </c>
+      <c r="B721" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C721" s="2">
+        <v>1</v>
+      </c>
+      <c r="D721" s="2">
+        <v>2</v>
+      </c>
+      <c r="G721" s="1"/>
+      <c r="H721" s="22"/>
+    </row>
+    <row r="722" spans="1:8">
+      <c r="A722" s="12">
+        <v>45993</v>
+      </c>
+      <c r="B722" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C722" s="2">
+        <v>1</v>
+      </c>
+      <c r="D722" s="2">
+        <v>2</v>
+      </c>
+      <c r="G722" s="1"/>
+      <c r="H722" s="22"/>
+    </row>
+    <row r="723" spans="1:8">
+      <c r="A723" s="12">
+        <v>45994</v>
+      </c>
+      <c r="B723" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C723" s="2">
+        <v>5</v>
+      </c>
+      <c r="D723" s="2">
+        <v>2</v>
+      </c>
+      <c r="G723" s="1"/>
+      <c r="H723" s="22"/>
+    </row>
+    <row r="724" spans="1:8">
+      <c r="A724" s="12">
+        <v>45994</v>
+      </c>
+      <c r="B724" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C724" s="2">
+        <v>5</v>
+      </c>
+      <c r="D724" s="2">
+        <v>1</v>
+      </c>
+      <c r="G724" s="1"/>
+      <c r="H724" s="22"/>
+    </row>
+    <row r="725" spans="1:8">
+      <c r="A725" s="12">
+        <v>45994</v>
+      </c>
+      <c r="B725" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C725" s="2">
+        <v>5</v>
+      </c>
+      <c r="D725" s="2">
+        <v>1</v>
+      </c>
+      <c r="G725" s="1"/>
+      <c r="H725" s="22"/>
+    </row>
+    <row r="726" spans="1:8">
+      <c r="A726" s="12">
+        <v>45994</v>
+      </c>
+      <c r="B726" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C726" s="2">
+        <v>4</v>
+      </c>
+      <c r="D726" s="2">
+        <v>1</v>
+      </c>
+      <c r="G726" s="1"/>
+      <c r="H726" s="22"/>
+    </row>
+    <row r="727" spans="1:8">
+      <c r="A727" s="12">
+        <v>45994</v>
+      </c>
+      <c r="B727" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C727" s="2">
+        <v>4</v>
+      </c>
+      <c r="D727" s="2">
+        <v>1</v>
+      </c>
+      <c r="G727" s="52"/>
+      <c r="H727" s="22"/>
+    </row>
+    <row r="728" spans="1:8">
+      <c r="A728" s="12">
+        <v>45994</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C728" s="2">
+        <v>9</v>
+      </c>
+      <c r="D728" s="2">
+        <v>10</v>
+      </c>
+      <c r="G728" s="52"/>
+      <c r="H728" s="22"/>
+    </row>
+    <row r="729" spans="1:8">
+      <c r="A729" s="12">
+        <v>45995</v>
+      </c>
+      <c r="B729" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C729" s="2">
+        <v>7</v>
+      </c>
+      <c r="D729" s="2">
+        <v>3</v>
+      </c>
+      <c r="G729" s="52"/>
+      <c r="H729" s="22"/>
+    </row>
+    <row r="730" spans="1:8">
+      <c r="A730" s="12">
+        <v>45995</v>
+      </c>
+      <c r="B730" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C730" s="2">
+        <v>7</v>
+      </c>
+      <c r="D730" s="2">
+        <v>3</v>
+      </c>
+      <c r="G730" s="52"/>
+      <c r="H730" s="22"/>
+    </row>
+    <row r="731" spans="1:8">
+      <c r="A731" s="12">
+        <v>45995</v>
+      </c>
+      <c r="B731" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C731" s="2">
+        <v>6</v>
+      </c>
+      <c r="D731" s="2">
+        <v>3</v>
+      </c>
+      <c r="G731" s="1"/>
+      <c r="H731" s="22"/>
+    </row>
+    <row r="732" spans="1:8">
+      <c r="A732" s="12">
+        <v>45995</v>
+      </c>
+      <c r="B732" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C732" s="2">
+        <v>6</v>
+      </c>
+      <c r="D732" s="2">
+        <v>3</v>
+      </c>
+      <c r="G732" s="1"/>
+      <c r="H732" s="22"/>
+    </row>
+    <row r="733" spans="1:8">
+      <c r="A733" s="12">
+        <v>45995</v>
+      </c>
+      <c r="B733" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C733" s="2">
+        <v>6</v>
+      </c>
+      <c r="D733" s="2">
+        <v>2</v>
+      </c>
+      <c r="G733" s="1"/>
+      <c r="H733" s="22"/>
+    </row>
+    <row r="734" spans="1:8">
+      <c r="A734" s="12">
+        <v>45995</v>
+      </c>
+      <c r="B734" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C734" s="2">
+        <v>6</v>
+      </c>
+      <c r="D734" s="2">
+        <v>2</v>
+      </c>
+      <c r="G734" s="1"/>
+      <c r="H734" s="22"/>
+    </row>
+    <row r="735" spans="1:8">
+      <c r="A735" s="12">
+        <v>45995</v>
+      </c>
+      <c r="B735" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C735" s="2">
+        <v>4</v>
+      </c>
+      <c r="D735" s="2">
+        <v>0</v>
+      </c>
+      <c r="G735" s="52"/>
+      <c r="H735" s="22"/>
+    </row>
+    <row r="736" spans="1:8">
+      <c r="A736" s="12">
+        <v>45995</v>
+      </c>
+      <c r="B736" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C736" s="2">
+        <v>4</v>
+      </c>
+      <c r="D736" s="2">
+        <v>0</v>
+      </c>
+      <c r="G736" s="1"/>
+      <c r="H736" s="22"/>
+    </row>
+    <row r="737" spans="1:8">
+      <c r="A737" s="12">
+        <v>45996</v>
+      </c>
+      <c r="B737" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C737" s="2">
+        <v>4</v>
+      </c>
+      <c r="D737" s="2">
+        <v>2</v>
+      </c>
+      <c r="G737" s="1"/>
+      <c r="H737" s="22"/>
+    </row>
+    <row r="738" spans="1:8">
+      <c r="A738" s="12">
+        <v>45996</v>
+      </c>
+      <c r="B738" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C738" s="2">
+        <v>4</v>
+      </c>
+      <c r="D738" s="2">
+        <v>2</v>
+      </c>
+      <c r="G738" s="1"/>
+      <c r="H738" s="22"/>
+    </row>
+    <row r="739" spans="1:8">
+      <c r="A739" s="12">
+        <v>45996</v>
+      </c>
+      <c r="B739" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C739" s="2">
+        <v>5</v>
+      </c>
+      <c r="D739" s="2">
+        <v>1</v>
+      </c>
+      <c r="G739" s="1"/>
+      <c r="H739" s="22"/>
+    </row>
+    <row r="740" spans="1:8">
+      <c r="A740" s="12">
+        <v>45996</v>
+      </c>
+      <c r="B740" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C740" s="2">
+        <v>5</v>
+      </c>
+      <c r="D740" s="2">
+        <v>1</v>
+      </c>
+      <c r="G740" s="1"/>
+      <c r="H740" s="22"/>
+    </row>
+    <row r="741" spans="1:8">
+      <c r="A741" s="12">
+        <v>45996</v>
+      </c>
+      <c r="B741" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C741" s="2">
+        <v>5</v>
+      </c>
+      <c r="D741" s="2">
+        <v>0</v>
+      </c>
+      <c r="G741" s="1"/>
+      <c r="H741" s="22"/>
+    </row>
+    <row r="742" spans="1:8">
+      <c r="A742" s="12">
+        <v>45996</v>
+      </c>
+      <c r="B742" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C742" s="2">
+        <v>5</v>
+      </c>
+      <c r="D742" s="2">
+        <v>0</v>
+      </c>
+      <c r="G742" s="1"/>
+      <c r="H742" s="22"/>
+    </row>
+    <row r="743" spans="1:8">
+      <c r="A743" s="12">
+        <v>45996</v>
+      </c>
+      <c r="B743" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C743" s="2">
+        <v>8</v>
+      </c>
+      <c r="D743" s="2">
+        <v>4</v>
+      </c>
+      <c r="G743" s="1"/>
+      <c r="H743" s="22"/>
+    </row>
+    <row r="744" spans="1:8">
+      <c r="A744" s="12">
+        <v>45996</v>
+      </c>
+      <c r="B744" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C744" s="2">
+        <v>8</v>
+      </c>
+      <c r="D744" s="2">
+        <v>4</v>
+      </c>
+      <c r="G744" s="1"/>
+      <c r="H744" s="22"/>
+    </row>
+    <row r="745" spans="1:8">
+      <c r="A745" s="12">
+        <v>45996</v>
+      </c>
+      <c r="B745" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C745" s="2">
+        <v>9</v>
+      </c>
+      <c r="D745" s="2">
+        <v>11</v>
+      </c>
+      <c r="G745" s="1"/>
+      <c r="H745" s="22"/>
+    </row>
+    <row r="746" spans="1:8">
+      <c r="A746" s="12">
+        <v>45997</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C746" s="2">
+        <v>6</v>
+      </c>
+      <c r="D746" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8">
+      <c r="A747" s="12">
+        <v>45997</v>
+      </c>
+      <c r="B747" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C747" s="2">
+        <v>7</v>
+      </c>
+      <c r="D747" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8">
+      <c r="A748" s="12">
+        <v>45997</v>
+      </c>
+      <c r="B748" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C748" s="2">
+        <v>7</v>
+      </c>
+      <c r="D748" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8">
+      <c r="A749" s="12">
+        <v>45997</v>
+      </c>
+      <c r="B749" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C749" s="2">
+        <v>7</v>
+      </c>
+      <c r="D749" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8">
+      <c r="A750" s="7">
+        <v>46000</v>
+      </c>
+      <c r="B750" s="2"/>
+      <c r="C750" s="2"/>
+      <c r="D750" s="2"/>
+    </row>
+    <row r="751" spans="1:8">
+      <c r="A751" s="7">
+        <v>46000</v>
+      </c>
+      <c r="B751" s="2"/>
+      <c r="C751" s="2"/>
+      <c r="D751" s="2"/>
+    </row>
+    <row r="752" spans="1:8">
+      <c r="A752" s="7">
+        <v>46000</v>
+      </c>
+      <c r="B752" s="2"/>
+      <c r="C752" s="2"/>
+      <c r="D752" s="2"/>
+    </row>
+    <row r="753" spans="1:4">
+      <c r="A753" s="7">
+        <v>46000</v>
+      </c>
+      <c r="B753" s="2"/>
+      <c r="C753" s="2"/>
+      <c r="D753" s="2"/>
+    </row>
+    <row r="754" spans="1:4">
+      <c r="A754" s="7">
+        <v>46000</v>
+      </c>
+      <c r="B754" s="2"/>
+      <c r="C754" s="2"/>
+      <c r="D754" s="2"/>
+    </row>
+    <row r="755" spans="1:4">
+      <c r="A755" s="7">
+        <v>46000</v>
+      </c>
+      <c r="B755" s="2"/>
+      <c r="C755" s="2"/>
+      <c r="D755" s="2"/>
+    </row>
+    <row r="756" spans="1:4">
+      <c r="A756" s="7">
+        <v>46000</v>
+      </c>
+      <c r="B756" s="2"/>
+      <c r="C756" s="2"/>
+      <c r="D756" s="2"/>
+    </row>
+    <row r="757" spans="1:4">
+      <c r="A757" s="7">
+        <v>46000</v>
+      </c>
+      <c r="B757" s="2"/>
+      <c r="C757" s="2"/>
+      <c r="D757" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -798,8 +798,8 @@
   <dimension ref="A1:U757"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A719" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H735" sqref="H735"/>
+      <pane ySplit="1" topLeftCell="A722" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C737" sqref="C737"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12257,37 +12257,53 @@
       <c r="A750" s="7">
         <v>46000</v>
       </c>
-      <c r="B750" s="2"/>
-      <c r="C750" s="2"/>
+      <c r="B750" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C750" s="2">
+        <v>1</v>
+      </c>
       <c r="D750" s="2"/>
     </row>
     <row r="751" spans="1:8">
       <c r="A751" s="7">
         <v>46000</v>
       </c>
-      <c r="B751" s="2"/>
-      <c r="C751" s="2"/>
+      <c r="B751" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C751" s="2">
+        <v>1</v>
+      </c>
       <c r="D751" s="2"/>
     </row>
     <row r="752" spans="1:8">
       <c r="A752" s="7">
         <v>46000</v>
       </c>
-      <c r="B752" s="2"/>
-      <c r="C752" s="2"/>
+      <c r="B752" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C752" s="2">
+        <v>2</v>
+      </c>
       <c r="D752" s="2"/>
     </row>
     <row r="753" spans="1:4">
       <c r="A753" s="7">
         <v>46000</v>
       </c>
-      <c r="B753" s="2"/>
-      <c r="C753" s="2"/>
+      <c r="B753" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C753" s="2">
+        <v>2</v>
+      </c>
       <c r="D753" s="2"/>
     </row>
     <row r="754" spans="1:4">
       <c r="A754" s="7">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -12295,7 +12311,7 @@
     </row>
     <row r="755" spans="1:4">
       <c r="A755" s="7">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -12303,7 +12319,7 @@
     </row>
     <row r="756" spans="1:4">
       <c r="A756" s="7">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -12311,7 +12327,7 @@
     </row>
     <row r="757" spans="1:4">
       <c r="A757" s="7">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -795,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U757"/>
+  <dimension ref="A1:U763"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A722" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C737" sqref="C737"/>
+      <pane ySplit="1" topLeftCell="A734" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A753" sqref="A753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12263,7 +12263,9 @@
       <c r="C750" s="2">
         <v>1</v>
       </c>
-      <c r="D750" s="2"/>
+      <c r="D750" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="751" spans="1:8">
       <c r="A751" s="7">
@@ -12275,7 +12277,9 @@
       <c r="C751" s="2">
         <v>1</v>
       </c>
-      <c r="D751" s="2"/>
+      <c r="D751" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="752" spans="1:8">
       <c r="A752" s="7">
@@ -12287,7 +12291,9 @@
       <c r="C752" s="2">
         <v>2</v>
       </c>
-      <c r="D752" s="2"/>
+      <c r="D752" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="753" spans="1:4">
       <c r="A753" s="7">
@@ -12299,39 +12305,135 @@
       <c r="C753" s="2">
         <v>2</v>
       </c>
-      <c r="D753" s="2"/>
+      <c r="D753" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="754" spans="1:4">
       <c r="A754" s="7">
-        <v>46001</v>
-      </c>
-      <c r="B754" s="2"/>
-      <c r="C754" s="2"/>
-      <c r="D754" s="2"/>
+        <v>46000</v>
+      </c>
+      <c r="B754" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C754" s="2">
+        <v>0</v>
+      </c>
+      <c r="D754" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="755" spans="1:4">
       <c r="A755" s="7">
-        <v>46001</v>
-      </c>
-      <c r="B755" s="2"/>
-      <c r="C755" s="2"/>
-      <c r="D755" s="2"/>
+        <v>46000</v>
+      </c>
+      <c r="B755" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C755" s="2">
+        <v>0</v>
+      </c>
+      <c r="D755" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="756" spans="1:4">
       <c r="A756" s="7">
-        <v>46001</v>
-      </c>
-      <c r="B756" s="2"/>
-      <c r="C756" s="2"/>
-      <c r="D756" s="2"/>
+        <v>46000</v>
+      </c>
+      <c r="B756" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C756" s="2">
+        <v>0</v>
+      </c>
+      <c r="D756" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="757" spans="1:4">
       <c r="A757" s="7">
         <v>46001</v>
       </c>
-      <c r="B757" s="2"/>
-      <c r="C757" s="2"/>
+      <c r="B757" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C757" s="2">
+        <v>7</v>
+      </c>
       <c r="D757" s="2"/>
+    </row>
+    <row r="758" spans="1:4">
+      <c r="A758" s="7">
+        <v>46001</v>
+      </c>
+      <c r="B758" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C758" s="2">
+        <v>7</v>
+      </c>
+      <c r="D758" s="2"/>
+    </row>
+    <row r="759" spans="1:4">
+      <c r="A759" s="7">
+        <v>46001</v>
+      </c>
+      <c r="B759" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C759" s="2">
+        <v>12</v>
+      </c>
+      <c r="D759" s="2"/>
+    </row>
+    <row r="760" spans="1:4">
+      <c r="A760" s="7">
+        <v>46001</v>
+      </c>
+      <c r="B760" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C760" s="2">
+        <v>12</v>
+      </c>
+      <c r="D760" s="2"/>
+    </row>
+    <row r="761" spans="1:4">
+      <c r="A761" s="7">
+        <v>46001</v>
+      </c>
+      <c r="B761" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C761" s="6">
+        <v>2</v>
+      </c>
+      <c r="D761" s="2"/>
+    </row>
+    <row r="762" spans="1:4">
+      <c r="A762" s="7">
+        <v>46001</v>
+      </c>
+      <c r="B762" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C762" s="6">
+        <v>4</v>
+      </c>
+      <c r="D762" s="2"/>
+    </row>
+    <row r="763" spans="1:4">
+      <c r="A763" s="7">
+        <v>46001</v>
+      </c>
+      <c r="B763" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C763" s="6">
+        <v>4</v>
+      </c>
+      <c r="D763" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -795,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U763"/>
+  <dimension ref="A1:U775"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A734" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A753" sqref="A753"/>
+      <pane ySplit="1" topLeftCell="A746" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E770" sqref="E770"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -809,7 +809,7 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
     <col min="8" max="8" width="29.42578125" customWidth="1"/>
     <col min="9" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -12295,7 +12295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:4">
+    <row r="753" spans="1:8">
       <c r="A753" s="7">
         <v>46000</v>
       </c>
@@ -12309,7 +12309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:4">
+    <row r="754" spans="1:8">
       <c r="A754" s="7">
         <v>46000</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:4">
+    <row r="755" spans="1:8">
       <c r="A755" s="7">
         <v>46000</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:4">
+    <row r="756" spans="1:8">
       <c r="A756" s="7">
         <v>46000</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:4">
+    <row r="757" spans="1:8">
       <c r="A757" s="7">
         <v>46001</v>
       </c>
@@ -12361,9 +12361,11 @@
       <c r="C757" s="2">
         <v>7</v>
       </c>
-      <c r="D757" s="2"/>
-    </row>
-    <row r="758" spans="1:4">
+      <c r="D757" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8">
       <c r="A758" s="7">
         <v>46001</v>
       </c>
@@ -12373,9 +12375,13 @@
       <c r="C758" s="2">
         <v>7</v>
       </c>
-      <c r="D758" s="2"/>
-    </row>
-    <row r="759" spans="1:4">
+      <c r="D758" s="2">
+        <v>6</v>
+      </c>
+      <c r="G758" s="1"/>
+      <c r="H758" s="22"/>
+    </row>
+    <row r="759" spans="1:8">
       <c r="A759" s="7">
         <v>46001</v>
       </c>
@@ -12385,9 +12391,13 @@
       <c r="C759" s="2">
         <v>12</v>
       </c>
-      <c r="D759" s="2"/>
-    </row>
-    <row r="760" spans="1:4">
+      <c r="D759" s="2">
+        <v>8</v>
+      </c>
+      <c r="G759" s="1"/>
+      <c r="H759" s="22"/>
+    </row>
+    <row r="760" spans="1:8">
       <c r="A760" s="7">
         <v>46001</v>
       </c>
@@ -12397,9 +12407,13 @@
       <c r="C760" s="2">
         <v>12</v>
       </c>
-      <c r="D760" s="2"/>
-    </row>
-    <row r="761" spans="1:4">
+      <c r="D760" s="2">
+        <v>8</v>
+      </c>
+      <c r="G760" s="1"/>
+      <c r="H760" s="22"/>
+    </row>
+    <row r="761" spans="1:8">
       <c r="A761" s="7">
         <v>46001</v>
       </c>
@@ -12409,9 +12423,13 @@
       <c r="C761" s="6">
         <v>2</v>
       </c>
-      <c r="D761" s="2"/>
-    </row>
-    <row r="762" spans="1:4">
+      <c r="D761" s="2">
+        <v>3</v>
+      </c>
+      <c r="G761" s="1"/>
+      <c r="H761" s="22"/>
+    </row>
+    <row r="762" spans="1:8">
       <c r="A762" s="7">
         <v>46001</v>
       </c>
@@ -12421,9 +12439,13 @@
       <c r="C762" s="6">
         <v>4</v>
       </c>
-      <c r="D762" s="2"/>
-    </row>
-    <row r="763" spans="1:4">
+      <c r="D762" s="2">
+        <v>0</v>
+      </c>
+      <c r="G762" s="1"/>
+      <c r="H762" s="22"/>
+    </row>
+    <row r="763" spans="1:8">
       <c r="A763" s="7">
         <v>46001</v>
       </c>
@@ -12433,7 +12455,165 @@
       <c r="C763" s="6">
         <v>4</v>
       </c>
-      <c r="D763" s="2"/>
+      <c r="D763" s="2">
+        <v>0</v>
+      </c>
+      <c r="G763" s="1"/>
+      <c r="H763" s="22"/>
+    </row>
+    <row r="764" spans="1:8">
+      <c r="A764" s="7">
+        <v>46001</v>
+      </c>
+      <c r="B764" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C764" s="6">
+        <v>0</v>
+      </c>
+      <c r="D764" s="2">
+        <v>1</v>
+      </c>
+      <c r="G764" s="1"/>
+      <c r="H764" s="22"/>
+    </row>
+    <row r="765" spans="1:8">
+      <c r="A765" s="7">
+        <v>46001</v>
+      </c>
+      <c r="B765" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C765" s="6">
+        <v>0</v>
+      </c>
+      <c r="D765" s="2">
+        <v>1</v>
+      </c>
+      <c r="G765" s="1"/>
+      <c r="H765" s="22"/>
+    </row>
+    <row r="766" spans="1:8">
+      <c r="A766" s="7">
+        <v>46002</v>
+      </c>
+      <c r="B766" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C766" s="6">
+        <v>4</v>
+      </c>
+      <c r="D766" s="2"/>
+      <c r="G766" s="1"/>
+      <c r="H766" s="22"/>
+    </row>
+    <row r="767" spans="1:8">
+      <c r="A767" s="7">
+        <v>46002</v>
+      </c>
+      <c r="B767" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C767" s="6">
+        <v>4</v>
+      </c>
+      <c r="D767" s="2"/>
+    </row>
+    <row r="768" spans="1:8">
+      <c r="A768" s="7">
+        <v>46002</v>
+      </c>
+      <c r="B768" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C768" s="6">
+        <v>5</v>
+      </c>
+      <c r="D768" s="2"/>
+    </row>
+    <row r="769" spans="1:4">
+      <c r="A769" s="7">
+        <v>46002</v>
+      </c>
+      <c r="B769" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C769" s="6">
+        <v>5</v>
+      </c>
+      <c r="D769" s="2"/>
+    </row>
+    <row r="770" spans="1:4">
+      <c r="A770" s="7">
+        <v>46002</v>
+      </c>
+      <c r="B770" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C770" s="6">
+        <v>3</v>
+      </c>
+      <c r="D770" s="2"/>
+    </row>
+    <row r="771" spans="1:4">
+      <c r="A771" s="7">
+        <v>46002</v>
+      </c>
+      <c r="B771" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C771" s="6">
+        <v>3</v>
+      </c>
+      <c r="D771" s="2"/>
+    </row>
+    <row r="772" spans="1:4">
+      <c r="A772" s="7">
+        <v>46002</v>
+      </c>
+      <c r="B772" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C772" s="6">
+        <v>4</v>
+      </c>
+      <c r="D772" s="2"/>
+    </row>
+    <row r="773" spans="1:4">
+      <c r="A773" s="7">
+        <v>46002</v>
+      </c>
+      <c r="B773" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C773" s="6">
+        <v>4</v>
+      </c>
+      <c r="D773" s="2"/>
+    </row>
+    <row r="774" spans="1:4">
+      <c r="A774" s="7">
+        <v>46002</v>
+      </c>
+      <c r="B774" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C774" s="6">
+        <v>8</v>
+      </c>
+      <c r="D774" s="2"/>
+    </row>
+    <row r="775" spans="1:4">
+      <c r="A775" s="7">
+        <v>46002</v>
+      </c>
+      <c r="B775" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C775" s="6">
+        <v>8</v>
+      </c>
+      <c r="D775" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$D$106</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -795,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U775"/>
+  <dimension ref="A1:U786"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A746" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E770" sqref="E770"/>
+      <pane ySplit="1" topLeftCell="A755" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D769" sqref="D769"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12503,7 +12503,9 @@
       <c r="C766" s="6">
         <v>4</v>
       </c>
-      <c r="D766" s="2"/>
+      <c r="D766" s="2">
+        <v>0</v>
+      </c>
       <c r="G766" s="1"/>
       <c r="H766" s="22"/>
     </row>
@@ -12517,7 +12519,9 @@
       <c r="C767" s="6">
         <v>4</v>
       </c>
-      <c r="D767" s="2"/>
+      <c r="D767" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="768" spans="1:8">
       <c r="A768" s="7">
@@ -12529,7 +12533,9 @@
       <c r="C768" s="6">
         <v>5</v>
       </c>
-      <c r="D768" s="2"/>
+      <c r="D768" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="769" spans="1:4">
       <c r="A769" s="7">
@@ -12541,7 +12547,9 @@
       <c r="C769" s="6">
         <v>5</v>
       </c>
-      <c r="D769" s="2"/>
+      <c r="D769" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="770" spans="1:4">
       <c r="A770" s="7">
@@ -12553,7 +12561,9 @@
       <c r="C770" s="6">
         <v>3</v>
       </c>
-      <c r="D770" s="2"/>
+      <c r="D770" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="7">
@@ -12565,7 +12575,9 @@
       <c r="C771" s="6">
         <v>3</v>
       </c>
-      <c r="D771" s="2"/>
+      <c r="D771" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="772" spans="1:4">
       <c r="A772" s="7">
@@ -12577,7 +12589,9 @@
       <c r="C772" s="6">
         <v>4</v>
       </c>
-      <c r="D772" s="2"/>
+      <c r="D772" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="773" spans="1:4">
       <c r="A773" s="7">
@@ -12589,7 +12603,9 @@
       <c r="C773" s="6">
         <v>4</v>
       </c>
-      <c r="D773" s="2"/>
+      <c r="D773" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="774" spans="1:4">
       <c r="A774" s="7">
@@ -12601,7 +12617,9 @@
       <c r="C774" s="6">
         <v>8</v>
       </c>
-      <c r="D774" s="2"/>
+      <c r="D774" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="775" spans="1:4">
       <c r="A775" s="7">
@@ -12613,7 +12631,141 @@
       <c r="C775" s="6">
         <v>8</v>
       </c>
-      <c r="D775" s="2"/>
+      <c r="D775" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4">
+      <c r="A776" s="7">
+        <v>46003</v>
+      </c>
+      <c r="B776" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C776" s="6">
+        <v>2</v>
+      </c>
+      <c r="D776" s="2"/>
+    </row>
+    <row r="777" spans="1:4">
+      <c r="A777" s="7">
+        <v>46003</v>
+      </c>
+      <c r="B777" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C777" s="6">
+        <v>2</v>
+      </c>
+      <c r="D777" s="2"/>
+    </row>
+    <row r="778" spans="1:4">
+      <c r="A778" s="7">
+        <v>46003</v>
+      </c>
+      <c r="B778" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C778" s="6">
+        <v>1</v>
+      </c>
+      <c r="D778" s="2"/>
+    </row>
+    <row r="779" spans="1:4">
+      <c r="A779" s="7">
+        <v>46003</v>
+      </c>
+      <c r="B779" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C779" s="6">
+        <v>1</v>
+      </c>
+      <c r="D779" s="2"/>
+    </row>
+    <row r="780" spans="1:4">
+      <c r="A780" s="7">
+        <v>46003</v>
+      </c>
+      <c r="B780" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C780" s="6">
+        <v>4</v>
+      </c>
+      <c r="D780" s="2"/>
+    </row>
+    <row r="781" spans="1:4">
+      <c r="A781" s="7">
+        <v>46003</v>
+      </c>
+      <c r="B781" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C781" s="6">
+        <v>8</v>
+      </c>
+      <c r="D781" s="2"/>
+    </row>
+    <row r="782" spans="1:4">
+      <c r="A782" s="7">
+        <v>46003</v>
+      </c>
+      <c r="B782" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C782" s="6">
+        <v>8</v>
+      </c>
+      <c r="D782" s="2"/>
+    </row>
+    <row r="783" spans="1:4">
+      <c r="A783" s="7">
+        <v>46003</v>
+      </c>
+      <c r="B783" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C783" s="6">
+        <v>5</v>
+      </c>
+      <c r="D783" s="2"/>
+    </row>
+    <row r="784" spans="1:4">
+      <c r="A784" s="7">
+        <v>46003</v>
+      </c>
+      <c r="B784" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C784" s="2">
+        <v>5</v>
+      </c>
+      <c r="D784" s="2"/>
+    </row>
+    <row r="785" spans="1:4">
+      <c r="A785" s="7">
+        <v>46003</v>
+      </c>
+      <c r="B785" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C785" s="2">
+        <v>6</v>
+      </c>
+      <c r="D785" s="2"/>
+    </row>
+    <row r="786" spans="1:4">
+      <c r="A786" s="7">
+        <v>46003</v>
+      </c>
+      <c r="B786" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C786" s="2">
+        <v>6</v>
+      </c>
+      <c r="D786" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -795,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U786"/>
+  <dimension ref="A1:U801"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A755" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D769" sqref="D769"/>
+      <pane ySplit="1" topLeftCell="A770" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C777" sqref="C777"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -809,7 +809,7 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
     <col min="8" max="8" width="29.42578125" customWidth="1"/>
     <col min="9" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -12537,7 +12537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:4">
+    <row r="769" spans="1:8">
       <c r="A769" s="7">
         <v>46002</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:4">
+    <row r="770" spans="1:8">
       <c r="A770" s="7">
         <v>46002</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="771" spans="1:4">
+    <row r="771" spans="1:8">
       <c r="A771" s="7">
         <v>46002</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="772" spans="1:4">
+    <row r="772" spans="1:8">
       <c r="A772" s="7">
         <v>46002</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:4">
+    <row r="773" spans="1:8">
       <c r="A773" s="7">
         <v>46002</v>
       </c>
@@ -12606,8 +12606,10 @@
       <c r="D773" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="774" spans="1:4">
+      <c r="G773" s="1"/>
+      <c r="H773" s="22"/>
+    </row>
+    <row r="774" spans="1:8">
       <c r="A774" s="7">
         <v>46002</v>
       </c>
@@ -12620,8 +12622,10 @@
       <c r="D774" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="775" spans="1:4">
+      <c r="G774" s="52"/>
+      <c r="H774" s="22"/>
+    </row>
+    <row r="775" spans="1:8">
       <c r="A775" s="7">
         <v>46002</v>
       </c>
@@ -12634,8 +12638,10 @@
       <c r="D775" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="776" spans="1:4">
+      <c r="G775" s="52"/>
+      <c r="H775" s="22"/>
+    </row>
+    <row r="776" spans="1:8">
       <c r="A776" s="7">
         <v>46003</v>
       </c>
@@ -12645,9 +12651,13 @@
       <c r="C776" s="6">
         <v>2</v>
       </c>
-      <c r="D776" s="2"/>
-    </row>
-    <row r="777" spans="1:4">
+      <c r="D776" s="2">
+        <v>2</v>
+      </c>
+      <c r="G776" s="52"/>
+      <c r="H776" s="22"/>
+    </row>
+    <row r="777" spans="1:8">
       <c r="A777" s="7">
         <v>46003</v>
       </c>
@@ -12657,9 +12667,13 @@
       <c r="C777" s="6">
         <v>2</v>
       </c>
-      <c r="D777" s="2"/>
-    </row>
-    <row r="778" spans="1:4">
+      <c r="D777" s="2">
+        <v>2</v>
+      </c>
+      <c r="G777" s="52"/>
+      <c r="H777" s="22"/>
+    </row>
+    <row r="778" spans="1:8">
       <c r="A778" s="7">
         <v>46003</v>
       </c>
@@ -12669,9 +12683,13 @@
       <c r="C778" s="6">
         <v>1</v>
       </c>
-      <c r="D778" s="2"/>
-    </row>
-    <row r="779" spans="1:4">
+      <c r="D778" s="2">
+        <v>2</v>
+      </c>
+      <c r="G778" s="52"/>
+      <c r="H778" s="22"/>
+    </row>
+    <row r="779" spans="1:8">
       <c r="A779" s="7">
         <v>46003</v>
       </c>
@@ -12681,9 +12699,13 @@
       <c r="C779" s="6">
         <v>1</v>
       </c>
-      <c r="D779" s="2"/>
-    </row>
-    <row r="780" spans="1:4">
+      <c r="D779" s="2">
+        <v>2</v>
+      </c>
+      <c r="G779" s="52"/>
+      <c r="H779" s="22"/>
+    </row>
+    <row r="780" spans="1:8">
       <c r="A780" s="7">
         <v>46003</v>
       </c>
@@ -12693,9 +12715,13 @@
       <c r="C780" s="6">
         <v>4</v>
       </c>
-      <c r="D780" s="2"/>
-    </row>
-    <row r="781" spans="1:4">
+      <c r="D780" s="2">
+        <v>6</v>
+      </c>
+      <c r="G780" s="52"/>
+      <c r="H780" s="22"/>
+    </row>
+    <row r="781" spans="1:8">
       <c r="A781" s="7">
         <v>46003</v>
       </c>
@@ -12705,9 +12731,13 @@
       <c r="C781" s="6">
         <v>8</v>
       </c>
-      <c r="D781" s="2"/>
-    </row>
-    <row r="782" spans="1:4">
+      <c r="D781" s="2">
+        <v>0</v>
+      </c>
+      <c r="G781" s="1"/>
+      <c r="H781" s="22"/>
+    </row>
+    <row r="782" spans="1:8">
       <c r="A782" s="7">
         <v>46003</v>
       </c>
@@ -12717,9 +12747,13 @@
       <c r="C782" s="6">
         <v>8</v>
       </c>
-      <c r="D782" s="2"/>
-    </row>
-    <row r="783" spans="1:4">
+      <c r="D782" s="2">
+        <v>0</v>
+      </c>
+      <c r="G782" s="52"/>
+      <c r="H782" s="22"/>
+    </row>
+    <row r="783" spans="1:8">
       <c r="A783" s="7">
         <v>46003</v>
       </c>
@@ -12729,21 +12763,29 @@
       <c r="C783" s="6">
         <v>5</v>
       </c>
-      <c r="D783" s="2"/>
-    </row>
-    <row r="784" spans="1:4">
+      <c r="D783" s="2">
+        <v>3</v>
+      </c>
+      <c r="G783" s="52"/>
+      <c r="H783" s="22"/>
+    </row>
+    <row r="784" spans="1:8">
       <c r="A784" s="7">
         <v>46003</v>
       </c>
-      <c r="B784" s="2" t="s">
+      <c r="B784" s="66" t="s">
         <v>9</v>
       </c>
       <c r="C784" s="2">
         <v>5</v>
       </c>
-      <c r="D784" s="2"/>
-    </row>
-    <row r="785" spans="1:4">
+      <c r="D784" s="2">
+        <v>3</v>
+      </c>
+      <c r="G784" s="52"/>
+      <c r="H784" s="22"/>
+    </row>
+    <row r="785" spans="1:8">
       <c r="A785" s="7">
         <v>46003</v>
       </c>
@@ -12753,9 +12795,13 @@
       <c r="C785" s="2">
         <v>6</v>
       </c>
-      <c r="D785" s="2"/>
-    </row>
-    <row r="786" spans="1:4">
+      <c r="D785" s="2">
+        <v>6</v>
+      </c>
+      <c r="G785" s="52"/>
+      <c r="H785" s="22"/>
+    </row>
+    <row r="786" spans="1:8">
       <c r="A786" s="7">
         <v>46003</v>
       </c>
@@ -12765,7 +12811,205 @@
       <c r="C786" s="2">
         <v>6</v>
       </c>
-      <c r="D786" s="2"/>
+      <c r="D786" s="2">
+        <v>6</v>
+      </c>
+      <c r="G786" s="1"/>
+      <c r="H786" s="22"/>
+    </row>
+    <row r="787" spans="1:8">
+      <c r="A787" s="7">
+        <v>46004</v>
+      </c>
+      <c r="B787" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C787" s="2">
+        <v>1</v>
+      </c>
+      <c r="D787" s="2">
+        <v>9</v>
+      </c>
+      <c r="G787" s="52"/>
+      <c r="H787" s="22"/>
+    </row>
+    <row r="788" spans="1:8">
+      <c r="A788" s="7">
+        <v>46004</v>
+      </c>
+      <c r="B788" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C788" s="2">
+        <v>1</v>
+      </c>
+      <c r="D788" s="2">
+        <v>9</v>
+      </c>
+      <c r="G788" s="1"/>
+      <c r="H788" s="22"/>
+    </row>
+    <row r="789" spans="1:8">
+      <c r="A789" s="7">
+        <v>46004</v>
+      </c>
+      <c r="B789" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C789" s="2">
+        <v>5</v>
+      </c>
+      <c r="D789" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8">
+      <c r="A790" s="7">
+        <v>46004</v>
+      </c>
+      <c r="B790" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C790" s="2">
+        <v>5</v>
+      </c>
+      <c r="D790" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8">
+      <c r="A791" s="7">
+        <v>46004</v>
+      </c>
+      <c r="B791" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C791" s="2">
+        <v>3</v>
+      </c>
+      <c r="D791" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8">
+      <c r="A792" s="7">
+        <v>46006</v>
+      </c>
+      <c r="B792" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C792" s="6">
+        <v>8</v>
+      </c>
+      <c r="D792" s="2"/>
+    </row>
+    <row r="793" spans="1:8">
+      <c r="A793" s="7">
+        <v>46006</v>
+      </c>
+      <c r="B793" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C793" s="6">
+        <v>8</v>
+      </c>
+      <c r="D793" s="2"/>
+    </row>
+    <row r="794" spans="1:8">
+      <c r="A794" s="7">
+        <v>46006</v>
+      </c>
+      <c r="B794" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C794" s="6">
+        <v>6</v>
+      </c>
+      <c r="D794" s="2"/>
+    </row>
+    <row r="795" spans="1:8">
+      <c r="A795" s="7">
+        <v>46006</v>
+      </c>
+      <c r="B795" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C795" s="6">
+        <v>6</v>
+      </c>
+      <c r="D795" s="2"/>
+    </row>
+    <row r="796" spans="1:8">
+      <c r="A796" s="7">
+        <v>46006</v>
+      </c>
+      <c r="B796" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C796" s="6">
+        <v>6</v>
+      </c>
+      <c r="D796" s="2"/>
+    </row>
+    <row r="797" spans="1:8">
+      <c r="A797" s="7">
+        <v>46006</v>
+      </c>
+      <c r="B797" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C797" s="6">
+        <v>1</v>
+      </c>
+      <c r="D797" s="2"/>
+    </row>
+    <row r="798" spans="1:8">
+      <c r="A798" s="7">
+        <v>46006</v>
+      </c>
+      <c r="B798" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C798" s="6">
+        <v>5</v>
+      </c>
+      <c r="D798" s="2"/>
+    </row>
+    <row r="799" spans="1:8">
+      <c r="A799" s="7">
+        <v>46006</v>
+      </c>
+      <c r="B799" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C799" s="6">
+        <v>5</v>
+      </c>
+      <c r="D799" s="2"/>
+    </row>
+    <row r="800" spans="1:8">
+      <c r="A800" s="7">
+        <v>46006</v>
+      </c>
+      <c r="B800" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C800" s="6">
+        <v>1</v>
+      </c>
+      <c r="D800" s="2"/>
+    </row>
+    <row r="801" spans="1:4">
+      <c r="A801" s="7">
+        <v>46006</v>
+      </c>
+      <c r="B801" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C801" s="6">
+        <v>1</v>
+      </c>
+      <c r="D801" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -795,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U801"/>
+  <dimension ref="A1:U811"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A770" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C777" sqref="C777"/>
+      <pane ySplit="1" topLeftCell="A779" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D793" sqref="D793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -809,7 +809,7 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
     <col min="8" max="8" width="29.42578125" customWidth="1"/>
     <col min="9" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -12830,8 +12830,6 @@
       <c r="D787" s="2">
         <v>9</v>
       </c>
-      <c r="G787" s="52"/>
-      <c r="H787" s="22"/>
     </row>
     <row r="788" spans="1:8">
       <c r="A788" s="7">
@@ -12862,6 +12860,8 @@
       <c r="D789" s="2">
         <v>4</v>
       </c>
+      <c r="G789" s="1"/>
+      <c r="H789" s="22"/>
     </row>
     <row r="790" spans="1:8">
       <c r="A790" s="7">
@@ -12876,6 +12876,8 @@
       <c r="D790" s="2">
         <v>4</v>
       </c>
+      <c r="G790" s="1"/>
+      <c r="H790" s="22"/>
     </row>
     <row r="791" spans="1:8">
       <c r="A791" s="7">
@@ -12890,6 +12892,8 @@
       <c r="D791" s="2">
         <v>18</v>
       </c>
+      <c r="G791" s="1"/>
+      <c r="H791" s="22"/>
     </row>
     <row r="792" spans="1:8">
       <c r="A792" s="7">
@@ -12901,7 +12905,11 @@
       <c r="C792" s="6">
         <v>8</v>
       </c>
-      <c r="D792" s="2"/>
+      <c r="D792" s="2">
+        <v>2</v>
+      </c>
+      <c r="G792" s="1"/>
+      <c r="H792" s="22"/>
     </row>
     <row r="793" spans="1:8">
       <c r="A793" s="7">
@@ -12913,7 +12921,11 @@
       <c r="C793" s="6">
         <v>8</v>
       </c>
-      <c r="D793" s="2"/>
+      <c r="D793" s="2">
+        <v>2</v>
+      </c>
+      <c r="G793" s="1"/>
+      <c r="H793" s="22"/>
     </row>
     <row r="794" spans="1:8">
       <c r="A794" s="7">
@@ -12925,7 +12937,11 @@
       <c r="C794" s="6">
         <v>6</v>
       </c>
-      <c r="D794" s="2"/>
+      <c r="D794" s="2">
+        <v>3</v>
+      </c>
+      <c r="G794" s="1"/>
+      <c r="H794" s="22"/>
     </row>
     <row r="795" spans="1:8">
       <c r="A795" s="7">
@@ -12937,7 +12953,9 @@
       <c r="C795" s="6">
         <v>6</v>
       </c>
-      <c r="D795" s="2"/>
+      <c r="D795" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="796" spans="1:8">
       <c r="A796" s="7">
@@ -12949,7 +12967,9 @@
       <c r="C796" s="6">
         <v>6</v>
       </c>
-      <c r="D796" s="2"/>
+      <c r="D796" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="797" spans="1:8">
       <c r="A797" s="7">
@@ -12961,7 +12981,9 @@
       <c r="C797" s="6">
         <v>1</v>
       </c>
-      <c r="D797" s="2"/>
+      <c r="D797" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="798" spans="1:8">
       <c r="A798" s="7">
@@ -12973,7 +12995,9 @@
       <c r="C798" s="6">
         <v>5</v>
       </c>
-      <c r="D798" s="2"/>
+      <c r="D798" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="799" spans="1:8">
       <c r="A799" s="7">
@@ -12985,7 +13009,9 @@
       <c r="C799" s="6">
         <v>5</v>
       </c>
-      <c r="D799" s="2"/>
+      <c r="D799" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="800" spans="1:8">
       <c r="A800" s="7">
@@ -12997,7 +13023,9 @@
       <c r="C800" s="6">
         <v>1</v>
       </c>
-      <c r="D800" s="2"/>
+      <c r="D800" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="801" spans="1:4">
       <c r="A801" s="7">
@@ -13009,7 +13037,129 @@
       <c r="C801" s="6">
         <v>1</v>
       </c>
-      <c r="D801" s="2"/>
+      <c r="D801" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4">
+      <c r="A802" s="7">
+        <v>46007</v>
+      </c>
+      <c r="B802" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C802" s="6">
+        <v>2</v>
+      </c>
+      <c r="D802" s="2"/>
+    </row>
+    <row r="803" spans="1:4">
+      <c r="A803" s="7">
+        <v>46007</v>
+      </c>
+      <c r="B803" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C803" s="6">
+        <v>2</v>
+      </c>
+      <c r="D803" s="2"/>
+    </row>
+    <row r="804" spans="1:4">
+      <c r="A804" s="7">
+        <v>46007</v>
+      </c>
+      <c r="B804" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C804" s="6">
+        <v>5</v>
+      </c>
+      <c r="D804" s="2"/>
+    </row>
+    <row r="805" spans="1:4">
+      <c r="A805" s="7">
+        <v>46007</v>
+      </c>
+      <c r="B805" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C805" s="6">
+        <v>5</v>
+      </c>
+      <c r="D805" s="2"/>
+    </row>
+    <row r="806" spans="1:4">
+      <c r="A806" s="7">
+        <v>46007</v>
+      </c>
+      <c r="B806" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C806" s="6">
+        <v>3</v>
+      </c>
+      <c r="D806" s="2"/>
+    </row>
+    <row r="807" spans="1:4">
+      <c r="A807" s="7">
+        <v>46007</v>
+      </c>
+      <c r="B807" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C807" s="6">
+        <v>3</v>
+      </c>
+      <c r="D807" s="2"/>
+    </row>
+    <row r="808" spans="1:4">
+      <c r="A808" s="7">
+        <v>46007</v>
+      </c>
+      <c r="B808" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C808" s="6">
+        <v>1</v>
+      </c>
+      <c r="D808" s="2"/>
+    </row>
+    <row r="809" spans="1:4">
+      <c r="A809" s="7">
+        <v>46007</v>
+      </c>
+      <c r="B809" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C809" s="6">
+        <v>1</v>
+      </c>
+      <c r="D809" s="2"/>
+    </row>
+    <row r="810" spans="1:4">
+      <c r="A810" s="7">
+        <v>46007</v>
+      </c>
+      <c r="B810" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C810" s="6">
+        <v>5</v>
+      </c>
+      <c r="D810" s="2"/>
+    </row>
+    <row r="811" spans="1:4">
+      <c r="A811" s="7">
+        <v>46007</v>
+      </c>
+      <c r="B811" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C811" s="6">
+        <v>5</v>
+      </c>
+      <c r="D811" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -795,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U811"/>
+  <dimension ref="A1:U818"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A779" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D793" sqref="D793"/>
+      <pane ySplit="1" topLeftCell="A782" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C803" sqref="C803"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -808,8 +808,8 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
     <col min="8" max="8" width="29.42578125" customWidth="1"/>
     <col min="9" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -13027,7 +13027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:4">
+    <row r="801" spans="1:7">
       <c r="A801" s="7">
         <v>46006</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:4">
+    <row r="802" spans="1:7">
       <c r="A802" s="7">
         <v>46007</v>
       </c>
@@ -13051,9 +13051,11 @@
       <c r="C802" s="6">
         <v>2</v>
       </c>
-      <c r="D802" s="2"/>
-    </row>
-    <row r="803" spans="1:4">
+      <c r="D802" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7">
       <c r="A803" s="7">
         <v>46007</v>
       </c>
@@ -13063,9 +13065,13 @@
       <c r="C803" s="6">
         <v>2</v>
       </c>
-      <c r="D803" s="2"/>
-    </row>
-    <row r="804" spans="1:4">
+      <c r="D803" s="2">
+        <v>2</v>
+      </c>
+      <c r="F803" s="1"/>
+      <c r="G803" s="22"/>
+    </row>
+    <row r="804" spans="1:7">
       <c r="A804" s="7">
         <v>46007</v>
       </c>
@@ -13075,9 +13081,13 @@
       <c r="C804" s="6">
         <v>5</v>
       </c>
-      <c r="D804" s="2"/>
-    </row>
-    <row r="805" spans="1:4">
+      <c r="D804" s="2">
+        <v>0</v>
+      </c>
+      <c r="F804" s="1"/>
+      <c r="G804" s="22"/>
+    </row>
+    <row r="805" spans="1:7">
       <c r="A805" s="7">
         <v>46007</v>
       </c>
@@ -13087,9 +13097,13 @@
       <c r="C805" s="6">
         <v>5</v>
       </c>
-      <c r="D805" s="2"/>
-    </row>
-    <row r="806" spans="1:4">
+      <c r="D805" s="2">
+        <v>0</v>
+      </c>
+      <c r="F805" s="1"/>
+      <c r="G805" s="22"/>
+    </row>
+    <row r="806" spans="1:7">
       <c r="A806" s="7">
         <v>46007</v>
       </c>
@@ -13099,9 +13113,13 @@
       <c r="C806" s="6">
         <v>3</v>
       </c>
-      <c r="D806" s="2"/>
-    </row>
-    <row r="807" spans="1:4">
+      <c r="D806" s="2">
+        <v>1</v>
+      </c>
+      <c r="F806" s="1"/>
+      <c r="G806" s="22"/>
+    </row>
+    <row r="807" spans="1:7">
       <c r="A807" s="7">
         <v>46007</v>
       </c>
@@ -13111,9 +13129,13 @@
       <c r="C807" s="6">
         <v>3</v>
       </c>
-      <c r="D807" s="2"/>
-    </row>
-    <row r="808" spans="1:4">
+      <c r="D807" s="2">
+        <v>1</v>
+      </c>
+      <c r="F807" s="1"/>
+      <c r="G807" s="22"/>
+    </row>
+    <row r="808" spans="1:7">
       <c r="A808" s="7">
         <v>46007</v>
       </c>
@@ -13123,9 +13145,13 @@
       <c r="C808" s="6">
         <v>1</v>
       </c>
-      <c r="D808" s="2"/>
-    </row>
-    <row r="809" spans="1:4">
+      <c r="D808" s="2">
+        <v>3</v>
+      </c>
+      <c r="F808" s="1"/>
+      <c r="G808" s="22"/>
+    </row>
+    <row r="809" spans="1:7">
       <c r="A809" s="7">
         <v>46007</v>
       </c>
@@ -13135,9 +13161,13 @@
       <c r="C809" s="6">
         <v>1</v>
       </c>
-      <c r="D809" s="2"/>
-    </row>
-    <row r="810" spans="1:4">
+      <c r="D809" s="2">
+        <v>3</v>
+      </c>
+      <c r="F809" s="1"/>
+      <c r="G809" s="22"/>
+    </row>
+    <row r="810" spans="1:7">
       <c r="A810" s="7">
         <v>46007</v>
       </c>
@@ -13147,9 +13177,11 @@
       <c r="C810" s="6">
         <v>5</v>
       </c>
-      <c r="D810" s="2"/>
-    </row>
-    <row r="811" spans="1:4">
+      <c r="D810" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7">
       <c r="A811" s="7">
         <v>46007</v>
       </c>
@@ -13159,7 +13191,93 @@
       <c r="C811" s="6">
         <v>5</v>
       </c>
-      <c r="D811" s="2"/>
+      <c r="D811" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7">
+      <c r="A812" s="7">
+        <v>46008</v>
+      </c>
+      <c r="B812" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C812" s="6">
+        <v>3</v>
+      </c>
+      <c r="D812" s="2"/>
+    </row>
+    <row r="813" spans="1:7">
+      <c r="A813" s="7">
+        <v>46008</v>
+      </c>
+      <c r="B813" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C813" s="6">
+        <v>3</v>
+      </c>
+      <c r="D813" s="2"/>
+    </row>
+    <row r="814" spans="1:7">
+      <c r="A814" s="7">
+        <v>46008</v>
+      </c>
+      <c r="B814" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C814" s="6">
+        <v>5</v>
+      </c>
+      <c r="D814" s="2"/>
+    </row>
+    <row r="815" spans="1:7">
+      <c r="A815" s="7">
+        <v>46008</v>
+      </c>
+      <c r="B815" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C815" s="6">
+        <v>5</v>
+      </c>
+      <c r="D815" s="2"/>
+    </row>
+    <row r="816" spans="1:7">
+      <c r="A816" s="7">
+        <v>46008</v>
+      </c>
+      <c r="B816" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C816" s="6">
+        <v>8</v>
+      </c>
+      <c r="D816" s="2"/>
+    </row>
+    <row r="817" spans="1:4">
+      <c r="A817" s="7">
+        <v>46008</v>
+      </c>
+      <c r="B817" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C817" s="6">
+        <v>3</v>
+      </c>
+      <c r="D817" s="2"/>
+    </row>
+    <row r="818" spans="1:4">
+      <c r="A818" s="7">
+        <v>46008</v>
+      </c>
+      <c r="B818" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C818" s="6">
+        <v>3</v>
+      </c>
+      <c r="D818" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -795,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U818"/>
+  <dimension ref="A1:U832"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A782" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C803" sqref="C803"/>
+      <pane ySplit="1" topLeftCell="A793" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D817" sqref="D817"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -809,7 +809,7 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
     <col min="8" max="8" width="29.42578125" customWidth="1"/>
     <col min="9" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -13027,7 +13027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:7">
+    <row r="801" spans="1:8">
       <c r="A801" s="7">
         <v>46006</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:7">
+    <row r="802" spans="1:8">
       <c r="A802" s="7">
         <v>46007</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="803" spans="1:7">
+    <row r="803" spans="1:8">
       <c r="A803" s="7">
         <v>46007</v>
       </c>
@@ -13071,7 +13071,7 @@
       <c r="F803" s="1"/>
       <c r="G803" s="22"/>
     </row>
-    <row r="804" spans="1:7">
+    <row r="804" spans="1:8">
       <c r="A804" s="7">
         <v>46007</v>
       </c>
@@ -13087,7 +13087,7 @@
       <c r="F804" s="1"/>
       <c r="G804" s="22"/>
     </row>
-    <row r="805" spans="1:7">
+    <row r="805" spans="1:8">
       <c r="A805" s="7">
         <v>46007</v>
       </c>
@@ -13103,7 +13103,7 @@
       <c r="F805" s="1"/>
       <c r="G805" s="22"/>
     </row>
-    <row r="806" spans="1:7">
+    <row r="806" spans="1:8">
       <c r="A806" s="7">
         <v>46007</v>
       </c>
@@ -13119,7 +13119,7 @@
       <c r="F806" s="1"/>
       <c r="G806" s="22"/>
     </row>
-    <row r="807" spans="1:7">
+    <row r="807" spans="1:8">
       <c r="A807" s="7">
         <v>46007</v>
       </c>
@@ -13135,7 +13135,7 @@
       <c r="F807" s="1"/>
       <c r="G807" s="22"/>
     </row>
-    <row r="808" spans="1:7">
+    <row r="808" spans="1:8">
       <c r="A808" s="7">
         <v>46007</v>
       </c>
@@ -13151,7 +13151,7 @@
       <c r="F808" s="1"/>
       <c r="G808" s="22"/>
     </row>
-    <row r="809" spans="1:7">
+    <row r="809" spans="1:8">
       <c r="A809" s="7">
         <v>46007</v>
       </c>
@@ -13167,7 +13167,7 @@
       <c r="F809" s="1"/>
       <c r="G809" s="22"/>
     </row>
-    <row r="810" spans="1:7">
+    <row r="810" spans="1:8">
       <c r="A810" s="7">
         <v>46007</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:7">
+    <row r="811" spans="1:8">
       <c r="A811" s="7">
         <v>46007</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:7">
+    <row r="812" spans="1:8">
       <c r="A812" s="7">
         <v>46008</v>
       </c>
@@ -13205,9 +13205,11 @@
       <c r="C812" s="6">
         <v>3</v>
       </c>
-      <c r="D812" s="2"/>
-    </row>
-    <row r="813" spans="1:7">
+      <c r="D812" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8">
       <c r="A813" s="7">
         <v>46008</v>
       </c>
@@ -13217,9 +13219,13 @@
       <c r="C813" s="6">
         <v>3</v>
       </c>
-      <c r="D813" s="2"/>
-    </row>
-    <row r="814" spans="1:7">
+      <c r="D813" s="2">
+        <v>2</v>
+      </c>
+      <c r="G813" s="1"/>
+      <c r="H813" s="22"/>
+    </row>
+    <row r="814" spans="1:8">
       <c r="A814" s="7">
         <v>46008</v>
       </c>
@@ -13229,9 +13235,13 @@
       <c r="C814" s="6">
         <v>5</v>
       </c>
-      <c r="D814" s="2"/>
-    </row>
-    <row r="815" spans="1:7">
+      <c r="D814" s="2">
+        <v>0</v>
+      </c>
+      <c r="G814" s="1"/>
+      <c r="H814" s="22"/>
+    </row>
+    <row r="815" spans="1:8">
       <c r="A815" s="7">
         <v>46008</v>
       </c>
@@ -13241,9 +13251,13 @@
       <c r="C815" s="6">
         <v>5</v>
       </c>
-      <c r="D815" s="2"/>
-    </row>
-    <row r="816" spans="1:7">
+      <c r="D815" s="2">
+        <v>0</v>
+      </c>
+      <c r="G815" s="1"/>
+      <c r="H815" s="22"/>
+    </row>
+    <row r="816" spans="1:8">
       <c r="A816" s="7">
         <v>46008</v>
       </c>
@@ -13253,9 +13267,13 @@
       <c r="C816" s="6">
         <v>8</v>
       </c>
-      <c r="D816" s="2"/>
-    </row>
-    <row r="817" spans="1:4">
+      <c r="D816" s="2">
+        <v>1</v>
+      </c>
+      <c r="G816" s="1"/>
+      <c r="H816" s="22"/>
+    </row>
+    <row r="817" spans="1:8">
       <c r="A817" s="7">
         <v>46008</v>
       </c>
@@ -13265,9 +13283,13 @@
       <c r="C817" s="6">
         <v>3</v>
       </c>
-      <c r="D817" s="2"/>
-    </row>
-    <row r="818" spans="1:4">
+      <c r="D817" s="2">
+        <v>0</v>
+      </c>
+      <c r="G817" s="1"/>
+      <c r="H817" s="22"/>
+    </row>
+    <row r="818" spans="1:8">
       <c r="A818" s="7">
         <v>46008</v>
       </c>
@@ -13277,7 +13299,155 @@
       <c r="C818" s="6">
         <v>3</v>
       </c>
-      <c r="D818" s="2"/>
+      <c r="D818" s="2">
+        <v>0</v>
+      </c>
+      <c r="G818" s="1"/>
+      <c r="H818" s="22"/>
+    </row>
+    <row r="819" spans="1:8">
+      <c r="A819" s="7">
+        <v>46008</v>
+      </c>
+      <c r="B819" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C819" s="2">
+        <v>0</v>
+      </c>
+      <c r="D819" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8">
+      <c r="A820" s="7">
+        <v>46008</v>
+      </c>
+      <c r="B820" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C820" s="2">
+        <v>0</v>
+      </c>
+      <c r="D820" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="821" spans="1:8">
+      <c r="A821" s="7">
+        <v>46009</v>
+      </c>
+      <c r="B821" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C821" s="2">
+        <v>1</v>
+      </c>
+      <c r="D821" s="2"/>
+    </row>
+    <row r="822" spans="1:8">
+      <c r="A822" s="7">
+        <v>46009</v>
+      </c>
+      <c r="B822" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C822" s="2">
+        <v>1</v>
+      </c>
+      <c r="D822" s="2"/>
+    </row>
+    <row r="823" spans="1:8">
+      <c r="A823" s="7">
+        <v>46009</v>
+      </c>
+      <c r="B823" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C823" s="2">
+        <v>5</v>
+      </c>
+      <c r="D823" s="2"/>
+    </row>
+    <row r="824" spans="1:8">
+      <c r="A824" s="7">
+        <v>46009</v>
+      </c>
+      <c r="B824" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C824" s="2">
+        <v>5</v>
+      </c>
+      <c r="D824" s="2"/>
+    </row>
+    <row r="825" spans="1:8">
+      <c r="A825" s="7">
+        <v>46009</v>
+      </c>
+      <c r="B825" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C825" s="2">
+        <v>9</v>
+      </c>
+      <c r="D825" s="2"/>
+    </row>
+    <row r="826" spans="1:8">
+      <c r="A826" s="7">
+        <v>46010</v>
+      </c>
+      <c r="B826" s="2"/>
+      <c r="C826" s="2"/>
+      <c r="D826" s="2"/>
+    </row>
+    <row r="827" spans="1:8">
+      <c r="A827" s="7">
+        <v>46010</v>
+      </c>
+      <c r="B827" s="2"/>
+      <c r="C827" s="2"/>
+      <c r="D827" s="2"/>
+    </row>
+    <row r="828" spans="1:8">
+      <c r="A828" s="7">
+        <v>46010</v>
+      </c>
+      <c r="B828" s="2"/>
+      <c r="C828" s="2"/>
+      <c r="D828" s="2"/>
+    </row>
+    <row r="829" spans="1:8">
+      <c r="A829" s="7">
+        <v>46010</v>
+      </c>
+      <c r="B829" s="2"/>
+      <c r="C829" s="2"/>
+      <c r="D829" s="2"/>
+    </row>
+    <row r="830" spans="1:8">
+      <c r="A830" s="7">
+        <v>46010</v>
+      </c>
+      <c r="B830" s="2"/>
+      <c r="C830" s="2"/>
+      <c r="D830" s="2"/>
+    </row>
+    <row r="831" spans="1:8">
+      <c r="A831" s="7">
+        <v>46010</v>
+      </c>
+      <c r="B831" s="2"/>
+      <c r="C831" s="2"/>
+      <c r="D831" s="2"/>
+    </row>
+    <row r="832" spans="1:8">
+      <c r="A832" s="7">
+        <v>46010</v>
+      </c>
+      <c r="B832" s="2"/>
+      <c r="C832" s="2"/>
+      <c r="D832" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -798,8 +798,8 @@
   <dimension ref="A1:U832"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A793" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D817" sqref="D817"/>
+      <pane ySplit="1" topLeftCell="A808" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B830" sqref="B830"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -809,7 +809,7 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
     <col min="8" max="8" width="29.42578125" customWidth="1"/>
     <col min="9" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -13343,7 +13343,9 @@
       <c r="C821" s="2">
         <v>1</v>
       </c>
-      <c r="D821" s="2"/>
+      <c r="D821" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="822" spans="1:8">
       <c r="A822" s="7">
@@ -13355,7 +13357,11 @@
       <c r="C822" s="2">
         <v>1</v>
       </c>
-      <c r="D822" s="2"/>
+      <c r="D822" s="2">
+        <v>1</v>
+      </c>
+      <c r="G822" s="1"/>
+      <c r="H822" s="22"/>
     </row>
     <row r="823" spans="1:8">
       <c r="A823" s="7">
@@ -13367,7 +13373,11 @@
       <c r="C823" s="2">
         <v>5</v>
       </c>
-      <c r="D823" s="2"/>
+      <c r="D823" s="2">
+        <v>5</v>
+      </c>
+      <c r="G823" s="1"/>
+      <c r="H823" s="22"/>
     </row>
     <row r="824" spans="1:8">
       <c r="A824" s="7">
@@ -13379,7 +13389,11 @@
       <c r="C824" s="2">
         <v>5</v>
       </c>
-      <c r="D824" s="2"/>
+      <c r="D824" s="2">
+        <v>5</v>
+      </c>
+      <c r="G824" s="1"/>
+      <c r="H824" s="22"/>
     </row>
     <row r="825" spans="1:8">
       <c r="A825" s="7">
@@ -13391,62 +13405,104 @@
       <c r="C825" s="2">
         <v>9</v>
       </c>
-      <c r="D825" s="2"/>
+      <c r="D825" s="2">
+        <v>3</v>
+      </c>
+      <c r="G825" s="1"/>
+      <c r="H825" s="22"/>
     </row>
     <row r="826" spans="1:8">
       <c r="A826" s="7">
         <v>46010</v>
       </c>
-      <c r="B826" s="2"/>
-      <c r="C826" s="2"/>
-      <c r="D826" s="2"/>
+      <c r="B826" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C826" s="2">
+        <v>0</v>
+      </c>
+      <c r="D826" s="2">
+        <v>2</v>
+      </c>
+      <c r="G826" s="1"/>
+      <c r="H826" s="22"/>
     </row>
     <row r="827" spans="1:8">
       <c r="A827" s="7">
         <v>46010</v>
       </c>
-      <c r="B827" s="2"/>
-      <c r="C827" s="2"/>
-      <c r="D827" s="2"/>
+      <c r="B827" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C827" s="2">
+        <v>0</v>
+      </c>
+      <c r="D827" s="2">
+        <v>2</v>
+      </c>
+      <c r="G827" s="1"/>
+      <c r="H827" s="22"/>
     </row>
     <row r="828" spans="1:8">
       <c r="A828" s="7">
         <v>46010</v>
       </c>
-      <c r="B828" s="2"/>
-      <c r="C828" s="2"/>
+      <c r="B828" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C828" s="2">
+        <v>3</v>
+      </c>
       <c r="D828" s="2"/>
+      <c r="G828" s="1"/>
+      <c r="H828" s="22"/>
     </row>
     <row r="829" spans="1:8">
       <c r="A829" s="7">
         <v>46010</v>
       </c>
-      <c r="B829" s="2"/>
-      <c r="C829" s="2"/>
+      <c r="B829" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C829" s="2">
+        <v>3</v>
+      </c>
       <c r="D829" s="2"/>
     </row>
     <row r="830" spans="1:8">
       <c r="A830" s="7">
         <v>46010</v>
       </c>
-      <c r="B830" s="2"/>
-      <c r="C830" s="2"/>
+      <c r="B830" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C830" s="2">
+        <v>2</v>
+      </c>
       <c r="D830" s="2"/>
     </row>
     <row r="831" spans="1:8">
       <c r="A831" s="7">
         <v>46010</v>
       </c>
-      <c r="B831" s="2"/>
-      <c r="C831" s="2"/>
+      <c r="B831" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C831" s="2">
+        <v>2</v>
+      </c>
       <c r="D831" s="2"/>
     </row>
     <row r="832" spans="1:8">
       <c r="A832" s="7">
         <v>46010</v>
       </c>
-      <c r="B832" s="2"/>
-      <c r="C832" s="2"/>
+      <c r="B832" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C832" s="2">
+        <v>5</v>
+      </c>
       <c r="D832" s="2"/>
     </row>
   </sheetData>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -795,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U832"/>
+  <dimension ref="A1:U846"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A808" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B830" sqref="B830"/>
+      <pane ySplit="1" topLeftCell="A809" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C831" sqref="C831"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -809,7 +809,7 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
     <col min="8" max="8" width="29.42578125" customWidth="1"/>
     <col min="9" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -13238,7 +13238,7 @@
       <c r="D814" s="2">
         <v>0</v>
       </c>
-      <c r="G814" s="1"/>
+      <c r="G814" s="52"/>
       <c r="H814" s="22"/>
     </row>
     <row r="815" spans="1:8">
@@ -13254,7 +13254,7 @@
       <c r="D815" s="2">
         <v>0</v>
       </c>
-      <c r="G815" s="1"/>
+      <c r="G815" s="52"/>
       <c r="H815" s="22"/>
     </row>
     <row r="816" spans="1:8">
@@ -13270,10 +13270,10 @@
       <c r="D816" s="2">
         <v>1</v>
       </c>
-      <c r="G816" s="1"/>
+      <c r="G816" s="52"/>
       <c r="H816" s="22"/>
     </row>
-    <row r="817" spans="1:8">
+    <row r="817" spans="1:7">
       <c r="A817" s="7">
         <v>46008</v>
       </c>
@@ -13286,10 +13286,9 @@
       <c r="D817" s="2">
         <v>0</v>
       </c>
-      <c r="G817" s="1"/>
-      <c r="H817" s="22"/>
-    </row>
-    <row r="818" spans="1:8">
+      <c r="G817" s="52"/>
+    </row>
+    <row r="818" spans="1:7">
       <c r="A818" s="7">
         <v>46008</v>
       </c>
@@ -13302,10 +13301,9 @@
       <c r="D818" s="2">
         <v>0</v>
       </c>
-      <c r="G818" s="1"/>
-      <c r="H818" s="22"/>
-    </row>
-    <row r="819" spans="1:8">
+      <c r="G818" s="52"/>
+    </row>
+    <row r="819" spans="1:7">
       <c r="A819" s="7">
         <v>46008</v>
       </c>
@@ -13318,8 +13316,9 @@
       <c r="D819" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="820" spans="1:8">
+      <c r="G819" s="1"/>
+    </row>
+    <row r="820" spans="1:7">
       <c r="A820" s="7">
         <v>46008</v>
       </c>
@@ -13332,8 +13331,9 @@
       <c r="D820" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="821" spans="1:8">
+      <c r="G820" s="52"/>
+    </row>
+    <row r="821" spans="1:7">
       <c r="A821" s="7">
         <v>46009</v>
       </c>
@@ -13346,8 +13346,9 @@
       <c r="D821" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="822" spans="1:8">
+      <c r="G821" s="52"/>
+    </row>
+    <row r="822" spans="1:7">
       <c r="A822" s="7">
         <v>46009</v>
       </c>
@@ -13360,10 +13361,9 @@
       <c r="D822" s="2">
         <v>1</v>
       </c>
-      <c r="G822" s="1"/>
-      <c r="H822" s="22"/>
-    </row>
-    <row r="823" spans="1:8">
+      <c r="G822" s="52"/>
+    </row>
+    <row r="823" spans="1:7">
       <c r="A823" s="7">
         <v>46009</v>
       </c>
@@ -13376,10 +13376,9 @@
       <c r="D823" s="2">
         <v>5</v>
       </c>
-      <c r="G823" s="1"/>
-      <c r="H823" s="22"/>
-    </row>
-    <row r="824" spans="1:8">
+      <c r="G823" s="52"/>
+    </row>
+    <row r="824" spans="1:7">
       <c r="A824" s="7">
         <v>46009</v>
       </c>
@@ -13393,9 +13392,8 @@
         <v>5</v>
       </c>
       <c r="G824" s="1"/>
-      <c r="H824" s="22"/>
-    </row>
-    <row r="825" spans="1:8">
+    </row>
+    <row r="825" spans="1:7">
       <c r="A825" s="7">
         <v>46009</v>
       </c>
@@ -13408,10 +13406,9 @@
       <c r="D825" s="2">
         <v>3</v>
       </c>
-      <c r="G825" s="1"/>
-      <c r="H825" s="22"/>
-    </row>
-    <row r="826" spans="1:8">
+      <c r="G825" s="52"/>
+    </row>
+    <row r="826" spans="1:7">
       <c r="A826" s="7">
         <v>46010</v>
       </c>
@@ -13425,9 +13422,8 @@
         <v>2</v>
       </c>
       <c r="G826" s="1"/>
-      <c r="H826" s="22"/>
-    </row>
-    <row r="827" spans="1:8">
+    </row>
+    <row r="827" spans="1:7">
       <c r="A827" s="7">
         <v>46010</v>
       </c>
@@ -13440,10 +13436,8 @@
       <c r="D827" s="2">
         <v>2</v>
       </c>
-      <c r="G827" s="1"/>
-      <c r="H827" s="22"/>
-    </row>
-    <row r="828" spans="1:8">
+    </row>
+    <row r="828" spans="1:7">
       <c r="A828" s="7">
         <v>46010</v>
       </c>
@@ -13453,11 +13447,11 @@
       <c r="C828" s="2">
         <v>3</v>
       </c>
-      <c r="D828" s="2"/>
-      <c r="G828" s="1"/>
-      <c r="H828" s="22"/>
-    </row>
-    <row r="829" spans="1:8">
+      <c r="D828" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7">
       <c r="A829" s="7">
         <v>46010</v>
       </c>
@@ -13467,9 +13461,11 @@
       <c r="C829" s="2">
         <v>3</v>
       </c>
-      <c r="D829" s="2"/>
-    </row>
-    <row r="830" spans="1:8">
+      <c r="D829" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7">
       <c r="A830" s="7">
         <v>46010</v>
       </c>
@@ -13479,9 +13475,11 @@
       <c r="C830" s="2">
         <v>2</v>
       </c>
-      <c r="D830" s="2"/>
-    </row>
-    <row r="831" spans="1:8">
+      <c r="D830" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="831" spans="1:7">
       <c r="A831" s="7">
         <v>46010</v>
       </c>
@@ -13491,9 +13489,11 @@
       <c r="C831" s="2">
         <v>2</v>
       </c>
-      <c r="D831" s="2"/>
-    </row>
-    <row r="832" spans="1:8">
+      <c r="D831" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7">
       <c r="A832" s="7">
         <v>46010</v>
       </c>
@@ -13503,7 +13503,193 @@
       <c r="C832" s="2">
         <v>5</v>
       </c>
-      <c r="D832" s="2"/>
+      <c r="D832" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4">
+      <c r="A833" s="7">
+        <v>46010</v>
+      </c>
+      <c r="B833" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C833" s="2">
+        <v>0</v>
+      </c>
+      <c r="D833" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4">
+      <c r="A834" s="7">
+        <v>46010</v>
+      </c>
+      <c r="B834" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C834" s="2">
+        <v>0</v>
+      </c>
+      <c r="D834" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4">
+      <c r="A835" s="7">
+        <v>46010</v>
+      </c>
+      <c r="B835" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C835" s="2">
+        <v>0</v>
+      </c>
+      <c r="D835" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4">
+      <c r="A836" s="7">
+        <v>46010</v>
+      </c>
+      <c r="B836" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C836" s="2">
+        <v>0</v>
+      </c>
+      <c r="D836" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4">
+      <c r="A837" s="7">
+        <v>46011</v>
+      </c>
+      <c r="B837" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C837" s="6">
+        <v>6</v>
+      </c>
+      <c r="D837" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4">
+      <c r="A838" s="7">
+        <v>46011</v>
+      </c>
+      <c r="B838" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C838" s="6">
+        <v>13</v>
+      </c>
+      <c r="D838" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4">
+      <c r="A839" s="7">
+        <v>46011</v>
+      </c>
+      <c r="B839" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C839" s="6">
+        <v>13</v>
+      </c>
+      <c r="D839" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4">
+      <c r="A840" s="7">
+        <v>46011</v>
+      </c>
+      <c r="B840" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C840" s="6">
+        <v>13</v>
+      </c>
+      <c r="D840" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4">
+      <c r="A841" s="7">
+        <v>46012</v>
+      </c>
+      <c r="B841" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C841" s="6">
+        <v>6</v>
+      </c>
+      <c r="D841" s="2"/>
+    </row>
+    <row r="842" spans="1:4">
+      <c r="A842" s="7">
+        <v>46012</v>
+      </c>
+      <c r="B842" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C842" s="6">
+        <v>7</v>
+      </c>
+      <c r="D842" s="2"/>
+    </row>
+    <row r="843" spans="1:4">
+      <c r="A843" s="7">
+        <v>46012</v>
+      </c>
+      <c r="B843" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C843" s="6">
+        <v>7</v>
+      </c>
+      <c r="D843" s="2"/>
+    </row>
+    <row r="844" spans="1:4">
+      <c r="A844" s="7">
+        <v>46012</v>
+      </c>
+      <c r="B844" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C844" s="2">
+        <v>3</v>
+      </c>
+      <c r="D844" s="2"/>
+    </row>
+    <row r="845" spans="1:4">
+      <c r="A845" s="7">
+        <v>46012</v>
+      </c>
+      <c r="B845" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C845" s="2">
+        <v>3</v>
+      </c>
+      <c r="D845" s="2"/>
+    </row>
+    <row r="846" spans="1:4">
+      <c r="A846" s="7">
+        <v>46012</v>
+      </c>
+      <c r="B846" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C846" s="2">
+        <v>3</v>
+      </c>
+      <c r="D846" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -795,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U846"/>
+  <dimension ref="A1:U854"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A809" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C831" sqref="C831"/>
+      <pane ySplit="1" topLeftCell="A818" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A849" sqref="A849:A854"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -809,7 +809,7 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
     <col min="8" max="8" width="29.42578125" customWidth="1"/>
     <col min="9" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -13507,7 +13507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:4">
+    <row r="833" spans="1:8">
       <c r="A833" s="7">
         <v>46010</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="834" spans="1:4">
+    <row r="834" spans="1:8">
       <c r="A834" s="7">
         <v>46010</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="835" spans="1:4">
+    <row r="835" spans="1:8">
       <c r="A835" s="7">
         <v>46010</v>
       </c>
@@ -13549,7 +13549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:4">
+    <row r="836" spans="1:8">
       <c r="A836" s="7">
         <v>46010</v>
       </c>
@@ -13563,7 +13563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:4">
+    <row r="837" spans="1:8">
       <c r="A837" s="7">
         <v>46011</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="838" spans="1:4">
+    <row r="838" spans="1:8">
       <c r="A838" s="7">
         <v>46011</v>
       </c>
@@ -13591,7 +13591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="839" spans="1:4">
+    <row r="839" spans="1:8">
       <c r="A839" s="7">
         <v>46011</v>
       </c>
@@ -13605,7 +13605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="840" spans="1:4">
+    <row r="840" spans="1:8">
       <c r="A840" s="7">
         <v>46011</v>
       </c>
@@ -13619,9 +13619,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="841" spans="1:4">
+    <row r="841" spans="1:8">
       <c r="A841" s="7">
-        <v>46012</v>
+        <v>46013</v>
       </c>
       <c r="B841" s="2" t="s">
         <v>3</v>
@@ -13629,11 +13629,13 @@
       <c r="C841" s="6">
         <v>6</v>
       </c>
-      <c r="D841" s="2"/>
-    </row>
-    <row r="842" spans="1:4">
+      <c r="D841" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="842" spans="1:8">
       <c r="A842" s="7">
-        <v>46012</v>
+        <v>46013</v>
       </c>
       <c r="B842" s="29" t="s">
         <v>16</v>
@@ -13641,11 +13643,15 @@
       <c r="C842" s="6">
         <v>7</v>
       </c>
-      <c r="D842" s="2"/>
-    </row>
-    <row r="843" spans="1:4">
+      <c r="D842" s="2">
+        <v>0</v>
+      </c>
+      <c r="G842" s="1"/>
+      <c r="H842" s="22"/>
+    </row>
+    <row r="843" spans="1:8">
       <c r="A843" s="7">
-        <v>46012</v>
+        <v>46013</v>
       </c>
       <c r="B843" s="29" t="s">
         <v>10</v>
@@ -13653,11 +13659,15 @@
       <c r="C843" s="6">
         <v>7</v>
       </c>
-      <c r="D843" s="2"/>
-    </row>
-    <row r="844" spans="1:4">
+      <c r="D843" s="2">
+        <v>0</v>
+      </c>
+      <c r="G843" s="1"/>
+      <c r="H843" s="22"/>
+    </row>
+    <row r="844" spans="1:8">
       <c r="A844" s="7">
-        <v>46012</v>
+        <v>46013</v>
       </c>
       <c r="B844" s="2" t="s">
         <v>6</v>
@@ -13665,11 +13675,15 @@
       <c r="C844" s="2">
         <v>3</v>
       </c>
-      <c r="D844" s="2"/>
-    </row>
-    <row r="845" spans="1:4">
+      <c r="D844" s="2">
+        <v>5</v>
+      </c>
+      <c r="G844" s="1"/>
+      <c r="H844" s="22"/>
+    </row>
+    <row r="845" spans="1:8">
       <c r="A845" s="7">
-        <v>46012</v>
+        <v>46013</v>
       </c>
       <c r="B845" s="27" t="s">
         <v>18</v>
@@ -13677,11 +13691,15 @@
       <c r="C845" s="2">
         <v>3</v>
       </c>
-      <c r="D845" s="2"/>
-    </row>
-    <row r="846" spans="1:4">
+      <c r="D845" s="2">
+        <v>0</v>
+      </c>
+      <c r="G845" s="1"/>
+      <c r="H845" s="22"/>
+    </row>
+    <row r="846" spans="1:8">
       <c r="A846" s="7">
-        <v>46012</v>
+        <v>46013</v>
       </c>
       <c r="B846" s="27" t="s">
         <v>8</v>
@@ -13689,7 +13707,111 @@
       <c r="C846" s="2">
         <v>3</v>
       </c>
-      <c r="D846" s="2"/>
+      <c r="D846" s="2">
+        <v>0</v>
+      </c>
+      <c r="G846" s="1"/>
+      <c r="H846" s="22"/>
+    </row>
+    <row r="847" spans="1:8">
+      <c r="A847" s="7">
+        <v>46013</v>
+      </c>
+      <c r="B847" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C847" s="2">
+        <v>0</v>
+      </c>
+      <c r="D847" s="2">
+        <v>3</v>
+      </c>
+      <c r="G847" s="1"/>
+      <c r="H847" s="22"/>
+    </row>
+    <row r="848" spans="1:8">
+      <c r="A848" s="7">
+        <v>46014</v>
+      </c>
+      <c r="B848" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C848" s="6">
+        <v>4</v>
+      </c>
+      <c r="D848" s="2"/>
+    </row>
+    <row r="849" spans="1:4">
+      <c r="A849" s="7">
+        <v>46014</v>
+      </c>
+      <c r="B849" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C849" s="6">
+        <v>4</v>
+      </c>
+      <c r="D849" s="2"/>
+    </row>
+    <row r="850" spans="1:4">
+      <c r="A850" s="7">
+        <v>46014</v>
+      </c>
+      <c r="B850" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C850" s="6">
+        <v>4</v>
+      </c>
+      <c r="D850" s="2"/>
+    </row>
+    <row r="851" spans="1:4">
+      <c r="A851" s="7">
+        <v>46014</v>
+      </c>
+      <c r="B851" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C851" s="6">
+        <v>5</v>
+      </c>
+      <c r="D851" s="2"/>
+    </row>
+    <row r="852" spans="1:4">
+      <c r="A852" s="7">
+        <v>46014</v>
+      </c>
+      <c r="B852" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C852" s="6">
+        <v>5</v>
+      </c>
+      <c r="D852" s="2"/>
+    </row>
+    <row r="853" spans="1:4">
+      <c r="A853" s="7">
+        <v>46014</v>
+      </c>
+      <c r="B853" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C853" s="6">
+        <v>1</v>
+      </c>
+      <c r="D853" s="2"/>
+    </row>
+    <row r="854" spans="1:4">
+      <c r="A854" s="7">
+        <v>46014</v>
+      </c>
+      <c r="B854" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C854" s="6">
+        <v>1</v>
+      </c>
+      <c r="D854" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$D$106</definedName>
   </definedNames>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -795,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U854"/>
+  <dimension ref="A1:U863"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A818" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A849" sqref="A849:A854"/>
+      <pane ySplit="1" topLeftCell="A827" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D847" sqref="D847"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -809,9 +809,9 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
-    <col min="9" max="11" width="22.7109375" customWidth="1"/>
+    <col min="7" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" customWidth="1"/>
+    <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -13739,9 +13739,11 @@
       <c r="C848" s="6">
         <v>4</v>
       </c>
-      <c r="D848" s="2"/>
-    </row>
-    <row r="849" spans="1:4">
+      <c r="D848" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="849" spans="1:9">
       <c r="A849" s="7">
         <v>46014</v>
       </c>
@@ -13751,9 +13753,13 @@
       <c r="C849" s="6">
         <v>4</v>
       </c>
-      <c r="D849" s="2"/>
-    </row>
-    <row r="850" spans="1:4">
+      <c r="D849" s="2">
+        <v>5</v>
+      </c>
+      <c r="H849" s="1"/>
+      <c r="I849" s="22"/>
+    </row>
+    <row r="850" spans="1:9">
       <c r="A850" s="7">
         <v>46014</v>
       </c>
@@ -13763,9 +13769,13 @@
       <c r="C850" s="6">
         <v>4</v>
       </c>
-      <c r="D850" s="2"/>
-    </row>
-    <row r="851" spans="1:4">
+      <c r="D850" s="2">
+        <v>5</v>
+      </c>
+      <c r="H850" s="1"/>
+      <c r="I850" s="22"/>
+    </row>
+    <row r="851" spans="1:9">
       <c r="A851" s="7">
         <v>46014</v>
       </c>
@@ -13775,9 +13785,13 @@
       <c r="C851" s="6">
         <v>5</v>
       </c>
-      <c r="D851" s="2"/>
-    </row>
-    <row r="852" spans="1:4">
+      <c r="D851" s="2">
+        <v>4</v>
+      </c>
+      <c r="H851" s="1"/>
+      <c r="I851" s="22"/>
+    </row>
+    <row r="852" spans="1:9">
       <c r="A852" s="7">
         <v>46014</v>
       </c>
@@ -13787,9 +13801,13 @@
       <c r="C852" s="6">
         <v>5</v>
       </c>
-      <c r="D852" s="2"/>
-    </row>
-    <row r="853" spans="1:4">
+      <c r="D852" s="2">
+        <v>4</v>
+      </c>
+      <c r="H852" s="1"/>
+      <c r="I852" s="22"/>
+    </row>
+    <row r="853" spans="1:9">
       <c r="A853" s="7">
         <v>46014</v>
       </c>
@@ -13799,9 +13817,13 @@
       <c r="C853" s="6">
         <v>1</v>
       </c>
-      <c r="D853" s="2"/>
-    </row>
-    <row r="854" spans="1:4">
+      <c r="D853" s="2">
+        <v>2</v>
+      </c>
+      <c r="H853" s="1"/>
+      <c r="I853" s="22"/>
+    </row>
+    <row r="854" spans="1:9">
       <c r="A854" s="7">
         <v>46014</v>
       </c>
@@ -13811,7 +13833,129 @@
       <c r="C854" s="6">
         <v>1</v>
       </c>
-      <c r="D854" s="2"/>
+      <c r="D854" s="2">
+        <v>2</v>
+      </c>
+      <c r="H854" s="1"/>
+      <c r="I854" s="22"/>
+    </row>
+    <row r="855" spans="1:9">
+      <c r="A855" s="7">
+        <v>46014</v>
+      </c>
+      <c r="B855" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C855" s="6">
+        <v>0</v>
+      </c>
+      <c r="D855" s="6">
+        <v>2</v>
+      </c>
+      <c r="H855" s="1"/>
+      <c r="I855" s="22"/>
+    </row>
+    <row r="856" spans="1:9">
+      <c r="A856" s="7">
+        <v>46014</v>
+      </c>
+      <c r="B856" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C856" s="6">
+        <v>0</v>
+      </c>
+      <c r="D856" s="6">
+        <v>2</v>
+      </c>
+      <c r="H856" s="1"/>
+      <c r="I856" s="22"/>
+    </row>
+    <row r="857" spans="1:9">
+      <c r="A857" s="7">
+        <v>46015</v>
+      </c>
+      <c r="B857" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C857" s="6">
+        <v>6</v>
+      </c>
+      <c r="D857" s="2"/>
+      <c r="H857" s="1"/>
+      <c r="I857" s="22"/>
+    </row>
+    <row r="858" spans="1:9">
+      <c r="A858" s="7">
+        <v>46015</v>
+      </c>
+      <c r="B858" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C858" s="6">
+        <v>6</v>
+      </c>
+      <c r="D858" s="2"/>
+    </row>
+    <row r="859" spans="1:9">
+      <c r="A859" s="7">
+        <v>46015</v>
+      </c>
+      <c r="B859" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C859" s="6">
+        <v>4</v>
+      </c>
+      <c r="D859" s="2"/>
+    </row>
+    <row r="860" spans="1:9">
+      <c r="A860" s="7">
+        <v>46015</v>
+      </c>
+      <c r="B860" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C860" s="6">
+        <v>9</v>
+      </c>
+      <c r="D860" s="2"/>
+    </row>
+    <row r="861" spans="1:9">
+      <c r="A861" s="7">
+        <v>46015</v>
+      </c>
+      <c r="B861" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C861" s="6">
+        <v>9</v>
+      </c>
+      <c r="D861" s="2"/>
+    </row>
+    <row r="862" spans="1:9">
+      <c r="A862" s="7">
+        <v>46015</v>
+      </c>
+      <c r="B862" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C862" s="6">
+        <v>2</v>
+      </c>
+      <c r="D862" s="2"/>
+    </row>
+    <row r="863" spans="1:9">
+      <c r="A863" s="7">
+        <v>46015</v>
+      </c>
+      <c r="B863" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C863" s="6">
+        <v>2</v>
+      </c>
+      <c r="D863" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -795,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U863"/>
+  <dimension ref="A1:U877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A827" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D847" sqref="D847"/>
+      <pane ySplit="1" topLeftCell="A839" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F860" sqref="F860"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -808,8 +808,9 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="8" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="9" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -13881,8 +13882,9 @@
       <c r="C857" s="6">
         <v>6</v>
       </c>
-      <c r="D857" s="2"/>
-      <c r="H857" s="1"/>
+      <c r="D857" s="2">
+        <v>6</v>
+      </c>
       <c r="I857" s="22"/>
     </row>
     <row r="858" spans="1:9">
@@ -13895,7 +13897,11 @@
       <c r="C858" s="6">
         <v>6</v>
       </c>
-      <c r="D858" s="2"/>
+      <c r="D858" s="2">
+        <v>6</v>
+      </c>
+      <c r="F858" s="1"/>
+      <c r="G858" s="22"/>
     </row>
     <row r="859" spans="1:9">
       <c r="A859" s="7">
@@ -13907,7 +13913,11 @@
       <c r="C859" s="6">
         <v>4</v>
       </c>
-      <c r="D859" s="2"/>
+      <c r="D859" s="2">
+        <v>5</v>
+      </c>
+      <c r="F859" s="1"/>
+      <c r="G859" s="22"/>
     </row>
     <row r="860" spans="1:9">
       <c r="A860" s="7">
@@ -13919,7 +13929,11 @@
       <c r="C860" s="6">
         <v>9</v>
       </c>
-      <c r="D860" s="2"/>
+      <c r="D860" s="2">
+        <v>7</v>
+      </c>
+      <c r="F860" s="1"/>
+      <c r="G860" s="22"/>
     </row>
     <row r="861" spans="1:9">
       <c r="A861" s="7">
@@ -13931,7 +13945,11 @@
       <c r="C861" s="6">
         <v>9</v>
       </c>
-      <c r="D861" s="2"/>
+      <c r="D861" s="2">
+        <v>7</v>
+      </c>
+      <c r="F861" s="1"/>
+      <c r="G861" s="22"/>
     </row>
     <row r="862" spans="1:9">
       <c r="A862" s="7">
@@ -13943,7 +13961,11 @@
       <c r="C862" s="6">
         <v>2</v>
       </c>
-      <c r="D862" s="2"/>
+      <c r="D862" s="2">
+        <v>5</v>
+      </c>
+      <c r="F862" s="1"/>
+      <c r="G862" s="22"/>
     </row>
     <row r="863" spans="1:9">
       <c r="A863" s="7">
@@ -13955,7 +13977,209 @@
       <c r="C863" s="6">
         <v>2</v>
       </c>
-      <c r="D863" s="2"/>
+      <c r="D863" s="2">
+        <v>5</v>
+      </c>
+      <c r="F863" s="1"/>
+      <c r="G863" s="22"/>
+    </row>
+    <row r="864" spans="1:9">
+      <c r="A864" s="7">
+        <v>46015</v>
+      </c>
+      <c r="B864" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C864" s="6">
+        <v>0</v>
+      </c>
+      <c r="D864" s="2">
+        <v>6</v>
+      </c>
+      <c r="F864" s="1"/>
+      <c r="G864" s="22"/>
+    </row>
+    <row r="865" spans="1:7">
+      <c r="A865" s="7">
+        <v>46015</v>
+      </c>
+      <c r="B865" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C865" s="6">
+        <v>0</v>
+      </c>
+      <c r="D865" s="2">
+        <v>6</v>
+      </c>
+      <c r="F865" s="1"/>
+      <c r="G865" s="22"/>
+    </row>
+    <row r="866" spans="1:7">
+      <c r="A866" s="7">
+        <v>46018</v>
+      </c>
+      <c r="B866" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C866" s="6">
+        <v>6</v>
+      </c>
+      <c r="D866" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7">
+      <c r="A867" s="7">
+        <v>46018</v>
+      </c>
+      <c r="B867" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C867" s="6">
+        <v>6</v>
+      </c>
+      <c r="D867" s="2">
+        <v>12</v>
+      </c>
+      <c r="F867" s="1"/>
+      <c r="G867" s="22"/>
+    </row>
+    <row r="868" spans="1:7">
+      <c r="A868" s="7">
+        <v>46018</v>
+      </c>
+      <c r="B868" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C868" s="6">
+        <v>8</v>
+      </c>
+      <c r="D868" s="2">
+        <v>5</v>
+      </c>
+      <c r="F868" s="1"/>
+      <c r="G868" s="22"/>
+    </row>
+    <row r="869" spans="1:7">
+      <c r="A869" s="7">
+        <v>46018</v>
+      </c>
+      <c r="B869" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C869" s="6">
+        <v>8</v>
+      </c>
+      <c r="D869" s="2">
+        <v>5</v>
+      </c>
+      <c r="F869" s="1"/>
+      <c r="G869" s="22"/>
+    </row>
+    <row r="870" spans="1:7">
+      <c r="A870" s="7">
+        <v>46018</v>
+      </c>
+      <c r="B870" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C870" s="6">
+        <v>11</v>
+      </c>
+      <c r="D870" s="2">
+        <v>6</v>
+      </c>
+      <c r="F870" s="1"/>
+      <c r="G870" s="22"/>
+    </row>
+    <row r="871" spans="1:7">
+      <c r="A871" s="7">
+        <v>46020</v>
+      </c>
+      <c r="B871" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C871" s="6">
+        <v>2</v>
+      </c>
+      <c r="D871" s="2"/>
+      <c r="F871" s="1"/>
+      <c r="G871" s="22"/>
+    </row>
+    <row r="872" spans="1:7">
+      <c r="A872" s="7">
+        <v>46020</v>
+      </c>
+      <c r="B872" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C872" s="6">
+        <v>2</v>
+      </c>
+      <c r="D872" s="2"/>
+      <c r="F872" s="1"/>
+      <c r="G872" s="22"/>
+    </row>
+    <row r="873" spans="1:7">
+      <c r="A873" s="7">
+        <v>46020</v>
+      </c>
+      <c r="B873" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C873" s="6">
+        <v>6</v>
+      </c>
+      <c r="D873" s="2"/>
+    </row>
+    <row r="874" spans="1:7">
+      <c r="A874" s="7">
+        <v>46020</v>
+      </c>
+      <c r="B874" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C874" s="6">
+        <v>6</v>
+      </c>
+      <c r="D874" s="2"/>
+    </row>
+    <row r="875" spans="1:7">
+      <c r="A875" s="7">
+        <v>46020</v>
+      </c>
+      <c r="B875" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C875" s="6">
+        <v>4</v>
+      </c>
+      <c r="D875" s="2"/>
+    </row>
+    <row r="876" spans="1:7">
+      <c r="A876" s="7">
+        <v>46020</v>
+      </c>
+      <c r="B876" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C876" s="6">
+        <v>4</v>
+      </c>
+      <c r="D876" s="2"/>
+    </row>
+    <row r="877" spans="1:7">
+      <c r="A877" s="7">
+        <v>46020</v>
+      </c>
+      <c r="B877" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C877" s="6">
+        <v>7</v>
+      </c>
+      <c r="D877" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -795,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U877"/>
+  <dimension ref="A1:U878"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A839" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F860" sqref="F860"/>
+      <pane ySplit="1" topLeftCell="A845" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A871" sqref="A871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14095,15 +14095,17 @@
     </row>
     <row r="871" spans="1:7">
       <c r="A871" s="7">
-        <v>46020</v>
-      </c>
-      <c r="B871" s="27" t="s">
-        <v>18</v>
+        <v>46018</v>
+      </c>
+      <c r="B871" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C871" s="6">
-        <v>2</v>
-      </c>
-      <c r="D871" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D871" s="2">
+        <v>1</v>
+      </c>
       <c r="F871" s="1"/>
       <c r="G871" s="22"/>
     </row>
@@ -14112,7 +14114,7 @@
         <v>46020</v>
       </c>
       <c r="B872" s="27" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C872" s="6">
         <v>2</v>
@@ -14125,20 +14127,22 @@
       <c r="A873" s="7">
         <v>46020</v>
       </c>
-      <c r="B873" s="64" t="s">
-        <v>4</v>
+      <c r="B873" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="C873" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D873" s="2"/>
+      <c r="F873" s="1"/>
+      <c r="G873" s="22"/>
     </row>
     <row r="874" spans="1:7">
       <c r="A874" s="7">
         <v>46020</v>
       </c>
       <c r="B874" s="64" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C874" s="6">
         <v>6</v>
@@ -14149,11 +14153,11 @@
       <c r="A875" s="7">
         <v>46020</v>
       </c>
-      <c r="B875" s="56" t="s">
-        <v>7</v>
+      <c r="B875" s="64" t="s">
+        <v>13</v>
       </c>
       <c r="C875" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D875" s="2"/>
     </row>
@@ -14162,7 +14166,7 @@
         <v>46020</v>
       </c>
       <c r="B876" s="56" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C876" s="6">
         <v>4</v>
@@ -14173,13 +14177,25 @@
       <c r="A877" s="7">
         <v>46020</v>
       </c>
-      <c r="B877" s="6" t="s">
-        <v>6</v>
+      <c r="B877" s="56" t="s">
+        <v>11</v>
       </c>
       <c r="C877" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D877" s="2"/>
+    </row>
+    <row r="878" spans="1:7">
+      <c r="A878" s="7">
+        <v>46020</v>
+      </c>
+      <c r="B878" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C878" s="6">
+        <v>7</v>
+      </c>
+      <c r="D878" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -795,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U878"/>
+  <dimension ref="A1:U887"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A845" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A871" sqref="A871"/>
+      <pane ySplit="1" topLeftCell="A851" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C876" sqref="C876"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -808,10 +808,8 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" customWidth="1"/>
+    <col min="6" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -13999,7 +13997,7 @@
       <c r="F864" s="1"/>
       <c r="G864" s="22"/>
     </row>
-    <row r="865" spans="1:7">
+    <row r="865" spans="1:8">
       <c r="A865" s="7">
         <v>46015</v>
       </c>
@@ -14015,7 +14013,7 @@
       <c r="F865" s="1"/>
       <c r="G865" s="22"/>
     </row>
-    <row r="866" spans="1:7">
+    <row r="866" spans="1:8">
       <c r="A866" s="7">
         <v>46018</v>
       </c>
@@ -14029,7 +14027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="867" spans="1:7">
+    <row r="867" spans="1:8">
       <c r="A867" s="7">
         <v>46018</v>
       </c>
@@ -14045,7 +14043,7 @@
       <c r="F867" s="1"/>
       <c r="G867" s="22"/>
     </row>
-    <row r="868" spans="1:7">
+    <row r="868" spans="1:8">
       <c r="A868" s="7">
         <v>46018</v>
       </c>
@@ -14061,7 +14059,7 @@
       <c r="F868" s="1"/>
       <c r="G868" s="22"/>
     </row>
-    <row r="869" spans="1:7">
+    <row r="869" spans="1:8">
       <c r="A869" s="7">
         <v>46018</v>
       </c>
@@ -14077,7 +14075,7 @@
       <c r="F869" s="1"/>
       <c r="G869" s="22"/>
     </row>
-    <row r="870" spans="1:7">
+    <row r="870" spans="1:8">
       <c r="A870" s="7">
         <v>46018</v>
       </c>
@@ -14093,7 +14091,7 @@
       <c r="F870" s="1"/>
       <c r="G870" s="22"/>
     </row>
-    <row r="871" spans="1:7">
+    <row r="871" spans="1:8">
       <c r="A871" s="7">
         <v>46018</v>
       </c>
@@ -14109,7 +14107,7 @@
       <c r="F871" s="1"/>
       <c r="G871" s="22"/>
     </row>
-    <row r="872" spans="1:7">
+    <row r="872" spans="1:8">
       <c r="A872" s="7">
         <v>46020</v>
       </c>
@@ -14119,11 +14117,12 @@
       <c r="C872" s="6">
         <v>2</v>
       </c>
-      <c r="D872" s="2"/>
+      <c r="D872" s="2">
+        <v>4</v>
+      </c>
       <c r="F872" s="1"/>
-      <c r="G872" s="22"/>
-    </row>
-    <row r="873" spans="1:7">
+    </row>
+    <row r="873" spans="1:8">
       <c r="A873" s="7">
         <v>46020</v>
       </c>
@@ -14133,11 +14132,14 @@
       <c r="C873" s="6">
         <v>2</v>
       </c>
-      <c r="D873" s="2"/>
+      <c r="D873" s="2">
+        <v>4</v>
+      </c>
       <c r="F873" s="1"/>
-      <c r="G873" s="22"/>
-    </row>
-    <row r="874" spans="1:7">
+      <c r="G873" s="1"/>
+      <c r="H873" s="22"/>
+    </row>
+    <row r="874" spans="1:8">
       <c r="A874" s="7">
         <v>46020</v>
       </c>
@@ -14147,9 +14149,13 @@
       <c r="C874" s="6">
         <v>6</v>
       </c>
-      <c r="D874" s="2"/>
-    </row>
-    <row r="875" spans="1:7">
+      <c r="D874" s="2">
+        <v>5</v>
+      </c>
+      <c r="G874" s="1"/>
+      <c r="H874" s="22"/>
+    </row>
+    <row r="875" spans="1:8">
       <c r="A875" s="7">
         <v>46020</v>
       </c>
@@ -14159,9 +14165,13 @@
       <c r="C875" s="6">
         <v>6</v>
       </c>
-      <c r="D875" s="2"/>
-    </row>
-    <row r="876" spans="1:7">
+      <c r="D875" s="2">
+        <v>5</v>
+      </c>
+      <c r="G875" s="1"/>
+      <c r="H875" s="22"/>
+    </row>
+    <row r="876" spans="1:8">
       <c r="A876" s="7">
         <v>46020</v>
       </c>
@@ -14171,9 +14181,13 @@
       <c r="C876" s="6">
         <v>4</v>
       </c>
-      <c r="D876" s="2"/>
-    </row>
-    <row r="877" spans="1:7">
+      <c r="D876" s="2">
+        <v>3</v>
+      </c>
+      <c r="G876" s="1"/>
+      <c r="H876" s="22"/>
+    </row>
+    <row r="877" spans="1:8">
       <c r="A877" s="7">
         <v>46020</v>
       </c>
@@ -14183,9 +14197,13 @@
       <c r="C877" s="6">
         <v>4</v>
       </c>
-      <c r="D877" s="2"/>
-    </row>
-    <row r="878" spans="1:7">
+      <c r="D877" s="2">
+        <v>3</v>
+      </c>
+      <c r="G877" s="1"/>
+      <c r="H877" s="22"/>
+    </row>
+    <row r="878" spans="1:8">
       <c r="A878" s="7">
         <v>46020</v>
       </c>
@@ -14195,7 +14213,121 @@
       <c r="C878" s="6">
         <v>7</v>
       </c>
-      <c r="D878" s="2"/>
+      <c r="D878" s="2">
+        <v>5</v>
+      </c>
+      <c r="G878" s="1"/>
+      <c r="H878" s="22"/>
+    </row>
+    <row r="879" spans="1:8">
+      <c r="A879" s="7">
+        <v>46021</v>
+      </c>
+      <c r="B879" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C879" s="6">
+        <v>3</v>
+      </c>
+      <c r="D879" s="2"/>
+      <c r="G879" s="1"/>
+      <c r="H879" s="22"/>
+    </row>
+    <row r="880" spans="1:8">
+      <c r="A880" s="7">
+        <v>46021</v>
+      </c>
+      <c r="B880" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C880" s="6">
+        <v>3</v>
+      </c>
+      <c r="D880" s="2"/>
+    </row>
+    <row r="881" spans="1:4">
+      <c r="A881" s="7">
+        <v>46021</v>
+      </c>
+      <c r="B881" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C881" s="6">
+        <v>4</v>
+      </c>
+      <c r="D881" s="2"/>
+    </row>
+    <row r="882" spans="1:4">
+      <c r="A882" s="7">
+        <v>46021</v>
+      </c>
+      <c r="B882" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C882" s="6">
+        <v>4</v>
+      </c>
+      <c r="D882" s="2"/>
+    </row>
+    <row r="883" spans="1:4">
+      <c r="A883" s="7">
+        <v>46021</v>
+      </c>
+      <c r="B883" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C883" s="6">
+        <v>2</v>
+      </c>
+      <c r="D883" s="2"/>
+    </row>
+    <row r="884" spans="1:4">
+      <c r="A884" s="7">
+        <v>46021</v>
+      </c>
+      <c r="B884" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C884" s="6">
+        <v>2</v>
+      </c>
+      <c r="D884" s="2"/>
+    </row>
+    <row r="885" spans="1:4">
+      <c r="A885" s="7">
+        <v>46021</v>
+      </c>
+      <c r="B885" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C885" s="6">
+        <v>4</v>
+      </c>
+      <c r="D885" s="2"/>
+    </row>
+    <row r="886" spans="1:4">
+      <c r="A886" s="7">
+        <v>46021</v>
+      </c>
+      <c r="B886" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C886" s="6">
+        <v>4</v>
+      </c>
+      <c r="D886" s="2"/>
+    </row>
+    <row r="887" spans="1:4">
+      <c r="A887" s="7">
+        <v>46021</v>
+      </c>
+      <c r="B887" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C887" s="6">
+        <v>9</v>
+      </c>
+      <c r="D887" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -795,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U887"/>
+  <dimension ref="A1:U891"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A851" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C876" sqref="C876"/>
+      <pane ySplit="1" topLeftCell="A857" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G886" sqref="G886"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -808,8 +808,8 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="9" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -14229,7 +14229,9 @@
       <c r="C879" s="6">
         <v>3</v>
       </c>
-      <c r="D879" s="2"/>
+      <c r="D879" s="2">
+        <v>5</v>
+      </c>
       <c r="G879" s="1"/>
       <c r="H879" s="22"/>
     </row>
@@ -14243,9 +14245,11 @@
       <c r="C880" s="6">
         <v>3</v>
       </c>
-      <c r="D880" s="2"/>
-    </row>
-    <row r="881" spans="1:4">
+      <c r="D880" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7">
       <c r="A881" s="7">
         <v>46021</v>
       </c>
@@ -14255,9 +14259,13 @@
       <c r="C881" s="6">
         <v>4</v>
       </c>
-      <c r="D881" s="2"/>
-    </row>
-    <row r="882" spans="1:4">
+      <c r="D881" s="2">
+        <v>1</v>
+      </c>
+      <c r="F881" s="1"/>
+      <c r="G881" s="22"/>
+    </row>
+    <row r="882" spans="1:7">
       <c r="A882" s="7">
         <v>46021</v>
       </c>
@@ -14267,9 +14275,13 @@
       <c r="C882" s="6">
         <v>4</v>
       </c>
-      <c r="D882" s="2"/>
-    </row>
-    <row r="883" spans="1:4">
+      <c r="D882" s="2">
+        <v>1</v>
+      </c>
+      <c r="F882" s="1"/>
+      <c r="G882" s="22"/>
+    </row>
+    <row r="883" spans="1:7">
       <c r="A883" s="7">
         <v>46021</v>
       </c>
@@ -14279,9 +14291,13 @@
       <c r="C883" s="6">
         <v>2</v>
       </c>
-      <c r="D883" s="2"/>
-    </row>
-    <row r="884" spans="1:4">
+      <c r="D883" s="2">
+        <v>5</v>
+      </c>
+      <c r="F883" s="1"/>
+      <c r="G883" s="22"/>
+    </row>
+    <row r="884" spans="1:7">
       <c r="A884" s="7">
         <v>46021</v>
       </c>
@@ -14291,9 +14307,13 @@
       <c r="C884" s="6">
         <v>2</v>
       </c>
-      <c r="D884" s="2"/>
-    </row>
-    <row r="885" spans="1:4">
+      <c r="D884" s="2">
+        <v>5</v>
+      </c>
+      <c r="F884" s="1"/>
+      <c r="G884" s="22"/>
+    </row>
+    <row r="885" spans="1:7">
       <c r="A885" s="7">
         <v>46021</v>
       </c>
@@ -14303,9 +14323,13 @@
       <c r="C885" s="6">
         <v>4</v>
       </c>
-      <c r="D885" s="2"/>
-    </row>
-    <row r="886" spans="1:4">
+      <c r="D885" s="2">
+        <v>2</v>
+      </c>
+      <c r="F885" s="1"/>
+      <c r="G885" s="22"/>
+    </row>
+    <row r="886" spans="1:7">
       <c r="A886" s="7">
         <v>46021</v>
       </c>
@@ -14315,9 +14339,13 @@
       <c r="C886" s="6">
         <v>4</v>
       </c>
-      <c r="D886" s="2"/>
-    </row>
-    <row r="887" spans="1:4">
+      <c r="D886" s="2">
+        <v>2</v>
+      </c>
+      <c r="F886" s="1"/>
+      <c r="G886" s="22"/>
+    </row>
+    <row r="887" spans="1:7">
       <c r="A887" s="7">
         <v>46021</v>
       </c>
@@ -14327,7 +14355,61 @@
       <c r="C887" s="6">
         <v>9</v>
       </c>
-      <c r="D887" s="2"/>
+      <c r="D887" s="2">
+        <v>9</v>
+      </c>
+      <c r="F887" s="1"/>
+      <c r="G887" s="22"/>
+    </row>
+    <row r="888" spans="1:7">
+      <c r="A888" s="7">
+        <v>46022</v>
+      </c>
+      <c r="B888" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C888" s="6">
+        <v>1</v>
+      </c>
+      <c r="D888" s="2"/>
+      <c r="F888" s="1"/>
+      <c r="G888" s="22"/>
+    </row>
+    <row r="889" spans="1:7">
+      <c r="A889" s="7">
+        <v>46022</v>
+      </c>
+      <c r="B889" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C889" s="6">
+        <v>1</v>
+      </c>
+      <c r="D889" s="2"/>
+    </row>
+    <row r="890" spans="1:7">
+      <c r="A890" s="7">
+        <v>46022</v>
+      </c>
+      <c r="B890" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C890" s="6">
+        <v>5</v>
+      </c>
+      <c r="D890" s="2"/>
+    </row>
+    <row r="891" spans="1:7">
+      <c r="A891" s="7">
+        <v>46022</v>
+      </c>
+      <c r="B891" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C891" s="6">
+        <v>6</v>
+      </c>
+      <c r="D891" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -795,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U891"/>
+  <dimension ref="A1:U899"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A857" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G886" sqref="G886"/>
+      <pane ySplit="1" topLeftCell="A866" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F891" sqref="F891"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -808,7 +808,7 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
     <col min="7" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -14371,9 +14371,9 @@
       <c r="C888" s="6">
         <v>1</v>
       </c>
-      <c r="D888" s="2"/>
-      <c r="F888" s="1"/>
-      <c r="G888" s="22"/>
+      <c r="D888" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="889" spans="1:7">
       <c r="A889" s="7">
@@ -14385,7 +14385,11 @@
       <c r="C889" s="6">
         <v>1</v>
       </c>
-      <c r="D889" s="2"/>
+      <c r="D889" s="2">
+        <v>3</v>
+      </c>
+      <c r="F889" s="1"/>
+      <c r="G889" s="22"/>
     </row>
     <row r="890" spans="1:7">
       <c r="A890" s="7">
@@ -14397,7 +14401,11 @@
       <c r="C890" s="6">
         <v>5</v>
       </c>
-      <c r="D890" s="2"/>
+      <c r="D890" s="2">
+        <v>6</v>
+      </c>
+      <c r="F890" s="1"/>
+      <c r="G890" s="22"/>
     </row>
     <row r="891" spans="1:7">
       <c r="A891" s="7">
@@ -14409,7 +14417,113 @@
       <c r="C891" s="6">
         <v>6</v>
       </c>
-      <c r="D891" s="2"/>
+      <c r="D891" s="2">
+        <v>5</v>
+      </c>
+      <c r="F891" s="1"/>
+      <c r="G891" s="22"/>
+    </row>
+    <row r="892" spans="1:7">
+      <c r="A892" s="7">
+        <v>45659</v>
+      </c>
+      <c r="B892" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C892" s="6">
+        <v>6</v>
+      </c>
+      <c r="D892" s="2"/>
+      <c r="F892" s="1"/>
+      <c r="G892" s="22"/>
+    </row>
+    <row r="893" spans="1:7">
+      <c r="A893" s="7">
+        <v>45659</v>
+      </c>
+      <c r="B893" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C893" s="6">
+        <v>6</v>
+      </c>
+      <c r="D893" s="2"/>
+      <c r="F893" s="1"/>
+      <c r="G893" s="22"/>
+    </row>
+    <row r="894" spans="1:7">
+      <c r="A894" s="7">
+        <v>45659</v>
+      </c>
+      <c r="B894" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C894" s="6">
+        <v>2</v>
+      </c>
+      <c r="D894" s="2"/>
+      <c r="F894" s="1"/>
+      <c r="G894" s="22"/>
+    </row>
+    <row r="895" spans="1:7">
+      <c r="A895" s="7">
+        <v>45659</v>
+      </c>
+      <c r="B895" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C895" s="6">
+        <v>2</v>
+      </c>
+      <c r="D895" s="2"/>
+    </row>
+    <row r="896" spans="1:7">
+      <c r="A896" s="7">
+        <v>45659</v>
+      </c>
+      <c r="B896" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C896" s="6">
+        <v>4</v>
+      </c>
+      <c r="D896" s="2"/>
+    </row>
+    <row r="897" spans="1:4">
+      <c r="A897" s="7">
+        <v>45659</v>
+      </c>
+      <c r="B897" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C897" s="6">
+        <v>4</v>
+      </c>
+      <c r="D897" s="2"/>
+    </row>
+    <row r="898" spans="1:4">
+      <c r="A898" s="7">
+        <v>45659</v>
+      </c>
+      <c r="B898" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C898" s="6">
+        <v>3</v>
+      </c>
+      <c r="D898" s="2"/>
+    </row>
+    <row r="899" spans="1:4">
+      <c r="A899" s="7">
+        <v>45659</v>
+      </c>
+      <c r="B899" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C899" s="6">
+        <v>3</v>
+      </c>
+      <c r="D899" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="22">
   <si>
     <t>Data</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>LA ROCCA STEFANO</t>
+  </si>
+  <si>
+    <t>MAZZARELLA SALVATORE</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,36 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -795,11 +827,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U899"/>
+  <dimension ref="A1:U916"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A866" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F891" sqref="F891"/>
+      <pane ySplit="1" topLeftCell="A884" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G902" sqref="G902"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -808,7 +840,7 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -14404,8 +14436,6 @@
       <c r="D890" s="2">
         <v>6</v>
       </c>
-      <c r="F890" s="1"/>
-      <c r="G890" s="22"/>
     </row>
     <row r="891" spans="1:7">
       <c r="A891" s="7">
@@ -14425,7 +14455,7 @@
     </row>
     <row r="892" spans="1:7">
       <c r="A892" s="7">
-        <v>45659</v>
+        <v>46024</v>
       </c>
       <c r="B892" s="27" t="s">
         <v>18</v>
@@ -14433,13 +14463,15 @@
       <c r="C892" s="6">
         <v>6</v>
       </c>
-      <c r="D892" s="2"/>
+      <c r="D892" s="2">
+        <v>5</v>
+      </c>
       <c r="F892" s="1"/>
       <c r="G892" s="22"/>
     </row>
     <row r="893" spans="1:7">
       <c r="A893" s="7">
-        <v>45659</v>
+        <v>46024</v>
       </c>
       <c r="B893" s="27" t="s">
         <v>8</v>
@@ -14447,13 +14479,15 @@
       <c r="C893" s="6">
         <v>6</v>
       </c>
-      <c r="D893" s="2"/>
+      <c r="D893" s="2">
+        <v>5</v>
+      </c>
       <c r="F893" s="1"/>
       <c r="G893" s="22"/>
     </row>
     <row r="894" spans="1:7">
       <c r="A894" s="7">
-        <v>45659</v>
+        <v>46024</v>
       </c>
       <c r="B894" s="56" t="s">
         <v>7</v>
@@ -14461,13 +14495,15 @@
       <c r="C894" s="6">
         <v>2</v>
       </c>
-      <c r="D894" s="2"/>
+      <c r="D894" s="2">
+        <v>3</v>
+      </c>
       <c r="F894" s="1"/>
       <c r="G894" s="22"/>
     </row>
     <row r="895" spans="1:7">
       <c r="A895" s="7">
-        <v>45659</v>
+        <v>46024</v>
       </c>
       <c r="B895" s="56" t="s">
         <v>11</v>
@@ -14475,23 +14511,31 @@
       <c r="C895" s="6">
         <v>2</v>
       </c>
-      <c r="D895" s="2"/>
+      <c r="D895" s="2">
+        <v>3</v>
+      </c>
+      <c r="F895" s="1"/>
+      <c r="G895" s="22"/>
     </row>
     <row r="896" spans="1:7">
       <c r="A896" s="7">
-        <v>45659</v>
-      </c>
-      <c r="B896" s="14" t="s">
+        <v>46024</v>
+      </c>
+      <c r="B896" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C896" s="6">
         <v>4</v>
       </c>
-      <c r="D896" s="2"/>
-    </row>
-    <row r="897" spans="1:4">
+      <c r="D896" s="2">
+        <v>4</v>
+      </c>
+      <c r="F896" s="1"/>
+      <c r="G896" s="22"/>
+    </row>
+    <row r="897" spans="1:7">
       <c r="A897" s="7">
-        <v>45659</v>
+        <v>46024</v>
       </c>
       <c r="B897" s="6" t="s">
         <v>6</v>
@@ -14499,11 +14543,15 @@
       <c r="C897" s="6">
         <v>4</v>
       </c>
-      <c r="D897" s="2"/>
-    </row>
-    <row r="898" spans="1:4">
+      <c r="D897" s="2">
+        <v>3</v>
+      </c>
+      <c r="F897" s="1"/>
+      <c r="G897" s="22"/>
+    </row>
+    <row r="898" spans="1:7">
       <c r="A898" s="7">
-        <v>45659</v>
+        <v>46024</v>
       </c>
       <c r="B898" s="30" t="s">
         <v>16</v>
@@ -14511,11 +14559,15 @@
       <c r="C898" s="6">
         <v>3</v>
       </c>
-      <c r="D898" s="2"/>
-    </row>
-    <row r="899" spans="1:4">
+      <c r="D898" s="2">
+        <v>5</v>
+      </c>
+      <c r="F898" s="1"/>
+      <c r="G898" s="22"/>
+    </row>
+    <row r="899" spans="1:7">
       <c r="A899" s="7">
-        <v>45659</v>
+        <v>46024</v>
       </c>
       <c r="B899" s="30" t="s">
         <v>10</v>
@@ -14523,7 +14575,235 @@
       <c r="C899" s="6">
         <v>3</v>
       </c>
-      <c r="D899" s="2"/>
+      <c r="D899" s="2">
+        <v>5</v>
+      </c>
+      <c r="F899" s="1"/>
+      <c r="G899" s="22"/>
+    </row>
+    <row r="900" spans="1:7">
+      <c r="A900" s="7">
+        <v>46024</v>
+      </c>
+      <c r="B900" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C900" s="6">
+        <v>0</v>
+      </c>
+      <c r="D900" s="2">
+        <v>4</v>
+      </c>
+      <c r="F900" s="1"/>
+      <c r="G900" s="22"/>
+    </row>
+    <row r="901" spans="1:7">
+      <c r="A901" s="7">
+        <v>46024</v>
+      </c>
+      <c r="B901" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C901" s="6">
+        <v>0</v>
+      </c>
+      <c r="D901" s="2">
+        <v>4</v>
+      </c>
+      <c r="F901" s="1"/>
+      <c r="G901" s="22"/>
+    </row>
+    <row r="902" spans="1:7">
+      <c r="A902" s="7">
+        <v>46025</v>
+      </c>
+      <c r="B902" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C902" s="6">
+        <v>3</v>
+      </c>
+      <c r="D902" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="903" spans="1:7">
+      <c r="A903" s="7">
+        <v>46025</v>
+      </c>
+      <c r="B903" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C903" s="6">
+        <v>3</v>
+      </c>
+      <c r="D903" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="904" spans="1:7">
+      <c r="A904" s="7">
+        <v>46025</v>
+      </c>
+      <c r="B904" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C904" s="6">
+        <v>0</v>
+      </c>
+      <c r="D904" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="905" spans="1:7">
+      <c r="A905" s="7">
+        <v>46025</v>
+      </c>
+      <c r="B905" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C905" s="6">
+        <v>0</v>
+      </c>
+      <c r="D905" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="906" spans="1:7">
+      <c r="A906" s="7">
+        <v>46025</v>
+      </c>
+      <c r="B906" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C906" s="6">
+        <v>0</v>
+      </c>
+      <c r="D906" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="907" spans="1:7">
+      <c r="A907" s="7">
+        <v>46025</v>
+      </c>
+      <c r="B907" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C907" s="6">
+        <v>0</v>
+      </c>
+      <c r="D907" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="908" spans="1:7">
+      <c r="A908" s="7">
+        <v>46027</v>
+      </c>
+      <c r="B908" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C908" s="6">
+        <v>5</v>
+      </c>
+      <c r="D908" s="2"/>
+    </row>
+    <row r="909" spans="1:7">
+      <c r="A909" s="7">
+        <v>46027</v>
+      </c>
+      <c r="B909" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C909" s="6">
+        <v>5</v>
+      </c>
+      <c r="D909" s="2"/>
+    </row>
+    <row r="910" spans="1:7">
+      <c r="A910" s="7">
+        <v>46027</v>
+      </c>
+      <c r="B910" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C910" s="6">
+        <v>2</v>
+      </c>
+      <c r="D910" s="2"/>
+    </row>
+    <row r="911" spans="1:7">
+      <c r="A911" s="7">
+        <v>46027</v>
+      </c>
+      <c r="B911" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C911" s="6">
+        <v>1</v>
+      </c>
+      <c r="D911" s="2"/>
+    </row>
+    <row r="912" spans="1:7">
+      <c r="A912" s="7">
+        <v>46027</v>
+      </c>
+      <c r="B912" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C912" s="6">
+        <v>1</v>
+      </c>
+      <c r="D912" s="2"/>
+    </row>
+    <row r="913" spans="1:4">
+      <c r="A913" s="7">
+        <v>46027</v>
+      </c>
+      <c r="B913" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C913" s="6">
+        <v>1</v>
+      </c>
+      <c r="D913" s="2"/>
+    </row>
+    <row r="914" spans="1:4">
+      <c r="A914" s="7">
+        <v>46027</v>
+      </c>
+      <c r="B914" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C914" s="6">
+        <v>1</v>
+      </c>
+      <c r="D914" s="2"/>
+    </row>
+    <row r="915" spans="1:4">
+      <c r="A915" s="7">
+        <v>46027</v>
+      </c>
+      <c r="B915" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C915" s="6">
+        <v>1</v>
+      </c>
+      <c r="D915" s="2"/>
+    </row>
+    <row r="916" spans="1:4">
+      <c r="A916" s="7">
+        <v>46027</v>
+      </c>
+      <c r="B916" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C916" s="6">
+        <v>1</v>
+      </c>
+      <c r="D916" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="22">
   <si>
     <t>Data</t>
   </si>
@@ -508,36 +508,7 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.89999084444715716"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.89999084444715716"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -827,11 +798,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U916"/>
+  <dimension ref="A1:U925"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A884" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G902" sqref="G902"/>
+      <pane ySplit="1" topLeftCell="A887" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A918" sqref="A918"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -841,7 +812,8 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="9" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -14533,7 +14505,7 @@
       <c r="F896" s="1"/>
       <c r="G896" s="22"/>
     </row>
-    <row r="897" spans="1:7">
+    <row r="897" spans="1:8">
       <c r="A897" s="7">
         <v>46024</v>
       </c>
@@ -14549,7 +14521,7 @@
       <c r="F897" s="1"/>
       <c r="G897" s="22"/>
     </row>
-    <row r="898" spans="1:7">
+    <row r="898" spans="1:8">
       <c r="A898" s="7">
         <v>46024</v>
       </c>
@@ -14565,7 +14537,7 @@
       <c r="F898" s="1"/>
       <c r="G898" s="22"/>
     </row>
-    <row r="899" spans="1:7">
+    <row r="899" spans="1:8">
       <c r="A899" s="7">
         <v>46024</v>
       </c>
@@ -14581,7 +14553,7 @@
       <c r="F899" s="1"/>
       <c r="G899" s="22"/>
     </row>
-    <row r="900" spans="1:7">
+    <row r="900" spans="1:8">
       <c r="A900" s="7">
         <v>46024</v>
       </c>
@@ -14597,7 +14569,7 @@
       <c r="F900" s="1"/>
       <c r="G900" s="22"/>
     </row>
-    <row r="901" spans="1:7">
+    <row r="901" spans="1:8">
       <c r="A901" s="7">
         <v>46024</v>
       </c>
@@ -14613,7 +14585,7 @@
       <c r="F901" s="1"/>
       <c r="G901" s="22"/>
     </row>
-    <row r="902" spans="1:7">
+    <row r="902" spans="1:8">
       <c r="A902" s="7">
         <v>46025</v>
       </c>
@@ -14627,7 +14599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="903" spans="1:7">
+    <row r="903" spans="1:8">
       <c r="A903" s="7">
         <v>46025</v>
       </c>
@@ -14641,7 +14613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="904" spans="1:7">
+    <row r="904" spans="1:8">
       <c r="A904" s="7">
         <v>46025</v>
       </c>
@@ -14655,7 +14627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="905" spans="1:7">
+    <row r="905" spans="1:8">
       <c r="A905" s="7">
         <v>46025</v>
       </c>
@@ -14669,7 +14641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="906" spans="1:7">
+    <row r="906" spans="1:8">
       <c r="A906" s="7">
         <v>46025</v>
       </c>
@@ -14683,7 +14655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="907" spans="1:7">
+    <row r="907" spans="1:8">
       <c r="A907" s="7">
         <v>46025</v>
       </c>
@@ -14697,7 +14669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="908" spans="1:7">
+    <row r="908" spans="1:8">
       <c r="A908" s="7">
         <v>46027</v>
       </c>
@@ -14707,9 +14679,11 @@
       <c r="C908" s="6">
         <v>5</v>
       </c>
-      <c r="D908" s="2"/>
-    </row>
-    <row r="909" spans="1:7">
+      <c r="D908" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="909" spans="1:8">
       <c r="A909" s="7">
         <v>46027</v>
       </c>
@@ -14719,9 +14693,13 @@
       <c r="C909" s="6">
         <v>5</v>
       </c>
-      <c r="D909" s="2"/>
-    </row>
-    <row r="910" spans="1:7">
+      <c r="D909" s="2">
+        <v>5</v>
+      </c>
+      <c r="G909" s="1"/>
+      <c r="H909" s="22"/>
+    </row>
+    <row r="910" spans="1:8">
       <c r="A910" s="7">
         <v>46027</v>
       </c>
@@ -14731,9 +14709,13 @@
       <c r="C910" s="6">
         <v>2</v>
       </c>
-      <c r="D910" s="2"/>
-    </row>
-    <row r="911" spans="1:7">
+      <c r="D910" s="2">
+        <v>3</v>
+      </c>
+      <c r="G910" s="1"/>
+      <c r="H910" s="22"/>
+    </row>
+    <row r="911" spans="1:8">
       <c r="A911" s="7">
         <v>46027</v>
       </c>
@@ -14743,9 +14725,13 @@
       <c r="C911" s="6">
         <v>1</v>
       </c>
-      <c r="D911" s="2"/>
-    </row>
-    <row r="912" spans="1:7">
+      <c r="D911" s="2">
+        <v>2</v>
+      </c>
+      <c r="G911" s="1"/>
+      <c r="H911" s="22"/>
+    </row>
+    <row r="912" spans="1:8">
       <c r="A912" s="7">
         <v>46027</v>
       </c>
@@ -14755,9 +14741,13 @@
       <c r="C912" s="6">
         <v>1</v>
       </c>
-      <c r="D912" s="2"/>
-    </row>
-    <row r="913" spans="1:4">
+      <c r="D912" s="2">
+        <v>2</v>
+      </c>
+      <c r="G912" s="1"/>
+      <c r="H912" s="22"/>
+    </row>
+    <row r="913" spans="1:8">
       <c r="A913" s="7">
         <v>46027</v>
       </c>
@@ -14767,9 +14757,13 @@
       <c r="C913" s="6">
         <v>1</v>
       </c>
-      <c r="D913" s="2"/>
-    </row>
-    <row r="914" spans="1:4">
+      <c r="D913" s="2">
+        <v>2</v>
+      </c>
+      <c r="G913" s="1"/>
+      <c r="H913" s="22"/>
+    </row>
+    <row r="914" spans="1:8">
       <c r="A914" s="7">
         <v>46027</v>
       </c>
@@ -14779,9 +14773,13 @@
       <c r="C914" s="6">
         <v>1</v>
       </c>
-      <c r="D914" s="2"/>
-    </row>
-    <row r="915" spans="1:4">
+      <c r="D914" s="2">
+        <v>2</v>
+      </c>
+      <c r="G914" s="1"/>
+      <c r="H914" s="22"/>
+    </row>
+    <row r="915" spans="1:8">
       <c r="A915" s="7">
         <v>46027</v>
       </c>
@@ -14791,9 +14789,13 @@
       <c r="C915" s="6">
         <v>1</v>
       </c>
-      <c r="D915" s="2"/>
-    </row>
-    <row r="916" spans="1:4">
+      <c r="D915" s="2">
+        <v>3</v>
+      </c>
+      <c r="G915" s="1"/>
+      <c r="H915" s="22"/>
+    </row>
+    <row r="916" spans="1:8">
       <c r="A916" s="7">
         <v>46027</v>
       </c>
@@ -14803,7 +14805,129 @@
       <c r="C916" s="6">
         <v>1</v>
       </c>
-      <c r="D916" s="2"/>
+      <c r="D916" s="2">
+        <v>3</v>
+      </c>
+      <c r="G916" s="1"/>
+      <c r="H916" s="22"/>
+    </row>
+    <row r="917" spans="1:8">
+      <c r="A917" s="7">
+        <v>46027</v>
+      </c>
+      <c r="B917" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C917" s="6">
+        <v>0</v>
+      </c>
+      <c r="D917" s="2">
+        <v>3</v>
+      </c>
+      <c r="G917" s="1"/>
+      <c r="H917" s="22"/>
+    </row>
+    <row r="918" spans="1:8">
+      <c r="A918" s="7">
+        <v>46027</v>
+      </c>
+      <c r="B918" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C918" s="6">
+        <v>0</v>
+      </c>
+      <c r="D918" s="2">
+        <v>3</v>
+      </c>
+      <c r="G918" s="1"/>
+      <c r="H918" s="22"/>
+    </row>
+    <row r="919" spans="1:8">
+      <c r="A919" s="7">
+        <v>46029</v>
+      </c>
+      <c r="B919" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C919" s="6">
+        <v>8</v>
+      </c>
+      <c r="D919" s="2"/>
+      <c r="G919" s="1"/>
+      <c r="H919" s="22"/>
+    </row>
+    <row r="920" spans="1:8">
+      <c r="A920" s="7">
+        <v>46029</v>
+      </c>
+      <c r="B920" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C920" s="6">
+        <v>2</v>
+      </c>
+      <c r="D920" s="2"/>
+    </row>
+    <row r="921" spans="1:8">
+      <c r="A921" s="7">
+        <v>46029</v>
+      </c>
+      <c r="B921" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C921" s="6">
+        <v>2</v>
+      </c>
+      <c r="D921" s="2"/>
+    </row>
+    <row r="922" spans="1:8">
+      <c r="A922" s="7">
+        <v>46029</v>
+      </c>
+      <c r="B922" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C922" s="6">
+        <v>5</v>
+      </c>
+      <c r="D922" s="2"/>
+    </row>
+    <row r="923" spans="1:8">
+      <c r="A923" s="7">
+        <v>46029</v>
+      </c>
+      <c r="B923" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C923" s="6">
+        <v>4</v>
+      </c>
+      <c r="D923" s="2"/>
+    </row>
+    <row r="924" spans="1:8">
+      <c r="A924" s="7">
+        <v>46029</v>
+      </c>
+      <c r="B924" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C924" s="2">
+        <v>4</v>
+      </c>
+      <c r="D924" s="2"/>
+    </row>
+    <row r="925" spans="1:8">
+      <c r="A925" s="7">
+        <v>46029</v>
+      </c>
+      <c r="B925" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C925" s="2">
+        <v>3</v>
+      </c>
+      <c r="D925" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="23">
   <si>
     <t>Data</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>MAZZARELLA SALVATORE</t>
+  </si>
+  <si>
+    <t>FINOCCHIARO SEBASTIANO</t>
   </si>
 </sst>
 </file>
@@ -798,17 +801,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U925"/>
+  <dimension ref="A1:U934"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A887" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A918" sqref="A918"/>
+      <pane ySplit="1" topLeftCell="A905" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D919" sqref="D919"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
@@ -14840,8 +14843,6 @@
       <c r="D918" s="2">
         <v>3</v>
       </c>
-      <c r="G918" s="1"/>
-      <c r="H918" s="22"/>
     </row>
     <row r="919" spans="1:8">
       <c r="A919" s="7">
@@ -14853,7 +14854,9 @@
       <c r="C919" s="6">
         <v>8</v>
       </c>
-      <c r="D919" s="2"/>
+      <c r="D919" s="2">
+        <v>8</v>
+      </c>
       <c r="G919" s="1"/>
       <c r="H919" s="22"/>
     </row>
@@ -14867,7 +14870,11 @@
       <c r="C920" s="6">
         <v>2</v>
       </c>
-      <c r="D920" s="2"/>
+      <c r="D920" s="2">
+        <v>1</v>
+      </c>
+      <c r="G920" s="1"/>
+      <c r="H920" s="22"/>
     </row>
     <row r="921" spans="1:8">
       <c r="A921" s="7">
@@ -14879,7 +14886,11 @@
       <c r="C921" s="6">
         <v>2</v>
       </c>
-      <c r="D921" s="2"/>
+      <c r="D921" s="2">
+        <v>1</v>
+      </c>
+      <c r="G921" s="1"/>
+      <c r="H921" s="22"/>
     </row>
     <row r="922" spans="1:8">
       <c r="A922" s="7">
@@ -14891,7 +14902,11 @@
       <c r="C922" s="6">
         <v>5</v>
       </c>
-      <c r="D922" s="2"/>
+      <c r="D922" s="2">
+        <v>5</v>
+      </c>
+      <c r="G922" s="1"/>
+      <c r="H922" s="22"/>
     </row>
     <row r="923" spans="1:8">
       <c r="A923" s="7">
@@ -14903,7 +14918,11 @@
       <c r="C923" s="6">
         <v>4</v>
       </c>
-      <c r="D923" s="2"/>
+      <c r="D923" s="2">
+        <v>1</v>
+      </c>
+      <c r="G923" s="1"/>
+      <c r="H923" s="22"/>
     </row>
     <row r="924" spans="1:8">
       <c r="A924" s="7">
@@ -14915,7 +14934,11 @@
       <c r="C924" s="2">
         <v>4</v>
       </c>
-      <c r="D924" s="2"/>
+      <c r="D924" s="2">
+        <v>1</v>
+      </c>
+      <c r="G924" s="1"/>
+      <c r="H924" s="22"/>
     </row>
     <row r="925" spans="1:8">
       <c r="A925" s="7">
@@ -14927,7 +14950,131 @@
       <c r="C925" s="2">
         <v>3</v>
       </c>
-      <c r="D925" s="2"/>
+      <c r="D925" s="2">
+        <v>0</v>
+      </c>
+      <c r="G925" s="1"/>
+      <c r="H925" s="22"/>
+    </row>
+    <row r="926" spans="1:8">
+      <c r="A926" s="7">
+        <v>46029</v>
+      </c>
+      <c r="B926" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C926" s="6">
+        <v>0</v>
+      </c>
+      <c r="D926" s="6">
+        <v>2</v>
+      </c>
+      <c r="G926" s="1"/>
+      <c r="H926" s="22"/>
+    </row>
+    <row r="927" spans="1:8">
+      <c r="A927" s="7">
+        <v>46029</v>
+      </c>
+      <c r="B927" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C927" s="6">
+        <v>0</v>
+      </c>
+      <c r="D927" s="6">
+        <v>2</v>
+      </c>
+      <c r="G927" s="1"/>
+      <c r="H927" s="22"/>
+    </row>
+    <row r="928" spans="1:8">
+      <c r="A928" s="7">
+        <v>46029</v>
+      </c>
+      <c r="B928" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C928" s="2">
+        <v>0</v>
+      </c>
+      <c r="D928" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4">
+      <c r="A929" s="7">
+        <v>46029</v>
+      </c>
+      <c r="B929" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C929" s="2">
+        <v>0</v>
+      </c>
+      <c r="D929" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4">
+      <c r="A930" s="7">
+        <v>46030</v>
+      </c>
+      <c r="B930" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C930" s="6">
+        <v>3</v>
+      </c>
+      <c r="D930" s="2"/>
+    </row>
+    <row r="931" spans="1:4">
+      <c r="A931" s="7">
+        <v>46030</v>
+      </c>
+      <c r="B931" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C931" s="6">
+        <v>3</v>
+      </c>
+      <c r="D931" s="2"/>
+    </row>
+    <row r="932" spans="1:4">
+      <c r="A932" s="7">
+        <v>46030</v>
+      </c>
+      <c r="B932" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C932" s="6">
+        <v>4</v>
+      </c>
+      <c r="D932" s="2"/>
+    </row>
+    <row r="933" spans="1:4">
+      <c r="A933" s="7">
+        <v>46030</v>
+      </c>
+      <c r="B933" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C933" s="6">
+        <v>4</v>
+      </c>
+      <c r="D933" s="2"/>
+    </row>
+    <row r="934" spans="1:4">
+      <c r="A934" s="7">
+        <v>46030</v>
+      </c>
+      <c r="B934" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C934" s="6">
+        <v>3</v>
+      </c>
+      <c r="D934" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="23">
   <si>
     <t>Data</t>
   </si>
@@ -801,16 +801,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U934"/>
+  <dimension ref="A1:U946"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A905" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D919" sqref="D919"/>
+      <pane ySplit="1" topLeftCell="A911" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B941" sqref="B941"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
@@ -15002,7 +15002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="929" spans="1:4">
+    <row r="929" spans="1:8">
       <c r="A929" s="7">
         <v>46029</v>
       </c>
@@ -15015,8 +15015,10 @@
       <c r="D929" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="930" spans="1:4">
+      <c r="G929" s="1"/>
+      <c r="H929" s="22"/>
+    </row>
+    <row r="930" spans="1:8">
       <c r="A930" s="7">
         <v>46030</v>
       </c>
@@ -15026,9 +15028,13 @@
       <c r="C930" s="6">
         <v>3</v>
       </c>
-      <c r="D930" s="2"/>
-    </row>
-    <row r="931" spans="1:4">
+      <c r="D930" s="2">
+        <v>3</v>
+      </c>
+      <c r="G930" s="1"/>
+      <c r="H930" s="22"/>
+    </row>
+    <row r="931" spans="1:8">
       <c r="A931" s="7">
         <v>46030</v>
       </c>
@@ -15038,9 +15044,13 @@
       <c r="C931" s="6">
         <v>3</v>
       </c>
-      <c r="D931" s="2"/>
-    </row>
-    <row r="932" spans="1:4">
+      <c r="D931" s="2">
+        <v>3</v>
+      </c>
+      <c r="G931" s="1"/>
+      <c r="H931" s="22"/>
+    </row>
+    <row r="932" spans="1:8">
       <c r="A932" s="7">
         <v>46030</v>
       </c>
@@ -15050,9 +15060,13 @@
       <c r="C932" s="6">
         <v>4</v>
       </c>
-      <c r="D932" s="2"/>
-    </row>
-    <row r="933" spans="1:4">
+      <c r="D932" s="2">
+        <v>3</v>
+      </c>
+      <c r="G932" s="1"/>
+      <c r="H932" s="22"/>
+    </row>
+    <row r="933" spans="1:8">
       <c r="A933" s="7">
         <v>46030</v>
       </c>
@@ -15062,9 +15076,13 @@
       <c r="C933" s="6">
         <v>4</v>
       </c>
-      <c r="D933" s="2"/>
-    </row>
-    <row r="934" spans="1:4">
+      <c r="D933" s="2">
+        <v>3</v>
+      </c>
+      <c r="G933" s="1"/>
+      <c r="H933" s="22"/>
+    </row>
+    <row r="934" spans="1:8">
       <c r="A934" s="7">
         <v>46030</v>
       </c>
@@ -15074,7 +15092,167 @@
       <c r="C934" s="6">
         <v>3</v>
       </c>
-      <c r="D934" s="2"/>
+      <c r="D934" s="2">
+        <v>6</v>
+      </c>
+      <c r="G934" s="1"/>
+      <c r="H934" s="22"/>
+    </row>
+    <row r="935" spans="1:8">
+      <c r="A935" s="7">
+        <v>46030</v>
+      </c>
+      <c r="B935" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C935" s="6">
+        <v>0</v>
+      </c>
+      <c r="D935" s="2">
+        <v>2</v>
+      </c>
+      <c r="G935" s="1"/>
+      <c r="H935" s="22"/>
+    </row>
+    <row r="936" spans="1:8">
+      <c r="A936" s="7">
+        <v>46030</v>
+      </c>
+      <c r="B936" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C936" s="2">
+        <v>0</v>
+      </c>
+      <c r="D936" s="2">
+        <v>2</v>
+      </c>
+      <c r="G936" s="1"/>
+      <c r="H936" s="22"/>
+    </row>
+    <row r="937" spans="1:8">
+      <c r="A937" s="7">
+        <v>46030</v>
+      </c>
+      <c r="B937" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C937" s="2">
+        <v>0</v>
+      </c>
+      <c r="D937" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="938" spans="1:8">
+      <c r="A938" s="7">
+        <v>46030</v>
+      </c>
+      <c r="B938" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C938" s="2">
+        <v>0</v>
+      </c>
+      <c r="D938" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="939" spans="1:8">
+      <c r="A939" s="7">
+        <v>46031</v>
+      </c>
+      <c r="B939" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C939" s="6">
+        <v>2</v>
+      </c>
+      <c r="D939" s="2"/>
+    </row>
+    <row r="940" spans="1:8">
+      <c r="A940" s="7">
+        <v>46031</v>
+      </c>
+      <c r="B940" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C940" s="6">
+        <v>2</v>
+      </c>
+      <c r="D940" s="2"/>
+    </row>
+    <row r="941" spans="1:8">
+      <c r="A941" s="7">
+        <v>46031</v>
+      </c>
+      <c r="B941" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C941" s="6">
+        <v>3</v>
+      </c>
+      <c r="D941" s="2"/>
+    </row>
+    <row r="942" spans="1:8">
+      <c r="A942" s="7">
+        <v>46031</v>
+      </c>
+      <c r="B942" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C942" s="6">
+        <v>3</v>
+      </c>
+      <c r="D942" s="2"/>
+    </row>
+    <row r="943" spans="1:8">
+      <c r="A943" s="7">
+        <v>46031</v>
+      </c>
+      <c r="B943" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C943" s="6">
+        <v>2</v>
+      </c>
+      <c r="D943" s="2"/>
+    </row>
+    <row r="944" spans="1:8">
+      <c r="A944" s="7">
+        <v>46031</v>
+      </c>
+      <c r="B944" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C944" s="6">
+        <v>2</v>
+      </c>
+      <c r="D944" s="2"/>
+    </row>
+    <row r="945" spans="1:4">
+      <c r="A945" s="7">
+        <v>46031</v>
+      </c>
+      <c r="B945" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C945" s="6">
+        <v>1</v>
+      </c>
+      <c r="D945" s="2"/>
+    </row>
+    <row r="946" spans="1:4">
+      <c r="A946" s="7">
+        <v>46031</v>
+      </c>
+      <c r="B946" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C946" s="6">
+        <v>1</v>
+      </c>
+      <c r="D946" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="23">
   <si>
     <t>Data</t>
   </si>
@@ -801,11 +801,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U946"/>
+  <dimension ref="A1:U959"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A911" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B941" sqref="B941"/>
+      <pane ySplit="1" topLeftCell="A926" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G950" sqref="G950"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -814,9 +814,8 @@
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="9" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -15168,7 +15167,9 @@
       <c r="C939" s="6">
         <v>2</v>
       </c>
-      <c r="D939" s="2"/>
+      <c r="D939" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="940" spans="1:8">
       <c r="A940" s="7">
@@ -15180,7 +15181,11 @@
       <c r="C940" s="6">
         <v>2</v>
       </c>
-      <c r="D940" s="2"/>
+      <c r="D940" s="2">
+        <v>3</v>
+      </c>
+      <c r="F940" s="1"/>
+      <c r="G940" s="22"/>
     </row>
     <row r="941" spans="1:8">
       <c r="A941" s="7">
@@ -15192,7 +15197,11 @@
       <c r="C941" s="6">
         <v>3</v>
       </c>
-      <c r="D941" s="2"/>
+      <c r="D941" s="2">
+        <v>2</v>
+      </c>
+      <c r="F941" s="1"/>
+      <c r="G941" s="22"/>
     </row>
     <row r="942" spans="1:8">
       <c r="A942" s="7">
@@ -15204,7 +15213,11 @@
       <c r="C942" s="6">
         <v>3</v>
       </c>
-      <c r="D942" s="2"/>
+      <c r="D942" s="2">
+        <v>2</v>
+      </c>
+      <c r="F942" s="1"/>
+      <c r="G942" s="22"/>
     </row>
     <row r="943" spans="1:8">
       <c r="A943" s="7">
@@ -15216,7 +15229,11 @@
       <c r="C943" s="6">
         <v>2</v>
       </c>
-      <c r="D943" s="2"/>
+      <c r="D943" s="2">
+        <v>0</v>
+      </c>
+      <c r="F943" s="1"/>
+      <c r="G943" s="22"/>
     </row>
     <row r="944" spans="1:8">
       <c r="A944" s="7">
@@ -15228,9 +15245,13 @@
       <c r="C944" s="6">
         <v>2</v>
       </c>
-      <c r="D944" s="2"/>
-    </row>
-    <row r="945" spans="1:4">
+      <c r="D944" s="2">
+        <v>0</v>
+      </c>
+      <c r="F944" s="1"/>
+      <c r="G944" s="22"/>
+    </row>
+    <row r="945" spans="1:7">
       <c r="A945" s="7">
         <v>46031</v>
       </c>
@@ -15240,9 +15261,13 @@
       <c r="C945" s="6">
         <v>1</v>
       </c>
-      <c r="D945" s="2"/>
-    </row>
-    <row r="946" spans="1:4">
+      <c r="D945" s="2">
+        <v>2</v>
+      </c>
+      <c r="F945" s="1"/>
+      <c r="G945" s="22"/>
+    </row>
+    <row r="946" spans="1:7">
       <c r="A946" s="7">
         <v>46031</v>
       </c>
@@ -15252,7 +15277,185 @@
       <c r="C946" s="6">
         <v>1</v>
       </c>
-      <c r="D946" s="2"/>
+      <c r="D946" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="947" spans="1:7">
+      <c r="A947" s="7">
+        <v>46031</v>
+      </c>
+      <c r="B947" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C947" s="6">
+        <v>0</v>
+      </c>
+      <c r="D947" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="948" spans="1:7">
+      <c r="A948" s="7">
+        <v>46031</v>
+      </c>
+      <c r="B948" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C948" s="6">
+        <v>0</v>
+      </c>
+      <c r="D948" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="949" spans="1:7">
+      <c r="A949" s="7">
+        <v>46032</v>
+      </c>
+      <c r="B949" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C949" s="6">
+        <v>4</v>
+      </c>
+      <c r="D949" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="950" spans="1:7">
+      <c r="A950" s="7">
+        <v>46032</v>
+      </c>
+      <c r="B950" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C950" s="6">
+        <v>4</v>
+      </c>
+      <c r="D950" s="2">
+        <v>6</v>
+      </c>
+      <c r="F950" s="1"/>
+      <c r="G950" s="22"/>
+    </row>
+    <row r="951" spans="1:7">
+      <c r="A951" s="7">
+        <v>46032</v>
+      </c>
+      <c r="B951" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C951" s="6">
+        <v>2</v>
+      </c>
+      <c r="D951" s="2">
+        <v>3</v>
+      </c>
+      <c r="F951" s="1"/>
+      <c r="G951" s="22"/>
+    </row>
+    <row r="952" spans="1:7">
+      <c r="A952" s="7">
+        <v>46032</v>
+      </c>
+      <c r="B952" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C952" s="6">
+        <v>2</v>
+      </c>
+      <c r="D952" s="2">
+        <v>3</v>
+      </c>
+      <c r="F952" s="1"/>
+      <c r="G952" s="22"/>
+    </row>
+    <row r="953" spans="1:7">
+      <c r="A953" s="7">
+        <v>46034</v>
+      </c>
+      <c r="B953" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C953" s="6">
+        <v>4</v>
+      </c>
+      <c r="D953" s="2"/>
+      <c r="F953" s="1"/>
+      <c r="G953" s="22"/>
+    </row>
+    <row r="954" spans="1:7">
+      <c r="A954" s="7">
+        <v>46034</v>
+      </c>
+      <c r="B954" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C954" s="6">
+        <v>4</v>
+      </c>
+      <c r="D954" s="2"/>
+    </row>
+    <row r="955" spans="1:7">
+      <c r="A955" s="7">
+        <v>46034</v>
+      </c>
+      <c r="B955" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C955" s="6">
+        <v>1</v>
+      </c>
+      <c r="D955" s="2"/>
+    </row>
+    <row r="956" spans="1:7">
+      <c r="A956" s="7">
+        <v>46034</v>
+      </c>
+      <c r="B956" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C956" s="6">
+        <v>1</v>
+      </c>
+      <c r="D956" s="2"/>
+    </row>
+    <row r="957" spans="1:7">
+      <c r="A957" s="7">
+        <v>46034</v>
+      </c>
+      <c r="B957" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C957" s="6">
+        <v>1</v>
+      </c>
+      <c r="D957" s="2"/>
+    </row>
+    <row r="958" spans="1:7">
+      <c r="A958" s="7">
+        <v>46034</v>
+      </c>
+      <c r="B958" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C958" s="2">
+        <v>1</v>
+      </c>
+      <c r="D958" s="2"/>
+    </row>
+    <row r="959" spans="1:7">
+      <c r="A959" s="7">
+        <v>46034</v>
+      </c>
+      <c r="B959" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C959" s="2">
+        <v>2</v>
+      </c>
+      <c r="D959" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="24">
   <si>
     <t>Data</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>FINOCCHIARO SEBASTIANO</t>
+  </si>
+  <si>
+    <t>DI GIORGIO DANILO</t>
   </si>
 </sst>
 </file>
@@ -801,11 +804,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U959"/>
+  <dimension ref="A1:U971"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A926" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G950" sqref="G950"/>
+      <pane ySplit="1" topLeftCell="A935" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D948" sqref="D948"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -814,7 +817,7 @@
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
     <col min="7" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -15381,9 +15384,9 @@
       <c r="C953" s="6">
         <v>4</v>
       </c>
-      <c r="D953" s="2"/>
-      <c r="F953" s="1"/>
-      <c r="G953" s="22"/>
+      <c r="D953" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="954" spans="1:7">
       <c r="A954" s="7">
@@ -15395,7 +15398,11 @@
       <c r="C954" s="6">
         <v>4</v>
       </c>
-      <c r="D954" s="2"/>
+      <c r="D954" s="2">
+        <v>3</v>
+      </c>
+      <c r="F954" s="1"/>
+      <c r="G954" s="22"/>
     </row>
     <row r="955" spans="1:7">
       <c r="A955" s="7">
@@ -15407,7 +15414,11 @@
       <c r="C955" s="6">
         <v>1</v>
       </c>
-      <c r="D955" s="2"/>
+      <c r="D955" s="2">
+        <v>3</v>
+      </c>
+      <c r="F955" s="1"/>
+      <c r="G955" s="22"/>
     </row>
     <row r="956" spans="1:7">
       <c r="A956" s="7">
@@ -15419,7 +15430,11 @@
       <c r="C956" s="6">
         <v>1</v>
       </c>
-      <c r="D956" s="2"/>
+      <c r="D956" s="2">
+        <v>3</v>
+      </c>
+      <c r="F956" s="1"/>
+      <c r="G956" s="22"/>
     </row>
     <row r="957" spans="1:7">
       <c r="A957" s="7">
@@ -15431,7 +15446,11 @@
       <c r="C957" s="6">
         <v>1</v>
       </c>
-      <c r="D957" s="2"/>
+      <c r="D957" s="2">
+        <v>6</v>
+      </c>
+      <c r="F957" s="1"/>
+      <c r="G957" s="22"/>
     </row>
     <row r="958" spans="1:7">
       <c r="A958" s="7">
@@ -15443,7 +15462,11 @@
       <c r="C958" s="2">
         <v>1</v>
       </c>
-      <c r="D958" s="2"/>
+      <c r="D958" s="2">
+        <v>6</v>
+      </c>
+      <c r="F958" s="1"/>
+      <c r="G958" s="22"/>
     </row>
     <row r="959" spans="1:7">
       <c r="A959" s="7">
@@ -15455,7 +15478,161 @@
       <c r="C959" s="2">
         <v>2</v>
       </c>
-      <c r="D959" s="2"/>
+      <c r="D959" s="2">
+        <v>5</v>
+      </c>
+      <c r="F959" s="1"/>
+      <c r="G959" s="22"/>
+    </row>
+    <row r="960" spans="1:7">
+      <c r="A960" s="7">
+        <v>46034</v>
+      </c>
+      <c r="B960" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C960" s="6">
+        <v>0</v>
+      </c>
+      <c r="D960" s="6">
+        <v>3</v>
+      </c>
+      <c r="F960" s="1"/>
+      <c r="G960" s="22"/>
+    </row>
+    <row r="961" spans="1:4">
+      <c r="A961" s="7">
+        <v>46034</v>
+      </c>
+      <c r="B961" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C961" s="6">
+        <v>0</v>
+      </c>
+      <c r="D961" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4">
+      <c r="A962" s="7">
+        <v>46035</v>
+      </c>
+      <c r="B962" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C962" s="6">
+        <v>1</v>
+      </c>
+      <c r="D962" s="2"/>
+    </row>
+    <row r="963" spans="1:4">
+      <c r="A963" s="7">
+        <v>46035</v>
+      </c>
+      <c r="B963" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C963" s="6">
+        <v>1</v>
+      </c>
+      <c r="D963" s="2"/>
+    </row>
+    <row r="964" spans="1:4">
+      <c r="A964" s="7">
+        <v>46035</v>
+      </c>
+      <c r="B964" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C964" s="6">
+        <v>3</v>
+      </c>
+      <c r="D964" s="2"/>
+    </row>
+    <row r="965" spans="1:4">
+      <c r="A965" s="7">
+        <v>46035</v>
+      </c>
+      <c r="B965" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C965" s="6">
+        <v>3</v>
+      </c>
+      <c r="D965" s="2"/>
+    </row>
+    <row r="966" spans="1:4">
+      <c r="A966" s="7">
+        <v>46035</v>
+      </c>
+      <c r="B966" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C966" s="6">
+        <v>2</v>
+      </c>
+      <c r="D966" s="2"/>
+    </row>
+    <row r="967" spans="1:4">
+      <c r="A967" s="7">
+        <v>46035</v>
+      </c>
+      <c r="B967" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C967" s="6">
+        <v>2</v>
+      </c>
+      <c r="D967" s="2"/>
+    </row>
+    <row r="968" spans="1:4">
+      <c r="A968" s="7">
+        <v>46035</v>
+      </c>
+      <c r="B968" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C968" s="6">
+        <v>1</v>
+      </c>
+      <c r="D968" s="2"/>
+    </row>
+    <row r="969" spans="1:4">
+      <c r="A969" s="7">
+        <v>46035</v>
+      </c>
+      <c r="B969" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C969" s="6">
+        <v>1</v>
+      </c>
+      <c r="D969" s="2"/>
+    </row>
+    <row r="970" spans="1:4">
+      <c r="A970" s="7">
+        <v>46035</v>
+      </c>
+      <c r="B970" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C970" s="6">
+        <v>1</v>
+      </c>
+      <c r="D970" s="2"/>
+    </row>
+    <row r="971" spans="1:4">
+      <c r="A971" s="7">
+        <v>46035</v>
+      </c>
+      <c r="B971" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C971" s="6">
+        <v>1</v>
+      </c>
+      <c r="D971" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="24">
   <si>
     <t>Data</t>
   </si>
@@ -804,11 +804,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U971"/>
+  <dimension ref="A1:U978"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A935" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D948" sqref="D948"/>
+      <pane ySplit="1" topLeftCell="A950" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A978" sqref="A978"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15500,7 +15500,7 @@
       <c r="F960" s="1"/>
       <c r="G960" s="22"/>
     </row>
-    <row r="961" spans="1:4">
+    <row r="961" spans="1:7">
       <c r="A961" s="7">
         <v>46034</v>
       </c>
@@ -15514,7 +15514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="962" spans="1:4">
+    <row r="962" spans="1:7">
       <c r="A962" s="7">
         <v>46035</v>
       </c>
@@ -15524,9 +15524,11 @@
       <c r="C962" s="6">
         <v>1</v>
       </c>
-      <c r="D962" s="2"/>
-    </row>
-    <row r="963" spans="1:4">
+      <c r="D962" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="963" spans="1:7">
       <c r="A963" s="7">
         <v>46035</v>
       </c>
@@ -15536,9 +15538,13 @@
       <c r="C963" s="6">
         <v>1</v>
       </c>
-      <c r="D963" s="2"/>
-    </row>
-    <row r="964" spans="1:4">
+      <c r="D963" s="2">
+        <v>2</v>
+      </c>
+      <c r="F963" s="1"/>
+      <c r="G963" s="22"/>
+    </row>
+    <row r="964" spans="1:7">
       <c r="A964" s="7">
         <v>46035</v>
       </c>
@@ -15548,9 +15554,13 @@
       <c r="C964" s="6">
         <v>3</v>
       </c>
-      <c r="D964" s="2"/>
-    </row>
-    <row r="965" spans="1:4">
+      <c r="D964" s="2">
+        <v>1</v>
+      </c>
+      <c r="F964" s="1"/>
+      <c r="G964" s="22"/>
+    </row>
+    <row r="965" spans="1:7">
       <c r="A965" s="7">
         <v>46035</v>
       </c>
@@ -15560,9 +15570,13 @@
       <c r="C965" s="6">
         <v>3</v>
       </c>
-      <c r="D965" s="2"/>
-    </row>
-    <row r="966" spans="1:4">
+      <c r="D965" s="2">
+        <v>1</v>
+      </c>
+      <c r="F965" s="1"/>
+      <c r="G965" s="22"/>
+    </row>
+    <row r="966" spans="1:7">
       <c r="A966" s="7">
         <v>46035</v>
       </c>
@@ -15572,9 +15586,13 @@
       <c r="C966" s="6">
         <v>2</v>
       </c>
-      <c r="D966" s="2"/>
-    </row>
-    <row r="967" spans="1:4">
+      <c r="D966" s="2">
+        <v>1</v>
+      </c>
+      <c r="F966" s="1"/>
+      <c r="G966" s="22"/>
+    </row>
+    <row r="967" spans="1:7">
       <c r="A967" s="7">
         <v>46035</v>
       </c>
@@ -15584,9 +15602,13 @@
       <c r="C967" s="6">
         <v>2</v>
       </c>
-      <c r="D967" s="2"/>
-    </row>
-    <row r="968" spans="1:4">
+      <c r="D967" s="2">
+        <v>1</v>
+      </c>
+      <c r="F967" s="1"/>
+      <c r="G967" s="22"/>
+    </row>
+    <row r="968" spans="1:7">
       <c r="A968" s="7">
         <v>46035</v>
       </c>
@@ -15596,9 +15618,13 @@
       <c r="C968" s="6">
         <v>1</v>
       </c>
-      <c r="D968" s="2"/>
-    </row>
-    <row r="969" spans="1:4">
+      <c r="D968" s="2">
+        <v>2</v>
+      </c>
+      <c r="F968" s="1"/>
+      <c r="G968" s="22"/>
+    </row>
+    <row r="969" spans="1:7">
       <c r="A969" s="7">
         <v>46035</v>
       </c>
@@ -15608,9 +15634,13 @@
       <c r="C969" s="6">
         <v>1</v>
       </c>
-      <c r="D969" s="2"/>
-    </row>
-    <row r="970" spans="1:4">
+      <c r="D969" s="2">
+        <v>2</v>
+      </c>
+      <c r="F969" s="1"/>
+      <c r="G969" s="22"/>
+    </row>
+    <row r="970" spans="1:7">
       <c r="A970" s="7">
         <v>46035</v>
       </c>
@@ -15620,9 +15650,11 @@
       <c r="C970" s="6">
         <v>1</v>
       </c>
-      <c r="D970" s="2"/>
-    </row>
-    <row r="971" spans="1:4">
+      <c r="D970" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="971" spans="1:7">
       <c r="A971" s="7">
         <v>46035</v>
       </c>
@@ -15632,7 +15664,93 @@
       <c r="C971" s="6">
         <v>1</v>
       </c>
-      <c r="D971" s="2"/>
+      <c r="D971" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="972" spans="1:7">
+      <c r="A972" s="7">
+        <v>46036</v>
+      </c>
+      <c r="B972" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C972" s="6">
+        <v>4</v>
+      </c>
+      <c r="D972" s="2"/>
+    </row>
+    <row r="973" spans="1:7">
+      <c r="A973" s="7">
+        <v>46036</v>
+      </c>
+      <c r="B973" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C973" s="6">
+        <v>4</v>
+      </c>
+      <c r="D973" s="2"/>
+    </row>
+    <row r="974" spans="1:7">
+      <c r="A974" s="7">
+        <v>46036</v>
+      </c>
+      <c r="B974" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C974" s="6">
+        <v>5</v>
+      </c>
+      <c r="D974" s="2"/>
+    </row>
+    <row r="975" spans="1:7">
+      <c r="A975" s="7">
+        <v>46036</v>
+      </c>
+      <c r="B975" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C975" s="6">
+        <v>5</v>
+      </c>
+      <c r="D975" s="2"/>
+    </row>
+    <row r="976" spans="1:7">
+      <c r="A976" s="7">
+        <v>46036</v>
+      </c>
+      <c r="B976" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C976" s="2">
+        <v>2</v>
+      </c>
+      <c r="D976" s="2"/>
+    </row>
+    <row r="977" spans="1:4">
+      <c r="A977" s="7">
+        <v>46036</v>
+      </c>
+      <c r="B977" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C977" s="2">
+        <v>2</v>
+      </c>
+      <c r="D977" s="2"/>
+    </row>
+    <row r="978" spans="1:4">
+      <c r="A978" s="7">
+        <v>46036</v>
+      </c>
+      <c r="B978" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C978" s="2">
+        <v>8</v>
+      </c>
+      <c r="D978" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="24">
   <si>
     <t>Data</t>
   </si>
@@ -804,11 +804,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U978"/>
+  <dimension ref="A1:U986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A950" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A978" sqref="A978"/>
+      <selection pane="bottomLeft" activeCell="D973" sqref="D973"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -817,8 +817,8 @@
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="9" width="29.42578125" customWidth="1"/>
+    <col min="6" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -15500,7 +15500,7 @@
       <c r="F960" s="1"/>
       <c r="G960" s="22"/>
     </row>
-    <row r="961" spans="1:7">
+    <row r="961" spans="1:8">
       <c r="A961" s="7">
         <v>46034</v>
       </c>
@@ -15514,7 +15514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="962" spans="1:7">
+    <row r="962" spans="1:8">
       <c r="A962" s="7">
         <v>46035</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="963" spans="1:7">
+    <row r="963" spans="1:8">
       <c r="A963" s="7">
         <v>46035</v>
       </c>
@@ -15544,7 +15544,7 @@
       <c r="F963" s="1"/>
       <c r="G963" s="22"/>
     </row>
-    <row r="964" spans="1:7">
+    <row r="964" spans="1:8">
       <c r="A964" s="7">
         <v>46035</v>
       </c>
@@ -15560,7 +15560,7 @@
       <c r="F964" s="1"/>
       <c r="G964" s="22"/>
     </row>
-    <row r="965" spans="1:7">
+    <row r="965" spans="1:8">
       <c r="A965" s="7">
         <v>46035</v>
       </c>
@@ -15576,7 +15576,7 @@
       <c r="F965" s="1"/>
       <c r="G965" s="22"/>
     </row>
-    <row r="966" spans="1:7">
+    <row r="966" spans="1:8">
       <c r="A966" s="7">
         <v>46035</v>
       </c>
@@ -15592,7 +15592,7 @@
       <c r="F966" s="1"/>
       <c r="G966" s="22"/>
     </row>
-    <row r="967" spans="1:7">
+    <row r="967" spans="1:8">
       <c r="A967" s="7">
         <v>46035</v>
       </c>
@@ -15608,7 +15608,7 @@
       <c r="F967" s="1"/>
       <c r="G967" s="22"/>
     </row>
-    <row r="968" spans="1:7">
+    <row r="968" spans="1:8">
       <c r="A968" s="7">
         <v>46035</v>
       </c>
@@ -15624,7 +15624,7 @@
       <c r="F968" s="1"/>
       <c r="G968" s="22"/>
     </row>
-    <row r="969" spans="1:7">
+    <row r="969" spans="1:8">
       <c r="A969" s="7">
         <v>46035</v>
       </c>
@@ -15638,9 +15638,8 @@
         <v>2</v>
       </c>
       <c r="F969" s="1"/>
-      <c r="G969" s="22"/>
-    </row>
-    <row r="970" spans="1:7">
+    </row>
+    <row r="970" spans="1:8">
       <c r="A970" s="7">
         <v>46035</v>
       </c>
@@ -15653,8 +15652,10 @@
       <c r="D970" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="971" spans="1:7">
+      <c r="G970" s="1"/>
+      <c r="H970" s="22"/>
+    </row>
+    <row r="971" spans="1:8">
       <c r="A971" s="7">
         <v>46035</v>
       </c>
@@ -15667,8 +15668,10 @@
       <c r="D971" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="972" spans="1:7">
+      <c r="G971" s="1"/>
+      <c r="H971" s="22"/>
+    </row>
+    <row r="972" spans="1:8">
       <c r="A972" s="7">
         <v>46036</v>
       </c>
@@ -15678,9 +15681,13 @@
       <c r="C972" s="6">
         <v>4</v>
       </c>
-      <c r="D972" s="2"/>
-    </row>
-    <row r="973" spans="1:7">
+      <c r="D972" s="2">
+        <v>2</v>
+      </c>
+      <c r="G972" s="1"/>
+      <c r="H972" s="22"/>
+    </row>
+    <row r="973" spans="1:8">
       <c r="A973" s="7">
         <v>46036</v>
       </c>
@@ -15690,9 +15697,13 @@
       <c r="C973" s="6">
         <v>4</v>
       </c>
-      <c r="D973" s="2"/>
-    </row>
-    <row r="974" spans="1:7">
+      <c r="D973" s="2">
+        <v>2</v>
+      </c>
+      <c r="G973" s="1"/>
+      <c r="H973" s="22"/>
+    </row>
+    <row r="974" spans="1:8">
       <c r="A974" s="7">
         <v>46036</v>
       </c>
@@ -15702,9 +15713,13 @@
       <c r="C974" s="6">
         <v>5</v>
       </c>
-      <c r="D974" s="2"/>
-    </row>
-    <row r="975" spans="1:7">
+      <c r="D974" s="2">
+        <v>0</v>
+      </c>
+      <c r="G974" s="1"/>
+      <c r="H974" s="22"/>
+    </row>
+    <row r="975" spans="1:8">
       <c r="A975" s="7">
         <v>46036</v>
       </c>
@@ -15714,9 +15729,13 @@
       <c r="C975" s="6">
         <v>5</v>
       </c>
-      <c r="D975" s="2"/>
-    </row>
-    <row r="976" spans="1:7">
+      <c r="D975" s="2">
+        <v>0</v>
+      </c>
+      <c r="G975" s="1"/>
+      <c r="H975" s="22"/>
+    </row>
+    <row r="976" spans="1:8">
       <c r="A976" s="7">
         <v>46036</v>
       </c>
@@ -15726,7 +15745,11 @@
       <c r="C976" s="2">
         <v>2</v>
       </c>
-      <c r="D976" s="2"/>
+      <c r="D976" s="2">
+        <v>2</v>
+      </c>
+      <c r="G976" s="1"/>
+      <c r="H976" s="22"/>
     </row>
     <row r="977" spans="1:4">
       <c r="A977" s="7">
@@ -15738,7 +15761,9 @@
       <c r="C977" s="2">
         <v>2</v>
       </c>
-      <c r="D977" s="2"/>
+      <c r="D977" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="978" spans="1:4">
       <c r="A978" s="7">
@@ -15750,7 +15775,109 @@
       <c r="C978" s="2">
         <v>8</v>
       </c>
-      <c r="D978" s="2"/>
+      <c r="D978" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4">
+      <c r="A979" s="7">
+        <v>46036</v>
+      </c>
+      <c r="B979" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C979" s="6">
+        <v>0</v>
+      </c>
+      <c r="D979" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4">
+      <c r="A980" s="7">
+        <v>46036</v>
+      </c>
+      <c r="B980" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C980" s="2">
+        <v>0</v>
+      </c>
+      <c r="D980" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4">
+      <c r="A981" s="7">
+        <v>46037</v>
+      </c>
+      <c r="B981" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C981" s="6">
+        <v>4</v>
+      </c>
+      <c r="D981" s="2"/>
+    </row>
+    <row r="982" spans="1:4">
+      <c r="A982" s="7">
+        <v>46037</v>
+      </c>
+      <c r="B982" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C982" s="6">
+        <v>4</v>
+      </c>
+      <c r="D982" s="2"/>
+    </row>
+    <row r="983" spans="1:4">
+      <c r="A983" s="7">
+        <v>46037</v>
+      </c>
+      <c r="B983" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C983" s="6">
+        <v>6</v>
+      </c>
+      <c r="D983" s="2"/>
+    </row>
+    <row r="984" spans="1:4">
+      <c r="A984" s="7">
+        <v>46037</v>
+      </c>
+      <c r="B984" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C984" s="6">
+        <v>6</v>
+      </c>
+      <c r="D984" s="2"/>
+    </row>
+    <row r="985" spans="1:4">
+      <c r="A985" s="7">
+        <v>46037</v>
+      </c>
+      <c r="B985" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C985" s="6">
+        <v>3</v>
+      </c>
+      <c r="D985" s="2"/>
+    </row>
+    <row r="986" spans="1:4">
+      <c r="A986" s="7">
+        <v>46037</v>
+      </c>
+      <c r="B986" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C986" s="6">
+        <v>3</v>
+      </c>
+      <c r="D986" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="24">
   <si>
     <t>Data</t>
   </si>
@@ -804,11 +804,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U986"/>
+  <dimension ref="A1:U1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A950" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D973" sqref="D973"/>
+      <pane ySplit="1" topLeftCell="A969" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D995" sqref="D995"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -817,8 +817,8 @@
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="9" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -15751,7 +15751,7 @@
       <c r="G976" s="1"/>
       <c r="H976" s="22"/>
     </row>
-    <row r="977" spans="1:4">
+    <row r="977" spans="1:7">
       <c r="A977" s="7">
         <v>46036</v>
       </c>
@@ -15765,7 +15765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="978" spans="1:4">
+    <row r="978" spans="1:7">
       <c r="A978" s="7">
         <v>46036</v>
       </c>
@@ -15779,7 +15779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="979" spans="1:4">
+    <row r="979" spans="1:7">
       <c r="A979" s="7">
         <v>46036</v>
       </c>
@@ -15793,7 +15793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="980" spans="1:4">
+    <row r="980" spans="1:7">
       <c r="A980" s="7">
         <v>46036</v>
       </c>
@@ -15807,7 +15807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="981" spans="1:4">
+    <row r="981" spans="1:7">
       <c r="A981" s="7">
         <v>46037</v>
       </c>
@@ -15817,9 +15817,13 @@
       <c r="C981" s="6">
         <v>4</v>
       </c>
-      <c r="D981" s="2"/>
-    </row>
-    <row r="982" spans="1:4">
+      <c r="D981" s="2">
+        <v>5</v>
+      </c>
+      <c r="F981" s="1"/>
+      <c r="G981" s="22"/>
+    </row>
+    <row r="982" spans="1:7">
       <c r="A982" s="7">
         <v>46037</v>
       </c>
@@ -15829,9 +15833,13 @@
       <c r="C982" s="6">
         <v>4</v>
       </c>
-      <c r="D982" s="2"/>
-    </row>
-    <row r="983" spans="1:4">
+      <c r="D982" s="2">
+        <v>5</v>
+      </c>
+      <c r="F982" s="1"/>
+      <c r="G982" s="22"/>
+    </row>
+    <row r="983" spans="1:7">
       <c r="A983" s="7">
         <v>46037</v>
       </c>
@@ -15841,9 +15849,13 @@
       <c r="C983" s="6">
         <v>6</v>
       </c>
-      <c r="D983" s="2"/>
-    </row>
-    <row r="984" spans="1:4">
+      <c r="D983" s="2">
+        <v>5</v>
+      </c>
+      <c r="F983" s="1"/>
+      <c r="G983" s="22"/>
+    </row>
+    <row r="984" spans="1:7">
       <c r="A984" s="7">
         <v>46037</v>
       </c>
@@ -15853,9 +15865,13 @@
       <c r="C984" s="6">
         <v>6</v>
       </c>
-      <c r="D984" s="2"/>
-    </row>
-    <row r="985" spans="1:4">
+      <c r="D984" s="2">
+        <v>5</v>
+      </c>
+      <c r="F984" s="1"/>
+      <c r="G984" s="22"/>
+    </row>
+    <row r="985" spans="1:7">
       <c r="A985" s="7">
         <v>46037</v>
       </c>
@@ -15865,9 +15881,13 @@
       <c r="C985" s="6">
         <v>3</v>
       </c>
-      <c r="D985" s="2"/>
-    </row>
-    <row r="986" spans="1:4">
+      <c r="D985" s="2">
+        <v>2</v>
+      </c>
+      <c r="F985" s="1"/>
+      <c r="G985" s="22"/>
+    </row>
+    <row r="986" spans="1:7">
       <c r="A986" s="7">
         <v>46037</v>
       </c>
@@ -15877,7 +15897,221 @@
       <c r="C986" s="6">
         <v>3</v>
       </c>
-      <c r="D986" s="2"/>
+      <c r="D986" s="2">
+        <v>5</v>
+      </c>
+      <c r="F986" s="1"/>
+      <c r="G986" s="22"/>
+    </row>
+    <row r="987" spans="1:7">
+      <c r="A987" s="7">
+        <v>46037</v>
+      </c>
+      <c r="B987" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C987" s="6">
+        <v>0</v>
+      </c>
+      <c r="D987" s="2">
+        <v>3</v>
+      </c>
+      <c r="F987" s="1"/>
+      <c r="G987" s="22"/>
+    </row>
+    <row r="988" spans="1:7">
+      <c r="A988" s="7">
+        <v>46037</v>
+      </c>
+      <c r="B988" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C988" s="6">
+        <v>0</v>
+      </c>
+      <c r="D988" s="2">
+        <v>3</v>
+      </c>
+      <c r="F988" s="1"/>
+      <c r="G988" s="22"/>
+    </row>
+    <row r="989" spans="1:7">
+      <c r="A989" s="7">
+        <v>46037</v>
+      </c>
+      <c r="B989" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C989" s="6">
+        <v>0</v>
+      </c>
+      <c r="D989" s="2">
+        <v>3</v>
+      </c>
+      <c r="F989" s="1"/>
+      <c r="G989" s="22"/>
+    </row>
+    <row r="990" spans="1:7">
+      <c r="A990" s="7">
+        <v>46037</v>
+      </c>
+      <c r="B990" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C990" s="6">
+        <v>0</v>
+      </c>
+      <c r="D990" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="991" spans="1:7">
+      <c r="A991" s="7">
+        <v>46037</v>
+      </c>
+      <c r="B991" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C991" s="6">
+        <v>0</v>
+      </c>
+      <c r="D991" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="992" spans="1:7">
+      <c r="A992" s="7">
+        <v>46037</v>
+      </c>
+      <c r="B992" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C992" s="6">
+        <v>0</v>
+      </c>
+      <c r="D992" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4">
+      <c r="A993" s="7">
+        <v>46038</v>
+      </c>
+      <c r="B993" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C993" s="6">
+        <v>2</v>
+      </c>
+      <c r="D993" s="2"/>
+    </row>
+    <row r="994" spans="1:4">
+      <c r="A994" s="7">
+        <v>46038</v>
+      </c>
+      <c r="B994" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C994" s="6">
+        <v>2</v>
+      </c>
+      <c r="D994" s="2"/>
+    </row>
+    <row r="995" spans="1:4">
+      <c r="A995" s="7">
+        <v>46038</v>
+      </c>
+      <c r="B995" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C995" s="6">
+        <v>1</v>
+      </c>
+      <c r="D995" s="2"/>
+    </row>
+    <row r="996" spans="1:4">
+      <c r="A996" s="7">
+        <v>46038</v>
+      </c>
+      <c r="B996" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C996" s="6">
+        <v>1</v>
+      </c>
+      <c r="D996" s="2"/>
+    </row>
+    <row r="997" spans="1:4">
+      <c r="A997" s="7">
+        <v>46038</v>
+      </c>
+      <c r="B997" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C997" s="6">
+        <v>2</v>
+      </c>
+      <c r="D997" s="2"/>
+    </row>
+    <row r="998" spans="1:4">
+      <c r="A998" s="7">
+        <v>46038</v>
+      </c>
+      <c r="B998" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C998" s="6">
+        <v>2</v>
+      </c>
+      <c r="D998" s="2"/>
+    </row>
+    <row r="999" spans="1:4">
+      <c r="A999" s="7">
+        <v>46038</v>
+      </c>
+      <c r="B999" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C999" s="6">
+        <v>2</v>
+      </c>
+      <c r="D999" s="2"/>
+    </row>
+    <row r="1000" spans="1:4">
+      <c r="A1000" s="7">
+        <v>46038</v>
+      </c>
+      <c r="B1000" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1000" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1000" s="2"/>
+    </row>
+    <row r="1001" spans="1:4">
+      <c r="A1001" s="7">
+        <v>46038</v>
+      </c>
+      <c r="B1001" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1001" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1001" s="2"/>
+    </row>
+    <row r="1002" spans="1:4">
+      <c r="A1002" s="7">
+        <v>46038</v>
+      </c>
+      <c r="B1002" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1002" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1002" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="24">
   <si>
     <t>Data</t>
   </si>
@@ -804,11 +804,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1002"/>
+  <dimension ref="A1:U1017"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A969" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D995" sqref="D995"/>
+      <pane ySplit="1" topLeftCell="A984" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1006" sqref="C1006"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -818,7 +818,8 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="9" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -15993,7 +15994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="993" spans="1:4">
+    <row r="993" spans="1:8">
       <c r="A993" s="7">
         <v>46038</v>
       </c>
@@ -16003,9 +16004,11 @@
       <c r="C993" s="6">
         <v>2</v>
       </c>
-      <c r="D993" s="2"/>
-    </row>
-    <row r="994" spans="1:4">
+      <c r="D993" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="994" spans="1:8">
       <c r="A994" s="7">
         <v>46038</v>
       </c>
@@ -16015,9 +16018,13 @@
       <c r="C994" s="6">
         <v>2</v>
       </c>
-      <c r="D994" s="2"/>
-    </row>
-    <row r="995" spans="1:4">
+      <c r="D994" s="2">
+        <v>5</v>
+      </c>
+      <c r="G994" s="1"/>
+      <c r="H994" s="22"/>
+    </row>
+    <row r="995" spans="1:8">
       <c r="A995" s="7">
         <v>46038</v>
       </c>
@@ -16027,9 +16034,13 @@
       <c r="C995" s="6">
         <v>1</v>
       </c>
-      <c r="D995" s="2"/>
-    </row>
-    <row r="996" spans="1:4">
+      <c r="D995" s="2">
+        <v>0</v>
+      </c>
+      <c r="G995" s="1"/>
+      <c r="H995" s="22"/>
+    </row>
+    <row r="996" spans="1:8">
       <c r="A996" s="7">
         <v>46038</v>
       </c>
@@ -16039,9 +16050,13 @@
       <c r="C996" s="6">
         <v>1</v>
       </c>
-      <c r="D996" s="2"/>
-    </row>
-    <row r="997" spans="1:4">
+      <c r="D996" s="2">
+        <v>0</v>
+      </c>
+      <c r="G996" s="1"/>
+      <c r="H996" s="22"/>
+    </row>
+    <row r="997" spans="1:8">
       <c r="A997" s="7">
         <v>46038</v>
       </c>
@@ -16051,9 +16066,13 @@
       <c r="C997" s="6">
         <v>2</v>
       </c>
-      <c r="D997" s="2"/>
-    </row>
-    <row r="998" spans="1:4">
+      <c r="D997" s="2">
+        <v>3</v>
+      </c>
+      <c r="G997" s="1"/>
+      <c r="H997" s="22"/>
+    </row>
+    <row r="998" spans="1:8">
       <c r="A998" s="7">
         <v>46038</v>
       </c>
@@ -16063,9 +16082,13 @@
       <c r="C998" s="6">
         <v>2</v>
       </c>
-      <c r="D998" s="2"/>
-    </row>
-    <row r="999" spans="1:4">
+      <c r="D998" s="2">
+        <v>3</v>
+      </c>
+      <c r="G998" s="1"/>
+      <c r="H998" s="22"/>
+    </row>
+    <row r="999" spans="1:8">
       <c r="A999" s="7">
         <v>46038</v>
       </c>
@@ -16075,9 +16098,13 @@
       <c r="C999" s="6">
         <v>2</v>
       </c>
-      <c r="D999" s="2"/>
-    </row>
-    <row r="1000" spans="1:4">
+      <c r="D999" s="2">
+        <v>1</v>
+      </c>
+      <c r="G999" s="1"/>
+      <c r="H999" s="22"/>
+    </row>
+    <row r="1000" spans="1:8">
       <c r="A1000" s="7">
         <v>46038</v>
       </c>
@@ -16087,9 +16114,13 @@
       <c r="C1000" s="6">
         <v>2</v>
       </c>
-      <c r="D1000" s="2"/>
-    </row>
-    <row r="1001" spans="1:4">
+      <c r="D1000" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1000" s="1"/>
+      <c r="H1000" s="22"/>
+    </row>
+    <row r="1001" spans="1:8">
       <c r="A1001" s="7">
         <v>46038</v>
       </c>
@@ -16099,9 +16130,11 @@
       <c r="C1001" s="6">
         <v>2</v>
       </c>
-      <c r="D1001" s="2"/>
-    </row>
-    <row r="1002" spans="1:4">
+      <c r="D1001" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:8">
       <c r="A1002" s="7">
         <v>46038</v>
       </c>
@@ -16111,7 +16144,207 @@
       <c r="C1002" s="6">
         <v>2</v>
       </c>
-      <c r="D1002" s="2"/>
+      <c r="D1002" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:8">
+      <c r="A1003" s="7">
+        <v>46039</v>
+      </c>
+      <c r="B1003" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1003" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1003" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:8">
+      <c r="A1004" s="7">
+        <v>46039</v>
+      </c>
+      <c r="B1004" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1004" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1004" s="2">
+        <v>6</v>
+      </c>
+      <c r="G1004" s="1"/>
+      <c r="H1004" s="22"/>
+    </row>
+    <row r="1005" spans="1:8">
+      <c r="A1005" s="7">
+        <v>46039</v>
+      </c>
+      <c r="B1005" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1005" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1005" s="2">
+        <v>3</v>
+      </c>
+      <c r="G1005" s="1"/>
+      <c r="H1005" s="22"/>
+    </row>
+    <row r="1006" spans="1:8">
+      <c r="A1006" s="7">
+        <v>46039</v>
+      </c>
+      <c r="B1006" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1006" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1006" s="2">
+        <v>3</v>
+      </c>
+      <c r="G1006" s="1"/>
+      <c r="H1006" s="22"/>
+    </row>
+    <row r="1007" spans="1:8">
+      <c r="A1007" s="7">
+        <v>46041</v>
+      </c>
+      <c r="B1007" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1007" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1007" s="2"/>
+      <c r="G1007" s="1"/>
+      <c r="H1007" s="22"/>
+    </row>
+    <row r="1008" spans="1:8">
+      <c r="A1008" s="7">
+        <v>46041</v>
+      </c>
+      <c r="B1008" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1008" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1008" s="2"/>
+      <c r="G1008" s="1"/>
+      <c r="H1008" s="22"/>
+    </row>
+    <row r="1009" spans="1:4">
+      <c r="A1009" s="7">
+        <v>46041</v>
+      </c>
+      <c r="B1009" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1009" s="6">
+        <v>7</v>
+      </c>
+      <c r="D1009" s="2"/>
+    </row>
+    <row r="1010" spans="1:4">
+      <c r="A1010" s="7">
+        <v>46041</v>
+      </c>
+      <c r="B1010" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1010" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1010" s="2"/>
+    </row>
+    <row r="1011" spans="1:4">
+      <c r="A1011" s="7">
+        <v>46041</v>
+      </c>
+      <c r="B1011" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1011" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1011" s="2"/>
+    </row>
+    <row r="1012" spans="1:4">
+      <c r="A1012" s="7">
+        <v>46041</v>
+      </c>
+      <c r="B1012" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1012" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1012" s="2"/>
+    </row>
+    <row r="1013" spans="1:4">
+      <c r="A1013" s="7">
+        <v>46041</v>
+      </c>
+      <c r="B1013" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1013" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1013" s="2"/>
+    </row>
+    <row r="1014" spans="1:4">
+      <c r="A1014" s="7">
+        <v>46041</v>
+      </c>
+      <c r="B1014" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1014" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1014" s="2"/>
+    </row>
+    <row r="1015" spans="1:4">
+      <c r="A1015" s="7">
+        <v>46041</v>
+      </c>
+      <c r="B1015" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1015" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1015" s="2"/>
+    </row>
+    <row r="1016" spans="1:4">
+      <c r="A1016" s="7">
+        <v>46041</v>
+      </c>
+      <c r="B1016" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1016" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1016" s="2"/>
+    </row>
+    <row r="1017" spans="1:4">
+      <c r="A1017" s="7">
+        <v>46041</v>
+      </c>
+      <c r="B1017" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1017" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1017" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="24">
   <si>
     <t>Data</t>
   </si>
@@ -804,11 +804,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1017"/>
+  <dimension ref="A1:U1019"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A984" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1006" sqref="C1006"/>
+      <pane ySplit="1" topLeftCell="A996" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1016" sqref="G1016"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -817,9 +817,8 @@
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="9" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -16220,9 +16219,9 @@
       <c r="C1007" s="6">
         <v>2</v>
       </c>
-      <c r="D1007" s="2"/>
-      <c r="G1007" s="1"/>
-      <c r="H1007" s="22"/>
+      <c r="D1007" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="1008" spans="1:8">
       <c r="A1008" s="7">
@@ -16234,11 +16233,13 @@
       <c r="C1008" s="6">
         <v>2</v>
       </c>
-      <c r="D1008" s="2"/>
-      <c r="G1008" s="1"/>
-      <c r="H1008" s="22"/>
-    </row>
-    <row r="1009" spans="1:4">
+      <c r="D1008" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1008" s="1"/>
+      <c r="G1008" s="22"/>
+    </row>
+    <row r="1009" spans="1:7">
       <c r="A1009" s="7">
         <v>46041</v>
       </c>
@@ -16248,9 +16249,13 @@
       <c r="C1009" s="6">
         <v>7</v>
       </c>
-      <c r="D1009" s="2"/>
-    </row>
-    <row r="1010" spans="1:4">
+      <c r="D1009" s="2">
+        <v>9</v>
+      </c>
+      <c r="F1009" s="1"/>
+      <c r="G1009" s="22"/>
+    </row>
+    <row r="1010" spans="1:7">
       <c r="A1010" s="7">
         <v>46041</v>
       </c>
@@ -16260,9 +16265,13 @@
       <c r="C1010" s="6">
         <v>1</v>
       </c>
-      <c r="D1010" s="2"/>
-    </row>
-    <row r="1011" spans="1:4">
+      <c r="D1010" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1010" s="1"/>
+      <c r="G1010" s="22"/>
+    </row>
+    <row r="1011" spans="1:7">
       <c r="A1011" s="7">
         <v>46041</v>
       </c>
@@ -16272,9 +16281,13 @@
       <c r="C1011" s="6">
         <v>1</v>
       </c>
-      <c r="D1011" s="2"/>
-    </row>
-    <row r="1012" spans="1:4">
+      <c r="D1011" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1011" s="1"/>
+      <c r="G1011" s="22"/>
+    </row>
+    <row r="1012" spans="1:7">
       <c r="A1012" s="7">
         <v>46041</v>
       </c>
@@ -16284,9 +16297,13 @@
       <c r="C1012" s="6">
         <v>1</v>
       </c>
-      <c r="D1012" s="2"/>
-    </row>
-    <row r="1013" spans="1:4">
+      <c r="D1012" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1012" s="1"/>
+      <c r="G1012" s="22"/>
+    </row>
+    <row r="1013" spans="1:7">
       <c r="A1013" s="7">
         <v>46041</v>
       </c>
@@ -16296,9 +16313,13 @@
       <c r="C1013" s="2">
         <v>1</v>
       </c>
-      <c r="D1013" s="2"/>
-    </row>
-    <row r="1014" spans="1:4">
+      <c r="D1013" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1013" s="1"/>
+      <c r="G1013" s="22"/>
+    </row>
+    <row r="1014" spans="1:7">
       <c r="A1014" s="7">
         <v>46041</v>
       </c>
@@ -16308,9 +16329,13 @@
       <c r="C1014" s="2">
         <v>1</v>
       </c>
-      <c r="D1014" s="2"/>
-    </row>
-    <row r="1015" spans="1:4">
+      <c r="D1014" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1014" s="1"/>
+      <c r="G1014" s="22"/>
+    </row>
+    <row r="1015" spans="1:7">
       <c r="A1015" s="7">
         <v>46041</v>
       </c>
@@ -16320,9 +16345,13 @@
       <c r="C1015" s="2">
         <v>1</v>
       </c>
-      <c r="D1015" s="2"/>
-    </row>
-    <row r="1016" spans="1:4">
+      <c r="D1015" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1015" s="1"/>
+      <c r="G1015" s="22"/>
+    </row>
+    <row r="1016" spans="1:7">
       <c r="A1016" s="7">
         <v>46041</v>
       </c>
@@ -16332,9 +16361,11 @@
       <c r="C1016" s="2">
         <v>1</v>
       </c>
-      <c r="D1016" s="2"/>
-    </row>
-    <row r="1017" spans="1:4">
+      <c r="D1016" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:7">
       <c r="A1017" s="7">
         <v>46041</v>
       </c>
@@ -16344,7 +16375,37 @@
       <c r="C1017" s="2">
         <v>1</v>
       </c>
-      <c r="D1017" s="2"/>
+      <c r="D1017" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:7">
+      <c r="A1018" s="7">
+        <v>46041</v>
+      </c>
+      <c r="B1018" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1018" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1018" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:7">
+      <c r="A1019" s="7">
+        <v>46041</v>
+      </c>
+      <c r="B1019" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1019" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1019" s="6">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="24">
   <si>
     <t>Data</t>
   </si>
@@ -369,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -509,12 +509,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -804,11 +817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1019"/>
+  <dimension ref="A1:U1051"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A996" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1016" sqref="G1016"/>
+      <pane ySplit="1" topLeftCell="A1017" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1025" sqref="F1025"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -817,7 +830,7 @@
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
     <col min="7" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -16406,6 +16419,484 @@
       <c r="D1019" s="6">
         <v>1</v>
       </c>
+    </row>
+    <row r="1020" spans="1:7">
+      <c r="A1020" s="7">
+        <v>46043</v>
+      </c>
+      <c r="B1020" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1020" s="6">
+        <v>4</v>
+      </c>
+      <c r="D1020" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:7">
+      <c r="A1021" s="7">
+        <v>46043</v>
+      </c>
+      <c r="B1021" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1021" s="6">
+        <v>4</v>
+      </c>
+      <c r="D1021" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1021" s="1"/>
+      <c r="G1021" s="22"/>
+    </row>
+    <row r="1022" spans="1:7">
+      <c r="A1022" s="7">
+        <v>46043</v>
+      </c>
+      <c r="B1022" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1022" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1022" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1022" s="1"/>
+      <c r="G1022" s="22"/>
+    </row>
+    <row r="1023" spans="1:7">
+      <c r="A1023" s="7">
+        <v>46043</v>
+      </c>
+      <c r="B1023" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1023" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1023" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1023" s="71"/>
+      <c r="G1023" s="72"/>
+    </row>
+    <row r="1024" spans="1:7">
+      <c r="A1024" s="7">
+        <v>46043</v>
+      </c>
+      <c r="B1024" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1024" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1024" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1024" s="71"/>
+      <c r="G1024" s="72"/>
+    </row>
+    <row r="1025" spans="1:7">
+      <c r="A1025" s="7">
+        <v>46043</v>
+      </c>
+      <c r="B1025" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1025" s="6">
+        <v>5</v>
+      </c>
+      <c r="D1025" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1025" s="71"/>
+      <c r="G1025" s="72"/>
+    </row>
+    <row r="1026" spans="1:7">
+      <c r="A1026" s="7">
+        <v>46043</v>
+      </c>
+      <c r="B1026" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1026" s="6">
+        <v>5</v>
+      </c>
+      <c r="D1026" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1026" s="71"/>
+      <c r="G1026" s="72"/>
+    </row>
+    <row r="1027" spans="1:7">
+      <c r="A1027" s="7">
+        <v>46043</v>
+      </c>
+      <c r="B1027" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1027" s="6">
+        <v>4</v>
+      </c>
+      <c r="D1027" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1027" s="71"/>
+      <c r="G1027" s="72"/>
+    </row>
+    <row r="1028" spans="1:7">
+      <c r="A1028" s="7">
+        <v>46043</v>
+      </c>
+      <c r="B1028" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1028" s="6">
+        <v>4</v>
+      </c>
+      <c r="D1028" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1028" s="71"/>
+      <c r="G1028" s="72"/>
+    </row>
+    <row r="1029" spans="1:7">
+      <c r="A1029" s="7">
+        <v>46043</v>
+      </c>
+      <c r="B1029" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1029" s="6">
+        <v>10</v>
+      </c>
+      <c r="D1029" s="2">
+        <v>10</v>
+      </c>
+      <c r="F1029" s="71"/>
+      <c r="G1029" s="72"/>
+    </row>
+    <row r="1030" spans="1:7">
+      <c r="A1030" s="7">
+        <v>46043</v>
+      </c>
+      <c r="B1030" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1030" s="6">
+        <v>10</v>
+      </c>
+      <c r="D1030" s="2">
+        <v>10</v>
+      </c>
+      <c r="F1030" s="71"/>
+      <c r="G1030" s="72"/>
+    </row>
+    <row r="1031" spans="1:7">
+      <c r="A1031" s="7">
+        <v>46043</v>
+      </c>
+      <c r="B1031" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1031" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1031" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1031" s="71"/>
+      <c r="G1031" s="72"/>
+    </row>
+    <row r="1032" spans="1:7">
+      <c r="A1032" s="7">
+        <v>46043</v>
+      </c>
+      <c r="B1032" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1032" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1032" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1032" s="71"/>
+      <c r="G1032" s="72"/>
+    </row>
+    <row r="1033" spans="1:7">
+      <c r="A1033" s="7">
+        <v>46044</v>
+      </c>
+      <c r="B1033" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1033" s="6">
+        <v>4</v>
+      </c>
+      <c r="D1033" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1033" s="73"/>
+      <c r="G1033" s="73"/>
+    </row>
+    <row r="1034" spans="1:7">
+      <c r="A1034" s="7">
+        <v>46044</v>
+      </c>
+      <c r="B1034" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1034" s="6">
+        <v>4</v>
+      </c>
+      <c r="D1034" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1034" s="71"/>
+      <c r="G1034" s="72"/>
+    </row>
+    <row r="1035" spans="1:7">
+      <c r="A1035" s="7">
+        <v>46044</v>
+      </c>
+      <c r="B1035" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1035" s="6">
+        <v>5</v>
+      </c>
+      <c r="D1035" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1035" s="71"/>
+      <c r="G1035" s="72"/>
+    </row>
+    <row r="1036" spans="1:7">
+      <c r="A1036" s="7">
+        <v>46044</v>
+      </c>
+      <c r="B1036" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1036" s="6">
+        <v>5</v>
+      </c>
+      <c r="D1036" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1036" s="71"/>
+      <c r="G1036" s="72"/>
+    </row>
+    <row r="1037" spans="1:7">
+      <c r="A1037" s="7">
+        <v>46044</v>
+      </c>
+      <c r="B1037" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1037" s="6">
+        <v>4</v>
+      </c>
+      <c r="D1037" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1037" s="71"/>
+      <c r="G1037" s="72"/>
+    </row>
+    <row r="1038" spans="1:7">
+      <c r="A1038" s="7">
+        <v>46044</v>
+      </c>
+      <c r="B1038" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1038" s="6">
+        <v>4</v>
+      </c>
+      <c r="D1038" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1038" s="71"/>
+      <c r="G1038" s="72"/>
+    </row>
+    <row r="1039" spans="1:7">
+      <c r="A1039" s="7">
+        <v>46044</v>
+      </c>
+      <c r="B1039" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1039" s="6">
+        <v>8</v>
+      </c>
+      <c r="D1039" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1039" s="71"/>
+      <c r="G1039" s="72"/>
+    </row>
+    <row r="1040" spans="1:7">
+      <c r="A1040" s="7">
+        <v>46044</v>
+      </c>
+      <c r="B1040" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1040" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1040" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1040" s="71"/>
+      <c r="G1040" s="72"/>
+    </row>
+    <row r="1041" spans="1:7">
+      <c r="A1041" s="7">
+        <v>46044</v>
+      </c>
+      <c r="B1041" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1041" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1041" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1041" s="73"/>
+      <c r="G1041" s="73"/>
+    </row>
+    <row r="1042" spans="1:7">
+      <c r="A1042" s="7">
+        <v>46044</v>
+      </c>
+      <c r="B1042" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1042" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1042" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1042" s="73"/>
+      <c r="G1042" s="73"/>
+    </row>
+    <row r="1043" spans="1:7">
+      <c r="A1043" s="7">
+        <v>46044</v>
+      </c>
+      <c r="B1043" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1043" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1043" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1043" s="73"/>
+      <c r="G1043" s="73"/>
+    </row>
+    <row r="1044" spans="1:7">
+      <c r="A1044" s="7">
+        <v>46045</v>
+      </c>
+      <c r="B1044" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1044" s="6">
+        <v>12</v>
+      </c>
+      <c r="D1044" s="2"/>
+    </row>
+    <row r="1045" spans="1:7">
+      <c r="A1045" s="7">
+        <v>46045</v>
+      </c>
+      <c r="B1045" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1045" s="6">
+        <v>12</v>
+      </c>
+      <c r="D1045" s="2"/>
+    </row>
+    <row r="1046" spans="1:7">
+      <c r="A1046" s="7">
+        <v>46045</v>
+      </c>
+      <c r="B1046" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1046" s="6">
+        <v>14</v>
+      </c>
+      <c r="D1046" s="2"/>
+    </row>
+    <row r="1047" spans="1:7">
+      <c r="A1047" s="7">
+        <v>46045</v>
+      </c>
+      <c r="B1047" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1047" s="6">
+        <v>14</v>
+      </c>
+      <c r="D1047" s="2"/>
+    </row>
+    <row r="1048" spans="1:7">
+      <c r="A1048" s="7">
+        <v>46045</v>
+      </c>
+      <c r="B1048" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1048" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1048" s="2"/>
+    </row>
+    <row r="1049" spans="1:7">
+      <c r="A1049" s="7">
+        <v>46045</v>
+      </c>
+      <c r="B1049" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1049" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1049" s="2"/>
+    </row>
+    <row r="1050" spans="1:7">
+      <c r="A1050" s="7">
+        <v>46045</v>
+      </c>
+      <c r="B1050" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1050" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1050" s="2"/>
+    </row>
+    <row r="1051" spans="1:7">
+      <c r="A1051" s="7">
+        <v>46045</v>
+      </c>
+      <c r="B1051" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1051" s="2">
+        <v>12</v>
+      </c>
+      <c r="D1051" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="24">
   <si>
     <t>Data</t>
   </si>
@@ -519,15 +519,7 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -817,11 +809,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1051"/>
+  <dimension ref="A1:U1067"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1017" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1025" sqref="F1025"/>
+      <pane ySplit="1" topLeftCell="A1031" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1046" sqref="G1046"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -831,7 +823,8 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="9" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -16754,7 +16747,7 @@
       <c r="F1040" s="71"/>
       <c r="G1040" s="72"/>
     </row>
-    <row r="1041" spans="1:7">
+    <row r="1041" spans="1:8">
       <c r="A1041" s="7">
         <v>46044</v>
       </c>
@@ -16770,7 +16763,7 @@
       <c r="F1041" s="73"/>
       <c r="G1041" s="73"/>
     </row>
-    <row r="1042" spans="1:7">
+    <row r="1042" spans="1:8">
       <c r="A1042" s="7">
         <v>46044</v>
       </c>
@@ -16786,7 +16779,7 @@
       <c r="F1042" s="73"/>
       <c r="G1042" s="73"/>
     </row>
-    <row r="1043" spans="1:7">
+    <row r="1043" spans="1:8">
       <c r="A1043" s="7">
         <v>46044</v>
       </c>
@@ -16802,101 +16795,353 @@
       <c r="F1043" s="73"/>
       <c r="G1043" s="73"/>
     </row>
-    <row r="1044" spans="1:7">
+    <row r="1044" spans="1:8">
       <c r="A1044" s="7">
         <v>46045</v>
       </c>
-      <c r="B1044" s="29" t="s">
-        <v>18</v>
+      <c r="B1044" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="C1044" s="6">
-        <v>12</v>
-      </c>
-      <c r="D1044" s="2"/>
-    </row>
-    <row r="1045" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="D1044" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1044" s="73"/>
+      <c r="G1044" s="73"/>
+    </row>
+    <row r="1045" spans="1:8">
       <c r="A1045" s="7">
         <v>46045</v>
       </c>
-      <c r="B1045" s="29" t="s">
-        <v>8</v>
+      <c r="B1045" s="27" t="s">
+        <v>9</v>
       </c>
       <c r="C1045" s="6">
-        <v>12</v>
-      </c>
-      <c r="D1045" s="2"/>
-    </row>
-    <row r="1046" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="D1045" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1045" s="73"/>
+      <c r="G1045" s="73"/>
+    </row>
+    <row r="1046" spans="1:8">
       <c r="A1046" s="7">
         <v>46045</v>
       </c>
-      <c r="B1046" s="30" t="s">
-        <v>7</v>
+      <c r="B1046" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="C1046" s="6">
-        <v>14</v>
-      </c>
-      <c r="D1046" s="2"/>
-    </row>
-    <row r="1047" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="D1046" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:8">
       <c r="A1047" s="7">
         <v>46045</v>
       </c>
-      <c r="B1047" s="30" t="s">
-        <v>11</v>
+      <c r="B1047" s="29" t="s">
+        <v>8</v>
       </c>
       <c r="C1047" s="6">
-        <v>14</v>
-      </c>
-      <c r="D1047" s="2"/>
-    </row>
-    <row r="1048" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="D1047" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1047" s="1"/>
+      <c r="G1047" s="22"/>
+    </row>
+    <row r="1048" spans="1:8">
       <c r="A1048" s="7">
         <v>46045</v>
       </c>
-      <c r="B1048" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1048" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1048" s="2"/>
-    </row>
-    <row r="1049" spans="1:7">
+      <c r="B1048" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1048" s="6">
+        <v>14</v>
+      </c>
+      <c r="D1048" s="2">
+        <v>12</v>
+      </c>
+      <c r="F1048" s="1"/>
+      <c r="G1048" s="22"/>
+    </row>
+    <row r="1049" spans="1:8">
       <c r="A1049" s="7">
         <v>46045</v>
       </c>
-      <c r="B1049" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1049" s="2">
-        <v>10</v>
-      </c>
-      <c r="D1049" s="2"/>
-    </row>
-    <row r="1050" spans="1:7">
+      <c r="B1049" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1049" s="6">
+        <v>14</v>
+      </c>
+      <c r="D1049" s="2">
+        <v>12</v>
+      </c>
+      <c r="F1049" s="1"/>
+      <c r="G1049" s="22"/>
+    </row>
+    <row r="1050" spans="1:8">
       <c r="A1050" s="7">
         <v>46045</v>
       </c>
-      <c r="B1050" s="14" t="s">
-        <v>10</v>
+      <c r="B1050" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C1050" s="2">
-        <v>10</v>
-      </c>
-      <c r="D1050" s="2"/>
-    </row>
-    <row r="1051" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="D1050" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1050" s="1"/>
+      <c r="G1050" s="22"/>
+    </row>
+    <row r="1051" spans="1:8">
       <c r="A1051" s="7">
         <v>46045</v>
       </c>
-      <c r="B1051" s="6" t="s">
-        <v>6</v>
+      <c r="B1051" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="C1051" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1051" s="2">
+        <v>10</v>
+      </c>
+      <c r="F1051" s="1"/>
+      <c r="G1051" s="22"/>
+    </row>
+    <row r="1052" spans="1:8">
+      <c r="A1052" s="7">
+        <v>46045</v>
+      </c>
+      <c r="B1052" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1052" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1052" s="2">
+        <v>10</v>
+      </c>
+      <c r="F1052" s="1"/>
+      <c r="G1052" s="22"/>
+    </row>
+    <row r="1053" spans="1:8">
+      <c r="A1053" s="7">
+        <v>46045</v>
+      </c>
+      <c r="B1053" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1053" s="2">
         <v>12</v>
       </c>
-      <c r="D1051" s="2"/>
+      <c r="D1053" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1053" s="1"/>
+      <c r="G1053" s="22"/>
+    </row>
+    <row r="1054" spans="1:8">
+      <c r="A1054" s="7">
+        <v>46046</v>
+      </c>
+      <c r="B1054" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1054" s="6">
+        <v>8</v>
+      </c>
+      <c r="D1054" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1054" s="1"/>
+    </row>
+    <row r="1055" spans="1:8">
+      <c r="A1055" s="7">
+        <v>46046</v>
+      </c>
+      <c r="B1055" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1055" s="6">
+        <v>10</v>
+      </c>
+      <c r="D1055" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1055" s="1"/>
+      <c r="G1055" s="1"/>
+      <c r="H1055" s="22"/>
+    </row>
+    <row r="1056" spans="1:8">
+      <c r="A1056" s="7">
+        <v>46046</v>
+      </c>
+      <c r="B1056" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1056" s="6">
+        <v>15</v>
+      </c>
+      <c r="D1056" s="2">
+        <v>9</v>
+      </c>
+      <c r="F1056" s="1"/>
+      <c r="G1056" s="1"/>
+      <c r="H1056" s="22"/>
+    </row>
+    <row r="1057" spans="1:8">
+      <c r="A1057" s="7">
+        <v>46048</v>
+      </c>
+      <c r="B1057" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1057" s="6">
+        <v>9</v>
+      </c>
+      <c r="D1057" s="2"/>
+      <c r="F1057" s="1"/>
+      <c r="G1057" s="1"/>
+      <c r="H1057" s="22"/>
+    </row>
+    <row r="1058" spans="1:8">
+      <c r="A1058" s="7">
+        <v>46048</v>
+      </c>
+      <c r="B1058" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1058" s="6">
+        <v>6</v>
+      </c>
+      <c r="D1058" s="2"/>
+      <c r="G1058" s="1"/>
+      <c r="H1058" s="22"/>
+    </row>
+    <row r="1059" spans="1:8">
+      <c r="A1059" s="7">
+        <v>46048</v>
+      </c>
+      <c r="B1059" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1059" s="2">
+        <v>6</v>
+      </c>
+      <c r="D1059" s="2"/>
+      <c r="G1059" s="1"/>
+      <c r="H1059" s="22"/>
+    </row>
+    <row r="1060" spans="1:8">
+      <c r="A1060" s="7">
+        <v>46048</v>
+      </c>
+      <c r="B1060" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1060" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1060" s="2"/>
+      <c r="G1060" s="1"/>
+      <c r="H1060" s="22"/>
+    </row>
+    <row r="1061" spans="1:8">
+      <c r="A1061" s="7">
+        <v>46048</v>
+      </c>
+      <c r="B1061" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1061" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1061" s="2"/>
+    </row>
+    <row r="1062" spans="1:8">
+      <c r="A1062" s="7">
+        <v>46048</v>
+      </c>
+      <c r="B1062" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1062" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1062" s="2"/>
+    </row>
+    <row r="1063" spans="1:8">
+      <c r="A1063" s="7">
+        <v>46048</v>
+      </c>
+      <c r="B1063" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1063" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1063" s="2"/>
+    </row>
+    <row r="1064" spans="1:8">
+      <c r="A1064" s="7">
+        <v>46048</v>
+      </c>
+      <c r="B1064" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1064" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1064" s="2"/>
+    </row>
+    <row r="1065" spans="1:8">
+      <c r="A1065" s="7">
+        <v>46048</v>
+      </c>
+      <c r="B1065" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1065" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1065" s="2"/>
+    </row>
+    <row r="1066" spans="1:8">
+      <c r="A1066" s="7">
+        <v>46048</v>
+      </c>
+      <c r="B1066" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1066" s="2">
+        <v>9</v>
+      </c>
+      <c r="D1066" s="2"/>
+    </row>
+    <row r="1067" spans="1:8">
+      <c r="A1067" s="7">
+        <v>46048</v>
+      </c>
+      <c r="B1067" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1067" s="2">
+        <v>9</v>
+      </c>
+      <c r="D1067" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="24">
   <si>
     <t>Data</t>
   </si>
@@ -809,11 +809,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1067"/>
+  <dimension ref="A1:U1082"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1031" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1046" sqref="G1046"/>
+      <pane ySplit="1" topLeftCell="A1046" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1059" sqref="G1059"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -823,8 +823,7 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="9" width="29.42578125" customWidth="1"/>
+    <col min="7" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -17002,7 +17001,7 @@
       <c r="G1056" s="1"/>
       <c r="H1056" s="22"/>
     </row>
-    <row r="1057" spans="1:8">
+    <row r="1057" spans="1:7">
       <c r="A1057" s="7">
         <v>46048</v>
       </c>
@@ -17012,12 +17011,11 @@
       <c r="C1057" s="6">
         <v>9</v>
       </c>
-      <c r="D1057" s="2"/>
-      <c r="F1057" s="1"/>
-      <c r="G1057" s="1"/>
-      <c r="H1057" s="22"/>
-    </row>
-    <row r="1058" spans="1:8">
+      <c r="D1057" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:7">
       <c r="A1058" s="7">
         <v>46048</v>
       </c>
@@ -17027,11 +17025,13 @@
       <c r="C1058" s="6">
         <v>6</v>
       </c>
-      <c r="D1058" s="2"/>
-      <c r="G1058" s="1"/>
-      <c r="H1058" s="22"/>
-    </row>
-    <row r="1059" spans="1:8">
+      <c r="D1058" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1058" s="1"/>
+      <c r="G1058" s="22"/>
+    </row>
+    <row r="1059" spans="1:7">
       <c r="A1059" s="7">
         <v>46048</v>
       </c>
@@ -17041,11 +17041,13 @@
       <c r="C1059" s="2">
         <v>6</v>
       </c>
-      <c r="D1059" s="2"/>
-      <c r="G1059" s="1"/>
-      <c r="H1059" s="22"/>
-    </row>
-    <row r="1060" spans="1:8">
+      <c r="D1059" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1059" s="1"/>
+      <c r="G1059" s="22"/>
+    </row>
+    <row r="1060" spans="1:7">
       <c r="A1060" s="7">
         <v>46048</v>
       </c>
@@ -17055,11 +17057,13 @@
       <c r="C1060" s="2">
         <v>3</v>
       </c>
-      <c r="D1060" s="2"/>
-      <c r="G1060" s="1"/>
-      <c r="H1060" s="22"/>
-    </row>
-    <row r="1061" spans="1:8">
+      <c r="D1060" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1060" s="1"/>
+      <c r="G1060" s="22"/>
+    </row>
+    <row r="1061" spans="1:7">
       <c r="A1061" s="7">
         <v>46048</v>
       </c>
@@ -17069,9 +17073,13 @@
       <c r="C1061" s="2">
         <v>3</v>
       </c>
-      <c r="D1061" s="2"/>
-    </row>
-    <row r="1062" spans="1:8">
+      <c r="D1061" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1061" s="1"/>
+      <c r="G1061" s="22"/>
+    </row>
+    <row r="1062" spans="1:7">
       <c r="A1062" s="7">
         <v>46048</v>
       </c>
@@ -17081,9 +17089,13 @@
       <c r="C1062" s="2">
         <v>5</v>
       </c>
-      <c r="D1062" s="2"/>
-    </row>
-    <row r="1063" spans="1:8">
+      <c r="D1062" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1062" s="1"/>
+      <c r="G1062" s="22"/>
+    </row>
+    <row r="1063" spans="1:7">
       <c r="A1063" s="7">
         <v>46048</v>
       </c>
@@ -17093,9 +17105,13 @@
       <c r="C1063" s="2">
         <v>5</v>
       </c>
-      <c r="D1063" s="2"/>
-    </row>
-    <row r="1064" spans="1:8">
+      <c r="D1063" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1063" s="1"/>
+      <c r="G1063" s="22"/>
+    </row>
+    <row r="1064" spans="1:7">
       <c r="A1064" s="7">
         <v>46048</v>
       </c>
@@ -17105,9 +17121,13 @@
       <c r="C1064" s="2">
         <v>2</v>
       </c>
-      <c r="D1064" s="2"/>
-    </row>
-    <row r="1065" spans="1:8">
+      <c r="D1064" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1064" s="1"/>
+      <c r="G1064" s="22"/>
+    </row>
+    <row r="1065" spans="1:7">
       <c r="A1065" s="7">
         <v>46048</v>
       </c>
@@ -17117,9 +17137,13 @@
       <c r="C1065" s="2">
         <v>2</v>
       </c>
-      <c r="D1065" s="2"/>
-    </row>
-    <row r="1066" spans="1:8">
+      <c r="D1065" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1065" s="1"/>
+      <c r="G1065" s="22"/>
+    </row>
+    <row r="1066" spans="1:7">
       <c r="A1066" s="7">
         <v>46048</v>
       </c>
@@ -17129,9 +17153,11 @@
       <c r="C1066" s="2">
         <v>9</v>
       </c>
-      <c r="D1066" s="2"/>
-    </row>
-    <row r="1067" spans="1:8">
+      <c r="D1066" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:7">
       <c r="A1067" s="7">
         <v>46048</v>
       </c>
@@ -17141,7 +17167,193 @@
       <c r="C1067" s="2">
         <v>9</v>
       </c>
-      <c r="D1067" s="2"/>
+      <c r="D1067" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:7">
+      <c r="A1068" s="7">
+        <v>46048</v>
+      </c>
+      <c r="B1068" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1068" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1068" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:7">
+      <c r="A1069" s="7">
+        <v>46048</v>
+      </c>
+      <c r="B1069" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1069" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1069" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:7">
+      <c r="A1070" s="7">
+        <v>46049</v>
+      </c>
+      <c r="B1070" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1070" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1070" s="2"/>
+    </row>
+    <row r="1071" spans="1:7">
+      <c r="A1071" s="7">
+        <v>46049</v>
+      </c>
+      <c r="B1071" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1071" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1071" s="2"/>
+    </row>
+    <row r="1072" spans="1:7">
+      <c r="A1072" s="7">
+        <v>46049</v>
+      </c>
+      <c r="B1072" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1072" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1072" s="2"/>
+    </row>
+    <row r="1073" spans="1:4">
+      <c r="A1073" s="7">
+        <v>46049</v>
+      </c>
+      <c r="B1073" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1073" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1073" s="2"/>
+    </row>
+    <row r="1074" spans="1:4">
+      <c r="A1074" s="7">
+        <v>46049</v>
+      </c>
+      <c r="B1074" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1074" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1074" s="2"/>
+    </row>
+    <row r="1075" spans="1:4">
+      <c r="A1075" s="7">
+        <v>46049</v>
+      </c>
+      <c r="B1075" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1075" s="6">
+        <v>6</v>
+      </c>
+      <c r="D1075" s="2"/>
+    </row>
+    <row r="1076" spans="1:4">
+      <c r="A1076" s="7">
+        <v>46049</v>
+      </c>
+      <c r="B1076" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1076" s="6">
+        <v>6</v>
+      </c>
+      <c r="D1076" s="2"/>
+    </row>
+    <row r="1077" spans="1:4">
+      <c r="A1077" s="7">
+        <v>46049</v>
+      </c>
+      <c r="B1077" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1077" s="6">
+        <v>8</v>
+      </c>
+      <c r="D1077" s="2"/>
+    </row>
+    <row r="1078" spans="1:4">
+      <c r="A1078" s="7">
+        <v>46049</v>
+      </c>
+      <c r="B1078" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1078" s="6">
+        <v>8</v>
+      </c>
+      <c r="D1078" s="2"/>
+    </row>
+    <row r="1079" spans="1:4">
+      <c r="A1079" s="7">
+        <v>46049</v>
+      </c>
+      <c r="B1079" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1079" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1079" s="2"/>
+    </row>
+    <row r="1080" spans="1:4">
+      <c r="A1080" s="7">
+        <v>46049</v>
+      </c>
+      <c r="B1080" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1080" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1080" s="2"/>
+    </row>
+    <row r="1081" spans="1:4">
+      <c r="A1081" s="7">
+        <v>46049</v>
+      </c>
+      <c r="B1081" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1081" s="6">
+        <v>8</v>
+      </c>
+      <c r="D1081" s="2"/>
+    </row>
+    <row r="1082" spans="1:4">
+      <c r="A1082" s="7">
+        <v>46049</v>
+      </c>
+      <c r="B1082" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1082" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1082" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="24">
   <si>
     <t>Data</t>
   </si>
@@ -809,11 +809,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1082"/>
+  <dimension ref="A1:U1090"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1046" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1059" sqref="G1059"/>
+      <pane ySplit="1" topLeftCell="A1053" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1062" sqref="C1062"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -822,8 +822,8 @@
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="9" width="29.42578125" customWidth="1"/>
+    <col min="6" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -17001,7 +17001,7 @@
       <c r="G1056" s="1"/>
       <c r="H1056" s="22"/>
     </row>
-    <row r="1057" spans="1:7">
+    <row r="1057" spans="1:8">
       <c r="A1057" s="7">
         <v>46048</v>
       </c>
@@ -17015,7 +17015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1058" spans="1:7">
+    <row r="1058" spans="1:8">
       <c r="A1058" s="7">
         <v>46048</v>
       </c>
@@ -17031,7 +17031,7 @@
       <c r="F1058" s="1"/>
       <c r="G1058" s="22"/>
     </row>
-    <row r="1059" spans="1:7">
+    <row r="1059" spans="1:8">
       <c r="A1059" s="7">
         <v>46048</v>
       </c>
@@ -17047,7 +17047,7 @@
       <c r="F1059" s="1"/>
       <c r="G1059" s="22"/>
     </row>
-    <row r="1060" spans="1:7">
+    <row r="1060" spans="1:8">
       <c r="A1060" s="7">
         <v>46048</v>
       </c>
@@ -17063,7 +17063,7 @@
       <c r="F1060" s="1"/>
       <c r="G1060" s="22"/>
     </row>
-    <row r="1061" spans="1:7">
+    <row r="1061" spans="1:8">
       <c r="A1061" s="7">
         <v>46048</v>
       </c>
@@ -17079,7 +17079,7 @@
       <c r="F1061" s="1"/>
       <c r="G1061" s="22"/>
     </row>
-    <row r="1062" spans="1:7">
+    <row r="1062" spans="1:8">
       <c r="A1062" s="7">
         <v>46048</v>
       </c>
@@ -17095,7 +17095,7 @@
       <c r="F1062" s="1"/>
       <c r="G1062" s="22"/>
     </row>
-    <row r="1063" spans="1:7">
+    <row r="1063" spans="1:8">
       <c r="A1063" s="7">
         <v>46048</v>
       </c>
@@ -17111,7 +17111,7 @@
       <c r="F1063" s="1"/>
       <c r="G1063" s="22"/>
     </row>
-    <row r="1064" spans="1:7">
+    <row r="1064" spans="1:8">
       <c r="A1064" s="7">
         <v>46048</v>
       </c>
@@ -17127,7 +17127,7 @@
       <c r="F1064" s="1"/>
       <c r="G1064" s="22"/>
     </row>
-    <row r="1065" spans="1:7">
+    <row r="1065" spans="1:8">
       <c r="A1065" s="7">
         <v>46048</v>
       </c>
@@ -17143,7 +17143,7 @@
       <c r="F1065" s="1"/>
       <c r="G1065" s="22"/>
     </row>
-    <row r="1066" spans="1:7">
+    <row r="1066" spans="1:8">
       <c r="A1066" s="7">
         <v>46048</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1067" spans="1:7">
+    <row r="1067" spans="1:8">
       <c r="A1067" s="7">
         <v>46048</v>
       </c>
@@ -17171,7 +17171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1068" spans="1:7">
+    <row r="1068" spans="1:8">
       <c r="A1068" s="7">
         <v>46048</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1069" spans="1:7">
+    <row r="1069" spans="1:8">
       <c r="A1069" s="7">
         <v>46048</v>
       </c>
@@ -17199,7 +17199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1070" spans="1:7">
+    <row r="1070" spans="1:8">
       <c r="A1070" s="7">
         <v>46049</v>
       </c>
@@ -17209,9 +17209,11 @@
       <c r="C1070" s="6">
         <v>3</v>
       </c>
-      <c r="D1070" s="2"/>
-    </row>
-    <row r="1071" spans="1:7">
+      <c r="D1070" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:8">
       <c r="A1071" s="7">
         <v>46049</v>
       </c>
@@ -17221,9 +17223,13 @@
       <c r="C1071" s="6">
         <v>3</v>
       </c>
-      <c r="D1071" s="2"/>
-    </row>
-    <row r="1072" spans="1:7">
+      <c r="D1071" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1071" s="1"/>
+      <c r="H1071" s="22"/>
+    </row>
+    <row r="1072" spans="1:8">
       <c r="A1072" s="7">
         <v>46049</v>
       </c>
@@ -17233,9 +17239,13 @@
       <c r="C1072" s="6">
         <v>1</v>
       </c>
-      <c r="D1072" s="2"/>
-    </row>
-    <row r="1073" spans="1:4">
+      <c r="D1072" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1072" s="1"/>
+      <c r="H1072" s="22"/>
+    </row>
+    <row r="1073" spans="1:8">
       <c r="A1073" s="7">
         <v>46049</v>
       </c>
@@ -17245,9 +17255,13 @@
       <c r="C1073" s="6">
         <v>1</v>
       </c>
-      <c r="D1073" s="2"/>
-    </row>
-    <row r="1074" spans="1:4">
+      <c r="D1073" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1073" s="1"/>
+      <c r="H1073" s="22"/>
+    </row>
+    <row r="1074" spans="1:8">
       <c r="A1074" s="7">
         <v>46049</v>
       </c>
@@ -17257,9 +17271,13 @@
       <c r="C1074" s="6">
         <v>3</v>
       </c>
-      <c r="D1074" s="2"/>
-    </row>
-    <row r="1075" spans="1:4">
+      <c r="D1074" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1074" s="1"/>
+      <c r="H1074" s="22"/>
+    </row>
+    <row r="1075" spans="1:8">
       <c r="A1075" s="7">
         <v>46049</v>
       </c>
@@ -17269,9 +17287,13 @@
       <c r="C1075" s="6">
         <v>6</v>
       </c>
-      <c r="D1075" s="2"/>
-    </row>
-    <row r="1076" spans="1:4">
+      <c r="D1075" s="2">
+        <v>3</v>
+      </c>
+      <c r="G1075" s="1"/>
+      <c r="H1075" s="22"/>
+    </row>
+    <row r="1076" spans="1:8">
       <c r="A1076" s="7">
         <v>46049</v>
       </c>
@@ -17281,9 +17303,13 @@
       <c r="C1076" s="6">
         <v>6</v>
       </c>
-      <c r="D1076" s="2"/>
-    </row>
-    <row r="1077" spans="1:4">
+      <c r="D1076" s="2">
+        <v>3</v>
+      </c>
+      <c r="G1076" s="1"/>
+      <c r="H1076" s="22"/>
+    </row>
+    <row r="1077" spans="1:8">
       <c r="A1077" s="7">
         <v>46049</v>
       </c>
@@ -17293,9 +17319,13 @@
       <c r="C1077" s="6">
         <v>8</v>
       </c>
-      <c r="D1077" s="2"/>
-    </row>
-    <row r="1078" spans="1:4">
+      <c r="D1077" s="2">
+        <v>2</v>
+      </c>
+      <c r="G1077" s="1"/>
+      <c r="H1077" s="22"/>
+    </row>
+    <row r="1078" spans="1:8">
       <c r="A1078" s="7">
         <v>46049</v>
       </c>
@@ -17305,9 +17335,11 @@
       <c r="C1078" s="6">
         <v>8</v>
       </c>
-      <c r="D1078" s="2"/>
-    </row>
-    <row r="1079" spans="1:4">
+      <c r="D1078" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:8">
       <c r="A1079" s="7">
         <v>46049</v>
       </c>
@@ -17317,9 +17349,11 @@
       <c r="C1079" s="6">
         <v>3</v>
       </c>
-      <c r="D1079" s="2"/>
-    </row>
-    <row r="1080" spans="1:4">
+      <c r="D1079" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:8">
       <c r="A1080" s="7">
         <v>46049</v>
       </c>
@@ -17329,9 +17363,11 @@
       <c r="C1080" s="6">
         <v>3</v>
       </c>
-      <c r="D1080" s="2"/>
-    </row>
-    <row r="1081" spans="1:4">
+      <c r="D1080" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:8">
       <c r="A1081" s="7">
         <v>46049</v>
       </c>
@@ -17341,9 +17377,11 @@
       <c r="C1081" s="6">
         <v>8</v>
       </c>
-      <c r="D1081" s="2"/>
-    </row>
-    <row r="1082" spans="1:4">
+      <c r="D1081" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:8">
       <c r="A1082" s="7">
         <v>46049</v>
       </c>
@@ -17353,7 +17391,105 @@
       <c r="C1082" s="2">
         <v>8</v>
       </c>
-      <c r="D1082" s="2"/>
+      <c r="D1082" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:8">
+      <c r="A1083" s="7">
+        <v>46050</v>
+      </c>
+      <c r="B1083" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1083" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1083" s="2"/>
+    </row>
+    <row r="1084" spans="1:8">
+      <c r="A1084" s="7">
+        <v>46050</v>
+      </c>
+      <c r="B1084" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1084" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1084" s="2"/>
+    </row>
+    <row r="1085" spans="1:8">
+      <c r="A1085" s="7">
+        <v>46050</v>
+      </c>
+      <c r="B1085" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1085" s="6">
+        <v>5</v>
+      </c>
+      <c r="D1085" s="2"/>
+    </row>
+    <row r="1086" spans="1:8">
+      <c r="A1086" s="7">
+        <v>46050</v>
+      </c>
+      <c r="B1086" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1086" s="6">
+        <v>5</v>
+      </c>
+      <c r="D1086" s="2"/>
+    </row>
+    <row r="1087" spans="1:8">
+      <c r="A1087" s="7">
+        <v>46050</v>
+      </c>
+      <c r="B1087" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1087" s="6">
+        <v>8</v>
+      </c>
+      <c r="D1087" s="2"/>
+    </row>
+    <row r="1088" spans="1:8">
+      <c r="A1088" s="7">
+        <v>46050</v>
+      </c>
+      <c r="B1088" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1088" s="6">
+        <v>8</v>
+      </c>
+      <c r="D1088" s="2"/>
+    </row>
+    <row r="1089" spans="1:4">
+      <c r="A1089" s="7">
+        <v>46050</v>
+      </c>
+      <c r="B1089" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1089" s="6">
+        <v>10</v>
+      </c>
+      <c r="D1089" s="2"/>
+    </row>
+    <row r="1090" spans="1:4">
+      <c r="A1090" s="7">
+        <v>46050</v>
+      </c>
+      <c r="B1090" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1090" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1090" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="24">
   <si>
     <t>Data</t>
   </si>
@@ -809,11 +809,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1090"/>
+  <dimension ref="A1:U1103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1053" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1062" sqref="C1062"/>
+      <pane ySplit="1" topLeftCell="A1077" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1092" sqref="H1092"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -822,8 +822,8 @@
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="9" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -17405,7 +17405,9 @@
       <c r="C1083" s="6">
         <v>3</v>
       </c>
-      <c r="D1083" s="2"/>
+      <c r="D1083" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="1084" spans="1:8">
       <c r="A1084" s="7">
@@ -17417,7 +17419,11 @@
       <c r="C1084" s="6">
         <v>3</v>
       </c>
-      <c r="D1084" s="2"/>
+      <c r="D1084" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1084" s="1"/>
+      <c r="G1084" s="22"/>
     </row>
     <row r="1085" spans="1:8">
       <c r="A1085" s="7">
@@ -17429,7 +17435,11 @@
       <c r="C1085" s="6">
         <v>5</v>
       </c>
-      <c r="D1085" s="2"/>
+      <c r="D1085" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1085" s="1"/>
+      <c r="G1085" s="22"/>
     </row>
     <row r="1086" spans="1:8">
       <c r="A1086" s="7">
@@ -17441,7 +17451,11 @@
       <c r="C1086" s="6">
         <v>5</v>
       </c>
-      <c r="D1086" s="2"/>
+      <c r="D1086" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1086" s="1"/>
+      <c r="G1086" s="22"/>
     </row>
     <row r="1087" spans="1:8">
       <c r="A1087" s="7">
@@ -17453,7 +17467,11 @@
       <c r="C1087" s="6">
         <v>8</v>
       </c>
-      <c r="D1087" s="2"/>
+      <c r="D1087" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1087" s="1"/>
+      <c r="G1087" s="22"/>
     </row>
     <row r="1088" spans="1:8">
       <c r="A1088" s="7">
@@ -17465,9 +17483,13 @@
       <c r="C1088" s="6">
         <v>8</v>
       </c>
-      <c r="D1088" s="2"/>
-    </row>
-    <row r="1089" spans="1:4">
+      <c r="D1088" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1088" s="1"/>
+      <c r="G1088" s="22"/>
+    </row>
+    <row r="1089" spans="1:7">
       <c r="A1089" s="7">
         <v>46050</v>
       </c>
@@ -17477,9 +17499,13 @@
       <c r="C1089" s="6">
         <v>10</v>
       </c>
-      <c r="D1089" s="2"/>
-    </row>
-    <row r="1090" spans="1:4">
+      <c r="D1089" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1089" s="1"/>
+      <c r="G1089" s="22"/>
+    </row>
+    <row r="1090" spans="1:7">
       <c r="A1090" s="7">
         <v>46050</v>
       </c>
@@ -17489,7 +17515,179 @@
       <c r="C1090" s="2">
         <v>10</v>
       </c>
-      <c r="D1090" s="2"/>
+      <c r="D1090" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1090" s="1"/>
+      <c r="G1090" s="22"/>
+    </row>
+    <row r="1091" spans="1:7">
+      <c r="A1091" s="7">
+        <v>46050</v>
+      </c>
+      <c r="B1091" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1091" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1091" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1091" s="1"/>
+      <c r="G1091" s="22"/>
+    </row>
+    <row r="1092" spans="1:7">
+      <c r="A1092" s="7">
+        <v>46050</v>
+      </c>
+      <c r="B1092" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1092" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1092" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1092" s="1"/>
+      <c r="G1092" s="22"/>
+    </row>
+    <row r="1093" spans="1:7">
+      <c r="A1093" s="7">
+        <v>46050</v>
+      </c>
+      <c r="B1093" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1093" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1093" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:7">
+      <c r="A1094" s="7">
+        <v>46050</v>
+      </c>
+      <c r="B1094" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1094" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1094" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:7">
+      <c r="A1095" s="7">
+        <v>46051</v>
+      </c>
+      <c r="B1095" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1095" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1095" s="2"/>
+    </row>
+    <row r="1096" spans="1:7">
+      <c r="A1096" s="7">
+        <v>46051</v>
+      </c>
+      <c r="B1096" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1096" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1096" s="2"/>
+    </row>
+    <row r="1097" spans="1:7">
+      <c r="A1097" s="7">
+        <v>46051</v>
+      </c>
+      <c r="B1097" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1097" s="6">
+        <v>4</v>
+      </c>
+      <c r="D1097" s="2"/>
+    </row>
+    <row r="1098" spans="1:7">
+      <c r="A1098" s="7">
+        <v>46051</v>
+      </c>
+      <c r="B1098" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1098" s="6">
+        <v>4</v>
+      </c>
+      <c r="D1098" s="2"/>
+    </row>
+    <row r="1099" spans="1:7">
+      <c r="A1099" s="7">
+        <v>46051</v>
+      </c>
+      <c r="B1099" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1099" s="6">
+        <v>6</v>
+      </c>
+      <c r="D1099" s="2"/>
+    </row>
+    <row r="1100" spans="1:7">
+      <c r="A1100" s="7">
+        <v>46051</v>
+      </c>
+      <c r="B1100" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1100" s="6">
+        <v>6</v>
+      </c>
+      <c r="D1100" s="2"/>
+    </row>
+    <row r="1101" spans="1:7">
+      <c r="A1101" s="7">
+        <v>46051</v>
+      </c>
+      <c r="B1101" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1101" s="6">
+        <v>9</v>
+      </c>
+      <c r="D1101" s="2"/>
+    </row>
+    <row r="1102" spans="1:7">
+      <c r="A1102" s="7">
+        <v>46051</v>
+      </c>
+      <c r="B1102" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1102" s="6">
+        <v>9</v>
+      </c>
+      <c r="D1102" s="2"/>
+    </row>
+    <row r="1103" spans="1:7">
+      <c r="A1103" s="7">
+        <v>46051</v>
+      </c>
+      <c r="B1103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1103" s="6">
+        <v>11</v>
+      </c>
+      <c r="D1103" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="24">
   <si>
     <t>Data</t>
   </si>
@@ -809,11 +809,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1103"/>
+  <dimension ref="A1:U1109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1077" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1092" sqref="H1092"/>
+      <selection pane="bottomLeft" activeCell="D1085" sqref="D1085"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -822,8 +822,8 @@
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="9" width="29.42578125" customWidth="1"/>
+    <col min="6" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -17489,7 +17489,7 @@
       <c r="F1088" s="1"/>
       <c r="G1088" s="22"/>
     </row>
-    <row r="1089" spans="1:7">
+    <row r="1089" spans="1:8">
       <c r="A1089" s="7">
         <v>46050</v>
       </c>
@@ -17505,7 +17505,7 @@
       <c r="F1089" s="1"/>
       <c r="G1089" s="22"/>
     </row>
-    <row r="1090" spans="1:7">
+    <row r="1090" spans="1:8">
       <c r="A1090" s="7">
         <v>46050</v>
       </c>
@@ -17521,7 +17521,7 @@
       <c r="F1090" s="1"/>
       <c r="G1090" s="22"/>
     </row>
-    <row r="1091" spans="1:7">
+    <row r="1091" spans="1:8">
       <c r="A1091" s="7">
         <v>46050</v>
       </c>
@@ -17537,7 +17537,7 @@
       <c r="F1091" s="1"/>
       <c r="G1091" s="22"/>
     </row>
-    <row r="1092" spans="1:7">
+    <row r="1092" spans="1:8">
       <c r="A1092" s="7">
         <v>46050</v>
       </c>
@@ -17553,7 +17553,7 @@
       <c r="F1092" s="1"/>
       <c r="G1092" s="22"/>
     </row>
-    <row r="1093" spans="1:7">
+    <row r="1093" spans="1:8">
       <c r="A1093" s="7">
         <v>46050</v>
       </c>
@@ -17567,7 +17567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1094" spans="1:7">
+    <row r="1094" spans="1:8">
       <c r="A1094" s="7">
         <v>46050</v>
       </c>
@@ -17581,7 +17581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1095" spans="1:7">
+    <row r="1095" spans="1:8">
       <c r="A1095" s="7">
         <v>46051</v>
       </c>
@@ -17591,9 +17591,13 @@
       <c r="C1095" s="6">
         <v>2</v>
       </c>
-      <c r="D1095" s="2"/>
-    </row>
-    <row r="1096" spans="1:7">
+      <c r="D1095" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1095" s="1"/>
+      <c r="H1095" s="22"/>
+    </row>
+    <row r="1096" spans="1:8">
       <c r="A1096" s="7">
         <v>46051</v>
       </c>
@@ -17603,9 +17607,13 @@
       <c r="C1096" s="6">
         <v>2</v>
       </c>
-      <c r="D1096" s="2"/>
-    </row>
-    <row r="1097" spans="1:7">
+      <c r="D1096" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1096" s="1"/>
+      <c r="H1096" s="22"/>
+    </row>
+    <row r="1097" spans="1:8">
       <c r="A1097" s="7">
         <v>46051</v>
       </c>
@@ -17615,9 +17623,13 @@
       <c r="C1097" s="6">
         <v>4</v>
       </c>
-      <c r="D1097" s="2"/>
-    </row>
-    <row r="1098" spans="1:7">
+      <c r="D1097" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1097" s="1"/>
+      <c r="H1097" s="22"/>
+    </row>
+    <row r="1098" spans="1:8">
       <c r="A1098" s="7">
         <v>46051</v>
       </c>
@@ -17627,9 +17639,13 @@
       <c r="C1098" s="6">
         <v>4</v>
       </c>
-      <c r="D1098" s="2"/>
-    </row>
-    <row r="1099" spans="1:7">
+      <c r="D1098" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1098" s="1"/>
+      <c r="H1098" s="22"/>
+    </row>
+    <row r="1099" spans="1:8">
       <c r="A1099" s="7">
         <v>46051</v>
       </c>
@@ -17639,9 +17655,13 @@
       <c r="C1099" s="6">
         <v>6</v>
       </c>
-      <c r="D1099" s="2"/>
-    </row>
-    <row r="1100" spans="1:7">
+      <c r="D1099" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1099" s="1"/>
+      <c r="H1099" s="22"/>
+    </row>
+    <row r="1100" spans="1:8">
       <c r="A1100" s="7">
         <v>46051</v>
       </c>
@@ -17651,9 +17671,13 @@
       <c r="C1100" s="6">
         <v>6</v>
       </c>
-      <c r="D1100" s="2"/>
-    </row>
-    <row r="1101" spans="1:7">
+      <c r="D1100" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1100" s="1"/>
+      <c r="H1100" s="22"/>
+    </row>
+    <row r="1101" spans="1:8">
       <c r="A1101" s="7">
         <v>46051</v>
       </c>
@@ -17663,9 +17687,13 @@
       <c r="C1101" s="6">
         <v>9</v>
       </c>
-      <c r="D1101" s="2"/>
-    </row>
-    <row r="1102" spans="1:7">
+      <c r="D1101" s="2">
+        <v>2</v>
+      </c>
+      <c r="G1101" s="1"/>
+      <c r="H1101" s="22"/>
+    </row>
+    <row r="1102" spans="1:8">
       <c r="A1102" s="7">
         <v>46051</v>
       </c>
@@ -17675,9 +17703,11 @@
       <c r="C1102" s="6">
         <v>9</v>
       </c>
-      <c r="D1102" s="2"/>
-    </row>
-    <row r="1103" spans="1:7">
+      <c r="D1102" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:8">
       <c r="A1103" s="7">
         <v>46051</v>
       </c>
@@ -17687,7 +17717,81 @@
       <c r="C1103" s="6">
         <v>11</v>
       </c>
-      <c r="D1103" s="2"/>
+      <c r="D1103" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:8">
+      <c r="A1104" s="7">
+        <v>46052</v>
+      </c>
+      <c r="B1104" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1104" s="6">
+        <v>10</v>
+      </c>
+      <c r="D1104" s="2"/>
+    </row>
+    <row r="1105" spans="1:4">
+      <c r="A1105" s="7">
+        <v>46052</v>
+      </c>
+      <c r="B1105" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1105" s="6">
+        <v>10</v>
+      </c>
+      <c r="D1105" s="2"/>
+    </row>
+    <row r="1106" spans="1:4">
+      <c r="A1106" s="7">
+        <v>46052</v>
+      </c>
+      <c r="B1106" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1106" s="6">
+        <v>9</v>
+      </c>
+      <c r="D1106" s="2"/>
+    </row>
+    <row r="1107" spans="1:4">
+      <c r="A1107" s="7">
+        <v>46052</v>
+      </c>
+      <c r="B1107" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1107" s="6">
+        <v>9</v>
+      </c>
+      <c r="D1107" s="2"/>
+    </row>
+    <row r="1108" spans="1:4">
+      <c r="A1108" s="7">
+        <v>46052</v>
+      </c>
+      <c r="B1108" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1108" s="6">
+        <v>5</v>
+      </c>
+      <c r="D1108" s="2"/>
+    </row>
+    <row r="1109" spans="1:4">
+      <c r="A1109" s="7">
+        <v>46052</v>
+      </c>
+      <c r="B1109" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1109" s="6">
+        <v>5</v>
+      </c>
+      <c r="D1109" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="25">
   <si>
     <t>Data</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>DI GIORGIO DANILO</t>
+  </si>
+  <si>
+    <t>CATANIA GIUSEPPE</t>
   </si>
 </sst>
 </file>
@@ -809,11 +812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1109"/>
+  <dimension ref="A1:U1123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1077" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1085" sqref="D1085"/>
+      <pane ySplit="1" topLeftCell="A1104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1110" sqref="G1110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -822,8 +825,8 @@
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="9" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -17731,9 +17734,11 @@
       <c r="C1104" s="6">
         <v>10</v>
       </c>
-      <c r="D1104" s="2"/>
-    </row>
-    <row r="1105" spans="1:4">
+      <c r="D1104" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:7">
       <c r="A1105" s="7">
         <v>46052</v>
       </c>
@@ -17743,55 +17748,255 @@
       <c r="C1105" s="6">
         <v>10</v>
       </c>
-      <c r="D1105" s="2"/>
-    </row>
-    <row r="1106" spans="1:4">
+      <c r="D1105" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:7">
       <c r="A1106" s="7">
         <v>46052</v>
       </c>
       <c r="B1106" s="14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C1106" s="6">
         <v>9</v>
       </c>
-      <c r="D1106" s="2"/>
-    </row>
-    <row r="1107" spans="1:4">
+      <c r="D1106" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:7">
       <c r="A1107" s="7">
         <v>46052</v>
       </c>
-      <c r="B1107" s="14" t="s">
-        <v>4</v>
+      <c r="B1107" s="56" t="s">
+        <v>16</v>
       </c>
       <c r="C1107" s="6">
-        <v>9</v>
-      </c>
-      <c r="D1107" s="2"/>
-    </row>
-    <row r="1108" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="D1107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:7">
       <c r="A1108" s="7">
         <v>46052</v>
       </c>
       <c r="B1108" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1108" s="6">
+        <v>5</v>
+      </c>
+      <c r="D1108" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:7">
+      <c r="A1109" s="7">
+        <v>46053</v>
+      </c>
+      <c r="B1109" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1109" s="6">
+        <v>6</v>
+      </c>
+      <c r="D1109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:7">
+      <c r="A1110" s="7">
+        <v>46053</v>
+      </c>
+      <c r="B1110" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1110" s="6">
+        <v>6</v>
+      </c>
+      <c r="D1110" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1110" s="1"/>
+      <c r="G1110" s="22"/>
+    </row>
+    <row r="1111" spans="1:7">
+      <c r="A1111" s="7">
+        <v>46053</v>
+      </c>
+      <c r="B1111" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1111" s="6">
+        <v>4</v>
+      </c>
+      <c r="D1111" s="2">
+        <v>9</v>
+      </c>
+      <c r="F1111" s="1"/>
+      <c r="G1111" s="22"/>
+    </row>
+    <row r="1112" spans="1:7">
+      <c r="A1112" s="7">
+        <v>46053</v>
+      </c>
+      <c r="B1112" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1112" s="6">
+        <v>4</v>
+      </c>
+      <c r="D1112" s="2">
+        <v>9</v>
+      </c>
+      <c r="F1112" s="1"/>
+      <c r="G1112" s="22"/>
+    </row>
+    <row r="1113" spans="1:7">
+      <c r="A1113" s="7">
+        <v>46053</v>
+      </c>
+      <c r="B1113" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1108" s="6">
-        <v>5</v>
-      </c>
-      <c r="D1108" s="2"/>
-    </row>
-    <row r="1109" spans="1:4">
-      <c r="A1109" s="7">
-        <v>46052</v>
-      </c>
-      <c r="B1109" s="56" t="s">
+      <c r="C1113" s="6">
         <v>10</v>
       </c>
-      <c r="C1109" s="6">
-        <v>5</v>
-      </c>
-      <c r="D1109" s="2"/>
+      <c r="D1113" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1113" s="1"/>
+      <c r="G1113" s="22"/>
+    </row>
+    <row r="1114" spans="1:7">
+      <c r="A1114" s="7">
+        <v>46053</v>
+      </c>
+      <c r="B1114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1114" s="6">
+        <v>10</v>
+      </c>
+      <c r="D1114" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1114" s="1"/>
+      <c r="G1114" s="22"/>
+    </row>
+    <row r="1115" spans="1:7">
+      <c r="A1115" s="7">
+        <v>46055</v>
+      </c>
+      <c r="B1115" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1115" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1115" s="2"/>
+      <c r="F1115" s="1"/>
+      <c r="G1115" s="22"/>
+    </row>
+    <row r="1116" spans="1:7">
+      <c r="A1116" s="7">
+        <v>46055</v>
+      </c>
+      <c r="B1116" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1116" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1116" s="2"/>
+    </row>
+    <row r="1117" spans="1:7">
+      <c r="A1117" s="7">
+        <v>46055</v>
+      </c>
+      <c r="B1117" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1117" s="6">
+        <v>11</v>
+      </c>
+      <c r="D1117" s="2"/>
+    </row>
+    <row r="1118" spans="1:7">
+      <c r="A1118" s="7">
+        <v>46055</v>
+      </c>
+      <c r="B1118" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1118" s="6">
+        <v>11</v>
+      </c>
+      <c r="D1118" s="2"/>
+    </row>
+    <row r="1119" spans="1:7">
+      <c r="A1119" s="7">
+        <v>46055</v>
+      </c>
+      <c r="B1119" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1119" s="6">
+        <v>7</v>
+      </c>
+      <c r="D1119" s="2"/>
+    </row>
+    <row r="1120" spans="1:7">
+      <c r="A1120" s="7">
+        <v>46055</v>
+      </c>
+      <c r="B1120" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1120" s="2">
+        <v>7</v>
+      </c>
+      <c r="D1120" s="2"/>
+    </row>
+    <row r="1121" spans="1:4">
+      <c r="A1121" s="7">
+        <v>46055</v>
+      </c>
+      <c r="B1121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1121" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1121" s="2"/>
+    </row>
+    <row r="1122" spans="1:4">
+      <c r="A1122" s="7">
+        <v>46055</v>
+      </c>
+      <c r="B1122" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1122" s="2">
+        <v>9</v>
+      </c>
+      <c r="D1122" s="2"/>
+    </row>
+    <row r="1123" spans="1:4">
+      <c r="A1123" s="7">
+        <v>46055</v>
+      </c>
+      <c r="B1123" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1123" s="2">
+        <v>9</v>
+      </c>
+      <c r="D1123" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="25">
   <si>
     <t>Data</t>
   </si>
@@ -812,11 +812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1123"/>
+  <dimension ref="A1:U1129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1110" sqref="G1110"/>
+      <pane ySplit="1" topLeftCell="A1098" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1120" sqref="D1120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -825,7 +825,7 @@
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
     <col min="7" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -17898,9 +17898,9 @@
       <c r="C1115" s="6">
         <v>2</v>
       </c>
-      <c r="D1115" s="2"/>
-      <c r="F1115" s="1"/>
-      <c r="G1115" s="22"/>
+      <c r="D1115" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="1116" spans="1:7">
       <c r="A1116" s="7">
@@ -17912,7 +17912,11 @@
       <c r="C1116" s="6">
         <v>2</v>
       </c>
-      <c r="D1116" s="2"/>
+      <c r="D1116" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1116" s="1"/>
+      <c r="G1116" s="22"/>
     </row>
     <row r="1117" spans="1:7">
       <c r="A1117" s="7">
@@ -17924,7 +17928,11 @@
       <c r="C1117" s="6">
         <v>11</v>
       </c>
-      <c r="D1117" s="2"/>
+      <c r="D1117" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1117" s="1"/>
+      <c r="G1117" s="22"/>
     </row>
     <row r="1118" spans="1:7">
       <c r="A1118" s="7">
@@ -17936,7 +17944,11 @@
       <c r="C1118" s="6">
         <v>11</v>
       </c>
-      <c r="D1118" s="2"/>
+      <c r="D1118" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1118" s="1"/>
+      <c r="G1118" s="22"/>
     </row>
     <row r="1119" spans="1:7">
       <c r="A1119" s="7">
@@ -17948,7 +17960,11 @@
       <c r="C1119" s="6">
         <v>7</v>
       </c>
-      <c r="D1119" s="2"/>
+      <c r="D1119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1119" s="1"/>
+      <c r="G1119" s="22"/>
     </row>
     <row r="1120" spans="1:7">
       <c r="A1120" s="7">
@@ -17960,9 +17976,13 @@
       <c r="C1120" s="2">
         <v>7</v>
       </c>
-      <c r="D1120" s="2"/>
-    </row>
-    <row r="1121" spans="1:4">
+      <c r="D1120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1120" s="1"/>
+      <c r="G1120" s="22"/>
+    </row>
+    <row r="1121" spans="1:7">
       <c r="A1121" s="7">
         <v>46055</v>
       </c>
@@ -17972,9 +17992,13 @@
       <c r="C1121" s="2">
         <v>8</v>
       </c>
-      <c r="D1121" s="2"/>
-    </row>
-    <row r="1122" spans="1:4">
+      <c r="D1121" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1121" s="1"/>
+      <c r="G1121" s="22"/>
+    </row>
+    <row r="1122" spans="1:7">
       <c r="A1122" s="7">
         <v>46055</v>
       </c>
@@ -17984,9 +18008,13 @@
       <c r="C1122" s="2">
         <v>9</v>
       </c>
-      <c r="D1122" s="2"/>
-    </row>
-    <row r="1123" spans="1:4">
+      <c r="D1122" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1122" s="1"/>
+      <c r="G1122" s="22"/>
+    </row>
+    <row r="1123" spans="1:7">
       <c r="A1123" s="7">
         <v>46055</v>
       </c>
@@ -17996,7 +18024,83 @@
       <c r="C1123" s="2">
         <v>9</v>
       </c>
-      <c r="D1123" s="2"/>
+      <c r="D1123" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1123" s="1"/>
+      <c r="G1123" s="22"/>
+    </row>
+    <row r="1124" spans="1:7">
+      <c r="A1124" s="7">
+        <v>46056</v>
+      </c>
+      <c r="B1124" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1124" s="6">
+        <v>10</v>
+      </c>
+      <c r="D1124" s="2"/>
+    </row>
+    <row r="1125" spans="1:7">
+      <c r="A1125" s="7">
+        <v>46056</v>
+      </c>
+      <c r="B1125" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1125" s="6">
+        <v>10</v>
+      </c>
+      <c r="D1125" s="2"/>
+    </row>
+    <row r="1126" spans="1:7">
+      <c r="A1126" s="7">
+        <v>46056</v>
+      </c>
+      <c r="B1126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1126" s="6">
+        <v>5</v>
+      </c>
+      <c r="D1126" s="2"/>
+    </row>
+    <row r="1127" spans="1:7">
+      <c r="A1127" s="7">
+        <v>46056</v>
+      </c>
+      <c r="B1127" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1127" s="6">
+        <v>8</v>
+      </c>
+      <c r="D1127" s="2"/>
+    </row>
+    <row r="1128" spans="1:7">
+      <c r="A1128" s="7">
+        <v>46056</v>
+      </c>
+      <c r="B1128" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1128" s="6">
+        <v>10</v>
+      </c>
+      <c r="D1128" s="2"/>
+    </row>
+    <row r="1129" spans="1:7">
+      <c r="A1129" s="7">
+        <v>46056</v>
+      </c>
+      <c r="B1129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1129" s="6">
+        <v>9</v>
+      </c>
+      <c r="D1129" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="25">
   <si>
     <t>Data</t>
   </si>
@@ -812,11 +812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1129"/>
+  <dimension ref="A1:U1149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1098" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1120" sqref="D1120"/>
+      <pane ySplit="1" topLeftCell="A1116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1130" sqref="C1130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18040,7 +18040,9 @@
       <c r="C1124" s="6">
         <v>10</v>
       </c>
-      <c r="D1124" s="2"/>
+      <c r="D1124" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="1125" spans="1:7">
       <c r="A1125" s="7">
@@ -18052,7 +18054,11 @@
       <c r="C1125" s="6">
         <v>10</v>
       </c>
-      <c r="D1125" s="2"/>
+      <c r="D1125" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1125" s="1"/>
+      <c r="G1125" s="22"/>
     </row>
     <row r="1126" spans="1:7">
       <c r="A1126" s="7">
@@ -18064,7 +18070,11 @@
       <c r="C1126" s="6">
         <v>5</v>
       </c>
-      <c r="D1126" s="2"/>
+      <c r="D1126" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1126" s="1"/>
+      <c r="G1126" s="22"/>
     </row>
     <row r="1127" spans="1:7">
       <c r="A1127" s="7">
@@ -18076,7 +18086,11 @@
       <c r="C1127" s="6">
         <v>8</v>
       </c>
-      <c r="D1127" s="2"/>
+      <c r="D1127" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1127" s="1"/>
+      <c r="G1127" s="22"/>
     </row>
     <row r="1128" spans="1:7">
       <c r="A1128" s="7">
@@ -18088,7 +18102,11 @@
       <c r="C1128" s="6">
         <v>10</v>
       </c>
-      <c r="D1128" s="2"/>
+      <c r="D1128" s="2">
+        <v>13</v>
+      </c>
+      <c r="F1128" s="1"/>
+      <c r="G1128" s="22"/>
     </row>
     <row r="1129" spans="1:7">
       <c r="A1129" s="7">
@@ -18100,7 +18118,299 @@
       <c r="C1129" s="6">
         <v>9</v>
       </c>
-      <c r="D1129" s="2"/>
+      <c r="D1129" s="2">
+        <v>9</v>
+      </c>
+      <c r="F1129" s="1"/>
+      <c r="G1129" s="22"/>
+    </row>
+    <row r="1130" spans="1:7">
+      <c r="A1130" s="7">
+        <v>46056</v>
+      </c>
+      <c r="B1130" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1130" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1130" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1130" s="1"/>
+      <c r="G1130" s="22"/>
+    </row>
+    <row r="1131" spans="1:7">
+      <c r="A1131" s="7">
+        <v>46056</v>
+      </c>
+      <c r="B1131" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1131" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1131" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1131" s="1"/>
+      <c r="G1131" s="22"/>
+    </row>
+    <row r="1132" spans="1:7">
+      <c r="A1132" s="7">
+        <v>46056</v>
+      </c>
+      <c r="B1132" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1132" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1132" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1132" s="1"/>
+      <c r="G1132" s="22"/>
+    </row>
+    <row r="1133" spans="1:7">
+      <c r="A1133" s="7">
+        <v>46057</v>
+      </c>
+      <c r="B1133" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1133" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1133" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:7">
+      <c r="A1134" s="7">
+        <v>46057</v>
+      </c>
+      <c r="B1134" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1134" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1134" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1134" s="1"/>
+      <c r="G1134" s="22"/>
+    </row>
+    <row r="1135" spans="1:7">
+      <c r="A1135" s="7">
+        <v>46057</v>
+      </c>
+      <c r="B1135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1135" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1135" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1135" s="1"/>
+      <c r="G1135" s="22"/>
+    </row>
+    <row r="1136" spans="1:7">
+      <c r="A1136" s="7">
+        <v>46057</v>
+      </c>
+      <c r="B1136" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1136" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1136" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1136" s="1"/>
+      <c r="G1136" s="22"/>
+    </row>
+    <row r="1137" spans="1:7">
+      <c r="A1137" s="7">
+        <v>46057</v>
+      </c>
+      <c r="B1137" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1137" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1137" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1137" s="1"/>
+      <c r="G1137" s="22"/>
+    </row>
+    <row r="1138" spans="1:7">
+      <c r="A1138" s="7">
+        <v>46057</v>
+      </c>
+      <c r="B1138" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1138" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1138" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1138" s="1"/>
+      <c r="G1138" s="22"/>
+    </row>
+    <row r="1139" spans="1:7">
+      <c r="A1139" s="7">
+        <v>46057</v>
+      </c>
+      <c r="B1139" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1139" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1139" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1139" s="1"/>
+      <c r="G1139" s="22"/>
+    </row>
+    <row r="1140" spans="1:7">
+      <c r="A1140" s="7">
+        <v>46057</v>
+      </c>
+      <c r="B1140" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1140" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1140" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1140" s="1"/>
+      <c r="G1140" s="22"/>
+    </row>
+    <row r="1141" spans="1:7">
+      <c r="A1141" s="7">
+        <v>46057</v>
+      </c>
+      <c r="B1141" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1141" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1141" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1141" s="1"/>
+      <c r="G1141" s="22"/>
+    </row>
+    <row r="1142" spans="1:7">
+      <c r="A1142" s="7">
+        <v>46057</v>
+      </c>
+      <c r="B1142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1142" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1142" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:7">
+      <c r="A1143" s="7">
+        <v>46058</v>
+      </c>
+      <c r="B1143" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1143" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1143" s="2"/>
+    </row>
+    <row r="1144" spans="1:7">
+      <c r="A1144" s="7">
+        <v>46058</v>
+      </c>
+      <c r="B1144" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1144" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1144" s="2"/>
+    </row>
+    <row r="1145" spans="1:7">
+      <c r="A1145" s="7">
+        <v>46058</v>
+      </c>
+      <c r="B1145" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1145" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1145" s="2"/>
+    </row>
+    <row r="1146" spans="1:7">
+      <c r="A1146" s="7">
+        <v>46058</v>
+      </c>
+      <c r="B1146" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1146" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1146" s="2"/>
+    </row>
+    <row r="1147" spans="1:7">
+      <c r="A1147" s="7">
+        <v>46058</v>
+      </c>
+      <c r="B1147" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1147" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1147" s="2"/>
+    </row>
+    <row r="1148" spans="1:7">
+      <c r="A1148" s="7">
+        <v>46058</v>
+      </c>
+      <c r="B1148" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1148" s="2">
+        <v>9</v>
+      </c>
+      <c r="D1148" s="2"/>
+    </row>
+    <row r="1149" spans="1:7">
+      <c r="A1149" s="7">
+        <v>46058</v>
+      </c>
+      <c r="B1149" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1149" s="2">
+        <v>9</v>
+      </c>
+      <c r="D1149" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="25">
   <si>
     <t>Data</t>
   </si>
@@ -812,11 +812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1149"/>
+  <dimension ref="A1:U1179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1130" sqref="C1130"/>
+      <pane ySplit="1" topLeftCell="A1143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1168" sqref="G1168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -825,7 +825,7 @@
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -18234,7 +18234,7 @@
       <c r="F1136" s="1"/>
       <c r="G1136" s="22"/>
     </row>
-    <row r="1137" spans="1:7">
+    <row r="1137" spans="1:8">
       <c r="A1137" s="7">
         <v>46057</v>
       </c>
@@ -18250,7 +18250,7 @@
       <c r="F1137" s="1"/>
       <c r="G1137" s="22"/>
     </row>
-    <row r="1138" spans="1:7">
+    <row r="1138" spans="1:8">
       <c r="A1138" s="7">
         <v>46057</v>
       </c>
@@ -18266,7 +18266,7 @@
       <c r="F1138" s="1"/>
       <c r="G1138" s="22"/>
     </row>
-    <row r="1139" spans="1:7">
+    <row r="1139" spans="1:8">
       <c r="A1139" s="7">
         <v>46057</v>
       </c>
@@ -18282,7 +18282,7 @@
       <c r="F1139" s="1"/>
       <c r="G1139" s="22"/>
     </row>
-    <row r="1140" spans="1:7">
+    <row r="1140" spans="1:8">
       <c r="A1140" s="7">
         <v>46057</v>
       </c>
@@ -18298,7 +18298,7 @@
       <c r="F1140" s="1"/>
       <c r="G1140" s="22"/>
     </row>
-    <row r="1141" spans="1:7">
+    <row r="1141" spans="1:8">
       <c r="A1141" s="7">
         <v>46057</v>
       </c>
@@ -18314,7 +18314,7 @@
       <c r="F1141" s="1"/>
       <c r="G1141" s="22"/>
     </row>
-    <row r="1142" spans="1:7">
+    <row r="1142" spans="1:8">
       <c r="A1142" s="7">
         <v>46057</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1143" spans="1:7">
+    <row r="1143" spans="1:8">
       <c r="A1143" s="7">
         <v>46058</v>
       </c>
@@ -18338,9 +18338,13 @@
       <c r="C1143" s="6">
         <v>2</v>
       </c>
-      <c r="D1143" s="2"/>
-    </row>
-    <row r="1144" spans="1:7">
+      <c r="D1143" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1143" s="1"/>
+      <c r="H1143" s="22"/>
+    </row>
+    <row r="1144" spans="1:8">
       <c r="A1144" s="7">
         <v>46058</v>
       </c>
@@ -18350,9 +18354,13 @@
       <c r="C1144" s="6">
         <v>2</v>
       </c>
-      <c r="D1144" s="2"/>
-    </row>
-    <row r="1145" spans="1:7">
+      <c r="D1144" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1144" s="1"/>
+      <c r="H1144" s="22"/>
+    </row>
+    <row r="1145" spans="1:8">
       <c r="A1145" s="7">
         <v>46058</v>
       </c>
@@ -18362,9 +18370,13 @@
       <c r="C1145" s="6">
         <v>3</v>
       </c>
-      <c r="D1145" s="2"/>
-    </row>
-    <row r="1146" spans="1:7">
+      <c r="D1145" s="2">
+        <v>2</v>
+      </c>
+      <c r="G1145" s="1"/>
+      <c r="H1145" s="22"/>
+    </row>
+    <row r="1146" spans="1:8">
       <c r="A1146" s="7">
         <v>46058</v>
       </c>
@@ -18374,9 +18386,13 @@
       <c r="C1146" s="2">
         <v>3</v>
       </c>
-      <c r="D1146" s="2"/>
-    </row>
-    <row r="1147" spans="1:7">
+      <c r="D1146" s="2">
+        <v>2</v>
+      </c>
+      <c r="G1146" s="1"/>
+      <c r="H1146" s="22"/>
+    </row>
+    <row r="1147" spans="1:8">
       <c r="A1147" s="7">
         <v>46058</v>
       </c>
@@ -18386,9 +18402,13 @@
       <c r="C1147" s="2">
         <v>2</v>
       </c>
-      <c r="D1147" s="2"/>
-    </row>
-    <row r="1148" spans="1:7">
+      <c r="D1147" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1147" s="1"/>
+      <c r="H1147" s="22"/>
+    </row>
+    <row r="1148" spans="1:8">
       <c r="A1148" s="7">
         <v>46058</v>
       </c>
@@ -18398,9 +18418,13 @@
       <c r="C1148" s="2">
         <v>9</v>
       </c>
-      <c r="D1148" s="2"/>
-    </row>
-    <row r="1149" spans="1:7">
+      <c r="D1148" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1148" s="1"/>
+      <c r="H1148" s="22"/>
+    </row>
+    <row r="1149" spans="1:8">
       <c r="A1149" s="7">
         <v>46058</v>
       </c>
@@ -18410,7 +18434,435 @@
       <c r="C1149" s="2">
         <v>9</v>
       </c>
-      <c r="D1149" s="2"/>
+      <c r="D1149" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1149" s="1"/>
+      <c r="H1149" s="22"/>
+    </row>
+    <row r="1150" spans="1:8">
+      <c r="A1150" s="7">
+        <v>46058</v>
+      </c>
+      <c r="B1150" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1150" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1150" s="6">
+        <v>1</v>
+      </c>
+      <c r="G1150" s="1"/>
+      <c r="H1150" s="22"/>
+    </row>
+    <row r="1151" spans="1:8">
+      <c r="A1151" s="7">
+        <v>46058</v>
+      </c>
+      <c r="B1151" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1151" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1151" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:8">
+      <c r="A1152" s="7">
+        <v>46059</v>
+      </c>
+      <c r="B1152" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1152" s="6">
+        <v>4</v>
+      </c>
+      <c r="D1152" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:8">
+      <c r="A1153" s="7">
+        <v>46059</v>
+      </c>
+      <c r="B1153" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1153" s="6">
+        <v>4</v>
+      </c>
+      <c r="D1153" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:8">
+      <c r="A1154" s="7">
+        <v>46059</v>
+      </c>
+      <c r="B1154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1154" s="6">
+        <v>5</v>
+      </c>
+      <c r="D1154" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:8">
+      <c r="A1155" s="7">
+        <v>46059</v>
+      </c>
+      <c r="B1155" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1155" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1155" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1155" s="1"/>
+      <c r="H1155" s="22"/>
+    </row>
+    <row r="1156" spans="1:8">
+      <c r="A1156" s="7">
+        <v>46059</v>
+      </c>
+      <c r="B1156" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1156" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1156" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1156" s="1"/>
+      <c r="H1156" s="22"/>
+    </row>
+    <row r="1157" spans="1:8">
+      <c r="A1157" s="7">
+        <v>46059</v>
+      </c>
+      <c r="B1157" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1157" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1157" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1157" s="1"/>
+      <c r="H1157" s="22"/>
+    </row>
+    <row r="1158" spans="1:8">
+      <c r="A1158" s="7">
+        <v>46059</v>
+      </c>
+      <c r="B1158" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1158" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1158" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1158" s="1"/>
+      <c r="H1158" s="22"/>
+    </row>
+    <row r="1159" spans="1:8">
+      <c r="A1159" s="7">
+        <v>46059</v>
+      </c>
+      <c r="B1159" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1159" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1159" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1159" s="1"/>
+      <c r="H1159" s="22"/>
+    </row>
+    <row r="1160" spans="1:8">
+      <c r="A1160" s="7">
+        <v>46059</v>
+      </c>
+      <c r="B1160" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1160" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1160" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1160" s="1"/>
+      <c r="H1160" s="22"/>
+    </row>
+    <row r="1161" spans="1:8">
+      <c r="A1161" s="7">
+        <v>46059</v>
+      </c>
+      <c r="B1161" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1161" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1161" s="6">
+        <v>1</v>
+      </c>
+      <c r="G1161" s="1"/>
+      <c r="H1161" s="22"/>
+    </row>
+    <row r="1162" spans="1:8">
+      <c r="A1162" s="7">
+        <v>46059</v>
+      </c>
+      <c r="B1162" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1162" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1162" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:8">
+      <c r="A1163" s="7">
+        <v>46060</v>
+      </c>
+      <c r="B1163" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1163" s="6">
+        <v>6</v>
+      </c>
+      <c r="D1163" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:8">
+      <c r="A1164" s="7">
+        <v>46060</v>
+      </c>
+      <c r="B1164" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1164" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1164" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1164" s="1"/>
+      <c r="G1164" s="22"/>
+    </row>
+    <row r="1165" spans="1:8">
+      <c r="A1165" s="7">
+        <v>46060</v>
+      </c>
+      <c r="B1165" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1165" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1165" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1165" s="1"/>
+      <c r="G1165" s="22"/>
+    </row>
+    <row r="1166" spans="1:8">
+      <c r="A1166" s="7">
+        <v>46060</v>
+      </c>
+      <c r="B1166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1166" s="6">
+        <v>5</v>
+      </c>
+      <c r="D1166" s="2">
+        <v>9</v>
+      </c>
+      <c r="F1166" s="1"/>
+      <c r="G1166" s="22"/>
+    </row>
+    <row r="1167" spans="1:8">
+      <c r="A1167" s="7">
+        <v>46060</v>
+      </c>
+      <c r="B1167" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1167" s="6">
+        <v>6</v>
+      </c>
+      <c r="D1167" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1167" s="1"/>
+      <c r="G1167" s="22"/>
+    </row>
+    <row r="1168" spans="1:8">
+      <c r="A1168" s="7">
+        <v>46060</v>
+      </c>
+      <c r="B1168" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1168" s="6">
+        <v>6</v>
+      </c>
+      <c r="D1168" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1168" s="1"/>
+      <c r="G1168" s="22"/>
+    </row>
+    <row r="1169" spans="1:4">
+      <c r="A1169" s="7">
+        <v>46062</v>
+      </c>
+      <c r="B1169" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1169" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1169" s="2"/>
+    </row>
+    <row r="1170" spans="1:4">
+      <c r="A1170" s="7">
+        <v>46062</v>
+      </c>
+      <c r="B1170" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1170" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1170" s="2"/>
+    </row>
+    <row r="1171" spans="1:4">
+      <c r="A1171" s="7">
+        <v>46062</v>
+      </c>
+      <c r="B1171" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1171" s="2">
+        <v>6</v>
+      </c>
+      <c r="D1171" s="2"/>
+    </row>
+    <row r="1172" spans="1:4">
+      <c r="A1172" s="7">
+        <v>46062</v>
+      </c>
+      <c r="B1172" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1172" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1172" s="2"/>
+    </row>
+    <row r="1173" spans="1:4">
+      <c r="A1173" s="7">
+        <v>46062</v>
+      </c>
+      <c r="B1173" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1173" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1173" s="2"/>
+    </row>
+    <row r="1174" spans="1:4">
+      <c r="A1174" s="7">
+        <v>46062</v>
+      </c>
+      <c r="B1174" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1174" s="2">
+        <v>6</v>
+      </c>
+      <c r="D1174" s="2"/>
+    </row>
+    <row r="1175" spans="1:4">
+      <c r="A1175" s="7">
+        <v>46062</v>
+      </c>
+      <c r="B1175" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1175" s="2">
+        <v>6</v>
+      </c>
+      <c r="D1175" s="2"/>
+    </row>
+    <row r="1176" spans="1:4">
+      <c r="A1176" s="7">
+        <v>46062</v>
+      </c>
+      <c r="B1176" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1176" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1176" s="2"/>
+    </row>
+    <row r="1177" spans="1:4">
+      <c r="A1177" s="7">
+        <v>46062</v>
+      </c>
+      <c r="B1177" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1177" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1177" s="2"/>
+    </row>
+    <row r="1178" spans="1:4">
+      <c r="A1178" s="7">
+        <v>46062</v>
+      </c>
+      <c r="B1178" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1178" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1178" s="2"/>
+    </row>
+    <row r="1179" spans="1:4">
+      <c r="A1179" s="7">
+        <v>46062</v>
+      </c>
+      <c r="B1179" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1179" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1179" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="25">
   <si>
     <t>Data</t>
   </si>
@@ -812,11 +812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1179"/>
+  <dimension ref="A1:U1190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1168" sqref="G1168"/>
+      <pane ySplit="1" topLeftCell="A1155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1168" sqref="C1168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -825,7 +825,7 @@
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
     <col min="7" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -18732,7 +18732,7 @@
       <c r="F1168" s="1"/>
       <c r="G1168" s="22"/>
     </row>
-    <row r="1169" spans="1:4">
+    <row r="1169" spans="1:7">
       <c r="A1169" s="7">
         <v>46062</v>
       </c>
@@ -18742,9 +18742,11 @@
       <c r="C1169" s="6">
         <v>3</v>
       </c>
-      <c r="D1169" s="2"/>
-    </row>
-    <row r="1170" spans="1:4">
+      <c r="D1169" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:7">
       <c r="A1170" s="7">
         <v>46062</v>
       </c>
@@ -18754,9 +18756,11 @@
       <c r="C1170" s="2">
         <v>3</v>
       </c>
-      <c r="D1170" s="2"/>
-    </row>
-    <row r="1171" spans="1:4">
+      <c r="D1170" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:7">
       <c r="A1171" s="7">
         <v>46062</v>
       </c>
@@ -18766,9 +18770,11 @@
       <c r="C1171" s="2">
         <v>6</v>
       </c>
-      <c r="D1171" s="2"/>
-    </row>
-    <row r="1172" spans="1:4">
+      <c r="D1171" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:7">
       <c r="A1172" s="7">
         <v>46062</v>
       </c>
@@ -18778,9 +18784,13 @@
       <c r="C1172" s="2">
         <v>3</v>
       </c>
-      <c r="D1172" s="2"/>
-    </row>
-    <row r="1173" spans="1:4">
+      <c r="D1172" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1172" s="1"/>
+      <c r="G1172" s="22"/>
+    </row>
+    <row r="1173" spans="1:7">
       <c r="A1173" s="7">
         <v>46062</v>
       </c>
@@ -18790,9 +18800,13 @@
       <c r="C1173" s="2">
         <v>3</v>
       </c>
-      <c r="D1173" s="2"/>
-    </row>
-    <row r="1174" spans="1:4">
+      <c r="D1173" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1173" s="1"/>
+      <c r="G1173" s="22"/>
+    </row>
+    <row r="1174" spans="1:7">
       <c r="A1174" s="7">
         <v>46062</v>
       </c>
@@ -18802,9 +18816,13 @@
       <c r="C1174" s="2">
         <v>6</v>
       </c>
-      <c r="D1174" s="2"/>
-    </row>
-    <row r="1175" spans="1:4">
+      <c r="D1174" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1174" s="1"/>
+      <c r="G1174" s="22"/>
+    </row>
+    <row r="1175" spans="1:7">
       <c r="A1175" s="7">
         <v>46062</v>
       </c>
@@ -18814,9 +18832,13 @@
       <c r="C1175" s="2">
         <v>6</v>
       </c>
-      <c r="D1175" s="2"/>
-    </row>
-    <row r="1176" spans="1:4">
+      <c r="D1175" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1175" s="1"/>
+      <c r="G1175" s="22"/>
+    </row>
+    <row r="1176" spans="1:7">
       <c r="A1176" s="7">
         <v>46062</v>
       </c>
@@ -18826,9 +18848,13 @@
       <c r="C1176" s="2">
         <v>2</v>
       </c>
-      <c r="D1176" s="2"/>
-    </row>
-    <row r="1177" spans="1:4">
+      <c r="D1176" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1176" s="1"/>
+      <c r="G1176" s="22"/>
+    </row>
+    <row r="1177" spans="1:7">
       <c r="A1177" s="7">
         <v>46062</v>
       </c>
@@ -18838,9 +18864,13 @@
       <c r="C1177" s="2">
         <v>2</v>
       </c>
-      <c r="D1177" s="2"/>
-    </row>
-    <row r="1178" spans="1:4">
+      <c r="D1177" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1177" s="1"/>
+      <c r="G1177" s="22"/>
+    </row>
+    <row r="1178" spans="1:7">
       <c r="A1178" s="7">
         <v>46062</v>
       </c>
@@ -18850,9 +18880,13 @@
       <c r="C1178" s="2">
         <v>3</v>
       </c>
-      <c r="D1178" s="2"/>
-    </row>
-    <row r="1179" spans="1:4">
+      <c r="D1178" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1178" s="1"/>
+      <c r="G1178" s="22"/>
+    </row>
+    <row r="1179" spans="1:7">
       <c r="A1179" s="7">
         <v>46062</v>
       </c>
@@ -18862,7 +18896,147 @@
       <c r="C1179" s="2">
         <v>3</v>
       </c>
-      <c r="D1179" s="2"/>
+      <c r="D1179" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1179" s="1"/>
+      <c r="G1179" s="22"/>
+    </row>
+    <row r="1180" spans="1:7">
+      <c r="A1180" s="7">
+        <v>46062</v>
+      </c>
+      <c r="B1180" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1180" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1180" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:7">
+      <c r="A1181" s="7">
+        <v>46062</v>
+      </c>
+      <c r="B1181" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1181" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1181" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:7">
+      <c r="A1182" s="7">
+        <v>46063</v>
+      </c>
+      <c r="B1182" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1182" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1182" s="2"/>
+    </row>
+    <row r="1183" spans="1:7">
+      <c r="A1183" s="7">
+        <v>46063</v>
+      </c>
+      <c r="B1183" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1183" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1183" s="2"/>
+    </row>
+    <row r="1184" spans="1:7">
+      <c r="A1184" s="7">
+        <v>46063</v>
+      </c>
+      <c r="B1184" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1184" s="6">
+        <v>9</v>
+      </c>
+      <c r="D1184" s="2"/>
+    </row>
+    <row r="1185" spans="1:4">
+      <c r="A1185" s="7">
+        <v>46063</v>
+      </c>
+      <c r="B1185" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1185" s="6">
+        <v>9</v>
+      </c>
+      <c r="D1185" s="2"/>
+    </row>
+    <row r="1186" spans="1:4">
+      <c r="A1186" s="7">
+        <v>46063</v>
+      </c>
+      <c r="B1186" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1186" s="6">
+        <v>4</v>
+      </c>
+      <c r="D1186" s="2"/>
+    </row>
+    <row r="1187" spans="1:4">
+      <c r="A1187" s="7">
+        <v>46063</v>
+      </c>
+      <c r="B1187" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1187" s="6">
+        <v>4</v>
+      </c>
+      <c r="D1187" s="2"/>
+    </row>
+    <row r="1188" spans="1:4">
+      <c r="A1188" s="7">
+        <v>46063</v>
+      </c>
+      <c r="B1188" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1188" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1188" s="2"/>
+    </row>
+    <row r="1189" spans="1:4">
+      <c r="A1189" s="7">
+        <v>46063</v>
+      </c>
+      <c r="B1189" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1189" s="6">
+        <v>9</v>
+      </c>
+      <c r="D1189" s="2"/>
+    </row>
+    <row r="1190" spans="1:4">
+      <c r="A1190" s="7">
+        <v>46063</v>
+      </c>
+      <c r="B1190" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1190" s="2">
+        <v>9</v>
+      </c>
+      <c r="D1190" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="25">
   <si>
     <t>Data</t>
   </si>
@@ -812,11 +812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1190"/>
+  <dimension ref="A1:U1237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1168" sqref="C1168"/>
+      <pane ySplit="1" topLeftCell="A1206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1226" sqref="E1226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18940,7 +18940,9 @@
       <c r="C1182" s="6">
         <v>3</v>
       </c>
-      <c r="D1182" s="2"/>
+      <c r="D1182" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="1183" spans="1:7">
       <c r="A1183" s="7">
@@ -18952,7 +18954,11 @@
       <c r="C1183" s="2">
         <v>3</v>
       </c>
-      <c r="D1183" s="2"/>
+      <c r="D1183" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1183" s="1"/>
+      <c r="G1183" s="22"/>
     </row>
     <row r="1184" spans="1:7">
       <c r="A1184" s="7">
@@ -18964,9 +18970,13 @@
       <c r="C1184" s="6">
         <v>9</v>
       </c>
-      <c r="D1184" s="2"/>
-    </row>
-    <row r="1185" spans="1:4">
+      <c r="D1184" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1184" s="1"/>
+      <c r="G1184" s="22"/>
+    </row>
+    <row r="1185" spans="1:7">
       <c r="A1185" s="7">
         <v>46063</v>
       </c>
@@ -18976,9 +18986,13 @@
       <c r="C1185" s="6">
         <v>9</v>
       </c>
-      <c r="D1185" s="2"/>
-    </row>
-    <row r="1186" spans="1:4">
+      <c r="D1185" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1185" s="1"/>
+      <c r="G1185" s="22"/>
+    </row>
+    <row r="1186" spans="1:7">
       <c r="A1186" s="7">
         <v>46063</v>
       </c>
@@ -18988,9 +19002,13 @@
       <c r="C1186" s="6">
         <v>4</v>
       </c>
-      <c r="D1186" s="2"/>
-    </row>
-    <row r="1187" spans="1:4">
+      <c r="D1186" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1186" s="1"/>
+      <c r="G1186" s="22"/>
+    </row>
+    <row r="1187" spans="1:7">
       <c r="A1187" s="7">
         <v>46063</v>
       </c>
@@ -19000,9 +19018,13 @@
       <c r="C1187" s="6">
         <v>4</v>
       </c>
-      <c r="D1187" s="2"/>
-    </row>
-    <row r="1188" spans="1:4">
+      <c r="D1187" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1187" s="1"/>
+      <c r="G1187" s="22"/>
+    </row>
+    <row r="1188" spans="1:7">
       <c r="A1188" s="7">
         <v>46063</v>
       </c>
@@ -19012,9 +19034,13 @@
       <c r="C1188" s="6">
         <v>1</v>
       </c>
-      <c r="D1188" s="2"/>
-    </row>
-    <row r="1189" spans="1:4">
+      <c r="D1188" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1188" s="1"/>
+      <c r="G1188" s="22"/>
+    </row>
+    <row r="1189" spans="1:7">
       <c r="A1189" s="7">
         <v>46063</v>
       </c>
@@ -19024,9 +19050,13 @@
       <c r="C1189" s="6">
         <v>9</v>
       </c>
-      <c r="D1189" s="2"/>
-    </row>
-    <row r="1190" spans="1:4">
+      <c r="D1189" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1189" s="1"/>
+      <c r="G1189" s="22"/>
+    </row>
+    <row r="1190" spans="1:7">
       <c r="A1190" s="7">
         <v>46063</v>
       </c>
@@ -19036,7 +19066,699 @@
       <c r="C1190" s="2">
         <v>9</v>
       </c>
-      <c r="D1190" s="2"/>
+      <c r="D1190" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1190" s="1"/>
+      <c r="G1190" s="22"/>
+    </row>
+    <row r="1191" spans="1:7">
+      <c r="A1191" s="7">
+        <v>46063</v>
+      </c>
+      <c r="B1191" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1191" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1191" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1191" s="1"/>
+      <c r="G1191" s="22"/>
+    </row>
+    <row r="1192" spans="1:7">
+      <c r="A1192" s="7">
+        <v>46063</v>
+      </c>
+      <c r="B1192" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1192" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1192" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1192" s="1"/>
+      <c r="G1192" s="22"/>
+    </row>
+    <row r="1193" spans="1:7">
+      <c r="A1193" s="7">
+        <v>46063</v>
+      </c>
+      <c r="B1193" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1193" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1193" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1193" s="1"/>
+      <c r="G1193" s="22"/>
+    </row>
+    <row r="1194" spans="1:7">
+      <c r="A1194" s="7">
+        <v>46064</v>
+      </c>
+      <c r="B1194" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1194" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1194" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:7">
+      <c r="A1195" s="7">
+        <v>46064</v>
+      </c>
+      <c r="B1195" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1195" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1195" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:7">
+      <c r="A1196" s="7">
+        <v>46064</v>
+      </c>
+      <c r="B1196" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1196" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1196" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:7">
+      <c r="A1197" s="7">
+        <v>46064</v>
+      </c>
+      <c r="B1197" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1197" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1197" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:7">
+      <c r="A1198" s="7">
+        <v>46064</v>
+      </c>
+      <c r="B1198" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1198" s="2">
+        <v>7</v>
+      </c>
+      <c r="D1198" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:7">
+      <c r="A1199" s="7">
+        <v>46064</v>
+      </c>
+      <c r="B1199" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1199" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1199" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:7">
+      <c r="A1200" s="7">
+        <v>46064</v>
+      </c>
+      <c r="B1200" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1200" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1200" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:7">
+      <c r="A1201" s="7">
+        <v>46064</v>
+      </c>
+      <c r="B1201" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1201" s="2">
+        <v>9</v>
+      </c>
+      <c r="D1201" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:7">
+      <c r="A1202" s="7">
+        <v>46064</v>
+      </c>
+      <c r="B1202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1202" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1202" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:7">
+      <c r="A1203" s="7">
+        <v>46064</v>
+      </c>
+      <c r="B1203" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1203" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1203" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:7">
+      <c r="A1204" s="7">
+        <v>46065</v>
+      </c>
+      <c r="B1204" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1204" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1204" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:7">
+      <c r="A1205" s="7">
+        <v>46065</v>
+      </c>
+      <c r="B1205" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1205" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1205" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1205" s="1"/>
+      <c r="G1205" s="22"/>
+    </row>
+    <row r="1206" spans="1:7">
+      <c r="A1206" s="7">
+        <v>46065</v>
+      </c>
+      <c r="B1206" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1206" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1206" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1206" s="1"/>
+      <c r="G1206" s="22"/>
+    </row>
+    <row r="1207" spans="1:7">
+      <c r="A1207" s="7">
+        <v>46065</v>
+      </c>
+      <c r="B1207" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1207" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1207" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1207" s="1"/>
+      <c r="G1207" s="22"/>
+    </row>
+    <row r="1208" spans="1:7">
+      <c r="A1208" s="7">
+        <v>46065</v>
+      </c>
+      <c r="B1208" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1208" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1208" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1208" s="1"/>
+      <c r="G1208" s="22"/>
+    </row>
+    <row r="1209" spans="1:7">
+      <c r="A1209" s="7">
+        <v>46065</v>
+      </c>
+      <c r="B1209" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1209" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1209" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1209" s="1"/>
+      <c r="G1209" s="22"/>
+    </row>
+    <row r="1210" spans="1:7">
+      <c r="A1210" s="7">
+        <v>46065</v>
+      </c>
+      <c r="B1210" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1210" s="6">
+        <v>4</v>
+      </c>
+      <c r="D1210" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1210" s="1"/>
+      <c r="G1210" s="22"/>
+    </row>
+    <row r="1211" spans="1:7">
+      <c r="A1211" s="7">
+        <v>46065</v>
+      </c>
+      <c r="B1211" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1211" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1211" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1211" s="1"/>
+      <c r="G1211" s="22"/>
+    </row>
+    <row r="1212" spans="1:7">
+      <c r="A1212" s="7">
+        <v>46065</v>
+      </c>
+      <c r="B1212" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1212" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1212" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1212" s="1"/>
+      <c r="G1212" s="22"/>
+    </row>
+    <row r="1213" spans="1:7">
+      <c r="A1213" s="7">
+        <v>46065</v>
+      </c>
+      <c r="B1213" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1213" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1213" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:7">
+      <c r="A1214" s="7">
+        <v>46065</v>
+      </c>
+      <c r="B1214" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1214" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1214" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:7">
+      <c r="A1215" s="7">
+        <v>46065</v>
+      </c>
+      <c r="B1215" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1215" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1215" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:7">
+      <c r="A1216" s="7">
+        <v>46065</v>
+      </c>
+      <c r="B1216" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1216" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1216" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:7">
+      <c r="A1217" s="7">
+        <v>46065</v>
+      </c>
+      <c r="B1217" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1217" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1217" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:7">
+      <c r="A1218" s="7">
+        <v>46066</v>
+      </c>
+      <c r="B1218" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1218" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1218" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:7">
+      <c r="A1219" s="7">
+        <v>46066</v>
+      </c>
+      <c r="B1219" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1219" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1219" s="6">
+        <v>14</v>
+      </c>
+      <c r="F1219" s="1"/>
+      <c r="G1219" s="22"/>
+    </row>
+    <row r="1220" spans="1:7">
+      <c r="A1220" s="7">
+        <v>46066</v>
+      </c>
+      <c r="B1220" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1220" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1220" s="6">
+        <v>5</v>
+      </c>
+      <c r="F1220" s="1"/>
+      <c r="G1220" s="22"/>
+    </row>
+    <row r="1221" spans="1:7">
+      <c r="A1221" s="7">
+        <v>46066</v>
+      </c>
+      <c r="B1221" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1221" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1221" s="6">
+        <v>5</v>
+      </c>
+      <c r="F1221" s="1"/>
+      <c r="G1221" s="22"/>
+    </row>
+    <row r="1222" spans="1:7">
+      <c r="A1222" s="7">
+        <v>46066</v>
+      </c>
+      <c r="B1222" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1222" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1222" s="6">
+        <v>1</v>
+      </c>
+      <c r="F1222" s="1"/>
+      <c r="G1222" s="22"/>
+    </row>
+    <row r="1223" spans="1:7">
+      <c r="A1223" s="7">
+        <v>46066</v>
+      </c>
+      <c r="B1223" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1223" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1223" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1223" s="1"/>
+      <c r="G1223" s="22"/>
+    </row>
+    <row r="1224" spans="1:7">
+      <c r="A1224" s="7">
+        <v>46067</v>
+      </c>
+      <c r="B1224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1224" s="6">
+        <v>11</v>
+      </c>
+      <c r="D1224" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:7">
+      <c r="A1225" s="7">
+        <v>46067</v>
+      </c>
+      <c r="B1225" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1225" s="6">
+        <v>8</v>
+      </c>
+      <c r="D1225" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1225" s="1"/>
+      <c r="G1225" s="22"/>
+    </row>
+    <row r="1226" spans="1:7">
+      <c r="A1226" s="7">
+        <v>46067</v>
+      </c>
+      <c r="B1226" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1226" s="6">
+        <v>7</v>
+      </c>
+      <c r="D1226" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1226" s="1"/>
+      <c r="G1226" s="22"/>
+    </row>
+    <row r="1227" spans="1:7">
+      <c r="A1227" s="7">
+        <v>46067</v>
+      </c>
+      <c r="B1227" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1227" s="6">
+        <v>6</v>
+      </c>
+      <c r="D1227" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1227" s="1"/>
+      <c r="G1227" s="22"/>
+    </row>
+    <row r="1228" spans="1:7">
+      <c r="A1228" s="7">
+        <v>46067</v>
+      </c>
+      <c r="B1228" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1228" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1228" s="6">
+        <v>1</v>
+      </c>
+      <c r="F1228" s="1"/>
+      <c r="G1228" s="22"/>
+    </row>
+    <row r="1229" spans="1:7">
+      <c r="A1229" s="7">
+        <v>46069</v>
+      </c>
+      <c r="B1229" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1229" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1229" s="2"/>
+      <c r="F1229" s="1"/>
+      <c r="G1229" s="22"/>
+    </row>
+    <row r="1230" spans="1:7">
+      <c r="A1230" s="7">
+        <v>46069</v>
+      </c>
+      <c r="B1230" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1230" s="6">
+        <v>5</v>
+      </c>
+      <c r="D1230" s="2"/>
+      <c r="F1230" s="1"/>
+      <c r="G1230" s="22"/>
+    </row>
+    <row r="1231" spans="1:7">
+      <c r="A1231" s="7">
+        <v>46069</v>
+      </c>
+      <c r="B1231" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1231" s="6">
+        <v>5</v>
+      </c>
+      <c r="D1231" s="2"/>
+      <c r="F1231" s="1"/>
+      <c r="G1231" s="22"/>
+    </row>
+    <row r="1232" spans="1:7">
+      <c r="A1232" s="7">
+        <v>46069</v>
+      </c>
+      <c r="B1232" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1232" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1232" s="2"/>
+      <c r="F1232" s="1"/>
+      <c r="G1232" s="22"/>
+    </row>
+    <row r="1233" spans="1:4">
+      <c r="A1233" s="7">
+        <v>46069</v>
+      </c>
+      <c r="B1233" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1233" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1233" s="2"/>
+    </row>
+    <row r="1234" spans="1:4">
+      <c r="A1234" s="7">
+        <v>46069</v>
+      </c>
+      <c r="B1234" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1234" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1234" s="2"/>
+    </row>
+    <row r="1235" spans="1:4">
+      <c r="A1235" s="7">
+        <v>46069</v>
+      </c>
+      <c r="B1235" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1235" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1235" s="2"/>
+    </row>
+    <row r="1236" spans="1:4">
+      <c r="A1236" s="7">
+        <v>46069</v>
+      </c>
+      <c r="B1236" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1236" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1236" s="2"/>
+    </row>
+    <row r="1237" spans="1:4">
+      <c r="A1237" s="7">
+        <v>46069</v>
+      </c>
+      <c r="B1237" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1237" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1237" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="25">
   <si>
     <t>Data</t>
   </si>
@@ -812,11 +812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1237"/>
+  <dimension ref="A1:U1245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1226" sqref="E1226"/>
+      <pane ySplit="1" topLeftCell="A1213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1232" sqref="C1232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19625,8 +19625,6 @@
       <c r="D1227" s="2">
         <v>7</v>
       </c>
-      <c r="F1227" s="1"/>
-      <c r="G1227" s="22"/>
     </row>
     <row r="1228" spans="1:7">
       <c r="A1228" s="7">
@@ -19654,7 +19652,9 @@
       <c r="C1229" s="6">
         <v>1</v>
       </c>
-      <c r="D1229" s="2"/>
+      <c r="D1229" s="2">
+        <v>0</v>
+      </c>
       <c r="F1229" s="1"/>
       <c r="G1229" s="22"/>
     </row>
@@ -19668,7 +19668,9 @@
       <c r="C1230" s="6">
         <v>5</v>
       </c>
-      <c r="D1230" s="2"/>
+      <c r="D1230" s="2">
+        <v>0</v>
+      </c>
       <c r="F1230" s="1"/>
       <c r="G1230" s="22"/>
     </row>
@@ -19682,7 +19684,9 @@
       <c r="C1231" s="6">
         <v>5</v>
       </c>
-      <c r="D1231" s="2"/>
+      <c r="D1231" s="2">
+        <v>0</v>
+      </c>
       <c r="F1231" s="1"/>
       <c r="G1231" s="22"/>
     </row>
@@ -19696,11 +19700,13 @@
       <c r="C1232" s="6">
         <v>2</v>
       </c>
-      <c r="D1232" s="2"/>
+      <c r="D1232" s="2">
+        <v>0</v>
+      </c>
       <c r="F1232" s="1"/>
       <c r="G1232" s="22"/>
     </row>
-    <row r="1233" spans="1:4">
+    <row r="1233" spans="1:7">
       <c r="A1233" s="7">
         <v>46069</v>
       </c>
@@ -19710,9 +19716,13 @@
       <c r="C1233" s="6">
         <v>2</v>
       </c>
-      <c r="D1233" s="2"/>
-    </row>
-    <row r="1234" spans="1:4">
+      <c r="D1233" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1233" s="1"/>
+      <c r="G1233" s="22"/>
+    </row>
+    <row r="1234" spans="1:7">
       <c r="A1234" s="7">
         <v>46069</v>
       </c>
@@ -19722,9 +19732,13 @@
       <c r="C1234" s="6">
         <v>3</v>
       </c>
-      <c r="D1234" s="2"/>
-    </row>
-    <row r="1235" spans="1:4">
+      <c r="D1234" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1234" s="1"/>
+      <c r="G1234" s="22"/>
+    </row>
+    <row r="1235" spans="1:7">
       <c r="A1235" s="7">
         <v>46069</v>
       </c>
@@ -19734,9 +19748,11 @@
       <c r="C1235" s="6">
         <v>1</v>
       </c>
-      <c r="D1235" s="2"/>
-    </row>
-    <row r="1236" spans="1:4">
+      <c r="D1235" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:7">
       <c r="A1236" s="7">
         <v>46069</v>
       </c>
@@ -19746,9 +19762,11 @@
       <c r="C1236" s="6">
         <v>1</v>
       </c>
-      <c r="D1236" s="2"/>
-    </row>
-    <row r="1237" spans="1:4">
+      <c r="D1236" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:7">
       <c r="A1237" s="7">
         <v>46069</v>
       </c>
@@ -19758,7 +19776,107 @@
       <c r="C1237" s="6">
         <v>3</v>
       </c>
-      <c r="D1237" s="2"/>
+      <c r="D1237" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:7">
+      <c r="A1238" s="7">
+        <v>46069</v>
+      </c>
+      <c r="B1238" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1238" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1238" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:7">
+      <c r="A1239" s="7">
+        <v>46070</v>
+      </c>
+      <c r="B1239" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1239" s="6">
+        <v>7</v>
+      </c>
+      <c r="D1239" s="2"/>
+    </row>
+    <row r="1240" spans="1:7">
+      <c r="A1240" s="7">
+        <v>46070</v>
+      </c>
+      <c r="B1240" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1240" s="6">
+        <v>6</v>
+      </c>
+      <c r="D1240" s="2"/>
+    </row>
+    <row r="1241" spans="1:7">
+      <c r="A1241" s="7">
+        <v>46070</v>
+      </c>
+      <c r="B1241" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1241" s="6">
+        <v>6</v>
+      </c>
+      <c r="D1241" s="2"/>
+    </row>
+    <row r="1242" spans="1:7">
+      <c r="A1242" s="7">
+        <v>46070</v>
+      </c>
+      <c r="B1242" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1242" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1242" s="2"/>
+    </row>
+    <row r="1243" spans="1:7">
+      <c r="A1243" s="7">
+        <v>46070</v>
+      </c>
+      <c r="B1243" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1243" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1243" s="2"/>
+    </row>
+    <row r="1244" spans="1:7">
+      <c r="A1244" s="7">
+        <v>46070</v>
+      </c>
+      <c r="B1244" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1244" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1244" s="2"/>
+    </row>
+    <row r="1245" spans="1:7">
+      <c r="A1245" s="7">
+        <v>46070</v>
+      </c>
+      <c r="B1245" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1245" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1245" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="25">
   <si>
     <t>Data</t>
   </si>
@@ -812,11 +812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1245"/>
+  <dimension ref="A1:U1254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1232" sqref="C1232"/>
+      <pane ySplit="1" topLeftCell="A1217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1245" sqref="D1245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -825,7 +825,7 @@
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
     <col min="7" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -19804,7 +19804,9 @@
       <c r="C1239" s="6">
         <v>7</v>
       </c>
-      <c r="D1239" s="2"/>
+      <c r="D1239" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="1240" spans="1:7">
       <c r="A1240" s="7">
@@ -19816,7 +19818,11 @@
       <c r="C1240" s="6">
         <v>6</v>
       </c>
-      <c r="D1240" s="2"/>
+      <c r="D1240" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1240" s="1"/>
+      <c r="G1240" s="22"/>
     </row>
     <row r="1241" spans="1:7">
       <c r="A1241" s="7">
@@ -19828,7 +19834,11 @@
       <c r="C1241" s="6">
         <v>6</v>
       </c>
-      <c r="D1241" s="2"/>
+      <c r="D1241" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1241" s="1"/>
+      <c r="G1241" s="22"/>
     </row>
     <row r="1242" spans="1:7">
       <c r="A1242" s="7">
@@ -19840,7 +19850,11 @@
       <c r="C1242" s="6">
         <v>2</v>
       </c>
-      <c r="D1242" s="2"/>
+      <c r="D1242" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1242" s="1"/>
+      <c r="G1242" s="22"/>
     </row>
     <row r="1243" spans="1:7">
       <c r="A1243" s="7">
@@ -19852,7 +19866,11 @@
       <c r="C1243" s="6">
         <v>2</v>
       </c>
-      <c r="D1243" s="2"/>
+      <c r="D1243" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1243" s="1"/>
+      <c r="G1243" s="22"/>
     </row>
     <row r="1244" spans="1:7">
       <c r="A1244" s="7">
@@ -19864,7 +19882,11 @@
       <c r="C1244" s="6">
         <v>2</v>
       </c>
-      <c r="D1244" s="2"/>
+      <c r="D1244" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1244" s="1"/>
+      <c r="G1244" s="22"/>
     </row>
     <row r="1245" spans="1:7">
       <c r="A1245" s="7">
@@ -19876,7 +19898,117 @@
       <c r="C1245" s="6">
         <v>2</v>
       </c>
-      <c r="D1245" s="2"/>
+      <c r="D1245" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1245" s="1"/>
+      <c r="G1245" s="22"/>
+    </row>
+    <row r="1246" spans="1:7">
+      <c r="A1246" s="7">
+        <v>46071</v>
+      </c>
+      <c r="B1246" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1246" s="6">
+        <v>5</v>
+      </c>
+      <c r="D1246" s="2"/>
+    </row>
+    <row r="1247" spans="1:7">
+      <c r="A1247" s="7">
+        <v>46071</v>
+      </c>
+      <c r="B1247" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1247" s="6">
+        <v>5</v>
+      </c>
+      <c r="D1247" s="2"/>
+    </row>
+    <row r="1248" spans="1:7">
+      <c r="A1248" s="7">
+        <v>46071</v>
+      </c>
+      <c r="B1248" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1248" s="6">
+        <v>9</v>
+      </c>
+      <c r="D1248" s="2"/>
+    </row>
+    <row r="1249" spans="1:4">
+      <c r="A1249" s="7">
+        <v>46071</v>
+      </c>
+      <c r="B1249" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1249" s="6">
+        <v>9</v>
+      </c>
+      <c r="D1249" s="2"/>
+    </row>
+    <row r="1250" spans="1:4">
+      <c r="A1250" s="7">
+        <v>46071</v>
+      </c>
+      <c r="B1250" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1250" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1250" s="2"/>
+    </row>
+    <row r="1251" spans="1:4">
+      <c r="A1251" s="7">
+        <v>46071</v>
+      </c>
+      <c r="B1251" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1251" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1251" s="2"/>
+    </row>
+    <row r="1252" spans="1:4">
+      <c r="A1252" s="7">
+        <v>46071</v>
+      </c>
+      <c r="B1252" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1252" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1252" s="2"/>
+    </row>
+    <row r="1253" spans="1:4">
+      <c r="A1253" s="7">
+        <v>46071</v>
+      </c>
+      <c r="B1253" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1253" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1253" s="2"/>
+    </row>
+    <row r="1254" spans="1:4">
+      <c r="A1254" s="2"/>
+      <c r="B1254" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1254" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1254" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="25">
   <si>
     <t>Data</t>
   </si>
@@ -812,11 +812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1254"/>
+  <dimension ref="A1:U1264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1245" sqref="D1245"/>
+      <pane ySplit="1" topLeftCell="A1232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1254" sqref="G1254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19914,7 +19914,9 @@
       <c r="C1246" s="6">
         <v>5</v>
       </c>
-      <c r="D1246" s="2"/>
+      <c r="D1246" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="1247" spans="1:7">
       <c r="A1247" s="7">
@@ -19926,7 +19928,11 @@
       <c r="C1247" s="6">
         <v>5</v>
       </c>
-      <c r="D1247" s="2"/>
+      <c r="D1247" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1247" s="1"/>
+      <c r="G1247" s="22"/>
     </row>
     <row r="1248" spans="1:7">
       <c r="A1248" s="7">
@@ -19938,9 +19944,13 @@
       <c r="C1248" s="6">
         <v>9</v>
       </c>
-      <c r="D1248" s="2"/>
-    </row>
-    <row r="1249" spans="1:4">
+      <c r="D1248" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1248" s="1"/>
+      <c r="G1248" s="22"/>
+    </row>
+    <row r="1249" spans="1:7">
       <c r="A1249" s="7">
         <v>46071</v>
       </c>
@@ -19950,9 +19960,13 @@
       <c r="C1249" s="6">
         <v>9</v>
       </c>
-      <c r="D1249" s="2"/>
-    </row>
-    <row r="1250" spans="1:4">
+      <c r="D1249" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1249" s="1"/>
+      <c r="G1249" s="22"/>
+    </row>
+    <row r="1250" spans="1:7">
       <c r="A1250" s="7">
         <v>46071</v>
       </c>
@@ -19962,9 +19976,13 @@
       <c r="C1250" s="6">
         <v>2</v>
       </c>
-      <c r="D1250" s="2"/>
-    </row>
-    <row r="1251" spans="1:4">
+      <c r="D1250" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1250" s="1"/>
+      <c r="G1250" s="22"/>
+    </row>
+    <row r="1251" spans="1:7">
       <c r="A1251" s="7">
         <v>46071</v>
       </c>
@@ -19974,9 +19992,13 @@
       <c r="C1251" s="6">
         <v>2</v>
       </c>
-      <c r="D1251" s="2"/>
-    </row>
-    <row r="1252" spans="1:4">
+      <c r="D1251" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1251" s="1"/>
+      <c r="G1251" s="22"/>
+    </row>
+    <row r="1252" spans="1:7">
       <c r="A1252" s="7">
         <v>46071</v>
       </c>
@@ -19986,9 +20008,13 @@
       <c r="C1252" s="6">
         <v>3</v>
       </c>
-      <c r="D1252" s="2"/>
-    </row>
-    <row r="1253" spans="1:4">
+      <c r="D1252" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1252" s="1"/>
+      <c r="G1252" s="22"/>
+    </row>
+    <row r="1253" spans="1:7">
       <c r="A1253" s="7">
         <v>46071</v>
       </c>
@@ -19998,17 +20024,145 @@
       <c r="C1253" s="2">
         <v>3</v>
       </c>
-      <c r="D1253" s="2"/>
-    </row>
-    <row r="1254" spans="1:4">
-      <c r="A1254" s="2"/>
+      <c r="D1253" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1253" s="1"/>
+      <c r="G1253" s="22"/>
+    </row>
+    <row r="1254" spans="1:7">
+      <c r="A1254" s="7">
+        <v>46071</v>
+      </c>
       <c r="B1254" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1254" s="2">
         <v>8</v>
       </c>
-      <c r="D1254" s="2"/>
+      <c r="D1254" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:7">
+      <c r="A1255" s="7">
+        <v>46072</v>
+      </c>
+      <c r="B1255" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1255" s="6">
+        <v>14</v>
+      </c>
+      <c r="D1255" s="2"/>
+    </row>
+    <row r="1256" spans="1:7">
+      <c r="A1256" s="7">
+        <v>46072</v>
+      </c>
+      <c r="B1256" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1256" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1256" s="2"/>
+    </row>
+    <row r="1257" spans="1:7">
+      <c r="A1257" s="7">
+        <v>46072</v>
+      </c>
+      <c r="B1257" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1257" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1257" s="2"/>
+    </row>
+    <row r="1258" spans="1:7">
+      <c r="A1258" s="7">
+        <v>46072</v>
+      </c>
+      <c r="B1258" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1258" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1258" s="2"/>
+    </row>
+    <row r="1259" spans="1:7">
+      <c r="A1259" s="7">
+        <v>46072</v>
+      </c>
+      <c r="B1259" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1259" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1259" s="2"/>
+    </row>
+    <row r="1260" spans="1:7">
+      <c r="A1260" s="7">
+        <v>46072</v>
+      </c>
+      <c r="B1260" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1260" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1260" s="2"/>
+    </row>
+    <row r="1261" spans="1:7">
+      <c r="A1261" s="7">
+        <v>46072</v>
+      </c>
+      <c r="B1261" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1261" s="2">
+        <v>7</v>
+      </c>
+      <c r="D1261" s="2"/>
+    </row>
+    <row r="1262" spans="1:7">
+      <c r="A1262" s="7">
+        <v>46072</v>
+      </c>
+      <c r="B1262" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1262" s="2">
+        <v>7</v>
+      </c>
+      <c r="D1262" s="2"/>
+    </row>
+    <row r="1263" spans="1:7">
+      <c r="A1263" s="7">
+        <v>46072</v>
+      </c>
+      <c r="B1263" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1263" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1263" s="2"/>
+    </row>
+    <row r="1264" spans="1:7">
+      <c r="A1264" s="7">
+        <v>46072</v>
+      </c>
+      <c r="B1264" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1264" s="2">
+        <v>7</v>
+      </c>
+      <c r="D1264" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/giacenza.xlsx
+++ b/giacenza.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="25">
   <si>
     <t>Data</t>
   </si>
@@ -812,11 +812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1264"/>
+  <dimension ref="A1:U1271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1254" sqref="G1254"/>
+      <pane ySplit="1" topLeftCell="A1238" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1247" sqref="C1247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -825,7 +825,7 @@
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
     <col min="7" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -20054,7 +20054,9 @@
       <c r="C1255" s="6">
         <v>14</v>
       </c>
-      <c r="D1255" s="2"/>
+      <c r="D1255" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="1256" spans="1:7">
       <c r="A1256" s="7">
@@ -20066,7 +20068,9 @@
       <c r="C1256" s="6">
         <v>1</v>
       </c>
-      <c r="D1256" s="2"/>
+      <c r="D1256" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="1257" spans="1:7">
       <c r="A1257" s="7">
@@ -20078,7 +20082,11 @@
       <c r="C1257" s="6">
         <v>1</v>
       </c>
-      <c r="D1257" s="2"/>
+      <c r="D1257" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1257" s="1"/>
+      <c r="G1257" s="22"/>
     </row>
     <row r="1258" spans="1:7">
       <c r="A1258" s="7">
@@ -20090,7 +20098,11 @@
       <c r="C1258" s="2">
         <v>1</v>
       </c>
-      <c r="D1258" s="2"/>
+      <c r="D1258" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1258" s="1"/>
+      <c r="G1258" s="22"/>
     </row>
     <row r="1259" spans="1:7">
       <c r="A1259" s="7">
@@ -20102,7 +20114,11 @@
       <c r="C1259" s="2">
         <v>5</v>
       </c>
-      <c r="D1259" s="2"/>
+      <c r="D1259" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1259" s="1"/>
+      <c r="G1259" s="22"/>
     </row>
     <row r="1260" spans="1:7">
       <c r="A1260" s="7">
@@ -20114,7 +20130,11 @@
       <c r="C1260" s="2">
         <v>5</v>
       </c>
-      <c r="D1260" s="2"/>
+      <c r="D1260" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1260" s="1"/>
+      <c r="G1260" s="22"/>
     </row>
     <row r="1261" spans="1:7">
       <c r="A1261" s="7">
@@ -20126,7 +20146,11 @@
       <c r="C1261" s="2">
         <v>7</v>
       </c>
-      <c r="D1261" s="2"/>
+      <c r="D1261" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1261" s="1"/>
+      <c r="G1261" s="22"/>
     </row>
     <row r="1262" spans="1:7">
       <c r="A1262" s="7">
@@ -20138,7 +20162,11 @@
       <c r="C1262" s="2">
         <v>7</v>
       </c>
-      <c r="D1262" s="2"/>
+      <c r="D1262" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1262" s="1"/>
+      <c r="G1262" s="22"/>
     </row>
     <row r="1263" spans="1:7">
       <c r="A1263" s="7">
@@ -20150,7 +20178,9 @@
       <c r="C1263" s="2">
         <v>4</v>
       </c>
-      <c r="D1263" s="2"/>
+      <c r="D1263" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="1264" spans="1:7">
       <c r="A1264" s="7">
@@ -20162,7 +20192,93 @@
       <c r="C1264" s="2">
         <v>7</v>
       </c>
-      <c r="D1264" s="2"/>
+      <c r="D1264" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4">
+      <c r="A1265" s="7">
+        <v>46073</v>
+      </c>
+      <c r="B1265" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1265" s="6">
+        <v>8</v>
+      </c>
+      <c r="D1265" s="2"/>
+    </row>
+    <row r="1266" spans="1:4">
+      <c r="A1266" s="7">
+        <v>46073</v>
+      </c>
+      <c r="B1266" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1266" s="6">
+        <v>8</v>
+      </c>
+      <c r="D1266" s="2"/>
+    </row>
+    <row r="1267" spans="1:4">
+      <c r="A1267" s="7">
+        <v>46073</v>
+      </c>
+      <c r="B1267" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1267" s="6">
+        <v>7</v>
+      </c>
+      <c r="D1267" s="2"/>
+    </row>
+    <row r="1268" spans="1:4">
+      <c r="A1268" s="7">
+        <v>46073</v>
+      </c>
+      <c r="B1268" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1268" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1268" s="2"/>
+    </row>
+    <row r="1269" spans="1:4">
+      <c r="A1269" s="7">
+        <v>46073</v>
+      </c>
+      <c r="B1269" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1269" s="6">
+        <v>9</v>
+      </c>
+      <c r="D1269" s="2"/>
+    </row>
+    <row r="1270" spans="1:4">
+      <c r="A1270" s="7">
+        <v>46073</v>
+      </c>
+      <c r="B1270" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1270" s="6">
+        <v>8</v>
+      </c>
+      <c r="D1270" s="2"/>
+    </row>
+    <row r="1271" spans="1:4">
+      <c r="A1271" s="7">
+        <v>46073</v>
+      </c>
+      <c r="B1271" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1271" s="6">
+        <v>4</v>
+      </c>
+      <c r="D1271" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>
